--- a/docs/PPG/Bolsas.xlsx
+++ b/docs/PPG/Bolsas.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10611"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10713"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/asferreira/Google Drive (cienciasdareabilitacao@souunisuam.com.br)/ObservatorioCR/PPG/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{624CCB65-643F-8544-846D-1FCCDA3AFEB8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7B8BB288-EC11-2245-A652-D62DBC57C484}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="860" yWindow="500" windowWidth="27940" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -809,6 +809,11 @@
     <xf numFmtId="49" fontId="2" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="2"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="2" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -827,11 +832,6 @@
     <xf numFmtId="0" fontId="6" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="2"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="2" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Hiperlink" xfId="2" builtinId="8"/>
@@ -1496,22 +1496,22 @@
     </row>
     <row r="2" spans="1:20" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="1"/>
-      <c r="B2" s="57" t="s">
+      <c r="B2" s="62" t="s">
         <v>38</v>
       </c>
-      <c r="C2" s="57"/>
-      <c r="D2" s="57"/>
-      <c r="E2" s="57"/>
-      <c r="F2" s="57"/>
-      <c r="G2" s="57"/>
-      <c r="H2" s="57"/>
-      <c r="I2" s="57"/>
-      <c r="J2" s="57"/>
-      <c r="K2" s="57"/>
-      <c r="L2" s="57"/>
-      <c r="M2" s="57"/>
-      <c r="N2" s="57"/>
-      <c r="O2" s="57"/>
+      <c r="C2" s="62"/>
+      <c r="D2" s="62"/>
+      <c r="E2" s="62"/>
+      <c r="F2" s="62"/>
+      <c r="G2" s="62"/>
+      <c r="H2" s="62"/>
+      <c r="I2" s="62"/>
+      <c r="J2" s="62"/>
+      <c r="K2" s="62"/>
+      <c r="L2" s="62"/>
+      <c r="M2" s="62"/>
+      <c r="N2" s="62"/>
+      <c r="O2" s="62"/>
       <c r="P2" s="36"/>
       <c r="Q2" s="36"/>
       <c r="R2" s="36"/>
@@ -1520,42 +1520,42 @@
     </row>
     <row r="3" spans="1:20" s="19" customFormat="1" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="18"/>
-      <c r="B3" s="58" t="s">
+      <c r="B3" s="63" t="s">
         <v>35</v>
       </c>
-      <c r="C3" s="58"/>
+      <c r="C3" s="63"/>
       <c r="D3" s="24" t="s">
         <v>41</v>
       </c>
-      <c r="E3" s="62" t="s">
+      <c r="E3" s="67" t="s">
         <v>44</v>
       </c>
-      <c r="F3" s="62"/>
-      <c r="G3" s="62"/>
-      <c r="H3" s="60" t="s">
+      <c r="F3" s="67"/>
+      <c r="G3" s="67"/>
+      <c r="H3" s="65" t="s">
         <v>45</v>
       </c>
-      <c r="I3" s="60"/>
-      <c r="J3" s="60"/>
-      <c r="K3" s="60"/>
-      <c r="L3" s="60" t="s">
+      <c r="I3" s="65"/>
+      <c r="J3" s="65"/>
+      <c r="K3" s="65"/>
+      <c r="L3" s="65" t="s">
         <v>46</v>
       </c>
-      <c r="M3" s="60"/>
-      <c r="N3" s="60"/>
-      <c r="O3" s="60"/>
-      <c r="P3" s="60" t="s">
+      <c r="M3" s="65"/>
+      <c r="N3" s="65"/>
+      <c r="O3" s="65"/>
+      <c r="P3" s="65" t="s">
         <v>66</v>
       </c>
-      <c r="Q3" s="60"/>
-      <c r="R3" s="60"/>
-      <c r="S3" s="60"/>
+      <c r="Q3" s="65"/>
+      <c r="R3" s="65"/>
+      <c r="S3" s="65"/>
       <c r="T3" s="18"/>
     </row>
     <row r="4" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A4" s="1"/>
-      <c r="B4" s="59"/>
-      <c r="C4" s="59"/>
+      <c r="B4" s="64"/>
+      <c r="C4" s="64"/>
       <c r="D4" s="28"/>
       <c r="E4" s="27">
         <v>2010</v>
@@ -3072,12 +3072,12 @@
     </row>
     <row r="20" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A20" s="1"/>
-      <c r="B20" s="61" t="s">
+      <c r="B20" s="66" t="s">
         <v>39</v>
       </c>
-      <c r="C20" s="61"/>
-      <c r="D20" s="61"/>
-      <c r="E20" s="61"/>
+      <c r="C20" s="66"/>
+      <c r="D20" s="66"/>
+      <c r="E20" s="66"/>
       <c r="F20" s="1"/>
       <c r="G20" s="1"/>
       <c r="H20" s="1"/>
@@ -6412,53 +6412,53 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="10.1640625" style="63" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="43" style="63" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="77.5" style="63" bestFit="1" customWidth="1"/>
-    <col min="4" max="16384" width="10.83203125" style="63"/>
+    <col min="1" max="1" width="10.1640625" style="57" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="43" style="57" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="77.5" style="57" bestFit="1" customWidth="1"/>
+    <col min="4" max="16384" width="10.83203125" style="57"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A1" s="67" t="s">
+      <c r="A1" s="61" t="s">
         <v>133</v>
       </c>
-      <c r="B1" s="66" t="s">
+      <c r="B1" s="60" t="s">
         <v>132</v>
       </c>
-      <c r="C1" s="66" t="s">
+      <c r="C1" s="60" t="s">
         <v>131</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A2" s="63">
+      <c r="A2" s="57">
         <v>2021</v>
       </c>
-      <c r="B2" s="63" t="s">
+      <c r="B2" s="57" t="s">
         <v>130</v>
       </c>
-      <c r="C2" s="65" t="s">
+      <c r="C2" s="59" t="s">
         <v>129</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A3" s="63">
+      <c r="A3" s="57">
         <v>2018</v>
       </c>
-      <c r="B3" s="63" t="s">
+      <c r="B3" s="57" t="s">
         <v>128</v>
       </c>
-      <c r="C3" s="64" t="s">
+      <c r="C3" s="58" t="s">
         <v>127</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A4" s="63">
+      <c r="A4" s="57">
         <v>2013</v>
       </c>
-      <c r="B4" s="63" t="s">
+      <c r="B4" s="57" t="s">
         <v>126</v>
       </c>
-      <c r="C4" s="64" t="s">
+      <c r="C4" s="58" t="s">
         <v>125</v>
       </c>
     </row>

--- a/docs/PPG/Bolsas.xlsx
+++ b/docs/PPG/Bolsas.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10713"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10814"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/asferreira/Google Drive (cienciasdareabilitacao@souunisuam.com.br)/ObservatorioCR/PPG/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7B8BB288-EC11-2245-A652-D62DBC57C484}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0B91FE7D-2FD3-6B46-9324-D9CC03218960}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="860" yWindow="500" windowWidth="27940" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -57,7 +57,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="397" uniqueCount="134">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="407" uniqueCount="139">
   <si>
     <t xml:space="preserve">Aluno </t>
   </si>
@@ -459,6 +459,21 @@
   </si>
   <si>
     <t>Publicação</t>
+  </si>
+  <si>
+    <t>Eduardo Santos da Costa Moreira</t>
+  </si>
+  <si>
+    <t>Julio Cesar de Oliveira Muniz Cunha</t>
+  </si>
+  <si>
+    <t>Luiza Ferreira Moreira</t>
+  </si>
+  <si>
+    <t>Pedro Teixeira Vidinha Rodrigues</t>
+  </si>
+  <si>
+    <t>Ygor Teixeira da Silva</t>
   </si>
 </sst>
 </file>
@@ -641,7 +656,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="68">
+  <cellXfs count="70">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -831,6 +846,12 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="2" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -1167,7 +1188,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{27E2E55A-0A25-1543-A516-910FBFD04578}" name="Tabela1" displayName="Tabela1" ref="A1:I107" totalsRowShown="0" headerRowDxfId="12" dataDxfId="10" headerRowBorderDxfId="11" tableBorderDxfId="9">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{27E2E55A-0A25-1543-A516-910FBFD04578}" name="Tabela1" displayName="Tabela1" ref="A1:I112" totalsRowShown="0" headerRowDxfId="12" dataDxfId="10" headerRowBorderDxfId="11" tableBorderDxfId="9">
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:H107">
     <sortCondition ref="D2:D107"/>
   </sortState>
@@ -1663,15 +1684,15 @@
       </c>
       <c r="Q5" s="44">
         <f t="shared" si="0"/>
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="R5" s="44">
         <f t="shared" si="0"/>
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="S5" s="44">
         <f t="shared" si="0"/>
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="T5" s="1"/>
     </row>
@@ -1773,21 +1794,21 @@
 Bolsistas!$A:$A,$B6,
 Bolsistas!$G:$G,"&lt;="&amp;Q$4,
 Bolsistas!$H:$H,"&gt;="&amp;Q$4)</f>
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="R6" s="13">
         <f>COUNTIFS(
 Bolsistas!$A:$A,$B6,
 Bolsistas!$G:$G,"&lt;="&amp;R$4,
 Bolsistas!$H:$H,"&gt;="&amp;R$4)</f>
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="S6" s="13">
         <f>COUNTIFS(
 Bolsistas!$A:$A,$B6,
 Bolsistas!$G:$G,"&lt;="&amp;S$4,
 Bolsistas!$H:$H,"&gt;="&amp;S$4)</f>
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="T6" s="1"/>
     </row>
@@ -1889,21 +1910,21 @@
 Bolsistas!$A:$A,$B7,
 Bolsistas!$G:$G,"&lt;="&amp;Q$4,
 Bolsistas!$H:$H,"&gt;="&amp;Q$4)</f>
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="R7" s="13">
         <f>COUNTIFS(
 Bolsistas!$A:$A,$B7,
 Bolsistas!$G:$G,"&lt;="&amp;R$4,
 Bolsistas!$H:$H,"&gt;="&amp;R$4)</f>
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="S7" s="13">
         <f>COUNTIFS(
 Bolsistas!$A:$A,$B7,
 Bolsistas!$G:$G,"&lt;="&amp;S$4,
 Bolsistas!$H:$H,"&gt;="&amp;S$4)</f>
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="T7" s="1"/>
     </row>
@@ -2031,7 +2052,7 @@
       <c r="C9" s="20"/>
       <c r="D9" s="20">
         <f>SUM(D10:D12)</f>
-        <v>106</v>
+        <v>111</v>
       </c>
       <c r="E9" s="13">
         <f>SUM(E10:E12)</f>
@@ -2083,15 +2104,15 @@
       </c>
       <c r="Q9" s="13">
         <f t="shared" si="1"/>
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="R9" s="13">
         <f t="shared" si="1"/>
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="S9" s="13">
         <f t="shared" si="1"/>
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="T9" s="1"/>
     </row>
@@ -2104,7 +2125,7 @@
       <c r="D10" s="20">
         <f>COUNTIFS(
 Bolsistas!$A:$A,$B10)</f>
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="E10" s="13">
         <f>COUNTIFS(
@@ -2195,21 +2216,21 @@
 Bolsistas!$A:$A,$B10,
 Bolsistas!$G:$G,"&lt;="&amp;Q$4,
 Bolsistas!$H:$H,"&gt;="&amp;Q$4)</f>
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="R10" s="13">
         <f>COUNTIFS(
 Bolsistas!$A:$A,$B10,
 Bolsistas!$G:$G,"&lt;="&amp;R$4,
 Bolsistas!$H:$H,"&gt;="&amp;R$4)</f>
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="S10" s="13">
         <f>COUNTIFS(
 Bolsistas!$A:$A,$B10,
 Bolsistas!$G:$G,"&lt;="&amp;S$4,
 Bolsistas!$H:$H,"&gt;="&amp;S$4)</f>
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="T10" s="1"/>
     </row>
@@ -2222,7 +2243,7 @@
       <c r="D11" s="20">
         <f>COUNTIFS(
 Bolsistas!$A:$A,$B11)</f>
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="E11" s="13">
         <f>COUNTIFS(
@@ -2313,21 +2334,21 @@
 Bolsistas!$A:$A,$B11,
 Bolsistas!$G:$G,"&lt;="&amp;Q$4,
 Bolsistas!$H:$H,"&gt;="&amp;Q$4)</f>
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="R11" s="13">
         <f>COUNTIFS(
 Bolsistas!$A:$A,$B11,
 Bolsistas!$G:$G,"&lt;="&amp;R$4,
 Bolsistas!$H:$H,"&gt;="&amp;R$4)</f>
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="S11" s="13">
         <f>COUNTIFS(
 Bolsistas!$A:$A,$B11,
 Bolsistas!$G:$G,"&lt;="&amp;S$4,
 Bolsistas!$H:$H,"&gt;="&amp;S$4)</f>
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="T11" s="1"/>
     </row>
@@ -3133,7 +3154,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I107"/>
+  <dimension ref="A1:I112"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" zoomScaleSheetLayoutView="70" workbookViewId="0">
       <pane xSplit="3" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozen"/>
@@ -6394,6 +6415,141 @@
         <v>2025</v>
       </c>
       <c r="I107" s="11"/>
+    </row>
+    <row r="108" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A108" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="B108" s="9" t="s">
+        <v>134</v>
+      </c>
+      <c r="C108" s="49">
+        <v>44805</v>
+      </c>
+      <c r="D108" s="49">
+        <v>45535</v>
+      </c>
+      <c r="F108" s="31">
+        <f>ROUNDUP((Tabela1[[#This Row],[Fim da Bolsa ]]-Tabela1[[#This Row],[Início da Bolsa]])/365*12,0)</f>
+        <v>24</v>
+      </c>
+      <c r="G108" s="31">
+        <f>YEAR(Tabela1[[#This Row],[Início da Bolsa]])</f>
+        <v>2022</v>
+      </c>
+      <c r="H108" s="31">
+        <f>YEAR(Tabela1[[#This Row],[Fim da Bolsa ]])</f>
+        <v>2024</v>
+      </c>
+      <c r="I108" s="11"/>
+    </row>
+    <row r="109" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A109" s="68" t="s">
+        <v>33</v>
+      </c>
+      <c r="B109" s="9" t="s">
+        <v>135</v>
+      </c>
+      <c r="C109" s="32">
+        <v>44774</v>
+      </c>
+      <c r="D109" s="32">
+        <v>46234</v>
+      </c>
+      <c r="F109" s="31">
+        <f>ROUNDUP((Tabela1[[#This Row],[Fim da Bolsa ]]-Tabela1[[#This Row],[Início da Bolsa]])/365*12,0)</f>
+        <v>48</v>
+      </c>
+      <c r="G109" s="31">
+        <f>YEAR(Tabela1[[#This Row],[Início da Bolsa]])</f>
+        <v>2022</v>
+      </c>
+      <c r="H109" s="69">
+        <f>YEAR(Tabela1[[#This Row],[Fim da Bolsa ]])</f>
+        <v>2026</v>
+      </c>
+      <c r="I109" s="11"/>
+    </row>
+    <row r="110" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A110" s="68" t="s">
+        <v>33</v>
+      </c>
+      <c r="B110" s="9" t="s">
+        <v>136</v>
+      </c>
+      <c r="C110" s="32">
+        <v>44774</v>
+      </c>
+      <c r="D110" s="32">
+        <v>46234</v>
+      </c>
+      <c r="F110" s="31">
+        <f>ROUNDUP((Tabela1[[#This Row],[Fim da Bolsa ]]-Tabela1[[#This Row],[Início da Bolsa]])/365*12,0)</f>
+        <v>48</v>
+      </c>
+      <c r="G110" s="31">
+        <f>YEAR(Tabela1[[#This Row],[Início da Bolsa]])</f>
+        <v>2022</v>
+      </c>
+      <c r="H110" s="69">
+        <f>YEAR(Tabela1[[#This Row],[Fim da Bolsa ]])</f>
+        <v>2026</v>
+      </c>
+      <c r="I110" s="11"/>
+    </row>
+    <row r="111" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A111" s="68" t="s">
+        <v>33</v>
+      </c>
+      <c r="B111" s="9" t="s">
+        <v>137</v>
+      </c>
+      <c r="C111" s="32">
+        <v>44774</v>
+      </c>
+      <c r="D111" s="32">
+        <v>46234</v>
+      </c>
+      <c r="F111" s="31">
+        <f>ROUNDUP((Tabela1[[#This Row],[Fim da Bolsa ]]-Tabela1[[#This Row],[Início da Bolsa]])/365*12,0)</f>
+        <v>48</v>
+      </c>
+      <c r="G111" s="31">
+        <f>YEAR(Tabela1[[#This Row],[Início da Bolsa]])</f>
+        <v>2022</v>
+      </c>
+      <c r="H111" s="69">
+        <f>YEAR(Tabela1[[#This Row],[Fim da Bolsa ]])</f>
+        <v>2026</v>
+      </c>
+      <c r="I111" s="11"/>
+    </row>
+    <row r="112" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A112" s="68" t="s">
+        <v>33</v>
+      </c>
+      <c r="B112" s="9" t="s">
+        <v>138</v>
+      </c>
+      <c r="C112" s="32">
+        <v>44774</v>
+      </c>
+      <c r="D112" s="32">
+        <v>46234</v>
+      </c>
+      <c r="F112" s="31">
+        <f>ROUNDUP((Tabela1[[#This Row],[Fim da Bolsa ]]-Tabela1[[#This Row],[Início da Bolsa]])/365*12,0)</f>
+        <v>48</v>
+      </c>
+      <c r="G112" s="31">
+        <f>YEAR(Tabela1[[#This Row],[Início da Bolsa]])</f>
+        <v>2022</v>
+      </c>
+      <c r="H112" s="69">
+        <f>YEAR(Tabela1[[#This Row],[Fim da Bolsa ]])</f>
+        <v>2026</v>
+      </c>
+      <c r="I112" s="11"/>
     </row>
   </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>

--- a/docs/PPG/Bolsas.xlsx
+++ b/docs/PPG/Bolsas.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/asferreira/Google Drive (cienciasdareabilitacao@souunisuam.com.br)/ObservatorioCR/PPG/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0B91FE7D-2FD3-6B46-9324-D9CC03218960}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D573B3F1-A485-F14F-B1DA-86E09A9A40D4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="860" yWindow="500" windowWidth="27940" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="860" yWindow="500" windowWidth="27940" windowHeight="17500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="stats" sheetId="8" r:id="rId1"/>
@@ -57,7 +57,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="407" uniqueCount="139">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="409" uniqueCount="139">
   <si>
     <t xml:space="preserve">Aluno </t>
   </si>
@@ -547,7 +547,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="7">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -581,6 +581,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFC000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -656,7 +662,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="70">
+  <cellXfs count="61">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -676,34 +682,28 @@
     <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -715,13 +715,7 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -739,48 +733,33 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="1" fontId="2" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="2" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="49" fontId="2" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="2" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="3" fillId="4" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="2" fillId="4" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -791,37 +770,37 @@
     <xf numFmtId="49" fontId="3" fillId="4" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="2" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="2" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="2" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="2" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="3" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="2" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="2" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="2" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="2" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="2" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="3" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="2" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
@@ -829,7 +808,7 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="2" applyAlignment="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="49" fontId="7" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -841,16 +820,16 @@
     <xf numFmtId="0" fontId="6" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="2" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="2" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1188,9 +1167,9 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{27E2E55A-0A25-1543-A516-910FBFD04578}" name="Tabela1" displayName="Tabela1" ref="A1:I112" totalsRowShown="0" headerRowDxfId="12" dataDxfId="10" headerRowBorderDxfId="11" tableBorderDxfId="9">
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:H107">
-    <sortCondition ref="D2:D107"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{27E2E55A-0A25-1543-A516-910FBFD04578}" name="Tabela1" displayName="Tabela1" ref="A1:I113" totalsRowShown="0" headerRowDxfId="12" dataDxfId="10" headerRowBorderDxfId="11" tableBorderDxfId="9">
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:H108">
+    <sortCondition ref="D2:D108"/>
   </sortState>
   <tableColumns count="9">
     <tableColumn id="1" xr3:uid="{B66488D1-1DF5-1E4C-82EB-0389795C2E05}" name="Curso" dataDxfId="8"/>
@@ -1478,14 +1457,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E6B50168-E3BA-8E48-82C0-0FE954EB8749}">
   <dimension ref="A1:T21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="3.33203125" style="3" customWidth="1"/>
-    <col min="2" max="2" width="20" style="14" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="20" style="12" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="2.6640625" style="5" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.83203125" style="14" customWidth="1"/>
+    <col min="4" max="4" width="14.83203125" style="12" customWidth="1"/>
     <col min="5" max="19" width="11.6640625" style="3" customWidth="1"/>
     <col min="20" max="20" width="4.33203125" style="3" customWidth="1"/>
     <col min="21" max="16384" width="10.83203125" style="3"/>
@@ -1517,180 +1496,180 @@
     </row>
     <row r="2" spans="1:20" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="1"/>
-      <c r="B2" s="62" t="s">
+      <c r="B2" s="53" t="s">
         <v>38</v>
       </c>
-      <c r="C2" s="62"/>
-      <c r="D2" s="62"/>
-      <c r="E2" s="62"/>
-      <c r="F2" s="62"/>
-      <c r="G2" s="62"/>
-      <c r="H2" s="62"/>
-      <c r="I2" s="62"/>
-      <c r="J2" s="62"/>
-      <c r="K2" s="62"/>
-      <c r="L2" s="62"/>
-      <c r="M2" s="62"/>
-      <c r="N2" s="62"/>
-      <c r="O2" s="62"/>
-      <c r="P2" s="36"/>
-      <c r="Q2" s="36"/>
-      <c r="R2" s="36"/>
-      <c r="S2" s="36"/>
+      <c r="C2" s="53"/>
+      <c r="D2" s="53"/>
+      <c r="E2" s="53"/>
+      <c r="F2" s="53"/>
+      <c r="G2" s="53"/>
+      <c r="H2" s="53"/>
+      <c r="I2" s="53"/>
+      <c r="J2" s="53"/>
+      <c r="K2" s="53"/>
+      <c r="L2" s="53"/>
+      <c r="M2" s="53"/>
+      <c r="N2" s="53"/>
+      <c r="O2" s="53"/>
+      <c r="P2" s="31"/>
+      <c r="Q2" s="31"/>
+      <c r="R2" s="31"/>
+      <c r="S2" s="31"/>
       <c r="T2" s="1"/>
     </row>
-    <row r="3" spans="1:20" s="19" customFormat="1" ht="19" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="18"/>
-      <c r="B3" s="63" t="s">
+    <row r="3" spans="1:20" s="17" customFormat="1" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="16"/>
+      <c r="B3" s="54" t="s">
         <v>35</v>
       </c>
-      <c r="C3" s="63"/>
-      <c r="D3" s="24" t="s">
+      <c r="C3" s="54"/>
+      <c r="D3" s="20" t="s">
         <v>41</v>
       </c>
-      <c r="E3" s="67" t="s">
+      <c r="E3" s="58" t="s">
         <v>44</v>
       </c>
-      <c r="F3" s="67"/>
-      <c r="G3" s="67"/>
-      <c r="H3" s="65" t="s">
+      <c r="F3" s="58"/>
+      <c r="G3" s="58"/>
+      <c r="H3" s="56" t="s">
         <v>45</v>
       </c>
-      <c r="I3" s="65"/>
-      <c r="J3" s="65"/>
-      <c r="K3" s="65"/>
-      <c r="L3" s="65" t="s">
+      <c r="I3" s="56"/>
+      <c r="J3" s="56"/>
+      <c r="K3" s="56"/>
+      <c r="L3" s="56" t="s">
         <v>46</v>
       </c>
-      <c r="M3" s="65"/>
-      <c r="N3" s="65"/>
-      <c r="O3" s="65"/>
-      <c r="P3" s="65" t="s">
+      <c r="M3" s="56"/>
+      <c r="N3" s="56"/>
+      <c r="O3" s="56"/>
+      <c r="P3" s="56" t="s">
         <v>66</v>
       </c>
-      <c r="Q3" s="65"/>
-      <c r="R3" s="65"/>
-      <c r="S3" s="65"/>
-      <c r="T3" s="18"/>
+      <c r="Q3" s="56"/>
+      <c r="R3" s="56"/>
+      <c r="S3" s="56"/>
+      <c r="T3" s="16"/>
     </row>
     <row r="4" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A4" s="1"/>
-      <c r="B4" s="64"/>
-      <c r="C4" s="64"/>
-      <c r="D4" s="28"/>
-      <c r="E4" s="27">
+      <c r="B4" s="55"/>
+      <c r="C4" s="55"/>
+      <c r="D4" s="23"/>
+      <c r="E4" s="23">
         <v>2010</v>
       </c>
-      <c r="F4" s="27">
+      <c r="F4" s="23">
         <v>2011</v>
       </c>
-      <c r="G4" s="27">
+      <c r="G4" s="23">
         <v>2012</v>
       </c>
-      <c r="H4" s="27">
+      <c r="H4" s="23">
         <v>2013</v>
       </c>
-      <c r="I4" s="27">
+      <c r="I4" s="23">
         <v>2014</v>
       </c>
-      <c r="J4" s="27" t="s">
+      <c r="J4" s="23" t="s">
         <v>96</v>
       </c>
-      <c r="K4" s="27">
+      <c r="K4" s="23">
         <v>2016</v>
       </c>
-      <c r="L4" s="27">
+      <c r="L4" s="23">
         <v>2017</v>
       </c>
-      <c r="M4" s="27">
+      <c r="M4" s="23">
         <v>2018</v>
       </c>
-      <c r="N4" s="27">
+      <c r="N4" s="23">
         <v>2019</v>
       </c>
-      <c r="O4" s="27">
+      <c r="O4" s="23">
         <v>2020</v>
       </c>
-      <c r="P4" s="37">
+      <c r="P4" s="23">
         <v>2021</v>
       </c>
-      <c r="Q4" s="37">
+      <c r="Q4" s="23">
         <v>2022</v>
       </c>
-      <c r="R4" s="37">
+      <c r="R4" s="23">
         <v>2023</v>
       </c>
-      <c r="S4" s="37">
+      <c r="S4" s="23">
         <v>2024</v>
       </c>
       <c r="T4" s="1"/>
     </row>
     <row r="5" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A5" s="1"/>
-      <c r="B5" s="21" t="s">
+      <c r="B5" s="4" t="s">
         <v>84</v>
       </c>
-      <c r="C5" s="20"/>
-      <c r="D5" s="43" t="s">
+      <c r="C5" s="2"/>
+      <c r="D5" s="34" t="s">
         <v>95</v>
       </c>
-      <c r="E5" s="44">
+      <c r="E5" s="35">
         <f>SUM(E6:E8)</f>
         <v>4</v>
       </c>
-      <c r="F5" s="44">
+      <c r="F5" s="35">
         <f t="shared" ref="F5:S5" si="0">SUM(F6:F8)</f>
         <v>4</v>
       </c>
-      <c r="G5" s="44">
+      <c r="G5" s="35">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="H5" s="44">
+      <c r="H5" s="35">
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="I5" s="44">
+      <c r="I5" s="35">
         <f t="shared" si="0"/>
         <v>13</v>
       </c>
-      <c r="J5" s="44">
+      <c r="J5" s="35">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="K5" s="44">
+      <c r="K5" s="35">
         <f t="shared" si="0"/>
         <v>27</v>
       </c>
-      <c r="L5" s="44">
+      <c r="L5" s="35">
         <f t="shared" si="0"/>
         <v>30</v>
       </c>
-      <c r="M5" s="44">
+      <c r="M5" s="35">
         <f t="shared" si="0"/>
         <v>28</v>
       </c>
-      <c r="N5" s="44">
+      <c r="N5" s="35">
         <f t="shared" si="0"/>
         <v>42</v>
       </c>
-      <c r="O5" s="44">
+      <c r="O5" s="35">
         <f t="shared" si="0"/>
         <v>34</v>
       </c>
-      <c r="P5" s="44">
+      <c r="P5" s="35">
         <f t="shared" si="0"/>
         <v>38</v>
       </c>
-      <c r="Q5" s="44">
+      <c r="Q5" s="35">
         <f t="shared" si="0"/>
-        <v>46</v>
-      </c>
-      <c r="R5" s="44">
+        <v>47</v>
+      </c>
+      <c r="R5" s="35">
         <f t="shared" si="0"/>
-        <v>38</v>
-      </c>
-      <c r="S5" s="44">
+        <v>37</v>
+      </c>
+      <c r="S5" s="35">
         <f t="shared" si="0"/>
         <v>16</v>
       </c>
@@ -1698,112 +1677,112 @@
     </row>
     <row r="6" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A6" s="1"/>
-      <c r="B6" s="22" t="s">
-        <v>32</v>
-      </c>
-      <c r="C6" s="20"/>
-      <c r="D6" s="20" t="s">
+      <c r="B6" s="18" t="s">
+        <v>32</v>
+      </c>
+      <c r="C6" s="2"/>
+      <c r="D6" s="2" t="s">
         <v>95</v>
       </c>
-      <c r="E6" s="13">
+      <c r="E6" s="11">
         <f>COUNTIFS(
 Bolsistas!$A:$A,$B6,
 Bolsistas!$G:$G,"&lt;="&amp;E$4,
 Bolsistas!$H:$H,"&gt;="&amp;E$4)</f>
         <v>4</v>
       </c>
-      <c r="F6" s="13">
+      <c r="F6" s="11">
         <f>COUNTIFS(
 Bolsistas!$A:$A,$B6,
 Bolsistas!$G:$G,"&lt;="&amp;F$4,
 Bolsistas!$H:$H,"&gt;="&amp;F$4)</f>
         <v>4</v>
       </c>
-      <c r="G6" s="13">
+      <c r="G6" s="11">
         <f>COUNTIFS(
 Bolsistas!$A:$A,$B6,
 Bolsistas!$G:$G,"&lt;="&amp;G$4,
 Bolsistas!$H:$H,"&gt;="&amp;G$4)</f>
         <v>3</v>
       </c>
-      <c r="H6" s="13">
+      <c r="H6" s="11">
         <f>COUNTIFS(
 Bolsistas!$A:$A,$B6,
 Bolsistas!$G:$G,"&lt;="&amp;H$4,
 Bolsistas!$H:$H,"&gt;="&amp;H$4)</f>
         <v>9</v>
       </c>
-      <c r="I6" s="13">
+      <c r="I6" s="11">
         <f>COUNTIFS(
 Bolsistas!$A:$A,$B6,
 Bolsistas!$G:$G,"&lt;="&amp;I$4,
 Bolsistas!$H:$H,"&gt;="&amp;I$4)</f>
         <v>11</v>
       </c>
-      <c r="J6" s="13">
+      <c r="J6" s="11">
         <f>COUNTIFS(
 Bolsistas!$A:$A,$B6,
 Bolsistas!$G:$G,"&lt;="&amp;J$4,
 Bolsistas!$H:$H,"&gt;="&amp;J$4)</f>
         <v>0</v>
       </c>
-      <c r="K6" s="13">
+      <c r="K6" s="11">
         <f>COUNTIFS(
 Bolsistas!$A:$A,$B6,
 Bolsistas!$G:$G,"&lt;="&amp;K$4,
 Bolsistas!$H:$H,"&gt;="&amp;K$4)</f>
         <v>14</v>
       </c>
-      <c r="L6" s="13">
+      <c r="L6" s="11">
         <f>COUNTIFS(
 Bolsistas!$A:$A,$B6,
 Bolsistas!$G:$G,"&lt;="&amp;L$4,
 Bolsistas!$H:$H,"&gt;="&amp;L$4)</f>
         <v>17</v>
       </c>
-      <c r="M6" s="13">
+      <c r="M6" s="11">
         <f>COUNTIFS(
 Bolsistas!$A:$A,$B6,
 Bolsistas!$G:$G,"&lt;="&amp;M$4,
 Bolsistas!$H:$H,"&gt;="&amp;M$4)</f>
         <v>15</v>
       </c>
-      <c r="N6" s="13">
+      <c r="N6" s="11">
         <f>COUNTIFS(
 Bolsistas!$A:$A,$B6,
 Bolsistas!$G:$G,"&lt;="&amp;N$4,
 Bolsistas!$H:$H,"&gt;="&amp;N$4)</f>
         <v>16</v>
       </c>
-      <c r="O6" s="13">
+      <c r="O6" s="11">
         <f>COUNTIFS(
 Bolsistas!$A:$A,$B6,
 Bolsistas!$G:$G,"&lt;="&amp;O$4,
 Bolsistas!$H:$H,"&gt;="&amp;O$4)</f>
         <v>18</v>
       </c>
-      <c r="P6" s="13">
+      <c r="P6" s="11">
         <f>COUNTIFS(
 Bolsistas!$A:$A,$B6,
 Bolsistas!$G:$G,"&lt;="&amp;P$4,
 Bolsistas!$H:$H,"&gt;="&amp;P$4)</f>
         <v>20</v>
       </c>
-      <c r="Q6" s="13">
+      <c r="Q6" s="11">
         <f>COUNTIFS(
 Bolsistas!$A:$A,$B6,
 Bolsistas!$G:$G,"&lt;="&amp;Q$4,
 Bolsistas!$H:$H,"&gt;="&amp;Q$4)</f>
         <v>24</v>
       </c>
-      <c r="R6" s="13">
+      <c r="R6" s="11">
         <f>COUNTIFS(
 Bolsistas!$A:$A,$B6,
 Bolsistas!$G:$G,"&lt;="&amp;R$4,
 Bolsistas!$H:$H,"&gt;="&amp;R$4)</f>
         <v>16</v>
       </c>
-      <c r="S6" s="13">
+      <c r="S6" s="11">
         <f>COUNTIFS(
 Bolsistas!$A:$A,$B6,
 Bolsistas!$G:$G,"&lt;="&amp;S$4,
@@ -1814,112 +1793,112 @@
     </row>
     <row r="7" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A7" s="1"/>
-      <c r="B7" s="22" t="s">
+      <c r="B7" s="18" t="s">
         <v>33</v>
       </c>
-      <c r="C7" s="20"/>
-      <c r="D7" s="20" t="s">
+      <c r="C7" s="2"/>
+      <c r="D7" s="2" t="s">
         <v>95</v>
       </c>
-      <c r="E7" s="13">
+      <c r="E7" s="11">
         <f>COUNTIFS(
 Bolsistas!$A:$A,$B7,
 Bolsistas!$G:$G,"&lt;="&amp;E$4,
 Bolsistas!$H:$H,"&gt;="&amp;E$4)</f>
         <v>0</v>
       </c>
-      <c r="F7" s="13">
+      <c r="F7" s="11">
         <f>COUNTIFS(
 Bolsistas!$A:$A,$B7,
 Bolsistas!$G:$G,"&lt;="&amp;F$4,
 Bolsistas!$H:$H,"&gt;="&amp;F$4)</f>
         <v>0</v>
       </c>
-      <c r="G7" s="13">
+      <c r="G7" s="11">
         <f>COUNTIFS(
 Bolsistas!$A:$A,$B7,
 Bolsistas!$G:$G,"&lt;="&amp;G$4,
 Bolsistas!$H:$H,"&gt;="&amp;G$4)</f>
         <v>0</v>
       </c>
-      <c r="H7" s="13">
+      <c r="H7" s="11">
         <f>COUNTIFS(
 Bolsistas!$A:$A,$B7,
 Bolsistas!$G:$G,"&lt;="&amp;H$4,
 Bolsistas!$H:$H,"&gt;="&amp;H$4)</f>
         <v>0</v>
       </c>
-      <c r="I7" s="13">
+      <c r="I7" s="11">
         <f>COUNTIFS(
 Bolsistas!$A:$A,$B7,
 Bolsistas!$G:$G,"&lt;="&amp;I$4,
 Bolsistas!$H:$H,"&gt;="&amp;I$4)</f>
         <v>0</v>
       </c>
-      <c r="J7" s="13">
+      <c r="J7" s="11">
         <f>COUNTIFS(
 Bolsistas!$A:$A,$B7,
 Bolsistas!$G:$G,"&lt;="&amp;J$4,
 Bolsistas!$H:$H,"&gt;="&amp;J$4)</f>
         <v>0</v>
       </c>
-      <c r="K7" s="13">
+      <c r="K7" s="11">
         <f>COUNTIFS(
 Bolsistas!$A:$A,$B7,
 Bolsistas!$G:$G,"&lt;="&amp;K$4,
 Bolsistas!$H:$H,"&gt;="&amp;K$4)</f>
         <v>12</v>
       </c>
-      <c r="L7" s="13">
+      <c r="L7" s="11">
         <f>COUNTIFS(
 Bolsistas!$A:$A,$B7,
 Bolsistas!$G:$G,"&lt;="&amp;L$4,
 Bolsistas!$H:$H,"&gt;="&amp;L$4)</f>
         <v>12</v>
       </c>
-      <c r="M7" s="13">
+      <c r="M7" s="11">
         <f>COUNTIFS(
 Bolsistas!$A:$A,$B7,
 Bolsistas!$G:$G,"&lt;="&amp;M$4,
 Bolsistas!$H:$H,"&gt;="&amp;M$4)</f>
         <v>12</v>
       </c>
-      <c r="N7" s="13">
+      <c r="N7" s="11">
         <f>COUNTIFS(
 Bolsistas!$A:$A,$B7,
 Bolsistas!$G:$G,"&lt;="&amp;N$4,
 Bolsistas!$H:$H,"&gt;="&amp;N$4)</f>
         <v>25</v>
       </c>
-      <c r="O7" s="13">
+      <c r="O7" s="11">
         <f>COUNTIFS(
 Bolsistas!$A:$A,$B7,
 Bolsistas!$G:$G,"&lt;="&amp;O$4,
 Bolsistas!$H:$H,"&gt;="&amp;O$4)</f>
         <v>15</v>
       </c>
-      <c r="P7" s="13">
+      <c r="P7" s="11">
         <f>COUNTIFS(
 Bolsistas!$A:$A,$B7,
 Bolsistas!$G:$G,"&lt;="&amp;P$4,
 Bolsistas!$H:$H,"&gt;="&amp;P$4)</f>
         <v>18</v>
       </c>
-      <c r="Q7" s="13">
+      <c r="Q7" s="11">
         <f>COUNTIFS(
 Bolsistas!$A:$A,$B7,
 Bolsistas!$G:$G,"&lt;="&amp;Q$4,
 Bolsistas!$H:$H,"&gt;="&amp;Q$4)</f>
-        <v>22</v>
-      </c>
-      <c r="R7" s="13">
+        <v>23</v>
+      </c>
+      <c r="R7" s="11">
         <f>COUNTIFS(
 Bolsistas!$A:$A,$B7,
 Bolsistas!$G:$G,"&lt;="&amp;R$4,
 Bolsistas!$H:$H,"&gt;="&amp;R$4)</f>
-        <v>22</v>
-      </c>
-      <c r="S7" s="13">
+        <v>21</v>
+      </c>
+      <c r="S7" s="11">
         <f>COUNTIFS(
 Bolsistas!$A:$A,$B7,
 Bolsistas!$G:$G,"&lt;="&amp;S$4,
@@ -1930,112 +1909,112 @@
     </row>
     <row r="8" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A8" s="1"/>
-      <c r="B8" s="22" t="s">
+      <c r="B8" s="18" t="s">
         <v>36</v>
       </c>
-      <c r="C8" s="26"/>
-      <c r="D8" s="26" t="s">
+      <c r="C8" s="22"/>
+      <c r="D8" s="22" t="s">
         <v>95</v>
       </c>
-      <c r="E8" s="25">
+      <c r="E8" s="21">
         <f>COUNTIFS(
 Bolsistas!$A:$A,$B8,
 Bolsistas!$G:$G,"&lt;="&amp;E$4,
 Bolsistas!$H:$H,"&gt;="&amp;E$4)</f>
         <v>0</v>
       </c>
-      <c r="F8" s="25">
+      <c r="F8" s="21">
         <f>COUNTIFS(
 Bolsistas!$A:$A,$B8,
 Bolsistas!$G:$G,"&lt;="&amp;F$4,
 Bolsistas!$H:$H,"&gt;="&amp;F$4)</f>
         <v>0</v>
       </c>
-      <c r="G8" s="25">
+      <c r="G8" s="21">
         <f>COUNTIFS(
 Bolsistas!$A:$A,$B8,
 Bolsistas!$G:$G,"&lt;="&amp;G$4,
 Bolsistas!$H:$H,"&gt;="&amp;G$4)</f>
         <v>0</v>
       </c>
-      <c r="H8" s="25">
+      <c r="H8" s="21">
         <f>COUNTIFS(
 Bolsistas!$A:$A,$B8,
 Bolsistas!$G:$G,"&lt;="&amp;H$4,
 Bolsistas!$H:$H,"&gt;="&amp;H$4)</f>
         <v>1</v>
       </c>
-      <c r="I8" s="25">
+      <c r="I8" s="21">
         <f>COUNTIFS(
 Bolsistas!$A:$A,$B8,
 Bolsistas!$G:$G,"&lt;="&amp;I$4,
 Bolsistas!$H:$H,"&gt;="&amp;I$4)</f>
         <v>2</v>
       </c>
-      <c r="J8" s="25">
+      <c r="J8" s="21">
         <f>COUNTIFS(
 Bolsistas!$A:$A,$B8,
 Bolsistas!$G:$G,"&lt;="&amp;J$4,
 Bolsistas!$H:$H,"&gt;="&amp;J$4)</f>
         <v>0</v>
       </c>
-      <c r="K8" s="25">
+      <c r="K8" s="21">
         <f>COUNTIFS(
 Bolsistas!$A:$A,$B8,
 Bolsistas!$G:$G,"&lt;="&amp;K$4,
 Bolsistas!$H:$H,"&gt;="&amp;K$4)</f>
         <v>1</v>
       </c>
-      <c r="L8" s="25">
+      <c r="L8" s="21">
         <f>COUNTIFS(
 Bolsistas!$A:$A,$B8,
 Bolsistas!$G:$G,"&lt;="&amp;L$4,
 Bolsistas!$H:$H,"&gt;="&amp;L$4)</f>
         <v>1</v>
       </c>
-      <c r="M8" s="25">
+      <c r="M8" s="21">
         <f>COUNTIFS(
 Bolsistas!$A:$A,$B8,
 Bolsistas!$G:$G,"&lt;="&amp;M$4,
 Bolsistas!$H:$H,"&gt;="&amp;M$4)</f>
         <v>1</v>
       </c>
-      <c r="N8" s="25">
+      <c r="N8" s="21">
         <f>COUNTIFS(
 Bolsistas!$A:$A,$B8,
 Bolsistas!$G:$G,"&lt;="&amp;N$4,
 Bolsistas!$H:$H,"&gt;="&amp;N$4)</f>
         <v>1</v>
       </c>
-      <c r="O8" s="25">
+      <c r="O8" s="21">
         <f>COUNTIFS(
 Bolsistas!$A:$A,$B8,
 Bolsistas!$G:$G,"&lt;="&amp;O$4,
 Bolsistas!$H:$H,"&gt;="&amp;O$4)</f>
         <v>1</v>
       </c>
-      <c r="P8" s="25">
+      <c r="P8" s="21">
         <f>COUNTIFS(
 Bolsistas!$A:$A,$B8,
 Bolsistas!$G:$G,"&lt;="&amp;P$4,
 Bolsistas!$H:$H,"&gt;="&amp;P$4)</f>
         <v>0</v>
       </c>
-      <c r="Q8" s="25">
+      <c r="Q8" s="21">
         <f>COUNTIFS(
 Bolsistas!$A:$A,$B8,
 Bolsistas!$G:$G,"&lt;="&amp;Q$4,
 Bolsistas!$H:$H,"&gt;="&amp;Q$4)</f>
         <v>0</v>
       </c>
-      <c r="R8" s="25">
+      <c r="R8" s="21">
         <f>COUNTIFS(
 Bolsistas!$A:$A,$B8,
 Bolsistas!$G:$G,"&lt;="&amp;R$4,
 Bolsistas!$H:$H,"&gt;="&amp;R$4)</f>
         <v>0</v>
       </c>
-      <c r="S8" s="25">
+      <c r="S8" s="21">
         <f>COUNTIFS(
 Bolsistas!$A:$A,$B8,
 Bolsistas!$G:$G,"&lt;="&amp;S$4,
@@ -2046,71 +2025,71 @@
     </row>
     <row r="9" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A9" s="1"/>
-      <c r="B9" s="21" t="s">
+      <c r="B9" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="C9" s="20"/>
-      <c r="D9" s="20">
+      <c r="C9" s="2"/>
+      <c r="D9" s="2">
         <f>SUM(D10:D12)</f>
-        <v>111</v>
-      </c>
-      <c r="E9" s="13">
+        <v>112</v>
+      </c>
+      <c r="E9" s="11">
         <f>SUM(E10:E12)</f>
         <v>4</v>
       </c>
-      <c r="F9" s="13">
+      <c r="F9" s="11">
         <f t="shared" ref="F9:S9" si="1">SUM(F10:F12)</f>
         <v>4</v>
       </c>
-      <c r="G9" s="13">
+      <c r="G9" s="11">
         <f t="shared" si="1"/>
         <v>3</v>
       </c>
-      <c r="H9" s="13">
+      <c r="H9" s="11">
         <f t="shared" si="1"/>
         <v>10</v>
       </c>
-      <c r="I9" s="13">
+      <c r="I9" s="11">
         <f t="shared" si="1"/>
         <v>13</v>
       </c>
-      <c r="J9" s="13">
+      <c r="J9" s="11">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="K9" s="13">
+      <c r="K9" s="11">
         <f t="shared" si="1"/>
         <v>27</v>
       </c>
-      <c r="L9" s="13">
+      <c r="L9" s="11">
         <f t="shared" si="1"/>
         <v>30</v>
       </c>
-      <c r="M9" s="13">
+      <c r="M9" s="11">
         <f t="shared" si="1"/>
         <v>28</v>
       </c>
-      <c r="N9" s="13">
+      <c r="N9" s="11">
         <f t="shared" si="1"/>
         <v>42</v>
       </c>
-      <c r="O9" s="13">
+      <c r="O9" s="11">
         <f t="shared" si="1"/>
         <v>34</v>
       </c>
-      <c r="P9" s="13">
+      <c r="P9" s="11">
         <f t="shared" si="1"/>
         <v>38</v>
       </c>
-      <c r="Q9" s="13">
+      <c r="Q9" s="11">
         <f t="shared" si="1"/>
-        <v>46</v>
-      </c>
-      <c r="R9" s="13">
+        <v>47</v>
+      </c>
+      <c r="R9" s="11">
         <f t="shared" si="1"/>
-        <v>38</v>
-      </c>
-      <c r="S9" s="13">
+        <v>37</v>
+      </c>
+      <c r="S9" s="11">
         <f t="shared" si="1"/>
         <v>16</v>
       </c>
@@ -2118,114 +2097,114 @@
     </row>
     <row r="10" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A10" s="1"/>
-      <c r="B10" s="22" t="s">
-        <v>32</v>
-      </c>
-      <c r="C10" s="20"/>
-      <c r="D10" s="20">
+      <c r="B10" s="18" t="s">
+        <v>32</v>
+      </c>
+      <c r="C10" s="2"/>
+      <c r="D10" s="2">
         <f>COUNTIFS(
 Bolsistas!$A:$A,$B10)</f>
         <v>74</v>
       </c>
-      <c r="E10" s="13">
+      <c r="E10" s="11">
         <f>COUNTIFS(
 Bolsistas!$A:$A,$B10,
 Bolsistas!$G:$G,"&lt;="&amp;E$4,
 Bolsistas!$H:$H,"&gt;="&amp;E$4)</f>
         <v>4</v>
       </c>
-      <c r="F10" s="13">
+      <c r="F10" s="11">
         <f>COUNTIFS(
 Bolsistas!$A:$A,$B10,
 Bolsistas!$G:$G,"&lt;="&amp;F$4,
 Bolsistas!$H:$H,"&gt;="&amp;F$4)</f>
         <v>4</v>
       </c>
-      <c r="G10" s="13">
+      <c r="G10" s="11">
         <f>COUNTIFS(
 Bolsistas!$A:$A,$B10,
 Bolsistas!$G:$G,"&lt;="&amp;G$4,
 Bolsistas!$H:$H,"&gt;="&amp;G$4)</f>
         <v>3</v>
       </c>
-      <c r="H10" s="13">
+      <c r="H10" s="11">
         <f>COUNTIFS(
 Bolsistas!$A:$A,$B10,
 Bolsistas!$G:$G,"&lt;="&amp;H$4,
 Bolsistas!$H:$H,"&gt;="&amp;H$4)</f>
         <v>9</v>
       </c>
-      <c r="I10" s="13">
+      <c r="I10" s="11">
         <f>COUNTIFS(
 Bolsistas!$A:$A,$B10,
 Bolsistas!$G:$G,"&lt;="&amp;I$4,
 Bolsistas!$H:$H,"&gt;="&amp;I$4)</f>
         <v>11</v>
       </c>
-      <c r="J10" s="13">
+      <c r="J10" s="11">
         <f>COUNTIFS(
 Bolsistas!$A:$A,$B10,
 Bolsistas!$G:$G,"&lt;="&amp;J$4,
 Bolsistas!$H:$H,"&gt;="&amp;J$4)</f>
         <v>0</v>
       </c>
-      <c r="K10" s="13">
+      <c r="K10" s="11">
         <f>COUNTIFS(
 Bolsistas!$A:$A,$B10,
 Bolsistas!$G:$G,"&lt;="&amp;K$4,
 Bolsistas!$H:$H,"&gt;="&amp;K$4)</f>
         <v>14</v>
       </c>
-      <c r="L10" s="13">
+      <c r="L10" s="11">
         <f>COUNTIFS(
 Bolsistas!$A:$A,$B10,
 Bolsistas!$G:$G,"&lt;="&amp;L$4,
 Bolsistas!$H:$H,"&gt;="&amp;L$4)</f>
         <v>17</v>
       </c>
-      <c r="M10" s="13">
+      <c r="M10" s="11">
         <f>COUNTIFS(
 Bolsistas!$A:$A,$B10,
 Bolsistas!$G:$G,"&lt;="&amp;M$4,
 Bolsistas!$H:$H,"&gt;="&amp;M$4)</f>
         <v>15</v>
       </c>
-      <c r="N10" s="13">
+      <c r="N10" s="11">
         <f>COUNTIFS(
 Bolsistas!$A:$A,$B10,
 Bolsistas!$G:$G,"&lt;="&amp;N$4,
 Bolsistas!$H:$H,"&gt;="&amp;N$4)</f>
         <v>16</v>
       </c>
-      <c r="O10" s="13">
+      <c r="O10" s="11">
         <f>COUNTIFS(
 Bolsistas!$A:$A,$B10,
 Bolsistas!$G:$G,"&lt;="&amp;O$4,
 Bolsistas!$H:$H,"&gt;="&amp;O$4)</f>
         <v>18</v>
       </c>
-      <c r="P10" s="13">
+      <c r="P10" s="11">
         <f>COUNTIFS(
 Bolsistas!$A:$A,$B10,
 Bolsistas!$G:$G,"&lt;="&amp;P$4,
 Bolsistas!$H:$H,"&gt;="&amp;P$4)</f>
         <v>20</v>
       </c>
-      <c r="Q10" s="13">
+      <c r="Q10" s="11">
         <f>COUNTIFS(
 Bolsistas!$A:$A,$B10,
 Bolsistas!$G:$G,"&lt;="&amp;Q$4,
 Bolsistas!$H:$H,"&gt;="&amp;Q$4)</f>
         <v>24</v>
       </c>
-      <c r="R10" s="13">
+      <c r="R10" s="11">
         <f>COUNTIFS(
 Bolsistas!$A:$A,$B10,
 Bolsistas!$G:$G,"&lt;="&amp;R$4,
 Bolsistas!$H:$H,"&gt;="&amp;R$4)</f>
         <v>16</v>
       </c>
-      <c r="S10" s="13">
+      <c r="S10" s="11">
         <f>COUNTIFS(
 Bolsistas!$A:$A,$B10,
 Bolsistas!$G:$G,"&lt;="&amp;S$4,
@@ -2236,114 +2215,114 @@
     </row>
     <row r="11" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A11" s="1"/>
-      <c r="B11" s="22" t="s">
+      <c r="B11" s="18" t="s">
         <v>33</v>
       </c>
-      <c r="C11" s="20"/>
-      <c r="D11" s="20">
+      <c r="C11" s="2"/>
+      <c r="D11" s="2">
         <f>COUNTIFS(
 Bolsistas!$A:$A,$B11)</f>
-        <v>34</v>
-      </c>
-      <c r="E11" s="13">
+        <v>35</v>
+      </c>
+      <c r="E11" s="11">
         <f>COUNTIFS(
 Bolsistas!$A:$A,$B11,
 Bolsistas!$G:$G,"&lt;="&amp;E$4,
 Bolsistas!$H:$H,"&gt;="&amp;E$4)</f>
         <v>0</v>
       </c>
-      <c r="F11" s="13">
+      <c r="F11" s="11">
         <f>COUNTIFS(
 Bolsistas!$A:$A,$B11,
 Bolsistas!$G:$G,"&lt;="&amp;F$4,
 Bolsistas!$H:$H,"&gt;="&amp;F$4)</f>
         <v>0</v>
       </c>
-      <c r="G11" s="13">
+      <c r="G11" s="11">
         <f>COUNTIFS(
 Bolsistas!$A:$A,$B11,
 Bolsistas!$G:$G,"&lt;="&amp;G$4,
 Bolsistas!$H:$H,"&gt;="&amp;G$4)</f>
         <v>0</v>
       </c>
-      <c r="H11" s="13">
+      <c r="H11" s="11">
         <f>COUNTIFS(
 Bolsistas!$A:$A,$B11,
 Bolsistas!$G:$G,"&lt;="&amp;H$4,
 Bolsistas!$H:$H,"&gt;="&amp;H$4)</f>
         <v>0</v>
       </c>
-      <c r="I11" s="13">
+      <c r="I11" s="11">
         <f>COUNTIFS(
 Bolsistas!$A:$A,$B11,
 Bolsistas!$G:$G,"&lt;="&amp;I$4,
 Bolsistas!$H:$H,"&gt;="&amp;I$4)</f>
         <v>0</v>
       </c>
-      <c r="J11" s="13">
+      <c r="J11" s="11">
         <f>COUNTIFS(
 Bolsistas!$A:$A,$B11,
 Bolsistas!$G:$G,"&lt;="&amp;J$4,
 Bolsistas!$H:$H,"&gt;="&amp;J$4)</f>
         <v>0</v>
       </c>
-      <c r="K11" s="13">
+      <c r="K11" s="11">
         <f>COUNTIFS(
 Bolsistas!$A:$A,$B11,
 Bolsistas!$G:$G,"&lt;="&amp;K$4,
 Bolsistas!$H:$H,"&gt;="&amp;K$4)</f>
         <v>12</v>
       </c>
-      <c r="L11" s="13">
+      <c r="L11" s="11">
         <f>COUNTIFS(
 Bolsistas!$A:$A,$B11,
 Bolsistas!$G:$G,"&lt;="&amp;L$4,
 Bolsistas!$H:$H,"&gt;="&amp;L$4)</f>
         <v>12</v>
       </c>
-      <c r="M11" s="13">
+      <c r="M11" s="11">
         <f>COUNTIFS(
 Bolsistas!$A:$A,$B11,
 Bolsistas!$G:$G,"&lt;="&amp;M$4,
 Bolsistas!$H:$H,"&gt;="&amp;M$4)</f>
         <v>12</v>
       </c>
-      <c r="N11" s="13">
+      <c r="N11" s="11">
         <f>COUNTIFS(
 Bolsistas!$A:$A,$B11,
 Bolsistas!$G:$G,"&lt;="&amp;N$4,
 Bolsistas!$H:$H,"&gt;="&amp;N$4)</f>
         <v>25</v>
       </c>
-      <c r="O11" s="13">
+      <c r="O11" s="11">
         <f>COUNTIFS(
 Bolsistas!$A:$A,$B11,
 Bolsistas!$G:$G,"&lt;="&amp;O$4,
 Bolsistas!$H:$H,"&gt;="&amp;O$4)</f>
         <v>15</v>
       </c>
-      <c r="P11" s="13">
+      <c r="P11" s="11">
         <f>COUNTIFS(
 Bolsistas!$A:$A,$B11,
 Bolsistas!$G:$G,"&lt;="&amp;P$4,
 Bolsistas!$H:$H,"&gt;="&amp;P$4)</f>
         <v>18</v>
       </c>
-      <c r="Q11" s="13">
+      <c r="Q11" s="11">
         <f>COUNTIFS(
 Bolsistas!$A:$A,$B11,
 Bolsistas!$G:$G,"&lt;="&amp;Q$4,
 Bolsistas!$H:$H,"&gt;="&amp;Q$4)</f>
-        <v>22</v>
-      </c>
-      <c r="R11" s="13">
+        <v>23</v>
+      </c>
+      <c r="R11" s="11">
         <f>COUNTIFS(
 Bolsistas!$A:$A,$B11,
 Bolsistas!$G:$G,"&lt;="&amp;R$4,
 Bolsistas!$H:$H,"&gt;="&amp;R$4)</f>
-        <v>22</v>
-      </c>
-      <c r="S11" s="13">
+        <v>21</v>
+      </c>
+      <c r="S11" s="11">
         <f>COUNTIFS(
 Bolsistas!$A:$A,$B11,
 Bolsistas!$G:$G,"&lt;="&amp;S$4,
@@ -2354,114 +2333,114 @@
     </row>
     <row r="12" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A12" s="1"/>
-      <c r="B12" s="22" t="s">
+      <c r="B12" s="18" t="s">
         <v>36</v>
       </c>
-      <c r="C12" s="26"/>
-      <c r="D12" s="26">
+      <c r="C12" s="22"/>
+      <c r="D12" s="22">
         <f>COUNTIFS(
 Bolsistas!$A:$A,$B12)</f>
         <v>3</v>
       </c>
-      <c r="E12" s="25">
+      <c r="E12" s="21">
         <f>COUNTIFS(
 Bolsistas!$A:$A,$B12,
 Bolsistas!$G:$G,"&lt;="&amp;E$4,
 Bolsistas!$H:$H,"&gt;="&amp;E$4)</f>
         <v>0</v>
       </c>
-      <c r="F12" s="25">
+      <c r="F12" s="21">
         <f>COUNTIFS(
 Bolsistas!$A:$A,$B12,
 Bolsistas!$G:$G,"&lt;="&amp;F$4,
 Bolsistas!$H:$H,"&gt;="&amp;F$4)</f>
         <v>0</v>
       </c>
-      <c r="G12" s="25">
+      <c r="G12" s="21">
         <f>COUNTIFS(
 Bolsistas!$A:$A,$B12,
 Bolsistas!$G:$G,"&lt;="&amp;G$4,
 Bolsistas!$H:$H,"&gt;="&amp;G$4)</f>
         <v>0</v>
       </c>
-      <c r="H12" s="25">
+      <c r="H12" s="21">
         <f>COUNTIFS(
 Bolsistas!$A:$A,$B12,
 Bolsistas!$G:$G,"&lt;="&amp;H$4,
 Bolsistas!$H:$H,"&gt;="&amp;H$4)</f>
         <v>1</v>
       </c>
-      <c r="I12" s="25">
+      <c r="I12" s="21">
         <f>COUNTIFS(
 Bolsistas!$A:$A,$B12,
 Bolsistas!$G:$G,"&lt;="&amp;I$4,
 Bolsistas!$H:$H,"&gt;="&amp;I$4)</f>
         <v>2</v>
       </c>
-      <c r="J12" s="25">
+      <c r="J12" s="21">
         <f>COUNTIFS(
 Bolsistas!$A:$A,$B12,
 Bolsistas!$G:$G,"&lt;="&amp;J$4,
 Bolsistas!$H:$H,"&gt;="&amp;J$4)</f>
         <v>0</v>
       </c>
-      <c r="K12" s="25">
+      <c r="K12" s="21">
         <f>COUNTIFS(
 Bolsistas!$A:$A,$B12,
 Bolsistas!$G:$G,"&lt;="&amp;K$4,
 Bolsistas!$H:$H,"&gt;="&amp;K$4)</f>
         <v>1</v>
       </c>
-      <c r="L12" s="25">
+      <c r="L12" s="21">
         <f>COUNTIFS(
 Bolsistas!$A:$A,$B12,
 Bolsistas!$G:$G,"&lt;="&amp;L$4,
 Bolsistas!$H:$H,"&gt;="&amp;L$4)</f>
         <v>1</v>
       </c>
-      <c r="M12" s="25">
+      <c r="M12" s="21">
         <f>COUNTIFS(
 Bolsistas!$A:$A,$B12,
 Bolsistas!$G:$G,"&lt;="&amp;M$4,
 Bolsistas!$H:$H,"&gt;="&amp;M$4)</f>
         <v>1</v>
       </c>
-      <c r="N12" s="25">
+      <c r="N12" s="21">
         <f>COUNTIFS(
 Bolsistas!$A:$A,$B12,
 Bolsistas!$G:$G,"&lt;="&amp;N$4,
 Bolsistas!$H:$H,"&gt;="&amp;N$4)</f>
         <v>1</v>
       </c>
-      <c r="O12" s="25">
+      <c r="O12" s="21">
         <f>COUNTIFS(
 Bolsistas!$A:$A,$B12,
 Bolsistas!$G:$G,"&lt;="&amp;O$4,
 Bolsistas!$H:$H,"&gt;="&amp;O$4)</f>
         <v>1</v>
       </c>
-      <c r="P12" s="25">
+      <c r="P12" s="21">
         <f>COUNTIFS(
 Bolsistas!$A:$A,$B12,
 Bolsistas!$G:$G,"&lt;="&amp;P$4,
 Bolsistas!$H:$H,"&gt;="&amp;P$4)</f>
         <v>0</v>
       </c>
-      <c r="Q12" s="25">
+      <c r="Q12" s="21">
         <f>COUNTIFS(
 Bolsistas!$A:$A,$B12,
 Bolsistas!$G:$G,"&lt;="&amp;Q$4,
 Bolsistas!$H:$H,"&gt;="&amp;Q$4)</f>
         <v>0</v>
       </c>
-      <c r="R12" s="25">
+      <c r="R12" s="21">
         <f>COUNTIFS(
 Bolsistas!$A:$A,$B12,
 Bolsistas!$G:$G,"&lt;="&amp;R$4,
 Bolsistas!$H:$H,"&gt;="&amp;R$4)</f>
         <v>0</v>
       </c>
-      <c r="S12" s="25">
+      <c r="S12" s="21">
         <f>COUNTIFS(
 Bolsistas!$A:$A,$B12,
 Bolsistas!$G:$G,"&lt;="&amp;S$4,
@@ -2472,11 +2451,11 @@
     </row>
     <row r="13" spans="1:20" ht="17" x14ac:dyDescent="0.2">
       <c r="A13" s="1"/>
-      <c r="B13" s="21" t="s">
+      <c r="B13" s="4" t="s">
         <v>103</v>
       </c>
-      <c r="C13" s="20"/>
-      <c r="D13" s="29" t="str">
+      <c r="C13" s="2"/>
+      <c r="D13" s="24" t="str">
         <f ca="1">CONCATENATE(
 COUNTIFS(Bolsistas!$A:$A,"&lt;&gt;"&amp; "Pós-Doutorado",Bolsistas!E:E,"Sim",Bolsistas!H:H,"&lt;"&amp;YEAR(TODAY())),
 " (",
@@ -2484,30 +2463,30 @@
 "%)")</f>
         <v>56 (97%)</v>
       </c>
-      <c r="E13" s="47"/>
-      <c r="F13" s="47"/>
-      <c r="G13" s="47"/>
-      <c r="H13" s="47"/>
-      <c r="I13" s="47"/>
-      <c r="J13" s="47"/>
-      <c r="K13" s="47"/>
-      <c r="L13" s="47"/>
-      <c r="M13" s="47"/>
-      <c r="N13" s="47"/>
-      <c r="O13" s="47"/>
-      <c r="P13" s="47"/>
-      <c r="Q13" s="47"/>
-      <c r="R13" s="47"/>
-      <c r="S13" s="47"/>
+      <c r="E13" s="38"/>
+      <c r="F13" s="38"/>
+      <c r="G13" s="38"/>
+      <c r="H13" s="38"/>
+      <c r="I13" s="38"/>
+      <c r="J13" s="38"/>
+      <c r="K13" s="38"/>
+      <c r="L13" s="38"/>
+      <c r="M13" s="38"/>
+      <c r="N13" s="38"/>
+      <c r="O13" s="38"/>
+      <c r="P13" s="38"/>
+      <c r="Q13" s="38"/>
+      <c r="R13" s="38"/>
+      <c r="S13" s="38"/>
       <c r="T13" s="1"/>
     </row>
     <row r="14" spans="1:20" ht="17" x14ac:dyDescent="0.2">
       <c r="A14" s="1"/>
-      <c r="B14" s="22" t="s">
-        <v>32</v>
-      </c>
-      <c r="C14" s="20"/>
-      <c r="D14" s="29" t="str">
+      <c r="B14" s="18" t="s">
+        <v>32</v>
+      </c>
+      <c r="C14" s="2"/>
+      <c r="D14" s="24" t="str">
         <f ca="1">CONCATENATE(
 COUNTIFS(Bolsistas!$A:$A,$B14,Bolsistas!E:E,"Sim",Bolsistas!H:H,"&lt;"&amp;YEAR(TODAY())),
 " (",
@@ -2515,30 +2494,30 @@
 "%)")</f>
         <v>44 (96%)</v>
       </c>
-      <c r="E14" s="46"/>
-      <c r="F14" s="46"/>
-      <c r="G14" s="46"/>
-      <c r="H14" s="46"/>
-      <c r="I14" s="46"/>
-      <c r="J14" s="46"/>
-      <c r="K14" s="46"/>
-      <c r="L14" s="46"/>
-      <c r="M14" s="46"/>
-      <c r="N14" s="46"/>
-      <c r="O14" s="46"/>
-      <c r="P14" s="46"/>
-      <c r="Q14" s="46"/>
-      <c r="R14" s="46"/>
-      <c r="S14" s="46"/>
+      <c r="E14" s="37"/>
+      <c r="F14" s="37"/>
+      <c r="G14" s="37"/>
+      <c r="H14" s="37"/>
+      <c r="I14" s="37"/>
+      <c r="J14" s="37"/>
+      <c r="K14" s="37"/>
+      <c r="L14" s="37"/>
+      <c r="M14" s="37"/>
+      <c r="N14" s="37"/>
+      <c r="O14" s="37"/>
+      <c r="P14" s="37"/>
+      <c r="Q14" s="37"/>
+      <c r="R14" s="37"/>
+      <c r="S14" s="37"/>
       <c r="T14" s="1"/>
     </row>
     <row r="15" spans="1:20" ht="17" x14ac:dyDescent="0.2">
       <c r="A15" s="1"/>
-      <c r="B15" s="22" t="s">
+      <c r="B15" s="18" t="s">
         <v>33</v>
       </c>
-      <c r="C15" s="20"/>
-      <c r="D15" s="29" t="str">
+      <c r="C15" s="2"/>
+      <c r="D15" s="24" t="str">
         <f ca="1">CONCATENATE(
 COUNTIFS(Bolsistas!$A:$A,$B15,Bolsistas!E:E,"Sim",Bolsistas!H:H,"&lt;"&amp;YEAR(TODAY())),
 " (",
@@ -2546,54 +2525,54 @@
 "%)")</f>
         <v>12 (100%)</v>
       </c>
-      <c r="E15" s="46"/>
-      <c r="F15" s="46"/>
-      <c r="G15" s="46"/>
-      <c r="H15" s="46"/>
-      <c r="I15" s="46"/>
-      <c r="J15" s="46"/>
-      <c r="K15" s="46"/>
-      <c r="L15" s="46"/>
-      <c r="M15" s="46"/>
-      <c r="N15" s="46"/>
-      <c r="O15" s="46"/>
-      <c r="P15" s="46"/>
-      <c r="Q15" s="46"/>
-      <c r="R15" s="46"/>
-      <c r="S15" s="46"/>
+      <c r="E15" s="37"/>
+      <c r="F15" s="37"/>
+      <c r="G15" s="37"/>
+      <c r="H15" s="37"/>
+      <c r="I15" s="37"/>
+      <c r="J15" s="37"/>
+      <c r="K15" s="37"/>
+      <c r="L15" s="37"/>
+      <c r="M15" s="37"/>
+      <c r="N15" s="37"/>
+      <c r="O15" s="37"/>
+      <c r="P15" s="37"/>
+      <c r="Q15" s="37"/>
+      <c r="R15" s="37"/>
+      <c r="S15" s="37"/>
       <c r="T15" s="1"/>
     </row>
     <row r="16" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A16" s="1"/>
-      <c r="B16" s="21" t="s">
+      <c r="B16" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="C16" s="20"/>
-      <c r="D16" s="21"/>
-      <c r="E16" s="12"/>
-      <c r="F16" s="12"/>
-      <c r="G16" s="12"/>
-      <c r="H16" s="12"/>
-      <c r="I16" s="12"/>
-      <c r="J16" s="12"/>
-      <c r="K16" s="12"/>
-      <c r="L16" s="12"/>
-      <c r="M16" s="12"/>
-      <c r="N16" s="12"/>
-      <c r="O16" s="12"/>
-      <c r="P16" s="12"/>
-      <c r="Q16" s="12"/>
-      <c r="R16" s="12"/>
-      <c r="S16" s="12"/>
+      <c r="C16" s="2"/>
+      <c r="D16" s="4"/>
+      <c r="E16" s="1"/>
+      <c r="F16" s="1"/>
+      <c r="G16" s="1"/>
+      <c r="H16" s="1"/>
+      <c r="I16" s="1"/>
+      <c r="J16" s="1"/>
+      <c r="K16" s="1"/>
+      <c r="L16" s="1"/>
+      <c r="M16" s="1"/>
+      <c r="N16" s="1"/>
+      <c r="O16" s="1"/>
+      <c r="P16" s="1"/>
+      <c r="Q16" s="1"/>
+      <c r="R16" s="1"/>
+      <c r="S16" s="1"/>
       <c r="T16" s="1"/>
     </row>
     <row r="17" spans="1:20" ht="17" x14ac:dyDescent="0.2">
       <c r="A17" s="1"/>
-      <c r="B17" s="22" t="s">
-        <v>32</v>
-      </c>
-      <c r="C17" s="20"/>
-      <c r="D17" s="29" t="str" cm="1">
+      <c r="B17" s="18" t="s">
+        <v>32</v>
+      </c>
+      <c r="C17" s="2"/>
+      <c r="D17" s="24" t="str" cm="1">
         <f t="array" ref="D17">IFERROR(CONCATENATE(
 FIXED(MEDIAN(IF(Bolsistas!$A:$A&lt;&gt;"",IF(Bolsistas!$A:$A=$B17,Bolsistas!$F:$F))),0),
 " (",
@@ -2603,7 +2582,7 @@
 ")"),"-")</f>
         <v>-</v>
       </c>
-      <c r="E17" s="16" t="str" cm="1">
+      <c r="E17" s="14" t="str" cm="1">
         <f t="array" ref="E17">IFERROR(CONCATENATE(
 FIXED(MEDIAN(IF(Bolsistas!$A:$A&lt;&gt;"",IF(Bolsistas!$A:$A=$B17,IF(Bolsistas!$G:$G&lt;=E$4,IF(Bolsistas!$H:$H&gt;=E$4,Bolsistas!$F:$F))))),0),
 " (",
@@ -2613,7 +2592,7 @@
 ")"),"-")</f>
         <v>21 (10-24)</v>
       </c>
-      <c r="F17" s="16" t="str" cm="1">
+      <c r="F17" s="14" t="str" cm="1">
         <f t="array" ref="F17">IFERROR(CONCATENATE(
 FIXED(MEDIAN(IF(Bolsistas!$A:$A&lt;&gt;"",IF(Bolsistas!$A:$A=$B17,IF(Bolsistas!$G:$G&lt;=F$4,IF(Bolsistas!$H:$H&gt;=F$4,Bolsistas!$F:$F))))),0),
 " (",
@@ -2623,7 +2602,7 @@
 ")"),"-")</f>
         <v>21 (10-24)</v>
       </c>
-      <c r="G17" s="16" t="str" cm="1">
+      <c r="G17" s="14" t="str" cm="1">
         <f t="array" ref="G17">IFERROR(CONCATENATE(
 FIXED(MEDIAN(IF(Bolsistas!$A:$A&lt;&gt;"",IF(Bolsistas!$A:$A=$B17,IF(Bolsistas!$G:$G&lt;=G$4,IF(Bolsistas!$H:$H&gt;=G$4,Bolsistas!$F:$F))))),0),
 " (",
@@ -2633,7 +2612,7 @@
 ")"),"-")</f>
         <v>22 (20-24)</v>
       </c>
-      <c r="H17" s="16" t="str" cm="1">
+      <c r="H17" s="14" t="str" cm="1">
         <f t="array" ref="H17">IFERROR(CONCATENATE(
 FIXED(MEDIAN(IF(Bolsistas!$A:$A&lt;&gt;"",IF(Bolsistas!$A:$A=$B17,IF(Bolsistas!$G:$G&lt;=H$4,IF(Bolsistas!$H:$H&gt;=H$4,Bolsistas!$F:$F))))),0),
 " (",
@@ -2643,7 +2622,7 @@
 ")"),"-")</f>
         <v>21 (8-24)</v>
       </c>
-      <c r="I17" s="16" t="str" cm="1">
+      <c r="I17" s="14" t="str" cm="1">
         <f t="array" ref="I17">IFERROR(CONCATENATE(
 FIXED(MEDIAN(IF(Bolsistas!$A:$A&lt;&gt;"",IF(Bolsistas!$A:$A=$B17,IF(Bolsistas!$G:$G&lt;=I$4,IF(Bolsistas!$H:$H&gt;=I$4,Bolsistas!$F:$F))))),0),
 " (",
@@ -2653,7 +2632,7 @@
 ")"),"-")</f>
         <v>21 (8-24)</v>
       </c>
-      <c r="J17" s="16" t="str" cm="1">
+      <c r="J17" s="14" t="str" cm="1">
         <f t="array" ref="J17">IFERROR(CONCATENATE(
 FIXED(MEDIAN(IF(Bolsistas!$A:$A&lt;&gt;"",IF(Bolsistas!$A:$A=$B17,IF(Bolsistas!$G:$G&lt;=J$4,IF(Bolsistas!$H:$H&gt;=J$4,Bolsistas!$F:$F))))),0),
 " (",
@@ -2663,7 +2642,7 @@
 ")"),"-")</f>
         <v>-</v>
       </c>
-      <c r="K17" s="16" t="str" cm="1">
+      <c r="K17" s="14" t="str" cm="1">
         <f t="array" ref="K17">IFERROR(CONCATENATE(
 FIXED(MEDIAN(IF(Bolsistas!$A:$A&lt;&gt;"",IF(Bolsistas!$A:$A=$B17,IF(Bolsistas!$G:$G&lt;=K$4,IF(Bolsistas!$H:$H&gt;=K$4,Bolsistas!$F:$F))))),0),
 " (",
@@ -2673,7 +2652,7 @@
 ")"),"-")</f>
         <v>24 (15-24)</v>
       </c>
-      <c r="L17" s="16" t="str" cm="1">
+      <c r="L17" s="14" t="str" cm="1">
         <f t="array" ref="L17">IFERROR(CONCATENATE(
 FIXED(MEDIAN(IF(Bolsistas!$A:$A&lt;&gt;"",IF(Bolsistas!$A:$A=$B17,IF(Bolsistas!$G:$G&lt;=L$4,IF(Bolsistas!$H:$H&gt;=L$4,Bolsistas!$F:$F))))),0),
 " (",
@@ -2683,7 +2662,7 @@
 ")"),"-")</f>
         <v>24 (0-24)</v>
       </c>
-      <c r="M17" s="16" t="str" cm="1">
+      <c r="M17" s="14" t="str" cm="1">
         <f t="array" ref="M17">IFERROR(CONCATENATE(
 FIXED(MEDIAN(IF(Bolsistas!$A:$A&lt;&gt;"",IF(Bolsistas!$A:$A=$B17,IF(Bolsistas!$G:$G&lt;=M$4,IF(Bolsistas!$H:$H&gt;=M$4,Bolsistas!$F:$F))))),0),
 " (",
@@ -2693,7 +2672,7 @@
 ")"),"-")</f>
         <v>24 (3-24)</v>
       </c>
-      <c r="N17" s="16" t="str" cm="1">
+      <c r="N17" s="14" t="str" cm="1">
         <f t="array" ref="N17">IFERROR(CONCATENATE(
 FIXED(MEDIAN(IF(Bolsistas!$A:$A&lt;&gt;"",IF(Bolsistas!$A:$A=$B17,IF(Bolsistas!$G:$G&lt;=N$4,IF(Bolsistas!$H:$H&gt;=N$4,Bolsistas!$F:$F))))),0),
 " (",
@@ -2703,7 +2682,7 @@
 ")"),"-")</f>
         <v>23 (5-24)</v>
       </c>
-      <c r="O17" s="16" t="str" cm="1">
+      <c r="O17" s="14" t="str" cm="1">
         <f t="array" ref="O17">IFERROR(CONCATENATE(
 FIXED(MEDIAN(IF(Bolsistas!$A:$A&lt;&gt;"",IF(Bolsistas!$A:$A=$B17,IF(Bolsistas!$G:$G&lt;=O$4,IF(Bolsistas!$H:$H&gt;=O$4,Bolsistas!$F:$F))))),0),
 " (",
@@ -2713,7 +2692,7 @@
 ")"),"-")</f>
         <v>24 (8-24)</v>
       </c>
-      <c r="P17" s="16" t="str" cm="1">
+      <c r="P17" s="14" t="str" cm="1">
         <f t="array" ref="P17">IFERROR(CONCATENATE(
 FIXED(MEDIAN(IF(Bolsistas!$A:$A&lt;&gt;"",IF(Bolsistas!$A:$A=$B17,IF(Bolsistas!$G:$G&lt;=P$4,IF(Bolsistas!$H:$H&gt;=P$4,Bolsistas!$F:$F))))),0),
 " (",
@@ -2723,7 +2702,7 @@
 ")"),"-")</f>
         <v>24 (16-24)</v>
       </c>
-      <c r="Q17" s="16" t="str" cm="1">
+      <c r="Q17" s="14" t="str" cm="1">
         <f t="array" ref="Q17">IFERROR(CONCATENATE(
 FIXED(MEDIAN(IF(Bolsistas!$A:$A&lt;&gt;"",IF(Bolsistas!$A:$A=$B17,IF(Bolsistas!$G:$G&lt;=Q$4,IF(Bolsistas!$H:$H&gt;=Q$4,Bolsistas!$F:$F))))),0),
 " (",
@@ -2733,7 +2712,7 @@
 ")"),"-")</f>
         <v>24 (21-24)</v>
       </c>
-      <c r="R17" s="16" t="str" cm="1">
+      <c r="R17" s="14" t="str" cm="1">
         <f t="array" ref="R17">IFERROR(CONCATENATE(
 FIXED(MEDIAN(IF(Bolsistas!$A:$A&lt;&gt;"",IF(Bolsistas!$A:$A=$B17,IF(Bolsistas!$G:$G&lt;=R$4,IF(Bolsistas!$H:$H&gt;=R$4,Bolsistas!$F:$F))))),0),
 " (",
@@ -2743,7 +2722,7 @@
 ")"),"-")</f>
         <v>24 (21-24)</v>
       </c>
-      <c r="S17" s="16" t="str" cm="1">
+      <c r="S17" s="14" t="str" cm="1">
         <f t="array" ref="S17">IFERROR(CONCATENATE(
 FIXED(MEDIAN(IF(Bolsistas!$A:$A&lt;&gt;"",IF(Bolsistas!$A:$A=$B17,IF(Bolsistas!$G:$G&lt;=S$4,IF(Bolsistas!$H:$H&gt;=S$4,Bolsistas!$F:$F))))),0),
 " (",
@@ -2757,11 +2736,11 @@
     </row>
     <row r="18" spans="1:20" ht="17" x14ac:dyDescent="0.2">
       <c r="A18" s="1"/>
-      <c r="B18" s="22" t="s">
+      <c r="B18" s="18" t="s">
         <v>33</v>
       </c>
-      <c r="C18" s="20"/>
-      <c r="D18" s="29" t="str" cm="1">
+      <c r="C18" s="2"/>
+      <c r="D18" s="24" t="str" cm="1">
         <f t="array" ref="D18">IFERROR(CONCATENATE(
 FIXED(MEDIAN(IF(Bolsistas!$A:$A&lt;&gt;"",IF(Bolsistas!$A:$A=$B18,Bolsistas!$F:$F))),0),
 " (",
@@ -2771,7 +2750,7 @@
 ")"),"-")</f>
         <v>-</v>
       </c>
-      <c r="E18" s="16" t="str" cm="1">
+      <c r="E18" s="14" t="str" cm="1">
         <f t="array" ref="E18">IFERROR(CONCATENATE(
 FIXED(MEDIAN(IF(Bolsistas!$A:$A&lt;&gt;"",IF(Bolsistas!$A:$A=$B18,IF(Bolsistas!$G:$G&lt;=E$4,IF(Bolsistas!$H:$H&gt;=E$4,Bolsistas!$F:$F))))),0),
 " (",
@@ -2781,7 +2760,7 @@
 ")"),"-")</f>
         <v>-</v>
       </c>
-      <c r="F18" s="16" t="str" cm="1">
+      <c r="F18" s="14" t="str" cm="1">
         <f t="array" ref="F18">IFERROR(CONCATENATE(
 FIXED(MEDIAN(IF(Bolsistas!$A:$A&lt;&gt;"",IF(Bolsistas!$A:$A=$B18,IF(Bolsistas!$G:$G&lt;=F$4,IF(Bolsistas!$H:$H&gt;=F$4,Bolsistas!$F:$F))))),0),
 " (",
@@ -2791,7 +2770,7 @@
 ")"),"-")</f>
         <v>-</v>
       </c>
-      <c r="G18" s="16" t="str" cm="1">
+      <c r="G18" s="14" t="str" cm="1">
         <f t="array" ref="G18">IFERROR(CONCATENATE(
 FIXED(MEDIAN(IF(Bolsistas!$A:$A&lt;&gt;"",IF(Bolsistas!$A:$A=$B18,IF(Bolsistas!$G:$G&lt;=G$4,IF(Bolsistas!$H:$H&gt;=G$4,Bolsistas!$F:$F))))),0),
 " (",
@@ -2801,7 +2780,7 @@
 ")"),"-")</f>
         <v>-</v>
       </c>
-      <c r="H18" s="16" t="str" cm="1">
+      <c r="H18" s="14" t="str" cm="1">
         <f t="array" ref="H18">IFERROR(CONCATENATE(
 FIXED(MEDIAN(IF(Bolsistas!$A:$A&lt;&gt;"",IF(Bolsistas!$A:$A=$B18,IF(Bolsistas!$G:$G&lt;=H$4,IF(Bolsistas!$H:$H&gt;=H$4,Bolsistas!$F:$F))))),0),
 " (",
@@ -2811,7 +2790,7 @@
 ")"),"-")</f>
         <v>-</v>
       </c>
-      <c r="I18" s="16" t="str" cm="1">
+      <c r="I18" s="14" t="str" cm="1">
         <f t="array" ref="I18">IFERROR(CONCATENATE(
 FIXED(MEDIAN(IF(Bolsistas!$A:$A&lt;&gt;"",IF(Bolsistas!$A:$A=$B18,IF(Bolsistas!$G:$G&lt;=I$4,IF(Bolsistas!$H:$H&gt;=I$4,Bolsistas!$F:$F))))),0),
 " (",
@@ -2821,7 +2800,7 @@
 ")"),"-")</f>
         <v>-</v>
       </c>
-      <c r="J18" s="16" t="str" cm="1">
+      <c r="J18" s="14" t="str" cm="1">
         <f t="array" ref="J18">IFERROR(CONCATENATE(
 FIXED(MEDIAN(IF(Bolsistas!$A:$A&lt;&gt;"",IF(Bolsistas!$A:$A=$B18,IF(Bolsistas!$G:$G&lt;=J$4,IF(Bolsistas!$H:$H&gt;=J$4,Bolsistas!$F:$F))))),0),
 " (",
@@ -2831,7 +2810,7 @@
 ")"),"-")</f>
         <v>-</v>
       </c>
-      <c r="K18" s="16" t="str" cm="1">
+      <c r="K18" s="14" t="str" cm="1">
         <f t="array" ref="K18">IFERROR(CONCATENATE(
 FIXED(MEDIAN(IF(Bolsistas!$A:$A&lt;&gt;"",IF(Bolsistas!$A:$A=$B18,IF(Bolsistas!$G:$G&lt;=K$4,IF(Bolsistas!$H:$H&gt;=K$4,Bolsistas!$F:$F))))),0),
 " (",
@@ -2841,7 +2820,7 @@
 ")"),"-")</f>
         <v>48 (48-48)</v>
       </c>
-      <c r="L18" s="16" t="str" cm="1">
+      <c r="L18" s="14" t="str" cm="1">
         <f t="array" ref="L18">IFERROR(CONCATENATE(
 FIXED(MEDIAN(IF(Bolsistas!$A:$A&lt;&gt;"",IF(Bolsistas!$A:$A=$B18,IF(Bolsistas!$G:$G&lt;=L$4,IF(Bolsistas!$H:$H&gt;=L$4,Bolsistas!$F:$F))))),0),
 " (",
@@ -2851,7 +2830,7 @@
 ")"),"-")</f>
         <v>48 (48-48)</v>
       </c>
-      <c r="M18" s="16" t="str" cm="1">
+      <c r="M18" s="14" t="str" cm="1">
         <f t="array" ref="M18">IFERROR(CONCATENATE(
 FIXED(MEDIAN(IF(Bolsistas!$A:$A&lt;&gt;"",IF(Bolsistas!$A:$A=$B18,IF(Bolsistas!$G:$G&lt;=M$4,IF(Bolsistas!$H:$H&gt;=M$4,Bolsistas!$F:$F))))),0),
 " (",
@@ -2861,7 +2840,7 @@
 ")"),"-")</f>
         <v>48 (48-48)</v>
       </c>
-      <c r="N18" s="16" t="str" cm="1">
+      <c r="N18" s="14" t="str" cm="1">
         <f t="array" ref="N18">IFERROR(CONCATENATE(
 FIXED(MEDIAN(IF(Bolsistas!$A:$A&lt;&gt;"",IF(Bolsistas!$A:$A=$B18,IF(Bolsistas!$G:$G&lt;=N$4,IF(Bolsistas!$H:$H&gt;=N$4,Bolsistas!$F:$F))))),0),
 " (",
@@ -2869,9 +2848,9 @@
 "-",
 FIXED(MAX(IF(Bolsistas!$A:$A&lt;&gt;"",IF(Bolsistas!$A:$A=$B18,IF(Bolsistas!$G:$G&lt;=N$4,IF(Bolsistas!$H:$H&gt;=N$4,Bolsistas!$F:$F))))),0),
 ")"),"-")</f>
-        <v>48 (48-48)</v>
-      </c>
-      <c r="O18" s="16" t="str" cm="1">
+        <v>48 (35-48)</v>
+      </c>
+      <c r="O18" s="14" t="str" cm="1">
         <f t="array" ref="O18">IFERROR(CONCATENATE(
 FIXED(MEDIAN(IF(Bolsistas!$A:$A&lt;&gt;"",IF(Bolsistas!$A:$A=$B18,IF(Bolsistas!$G:$G&lt;=O$4,IF(Bolsistas!$H:$H&gt;=O$4,Bolsistas!$F:$F))))),0),
 " (",
@@ -2879,9 +2858,9 @@
 "-",
 FIXED(MAX(IF(Bolsistas!$A:$A&lt;&gt;"",IF(Bolsistas!$A:$A=$B18,IF(Bolsistas!$G:$G&lt;=O$4,IF(Bolsistas!$H:$H&gt;=O$4,Bolsistas!$F:$F))))),0),
 ")"),"-")</f>
-        <v>48 (48-48)</v>
-      </c>
-      <c r="P18" s="16" t="str" cm="1">
+        <v>48 (29-48)</v>
+      </c>
+      <c r="P18" s="14" t="str" cm="1">
         <f t="array" ref="P18">IFERROR(CONCATENATE(
 FIXED(MEDIAN(IF(Bolsistas!$A:$A&lt;&gt;"",IF(Bolsistas!$A:$A=$B18,IF(Bolsistas!$G:$G&lt;=P$4,IF(Bolsistas!$H:$H&gt;=P$4,Bolsistas!$F:$F))))),0),
 " (",
@@ -2889,9 +2868,9 @@
 "-",
 FIXED(MAX(IF(Bolsistas!$A:$A&lt;&gt;"",IF(Bolsistas!$A:$A=$B18,IF(Bolsistas!$G:$G&lt;=P$4,IF(Bolsistas!$H:$H&gt;=P$4,Bolsistas!$F:$F))))),0),
 ")"),"-")</f>
-        <v>48 (48-48)</v>
-      </c>
-      <c r="Q18" s="16" t="str" cm="1">
+        <v>48 (29-48)</v>
+      </c>
+      <c r="Q18" s="14" t="str" cm="1">
         <f t="array" ref="Q18">IFERROR(CONCATENATE(
 FIXED(MEDIAN(IF(Bolsistas!$A:$A&lt;&gt;"",IF(Bolsistas!$A:$A=$B18,IF(Bolsistas!$G:$G&lt;=Q$4,IF(Bolsistas!$H:$H&gt;=Q$4,Bolsistas!$F:$F))))),0),
 " (",
@@ -2899,9 +2878,9 @@
 "-",
 FIXED(MAX(IF(Bolsistas!$A:$A&lt;&gt;"",IF(Bolsistas!$A:$A=$B18,IF(Bolsistas!$G:$G&lt;=Q$4,IF(Bolsistas!$H:$H&gt;=Q$4,Bolsistas!$F:$F))))),0),
 ")"),"-")</f>
-        <v>48 (48-48)</v>
-      </c>
-      <c r="R18" s="16" t="str" cm="1">
+        <v>48 (19-48)</v>
+      </c>
+      <c r="R18" s="14" t="str" cm="1">
         <f t="array" ref="R18">IFERROR(CONCATENATE(
 FIXED(MEDIAN(IF(Bolsistas!$A:$A&lt;&gt;"",IF(Bolsistas!$A:$A=$B18,IF(Bolsistas!$G:$G&lt;=R$4,IF(Bolsistas!$H:$H&gt;=R$4,Bolsistas!$F:$F))))),0),
 " (",
@@ -2909,9 +2888,9 @@
 "-",
 FIXED(MAX(IF(Bolsistas!$A:$A&lt;&gt;"",IF(Bolsistas!$A:$A=$B18,IF(Bolsistas!$G:$G&lt;=R$4,IF(Bolsistas!$H:$H&gt;=R$4,Bolsistas!$F:$F))))),0),
 ")"),"-")</f>
-        <v>48 (48-48)</v>
-      </c>
-      <c r="S18" s="16" t="str" cm="1">
+        <v>48 (19-48)</v>
+      </c>
+      <c r="S18" s="14" t="str" cm="1">
         <f t="array" ref="S18">IFERROR(CONCATENATE(
 FIXED(MEDIAN(IF(Bolsistas!$A:$A&lt;&gt;"",IF(Bolsistas!$A:$A=$B18,IF(Bolsistas!$G:$G&lt;=S$4,IF(Bolsistas!$H:$H&gt;=S$4,Bolsistas!$F:$F))))),0),
 " (",
@@ -2919,17 +2898,17 @@
 "-",
 FIXED(MAX(IF(Bolsistas!$A:$A&lt;&gt;"",IF(Bolsistas!$A:$A=$B18,IF(Bolsistas!$G:$G&lt;=S$4,IF(Bolsistas!$H:$H&gt;=S$4,Bolsistas!$F:$F))))),0),
 ")"),"-")</f>
-        <v>48 (48-48)</v>
+        <v>48 (19-48)</v>
       </c>
       <c r="T18" s="1"/>
     </row>
     <row r="19" spans="1:20" ht="17" x14ac:dyDescent="0.2">
       <c r="A19" s="1"/>
-      <c r="B19" s="23" t="s">
+      <c r="B19" s="19" t="s">
         <v>36</v>
       </c>
-      <c r="C19" s="26"/>
-      <c r="D19" s="30" t="str" cm="1">
+      <c r="C19" s="22"/>
+      <c r="D19" s="25" t="str" cm="1">
         <f t="array" ref="D19">IFERROR(CONCATENATE(
 FIXED(MEDIAN(IF(Bolsistas!$A:$A&lt;&gt;"",IF(Bolsistas!$A:$A=$B19,Bolsistas!$F:$F))),0),
 " (",
@@ -2939,7 +2918,7 @@
 ")"),"-")</f>
         <v>-</v>
       </c>
-      <c r="E19" s="17" t="str" cm="1">
+      <c r="E19" s="15" t="str" cm="1">
         <f t="array" ref="E19">IFERROR(CONCATENATE(
 FIXED(MEDIAN(IF(Bolsistas!$A:$A&lt;&gt;"",IF(Bolsistas!$A:$A=$B19,IF(Bolsistas!$G:$G&lt;=E$4,IF(Bolsistas!$H:$H&gt;=E$4,Bolsistas!$F:$F))))),0),
 " (",
@@ -2949,7 +2928,7 @@
 ")"),"-")</f>
         <v>-</v>
       </c>
-      <c r="F19" s="17" t="str" cm="1">
+      <c r="F19" s="15" t="str" cm="1">
         <f t="array" ref="F19">IFERROR(CONCATENATE(
 FIXED(MEDIAN(IF(Bolsistas!$A:$A&lt;&gt;"",IF(Bolsistas!$A:$A=$B19,IF(Bolsistas!$G:$G&lt;=F$4,IF(Bolsistas!$H:$H&gt;=F$4,Bolsistas!$F:$F))))),0),
 " (",
@@ -2959,7 +2938,7 @@
 ")"),"-")</f>
         <v>-</v>
       </c>
-      <c r="G19" s="17" t="str" cm="1">
+      <c r="G19" s="15" t="str" cm="1">
         <f t="array" ref="G19">IFERROR(CONCATENATE(
 FIXED(MEDIAN(IF(Bolsistas!$A:$A&lt;&gt;"",IF(Bolsistas!$A:$A=$B19,IF(Bolsistas!$G:$G&lt;=G$4,IF(Bolsistas!$H:$H&gt;=G$4,Bolsistas!$F:$F))))),0),
 " (",
@@ -2969,7 +2948,7 @@
 ")"),"-")</f>
         <v>-</v>
       </c>
-      <c r="H19" s="17" t="str" cm="1">
+      <c r="H19" s="15" t="str" cm="1">
         <f t="array" ref="H19">IFERROR(CONCATENATE(
 FIXED(MEDIAN(IF(Bolsistas!$A:$A&lt;&gt;"",IF(Bolsistas!$A:$A=$B19,IF(Bolsistas!$G:$G&lt;=H$4,IF(Bolsistas!$H:$H&gt;=H$4,Bolsistas!$F:$F))))),0),
 " (",
@@ -2979,7 +2958,7 @@
 ")"),"-")</f>
         <v>10 (10-10)</v>
       </c>
-      <c r="I19" s="17" t="str" cm="1">
+      <c r="I19" s="15" t="str" cm="1">
         <f t="array" ref="I19">IFERROR(CONCATENATE(
 FIXED(MEDIAN(IF(Bolsistas!$A:$A&lt;&gt;"",IF(Bolsistas!$A:$A=$B19,IF(Bolsistas!$G:$G&lt;=I$4,IF(Bolsistas!$H:$H&gt;=I$4,Bolsistas!$F:$F))))),0),
 " (",
@@ -2989,7 +2968,7 @@
 ")"),"-")</f>
         <v>20 (10-29)</v>
       </c>
-      <c r="J19" s="17" t="str" cm="1">
+      <c r="J19" s="15" t="str" cm="1">
         <f t="array" ref="J19">IFERROR(CONCATENATE(
 FIXED(MEDIAN(IF(Bolsistas!$A:$A&lt;&gt;"",IF(Bolsistas!$A:$A=$B19,IF(Bolsistas!$G:$G&lt;=J$4,IF(Bolsistas!$H:$H&gt;=J$4,Bolsistas!$F:$F))))),0),
 " (",
@@ -2999,7 +2978,7 @@
 ")"),"-")</f>
         <v>-</v>
       </c>
-      <c r="K19" s="17" t="str" cm="1">
+      <c r="K19" s="15" t="str" cm="1">
         <f t="array" ref="K19">IFERROR(CONCATENATE(
 FIXED(MEDIAN(IF(Bolsistas!$A:$A&lt;&gt;"",IF(Bolsistas!$A:$A=$B19,IF(Bolsistas!$G:$G&lt;=K$4,IF(Bolsistas!$H:$H&gt;=K$4,Bolsistas!$F:$F))))),0),
 " (",
@@ -3009,7 +2988,7 @@
 ")"),"-")</f>
         <v>29 (29-29)</v>
       </c>
-      <c r="L19" s="17" t="str" cm="1">
+      <c r="L19" s="15" t="str" cm="1">
         <f t="array" ref="L19">IFERROR(CONCATENATE(
 FIXED(MEDIAN(IF(Bolsistas!$A:$A&lt;&gt;"",IF(Bolsistas!$A:$A=$B19,IF(Bolsistas!$G:$G&lt;=L$4,IF(Bolsistas!$H:$H&gt;=L$4,Bolsistas!$F:$F))))),0),
 " (",
@@ -3019,7 +2998,7 @@
 ")"),"-")</f>
         <v>38 (38-38)</v>
       </c>
-      <c r="M19" s="17" t="str" cm="1">
+      <c r="M19" s="15" t="str" cm="1">
         <f t="array" ref="M19">IFERROR(CONCATENATE(
 FIXED(MEDIAN(IF(Bolsistas!$A:$A&lt;&gt;"",IF(Bolsistas!$A:$A=$B19,IF(Bolsistas!$G:$G&lt;=M$4,IF(Bolsistas!$H:$H&gt;=M$4,Bolsistas!$F:$F))))),0),
 " (",
@@ -3029,7 +3008,7 @@
 ")"),"-")</f>
         <v>38 (38-38)</v>
       </c>
-      <c r="N19" s="17" t="str" cm="1">
+      <c r="N19" s="15" t="str" cm="1">
         <f t="array" ref="N19">IFERROR(CONCATENATE(
 FIXED(MEDIAN(IF(Bolsistas!$A:$A&lt;&gt;"",IF(Bolsistas!$A:$A=$B19,IF(Bolsistas!$G:$G&lt;=N$4,IF(Bolsistas!$H:$H&gt;=N$4,Bolsistas!$F:$F))))),0),
 " (",
@@ -3039,7 +3018,7 @@
 ")"),"-")</f>
         <v>38 (38-38)</v>
       </c>
-      <c r="O19" s="17" t="str" cm="1">
+      <c r="O19" s="15" t="str" cm="1">
         <f t="array" ref="O19">IFERROR(CONCATENATE(
 FIXED(MEDIAN(IF(Bolsistas!$A:$A&lt;&gt;"",IF(Bolsistas!$A:$A=$B19,IF(Bolsistas!$G:$G&lt;=O$4,IF(Bolsistas!$H:$H&gt;=O$4,Bolsistas!$F:$F))))),0),
 " (",
@@ -3049,7 +3028,7 @@
 ")"),"-")</f>
         <v>38 (38-38)</v>
       </c>
-      <c r="P19" s="17" t="str" cm="1">
+      <c r="P19" s="15" t="str" cm="1">
         <f t="array" ref="P19">IFERROR(CONCATENATE(
 FIXED(MEDIAN(IF(Bolsistas!$A:$A&lt;&gt;"",IF(Bolsistas!$A:$A=$B19,IF(Bolsistas!$G:$G&lt;=P$4,IF(Bolsistas!$H:$H&gt;=P$4,Bolsistas!$F:$F))))),0),
 " (",
@@ -3059,7 +3038,7 @@
 ")"),"-")</f>
         <v>-</v>
       </c>
-      <c r="Q19" s="17" t="str" cm="1">
+      <c r="Q19" s="15" t="str" cm="1">
         <f t="array" ref="Q19">IFERROR(CONCATENATE(
 FIXED(MEDIAN(IF(Bolsistas!$A:$A&lt;&gt;"",IF(Bolsistas!$A:$A=$B19,IF(Bolsistas!$G:$G&lt;=Q$4,IF(Bolsistas!$H:$H&gt;=Q$4,Bolsistas!$F:$F))))),0),
 " (",
@@ -3069,7 +3048,7 @@
 ")"),"-")</f>
         <v>-</v>
       </c>
-      <c r="R19" s="17" t="str" cm="1">
+      <c r="R19" s="15" t="str" cm="1">
         <f t="array" ref="R19">IFERROR(CONCATENATE(
 FIXED(MEDIAN(IF(Bolsistas!$A:$A&lt;&gt;"",IF(Bolsistas!$A:$A=$B19,IF(Bolsistas!$G:$G&lt;=R$4,IF(Bolsistas!$H:$H&gt;=R$4,Bolsistas!$F:$F))))),0),
 " (",
@@ -3079,7 +3058,7 @@
 ")"),"-")</f>
         <v>-</v>
       </c>
-      <c r="S19" s="17" t="str" cm="1">
+      <c r="S19" s="15" t="str" cm="1">
         <f t="array" ref="S19">IFERROR(CONCATENATE(
 FIXED(MEDIAN(IF(Bolsistas!$A:$A&lt;&gt;"",IF(Bolsistas!$A:$A=$B19,IF(Bolsistas!$G:$G&lt;=S$4,IF(Bolsistas!$H:$H&gt;=S$4,Bolsistas!$F:$F))))),0),
 " (",
@@ -3093,12 +3072,12 @@
     </row>
     <row r="20" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A20" s="1"/>
-      <c r="B20" s="66" t="s">
+      <c r="B20" s="57" t="s">
         <v>39</v>
       </c>
-      <c r="C20" s="66"/>
-      <c r="D20" s="66"/>
-      <c r="E20" s="66"/>
+      <c r="C20" s="57"/>
+      <c r="D20" s="57"/>
+      <c r="E20" s="57"/>
       <c r="F20" s="1"/>
       <c r="G20" s="1"/>
       <c r="H20" s="1"/>
@@ -3154,9 +3133,9 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I112"/>
+  <dimension ref="A1:I113"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" zoomScaleSheetLayoutView="70" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="70" workbookViewId="0">
       <pane xSplit="3" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
@@ -3165,76 +3144,76 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="15.6640625" style="10" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="45.1640625" style="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="15.33203125" style="33" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.5" style="32" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.5" style="32" customWidth="1"/>
-    <col min="6" max="6" width="15" style="11" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="10.83203125" style="15" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="9" style="34" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="15.6640625" style="9" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="45.1640625" style="8" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.33203125" style="28" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.5" style="27" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.5" style="27" customWidth="1"/>
+    <col min="6" max="6" width="15" style="10" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.83203125" style="13" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9" style="29" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="14.6640625" style="7" customWidth="1"/>
     <col min="10" max="16384" width="8.83203125" style="7"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" s="35" customFormat="1" ht="35" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="38" t="s">
+    <row r="1" spans="1:9" s="30" customFormat="1" ht="35" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="32" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="39" t="s">
+      <c r="B1" s="33" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="38" t="s">
+      <c r="C1" s="32" t="s">
         <v>47</v>
       </c>
-      <c r="D1" s="38" t="s">
+      <c r="D1" s="32" t="s">
         <v>1</v>
       </c>
-      <c r="E1" s="45" t="s">
+      <c r="E1" s="36" t="s">
         <v>97</v>
       </c>
-      <c r="F1" s="38" t="s">
+      <c r="F1" s="32" t="s">
         <v>31</v>
       </c>
-      <c r="G1" s="38" t="s">
+      <c r="G1" s="32" t="s">
         <v>42</v>
       </c>
-      <c r="H1" s="38" t="s">
+      <c r="H1" s="32" t="s">
         <v>43</v>
       </c>
-      <c r="I1" s="38" t="s">
+      <c r="I1" s="32" t="s">
         <v>123</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A2" s="40" t="s">
-        <v>32</v>
-      </c>
-      <c r="B2" s="9" t="s">
+      <c r="A2" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="B2" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="C2" s="32">
+      <c r="C2" s="27">
         <v>40513</v>
       </c>
-      <c r="D2" s="32">
+      <c r="D2" s="27">
         <v>40816</v>
       </c>
       <c r="E2" s="7" t="s">
         <v>96</v>
       </c>
-      <c r="F2" s="31">
+      <c r="F2" s="26">
         <f>ROUNDUP((Tabela1[[#This Row],[Fim da Bolsa ]]-Tabela1[[#This Row],[Início da Bolsa]])/365*12,0)</f>
         <v>10</v>
       </c>
-      <c r="G2" s="31">
+      <c r="G2" s="26">
         <f>YEAR(Tabela1[[#This Row],[Início da Bolsa]])</f>
         <v>2010</v>
       </c>
-      <c r="H2" s="31">
+      <c r="H2" s="26">
         <f>YEAR(Tabela1[[#This Row],[Fim da Bolsa ]])</f>
         <v>2011</v>
       </c>
-      <c r="I2" s="11" t="s">
+      <c r="I2" s="10" t="s">
         <v>124</v>
       </c>
     </row>
@@ -3242,63 +3221,63 @@
       <c r="A3" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="B3" s="9" t="s">
+      <c r="B3" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="C3" s="41">
+      <c r="C3" s="27">
         <v>40513</v>
       </c>
-      <c r="D3" s="41">
+      <c r="D3" s="27">
         <v>41121</v>
       </c>
       <c r="E3" s="7" t="s">
         <v>96</v>
       </c>
-      <c r="F3" s="31">
+      <c r="F3" s="26">
         <f>ROUNDUP((Tabela1[[#This Row],[Fim da Bolsa ]]-Tabela1[[#This Row],[Início da Bolsa]])/365*12,0)</f>
         <v>20</v>
       </c>
-      <c r="G3" s="31">
+      <c r="G3" s="26">
         <f>YEAR(Tabela1[[#This Row],[Início da Bolsa]])</f>
         <v>2010</v>
       </c>
-      <c r="H3" s="31">
+      <c r="H3" s="26">
         <f>YEAR(Tabela1[[#This Row],[Fim da Bolsa ]])</f>
         <v>2012</v>
       </c>
-      <c r="I3" s="11" t="s">
+      <c r="I3" s="10" t="s">
         <v>124</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A4" s="40" t="s">
-        <v>32</v>
-      </c>
-      <c r="B4" s="9" t="s">
+      <c r="A4" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="B4" s="8" t="s">
         <v>98</v>
       </c>
-      <c r="C4" s="32">
+      <c r="C4" s="27">
         <v>40513</v>
       </c>
-      <c r="D4" s="32">
+      <c r="D4" s="27">
         <v>41182</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>96</v>
       </c>
-      <c r="F4" s="31">
+      <c r="F4" s="26">
         <f>ROUNDUP((Tabela1[[#This Row],[Fim da Bolsa ]]-Tabela1[[#This Row],[Início da Bolsa]])/365*12,0)</f>
         <v>22</v>
       </c>
-      <c r="G4" s="31">
+      <c r="G4" s="26">
         <f>YEAR(Tabela1[[#This Row],[Início da Bolsa]])</f>
         <v>2010</v>
       </c>
-      <c r="H4" s="31">
+      <c r="H4" s="26">
         <f>YEAR(Tabela1[[#This Row],[Fim da Bolsa ]])</f>
         <v>2012</v>
       </c>
-      <c r="I4" s="11" t="s">
+      <c r="I4" s="10" t="s">
         <v>124</v>
       </c>
     </row>
@@ -3306,3250 +3285,3277 @@
       <c r="A5" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="B5" s="42" t="s">
+      <c r="B5" s="8" t="s">
         <v>94</v>
       </c>
-      <c r="C5" s="41">
+      <c r="C5" s="27">
         <v>40513</v>
       </c>
-      <c r="D5" s="41">
+      <c r="D5" s="27">
         <v>41213</v>
       </c>
       <c r="E5" s="7" t="s">
         <v>96</v>
       </c>
-      <c r="F5" s="31">
+      <c r="F5" s="26">
         <f>ROUNDUP((Tabela1[[#This Row],[Fim da Bolsa ]]-Tabela1[[#This Row],[Início da Bolsa]])/365*12,0)</f>
         <v>24</v>
       </c>
-      <c r="G5" s="31">
+      <c r="G5" s="26">
         <f>YEAR(Tabela1[[#This Row],[Início da Bolsa]])</f>
         <v>2010</v>
       </c>
-      <c r="H5" s="31">
+      <c r="H5" s="26">
         <f>YEAR(Tabela1[[#This Row],[Fim da Bolsa ]])</f>
         <v>2012</v>
       </c>
-      <c r="I5" s="11" t="s">
+      <c r="I5" s="10" t="s">
         <v>124</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A6" s="50" t="s">
-        <v>32</v>
-      </c>
-      <c r="B6" s="51" t="s">
+      <c r="A6" s="41" t="s">
+        <v>32</v>
+      </c>
+      <c r="B6" s="42" t="s">
         <v>9</v>
       </c>
-      <c r="C6" s="52">
+      <c r="C6" s="43">
         <v>41456</v>
       </c>
-      <c r="D6" s="52">
+      <c r="D6" s="43">
         <v>41671</v>
       </c>
-      <c r="E6" s="53" t="s">
+      <c r="E6" s="44" t="s">
         <v>100</v>
       </c>
-      <c r="F6" s="54">
+      <c r="F6" s="45">
         <f>ROUNDUP((Tabela1[[#This Row],[Fim da Bolsa ]]-Tabela1[[#This Row],[Início da Bolsa]])/365*12,0)</f>
         <v>8</v>
       </c>
-      <c r="G6" s="54">
+      <c r="G6" s="45">
         <f>YEAR(Tabela1[[#This Row],[Início da Bolsa]])</f>
         <v>2013</v>
       </c>
-      <c r="H6" s="54">
+      <c r="H6" s="45">
         <f>YEAR(Tabela1[[#This Row],[Fim da Bolsa ]])</f>
         <v>2014</v>
       </c>
-      <c r="I6" s="54" t="s">
+      <c r="I6" s="45" t="s">
         <v>124</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A7" s="8" t="s">
+      <c r="A7" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="B7" s="9" t="s">
+      <c r="B7" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="C7" s="32">
+      <c r="C7" s="27">
         <v>41579</v>
       </c>
-      <c r="D7" s="32">
+      <c r="D7" s="27">
         <v>41882</v>
       </c>
       <c r="E7" s="7" t="s">
         <v>95</v>
       </c>
-      <c r="F7" s="31">
+      <c r="F7" s="26">
         <f>ROUNDUP((Tabela1[[#This Row],[Fim da Bolsa ]]-Tabela1[[#This Row],[Início da Bolsa]])/365*12,0)</f>
         <v>10</v>
       </c>
-      <c r="G7" s="31">
+      <c r="G7" s="26">
         <f>YEAR(Tabela1[[#This Row],[Início da Bolsa]])</f>
         <v>2013</v>
       </c>
-      <c r="H7" s="31">
+      <c r="H7" s="26">
         <f>YEAR(Tabela1[[#This Row],[Fim da Bolsa ]])</f>
         <v>2014</v>
       </c>
-      <c r="I7" s="11" t="s">
+      <c r="I7" s="10" t="s">
         <v>95</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A8" s="40" t="s">
-        <v>32</v>
-      </c>
-      <c r="B8" s="9" t="s">
+      <c r="A8" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="B8" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="C8" s="32">
+      <c r="C8" s="27">
         <v>41456</v>
       </c>
-      <c r="D8" s="32">
+      <c r="D8" s="27">
         <v>41973</v>
       </c>
       <c r="E8" s="7" t="s">
         <v>96</v>
       </c>
-      <c r="F8" s="31">
+      <c r="F8" s="26">
         <f>ROUNDUP((Tabela1[[#This Row],[Fim da Bolsa ]]-Tabela1[[#This Row],[Início da Bolsa]])/365*12,0)</f>
         <v>17</v>
       </c>
-      <c r="G8" s="31">
+      <c r="G8" s="26">
         <f>YEAR(Tabela1[[#This Row],[Início da Bolsa]])</f>
         <v>2013</v>
       </c>
-      <c r="H8" s="31">
+      <c r="H8" s="26">
         <f>YEAR(Tabela1[[#This Row],[Fim da Bolsa ]])</f>
         <v>2014</v>
       </c>
-      <c r="I8" s="11" t="s">
+      <c r="I8" s="10" t="s">
         <v>124</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A9" s="40" t="s">
-        <v>32</v>
-      </c>
-      <c r="B9" s="9" t="s">
+      <c r="A9" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="B9" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="C9" s="32">
+      <c r="C9" s="27">
         <v>41456</v>
       </c>
-      <c r="D9" s="32">
+      <c r="D9" s="27">
         <v>41974</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>96</v>
       </c>
-      <c r="F9" s="31">
+      <c r="F9" s="26">
         <f>ROUNDUP((Tabela1[[#This Row],[Fim da Bolsa ]]-Tabela1[[#This Row],[Início da Bolsa]])/365*12,0)</f>
         <v>18</v>
       </c>
-      <c r="G9" s="31">
+      <c r="G9" s="26">
         <f>YEAR(Tabela1[[#This Row],[Início da Bolsa]])</f>
         <v>2013</v>
       </c>
-      <c r="H9" s="31">
+      <c r="H9" s="26">
         <f>YEAR(Tabela1[[#This Row],[Fim da Bolsa ]])</f>
         <v>2014</v>
       </c>
-      <c r="I9" s="11" t="s">
+      <c r="I9" s="10" t="s">
         <v>124</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A10" s="40" t="s">
-        <v>32</v>
-      </c>
-      <c r="B10" s="9" t="s">
+      <c r="A10" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="B10" s="8" t="s">
         <v>104</v>
       </c>
-      <c r="C10" s="32">
+      <c r="C10" s="27">
         <v>41456</v>
       </c>
-      <c r="D10" s="32">
+      <c r="D10" s="27">
         <v>42035</v>
       </c>
       <c r="E10" s="7" t="s">
         <v>96</v>
       </c>
-      <c r="F10" s="31">
+      <c r="F10" s="26">
         <f>ROUNDUP((Tabela1[[#This Row],[Fim da Bolsa ]]-Tabela1[[#This Row],[Início da Bolsa]])/365*12,0)</f>
         <v>20</v>
       </c>
-      <c r="G10" s="31">
+      <c r="G10" s="26">
         <f>YEAR(Tabela1[[#This Row],[Início da Bolsa]])</f>
         <v>2013</v>
       </c>
-      <c r="H10" s="31">
+      <c r="H10" s="26">
         <f>YEAR(Tabela1[[#This Row],[Fim da Bolsa ]])</f>
         <v>2015</v>
       </c>
-      <c r="I10" s="11" t="s">
+      <c r="I10" s="10" t="s">
         <v>124</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A11" s="40" t="s">
-        <v>32</v>
-      </c>
-      <c r="B11" s="9" t="s">
+      <c r="A11" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="B11" s="8" t="s">
         <v>99</v>
       </c>
-      <c r="C11" s="32">
+      <c r="C11" s="27">
         <v>41456</v>
       </c>
-      <c r="D11" s="32">
+      <c r="D11" s="27">
         <v>42094</v>
       </c>
       <c r="E11" s="7" t="s">
         <v>96</v>
       </c>
-      <c r="F11" s="31">
+      <c r="F11" s="26">
         <f>ROUNDUP((Tabela1[[#This Row],[Fim da Bolsa ]]-Tabela1[[#This Row],[Início da Bolsa]])/365*12,0)</f>
         <v>21</v>
       </c>
-      <c r="G11" s="31">
+      <c r="G11" s="26">
         <f>YEAR(Tabela1[[#This Row],[Início da Bolsa]])</f>
         <v>2013</v>
       </c>
-      <c r="H11" s="31">
+      <c r="H11" s="26">
         <f>YEAR(Tabela1[[#This Row],[Fim da Bolsa ]])</f>
         <v>2015</v>
       </c>
-      <c r="I11" s="11" t="s">
+      <c r="I11" s="10" t="s">
         <v>124</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A12" s="40" t="s">
-        <v>32</v>
-      </c>
-      <c r="B12" s="9" t="s">
+      <c r="A12" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="B12" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="C12" s="32">
+      <c r="C12" s="27">
         <v>41456</v>
       </c>
-      <c r="D12" s="32">
+      <c r="D12" s="27">
         <v>42185</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>96</v>
       </c>
-      <c r="F12" s="31">
+      <c r="F12" s="26">
         <f>ROUNDUP((Tabela1[[#This Row],[Fim da Bolsa ]]-Tabela1[[#This Row],[Início da Bolsa]])/365*12,0)</f>
         <v>24</v>
       </c>
-      <c r="G12" s="31">
+      <c r="G12" s="26">
         <f>YEAR(Tabela1[[#This Row],[Início da Bolsa]])</f>
         <v>2013</v>
       </c>
-      <c r="H12" s="31">
+      <c r="H12" s="26">
         <f>YEAR(Tabela1[[#This Row],[Fim da Bolsa ]])</f>
         <v>2015</v>
       </c>
-      <c r="I12" s="11" t="s">
+      <c r="I12" s="10" t="s">
         <v>124</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A13" s="40" t="s">
-        <v>32</v>
-      </c>
-      <c r="B13" s="9" t="s">
+      <c r="A13" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="B13" s="8" t="s">
         <v>101</v>
       </c>
-      <c r="C13" s="32">
+      <c r="C13" s="27">
         <v>41456</v>
       </c>
-      <c r="D13" s="32">
+      <c r="D13" s="27">
         <v>42185</v>
       </c>
       <c r="E13" s="7" t="s">
         <v>96</v>
       </c>
-      <c r="F13" s="31">
+      <c r="F13" s="26">
         <f>ROUNDUP((Tabela1[[#This Row],[Fim da Bolsa ]]-Tabela1[[#This Row],[Início da Bolsa]])/365*12,0)</f>
         <v>24</v>
       </c>
-      <c r="G13" s="31">
+      <c r="G13" s="26">
         <f>YEAR(Tabela1[[#This Row],[Início da Bolsa]])</f>
         <v>2013</v>
       </c>
-      <c r="H13" s="31">
+      <c r="H13" s="26">
         <f>YEAR(Tabela1[[#This Row],[Fim da Bolsa ]])</f>
         <v>2015</v>
       </c>
-      <c r="I13" s="11" t="s">
+      <c r="I13" s="10" t="s">
         <v>124</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A14" s="40" t="s">
-        <v>32</v>
-      </c>
-      <c r="B14" s="9" t="s">
+      <c r="A14" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="B14" s="8" t="s">
         <v>102</v>
       </c>
-      <c r="C14" s="32">
+      <c r="C14" s="27">
         <v>41456</v>
       </c>
-      <c r="D14" s="32">
+      <c r="D14" s="27">
         <v>42185</v>
       </c>
       <c r="E14" s="7" t="s">
         <v>96</v>
       </c>
-      <c r="F14" s="31">
+      <c r="F14" s="26">
         <f>ROUNDUP((Tabela1[[#This Row],[Fim da Bolsa ]]-Tabela1[[#This Row],[Início da Bolsa]])/365*12,0)</f>
         <v>24</v>
       </c>
-      <c r="G14" s="31">
+      <c r="G14" s="26">
         <f>YEAR(Tabela1[[#This Row],[Início da Bolsa]])</f>
         <v>2013</v>
       </c>
-      <c r="H14" s="31">
+      <c r="H14" s="26">
         <f>YEAR(Tabela1[[#This Row],[Fim da Bolsa ]])</f>
         <v>2015</v>
       </c>
-      <c r="I14" s="11" t="s">
+      <c r="I14" s="10" t="s">
         <v>124</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A15" s="40" t="s">
-        <v>32</v>
-      </c>
-      <c r="B15" s="9" t="s">
+      <c r="A15" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="B15" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="C15" s="32">
+      <c r="C15" s="27">
         <v>41456</v>
       </c>
-      <c r="D15" s="32">
+      <c r="D15" s="27">
         <v>42185</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>96</v>
       </c>
-      <c r="F15" s="31">
+      <c r="F15" s="26">
         <f>ROUNDUP((Tabela1[[#This Row],[Fim da Bolsa ]]-Tabela1[[#This Row],[Início da Bolsa]])/365*12,0)</f>
         <v>24</v>
       </c>
-      <c r="G15" s="31">
+      <c r="G15" s="26">
         <f>YEAR(Tabela1[[#This Row],[Início da Bolsa]])</f>
         <v>2013</v>
       </c>
-      <c r="H15" s="31">
+      <c r="H15" s="26">
         <f>YEAR(Tabela1[[#This Row],[Fim da Bolsa ]])</f>
         <v>2015</v>
       </c>
-      <c r="I15" s="11" t="s">
+      <c r="I15" s="10" t="s">
         <v>124</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A16" s="40" t="s">
-        <v>32</v>
-      </c>
-      <c r="B16" s="9" t="s">
+      <c r="A16" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="B16" s="8" t="s">
         <v>105</v>
       </c>
-      <c r="C16" s="32">
+      <c r="C16" s="27">
         <v>41760</v>
       </c>
-      <c r="D16" s="32">
+      <c r="D16" s="27">
         <v>42338</v>
       </c>
       <c r="E16" s="7" t="s">
         <v>96</v>
       </c>
-      <c r="F16" s="31">
+      <c r="F16" s="26">
         <f>ROUNDUP((Tabela1[[#This Row],[Fim da Bolsa ]]-Tabela1[[#This Row],[Início da Bolsa]])/365*12,0)</f>
         <v>20</v>
       </c>
-      <c r="G16" s="31">
+      <c r="G16" s="26">
         <f>YEAR(Tabela1[[#This Row],[Início da Bolsa]])</f>
         <v>2014</v>
       </c>
-      <c r="H16" s="31">
+      <c r="H16" s="26">
         <f>YEAR(Tabela1[[#This Row],[Fim da Bolsa ]])</f>
         <v>2015</v>
       </c>
-      <c r="I16" s="11" t="s">
+      <c r="I16" s="10" t="s">
         <v>124</v>
       </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A17" s="40" t="s">
-        <v>32</v>
-      </c>
-      <c r="B17" s="9" t="s">
+      <c r="A17" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="B17" s="8" t="s">
         <v>106</v>
       </c>
-      <c r="C17" s="32">
+      <c r="C17" s="27">
         <v>42036</v>
       </c>
-      <c r="D17" s="32">
+      <c r="D17" s="27">
         <v>42551</v>
       </c>
       <c r="E17" s="7" t="s">
         <v>96</v>
       </c>
-      <c r="F17" s="31">
+      <c r="F17" s="26">
         <f>ROUNDUP((Tabela1[[#This Row],[Fim da Bolsa ]]-Tabela1[[#This Row],[Início da Bolsa]])/365*12,0)</f>
         <v>17</v>
       </c>
-      <c r="G17" s="31">
+      <c r="G17" s="26">
         <f>YEAR(Tabela1[[#This Row],[Início da Bolsa]])</f>
         <v>2015</v>
       </c>
-      <c r="H17" s="31">
+      <c r="H17" s="26">
         <f>YEAR(Tabela1[[#This Row],[Fim da Bolsa ]])</f>
         <v>2016</v>
       </c>
-      <c r="I17" s="11" t="s">
+      <c r="I17" s="10" t="s">
         <v>124</v>
       </c>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A18" s="40" t="s">
-        <v>32</v>
-      </c>
-      <c r="B18" s="9" t="s">
+      <c r="A18" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="B18" s="8" t="s">
         <v>107</v>
       </c>
-      <c r="C18" s="32">
+      <c r="C18" s="27">
         <v>42095</v>
       </c>
-      <c r="D18" s="32">
+      <c r="D18" s="27">
         <v>42551</v>
       </c>
       <c r="E18" s="7" t="s">
         <v>96</v>
       </c>
-      <c r="F18" s="31">
+      <c r="F18" s="26">
         <f>ROUNDUP((Tabela1[[#This Row],[Fim da Bolsa ]]-Tabela1[[#This Row],[Início da Bolsa]])/365*12,0)</f>
         <v>15</v>
       </c>
-      <c r="G18" s="31">
+      <c r="G18" s="26">
         <f>YEAR(Tabela1[[#This Row],[Início da Bolsa]])</f>
         <v>2015</v>
       </c>
-      <c r="H18" s="31">
+      <c r="H18" s="26">
         <f>YEAR(Tabela1[[#This Row],[Fim da Bolsa ]])</f>
         <v>2016</v>
       </c>
-      <c r="I18" s="11" t="s">
+      <c r="I18" s="10" t="s">
         <v>124</v>
       </c>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A19" s="40" t="s">
-        <v>32</v>
-      </c>
-      <c r="B19" s="9" t="s">
+      <c r="A19" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="B19" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="C19" s="32">
+      <c r="C19" s="27">
         <v>42095</v>
       </c>
-      <c r="D19" s="32">
+      <c r="D19" s="27">
         <v>42551</v>
       </c>
       <c r="E19" s="7" t="s">
         <v>96</v>
       </c>
-      <c r="F19" s="31">
+      <c r="F19" s="26">
         <f>ROUNDUP((Tabela1[[#This Row],[Fim da Bolsa ]]-Tabela1[[#This Row],[Início da Bolsa]])/365*12,0)</f>
         <v>15</v>
       </c>
-      <c r="G19" s="31">
+      <c r="G19" s="26">
         <f>YEAR(Tabela1[[#This Row],[Início da Bolsa]])</f>
         <v>2015</v>
       </c>
-      <c r="H19" s="31">
+      <c r="H19" s="26">
         <f>YEAR(Tabela1[[#This Row],[Fim da Bolsa ]])</f>
         <v>2016</v>
       </c>
-      <c r="I19" s="11" t="s">
+      <c r="I19" s="10" t="s">
         <v>124</v>
       </c>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A20" s="40" t="s">
-        <v>32</v>
-      </c>
-      <c r="B20" s="9" t="s">
+      <c r="A20" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="B20" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="C20" s="32">
+      <c r="C20" s="27">
         <v>41974</v>
       </c>
-      <c r="D20" s="32">
+      <c r="D20" s="27">
         <v>42704</v>
       </c>
       <c r="E20" s="7" t="s">
         <v>96</v>
       </c>
-      <c r="F20" s="31">
+      <c r="F20" s="26">
         <f>ROUNDUP((Tabela1[[#This Row],[Fim da Bolsa ]]-Tabela1[[#This Row],[Início da Bolsa]])/365*12,0)</f>
         <v>24</v>
       </c>
-      <c r="G20" s="31">
+      <c r="G20" s="26">
         <f>YEAR(Tabela1[[#This Row],[Início da Bolsa]])</f>
         <v>2014</v>
       </c>
-      <c r="H20" s="31">
+      <c r="H20" s="26">
         <f>YEAR(Tabela1[[#This Row],[Fim da Bolsa ]])</f>
         <v>2016</v>
       </c>
-      <c r="I20" s="11" t="s">
+      <c r="I20" s="10" t="s">
         <v>124</v>
       </c>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A21" s="50" t="s">
-        <v>32</v>
-      </c>
-      <c r="B21" s="51" t="s">
+      <c r="A21" s="41" t="s">
+        <v>32</v>
+      </c>
+      <c r="B21" s="42" t="s">
         <v>23</v>
       </c>
-      <c r="C21" s="52">
+      <c r="C21" s="43">
         <v>42005</v>
       </c>
-      <c r="D21" s="52">
+      <c r="D21" s="43">
         <v>42705</v>
       </c>
-      <c r="E21" s="53" t="s">
+      <c r="E21" s="44" t="s">
         <v>100</v>
       </c>
-      <c r="F21" s="54">
+      <c r="F21" s="45">
         <f>ROUNDUP((Tabela1[[#This Row],[Fim da Bolsa ]]-Tabela1[[#This Row],[Início da Bolsa]])/365*12,0)</f>
         <v>24</v>
       </c>
-      <c r="G21" s="54">
+      <c r="G21" s="45">
         <f>YEAR(Tabela1[[#This Row],[Início da Bolsa]])</f>
         <v>2015</v>
       </c>
-      <c r="H21" s="54">
+      <c r="H21" s="45">
         <f>YEAR(Tabela1[[#This Row],[Fim da Bolsa ]])</f>
         <v>2016</v>
       </c>
-      <c r="I21" s="54" t="s">
+      <c r="I21" s="45" t="s">
         <v>124</v>
       </c>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A22" s="8" t="s">
+      <c r="A22" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="B22" s="9" t="s">
+      <c r="B22" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="C22" s="32">
+      <c r="C22" s="27">
         <v>41883</v>
       </c>
-      <c r="D22" s="32">
+      <c r="D22" s="27">
         <v>42735</v>
       </c>
       <c r="E22" s="7" t="s">
         <v>95</v>
       </c>
-      <c r="F22" s="31">
+      <c r="F22" s="26">
         <f>ROUNDUP((Tabela1[[#This Row],[Fim da Bolsa ]]-Tabela1[[#This Row],[Início da Bolsa]])/365*12,0)</f>
         <v>29</v>
       </c>
-      <c r="G22" s="31">
+      <c r="G22" s="26">
         <f>YEAR(Tabela1[[#This Row],[Início da Bolsa]])</f>
         <v>2014</v>
       </c>
-      <c r="H22" s="31">
+      <c r="H22" s="26">
         <f>YEAR(Tabela1[[#This Row],[Fim da Bolsa ]])</f>
         <v>2016</v>
       </c>
-      <c r="I22" s="11" t="s">
+      <c r="I22" s="10" t="s">
         <v>95</v>
       </c>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A23" s="40" t="s">
-        <v>32</v>
-      </c>
-      <c r="B23" s="9" t="s">
+      <c r="A23" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="B23" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="C23" s="32">
+      <c r="C23" s="27">
         <v>42036</v>
       </c>
-      <c r="D23" s="32">
+      <c r="D23" s="27">
         <v>42735</v>
       </c>
       <c r="E23" s="7" t="s">
         <v>96</v>
       </c>
-      <c r="F23" s="31">
+      <c r="F23" s="26">
         <f>ROUNDUP((Tabela1[[#This Row],[Fim da Bolsa ]]-Tabela1[[#This Row],[Início da Bolsa]])/365*12,0)</f>
         <v>23</v>
       </c>
-      <c r="G23" s="31">
+      <c r="G23" s="26">
         <f>YEAR(Tabela1[[#This Row],[Início da Bolsa]])</f>
         <v>2015</v>
       </c>
-      <c r="H23" s="31">
+      <c r="H23" s="26">
         <f>YEAR(Tabela1[[#This Row],[Fim da Bolsa ]])</f>
         <v>2016</v>
       </c>
-      <c r="I23" s="11" t="s">
+      <c r="I23" s="10" t="s">
         <v>124</v>
       </c>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A24" s="40" t="s">
-        <v>32</v>
-      </c>
-      <c r="B24" s="9" t="s">
+      <c r="A24" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="B24" s="8" t="s">
         <v>108</v>
       </c>
-      <c r="C24" s="32">
+      <c r="C24" s="27">
         <v>42186</v>
       </c>
-      <c r="D24" s="32">
+      <c r="D24" s="27">
         <v>42916</v>
       </c>
       <c r="E24" s="7" t="s">
         <v>96</v>
       </c>
-      <c r="F24" s="31">
+      <c r="F24" s="26">
         <f>ROUNDUP((Tabela1[[#This Row],[Fim da Bolsa ]]-Tabela1[[#This Row],[Início da Bolsa]])/365*12,0)</f>
         <v>24</v>
       </c>
-      <c r="G24" s="31">
+      <c r="G24" s="26">
         <f>YEAR(Tabela1[[#This Row],[Início da Bolsa]])</f>
         <v>2015</v>
       </c>
-      <c r="H24" s="31">
+      <c r="H24" s="26">
         <f>YEAR(Tabela1[[#This Row],[Fim da Bolsa ]])</f>
         <v>2017</v>
       </c>
-      <c r="I24" s="11" t="s">
+      <c r="I24" s="10" t="s">
         <v>124</v>
       </c>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A25" s="40" t="s">
-        <v>32</v>
-      </c>
-      <c r="B25" s="9" t="s">
+      <c r="A25" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="B25" s="8" t="s">
         <v>109</v>
       </c>
-      <c r="C25" s="32">
+      <c r="C25" s="27">
         <v>42186</v>
       </c>
-      <c r="D25" s="32">
+      <c r="D25" s="27">
         <v>42916</v>
       </c>
       <c r="E25" s="7" t="s">
         <v>96</v>
       </c>
-      <c r="F25" s="31">
+      <c r="F25" s="26">
         <f>ROUNDUP((Tabela1[[#This Row],[Fim da Bolsa ]]-Tabela1[[#This Row],[Início da Bolsa]])/365*12,0)</f>
         <v>24</v>
       </c>
-      <c r="G25" s="31">
+      <c r="G25" s="26">
         <f>YEAR(Tabela1[[#This Row],[Início da Bolsa]])</f>
         <v>2015</v>
       </c>
-      <c r="H25" s="31">
+      <c r="H25" s="26">
         <f>YEAR(Tabela1[[#This Row],[Fim da Bolsa ]])</f>
         <v>2017</v>
       </c>
-      <c r="I25" s="11" t="s">
+      <c r="I25" s="10" t="s">
         <v>124</v>
       </c>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A26" s="40" t="s">
-        <v>32</v>
-      </c>
-      <c r="B26" s="9" t="s">
+      <c r="A26" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="B26" s="8" t="s">
         <v>67</v>
       </c>
-      <c r="C26" s="32">
+      <c r="C26" s="27">
         <v>42186</v>
       </c>
-      <c r="D26" s="32">
+      <c r="D26" s="27">
         <v>42916</v>
       </c>
       <c r="E26" s="7" t="s">
         <v>96</v>
       </c>
-      <c r="F26" s="31">
+      <c r="F26" s="26">
         <f>ROUNDUP((Tabela1[[#This Row],[Fim da Bolsa ]]-Tabela1[[#This Row],[Início da Bolsa]])/365*12,0)</f>
         <v>24</v>
       </c>
-      <c r="G26" s="31">
+      <c r="G26" s="26">
         <f>YEAR(Tabela1[[#This Row],[Início da Bolsa]])</f>
         <v>2015</v>
       </c>
-      <c r="H26" s="31">
+      <c r="H26" s="26">
         <f>YEAR(Tabela1[[#This Row],[Fim da Bolsa ]])</f>
         <v>2017</v>
       </c>
-      <c r="I26" s="11" t="s">
+      <c r="I26" s="10" t="s">
         <v>124</v>
       </c>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A27" s="40" t="s">
-        <v>32</v>
-      </c>
-      <c r="B27" s="9" t="s">
+      <c r="A27" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="B27" s="8" t="s">
         <v>110</v>
       </c>
-      <c r="C27" s="32">
+      <c r="C27" s="27">
         <v>42278</v>
       </c>
-      <c r="D27" s="32">
+      <c r="D27" s="27">
         <v>42916</v>
       </c>
       <c r="E27" s="7" t="s">
         <v>96</v>
       </c>
-      <c r="F27" s="31">
+      <c r="F27" s="26">
         <f>ROUNDUP((Tabela1[[#This Row],[Fim da Bolsa ]]-Tabela1[[#This Row],[Início da Bolsa]])/365*12,0)</f>
         <v>21</v>
       </c>
-      <c r="G27" s="31">
+      <c r="G27" s="26">
         <f>YEAR(Tabela1[[#This Row],[Início da Bolsa]])</f>
         <v>2015</v>
       </c>
-      <c r="H27" s="31">
+      <c r="H27" s="26">
         <f>YEAR(Tabela1[[#This Row],[Fim da Bolsa ]])</f>
         <v>2017</v>
       </c>
-      <c r="I27" s="11" t="s">
+      <c r="I27" s="10" t="s">
         <v>124</v>
       </c>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A28" s="50" t="s">
-        <v>32</v>
-      </c>
-      <c r="B28" s="51" t="s">
+      <c r="A28" s="41" t="s">
+        <v>32</v>
+      </c>
+      <c r="B28" s="42" t="s">
         <v>10</v>
       </c>
-      <c r="C28" s="52">
+      <c r="C28" s="43">
         <v>42917</v>
       </c>
-      <c r="D28" s="52">
+      <c r="D28" s="43">
         <v>42917</v>
       </c>
-      <c r="E28" s="53" t="s">
+      <c r="E28" s="44" t="s">
         <v>100</v>
       </c>
-      <c r="F28" s="54">
+      <c r="F28" s="45">
         <f>ROUNDUP((Tabela1[[#This Row],[Fim da Bolsa ]]-Tabela1[[#This Row],[Início da Bolsa]])/365*12,0)</f>
         <v>0</v>
       </c>
-      <c r="G28" s="54">
+      <c r="G28" s="45">
         <f>YEAR(Tabela1[[#This Row],[Início da Bolsa]])</f>
         <v>2017</v>
       </c>
-      <c r="H28" s="54">
+      <c r="H28" s="45">
         <f>YEAR(Tabela1[[#This Row],[Fim da Bolsa ]])</f>
         <v>2017</v>
       </c>
-      <c r="I28" s="54" t="s">
+      <c r="I28" s="45" t="s">
         <v>124</v>
       </c>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A29" s="40" t="s">
-        <v>32</v>
-      </c>
-      <c r="B29" s="9" t="s">
+      <c r="A29" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="B29" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="C29" s="32">
+      <c r="C29" s="27">
         <v>42339</v>
       </c>
-      <c r="D29" s="32">
+      <c r="D29" s="27">
         <v>43069</v>
       </c>
       <c r="E29" s="7" t="s">
         <v>96</v>
       </c>
-      <c r="F29" s="31">
+      <c r="F29" s="26">
         <f>ROUNDUP((Tabela1[[#This Row],[Fim da Bolsa ]]-Tabela1[[#This Row],[Início da Bolsa]])/365*12,0)</f>
         <v>24</v>
       </c>
-      <c r="G29" s="31">
+      <c r="G29" s="26">
         <f>YEAR(Tabela1[[#This Row],[Início da Bolsa]])</f>
         <v>2015</v>
       </c>
-      <c r="H29" s="31">
+      <c r="H29" s="26">
         <f>YEAR(Tabela1[[#This Row],[Fim da Bolsa ]])</f>
         <v>2017</v>
       </c>
-      <c r="I29" s="11" t="s">
+      <c r="I29" s="10" t="s">
         <v>124</v>
       </c>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A30" s="50" t="s">
-        <v>32</v>
-      </c>
-      <c r="B30" s="51" t="s">
+      <c r="A30" s="41" t="s">
+        <v>32</v>
+      </c>
+      <c r="B30" s="42" t="s">
         <v>7</v>
       </c>
-      <c r="C30" s="52">
+      <c r="C30" s="43">
         <v>43070</v>
       </c>
-      <c r="D30" s="52">
+      <c r="D30" s="43">
         <v>43131</v>
       </c>
-      <c r="E30" s="53" t="s">
+      <c r="E30" s="44" t="s">
         <v>100</v>
       </c>
-      <c r="F30" s="54">
+      <c r="F30" s="45">
         <f>ROUNDUP((Tabela1[[#This Row],[Fim da Bolsa ]]-Tabela1[[#This Row],[Início da Bolsa]])/365*12,0)</f>
         <v>3</v>
       </c>
-      <c r="G30" s="54">
+      <c r="G30" s="45">
         <f>YEAR(Tabela1[[#This Row],[Início da Bolsa]])</f>
         <v>2017</v>
       </c>
-      <c r="H30" s="54">
+      <c r="H30" s="45">
         <f>YEAR(Tabela1[[#This Row],[Fim da Bolsa ]])</f>
         <v>2018</v>
       </c>
-      <c r="I30" s="54" t="s">
+      <c r="I30" s="45" t="s">
         <v>124</v>
       </c>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A31" s="40" t="s">
-        <v>32</v>
-      </c>
-      <c r="B31" s="9" t="s">
+      <c r="A31" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="B31" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="C31" s="32">
+      <c r="C31" s="27">
         <v>42552</v>
       </c>
-      <c r="D31" s="32">
+      <c r="D31" s="27">
         <v>43281</v>
       </c>
       <c r="E31" s="7" t="s">
         <v>96</v>
       </c>
-      <c r="F31" s="31">
+      <c r="F31" s="26">
         <f>ROUNDUP((Tabela1[[#This Row],[Fim da Bolsa ]]-Tabela1[[#This Row],[Início da Bolsa]])/365*12,0)</f>
         <v>24</v>
       </c>
-      <c r="G31" s="31">
+      <c r="G31" s="26">
         <f>YEAR(Tabela1[[#This Row],[Início da Bolsa]])</f>
         <v>2016</v>
       </c>
-      <c r="H31" s="31">
+      <c r="H31" s="26">
         <f>YEAR(Tabela1[[#This Row],[Fim da Bolsa ]])</f>
         <v>2018</v>
       </c>
-      <c r="I31" s="11" t="s">
+      <c r="I31" s="10" t="s">
         <v>124</v>
       </c>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A32" s="40" t="s">
-        <v>32</v>
-      </c>
-      <c r="B32" s="9" t="s">
+      <c r="A32" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="B32" s="8" t="s">
         <v>64</v>
       </c>
-      <c r="C32" s="32">
+      <c r="C32" s="27">
         <v>42552</v>
       </c>
-      <c r="D32" s="32">
+      <c r="D32" s="27">
         <v>43281</v>
       </c>
       <c r="E32" s="7" t="s">
         <v>96</v>
       </c>
-      <c r="F32" s="31">
+      <c r="F32" s="26">
         <f>ROUNDUP((Tabela1[[#This Row],[Fim da Bolsa ]]-Tabela1[[#This Row],[Início da Bolsa]])/365*12,0)</f>
         <v>24</v>
       </c>
-      <c r="G32" s="31">
+      <c r="G32" s="26">
         <f>YEAR(Tabela1[[#This Row],[Início da Bolsa]])</f>
         <v>2016</v>
       </c>
-      <c r="H32" s="31">
+      <c r="H32" s="26">
         <f>YEAR(Tabela1[[#This Row],[Fim da Bolsa ]])</f>
         <v>2018</v>
       </c>
-      <c r="I32" s="11" t="s">
+      <c r="I32" s="10" t="s">
         <v>124</v>
       </c>
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A33" s="40" t="s">
-        <v>32</v>
-      </c>
-      <c r="B33" s="9" t="s">
+      <c r="A33" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="B33" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="C33" s="32">
+      <c r="C33" s="27">
         <v>42552</v>
       </c>
-      <c r="D33" s="32">
+      <c r="D33" s="27">
         <v>43281</v>
       </c>
       <c r="E33" s="7" t="s">
         <v>96</v>
       </c>
-      <c r="F33" s="31">
+      <c r="F33" s="26">
         <f>ROUNDUP((Tabela1[[#This Row],[Fim da Bolsa ]]-Tabela1[[#This Row],[Início da Bolsa]])/365*12,0)</f>
         <v>24</v>
       </c>
-      <c r="G33" s="31">
+      <c r="G33" s="26">
         <f>YEAR(Tabela1[[#This Row],[Início da Bolsa]])</f>
         <v>2016</v>
       </c>
-      <c r="H33" s="31">
+      <c r="H33" s="26">
         <f>YEAR(Tabela1[[#This Row],[Fim da Bolsa ]])</f>
         <v>2018</v>
       </c>
-      <c r="I33" s="11" t="s">
+      <c r="I33" s="10" t="s">
         <v>124</v>
       </c>
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A34" s="40" t="s">
-        <v>32</v>
-      </c>
-      <c r="B34" s="9" t="s">
+      <c r="A34" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="B34" s="8" t="s">
         <v>113</v>
       </c>
-      <c r="C34" s="32">
+      <c r="C34" s="27">
         <v>42736</v>
       </c>
-      <c r="D34" s="32">
+      <c r="D34" s="27">
         <v>43465</v>
       </c>
       <c r="E34" s="7" t="s">
         <v>96</v>
       </c>
-      <c r="F34" s="31">
+      <c r="F34" s="26">
         <f>ROUNDUP((Tabela1[[#This Row],[Fim da Bolsa ]]-Tabela1[[#This Row],[Início da Bolsa]])/365*12,0)</f>
         <v>24</v>
       </c>
-      <c r="G34" s="31">
+      <c r="G34" s="26">
         <f>YEAR(Tabela1[[#This Row],[Início da Bolsa]])</f>
         <v>2017</v>
       </c>
-      <c r="H34" s="31">
+      <c r="H34" s="26">
         <f>YEAR(Tabela1[[#This Row],[Fim da Bolsa ]])</f>
         <v>2018</v>
       </c>
-      <c r="I34" s="11" t="s">
+      <c r="I34" s="10" t="s">
         <v>124</v>
       </c>
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A35" s="40" t="s">
-        <v>32</v>
-      </c>
-      <c r="B35" s="9" t="s">
+      <c r="A35" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="B35" s="8" t="s">
         <v>114</v>
       </c>
-      <c r="C35" s="32">
+      <c r="C35" s="27">
         <v>42736</v>
       </c>
-      <c r="D35" s="32">
+      <c r="D35" s="27">
         <v>43465</v>
       </c>
       <c r="E35" s="7" t="s">
         <v>96</v>
       </c>
-      <c r="F35" s="31">
+      <c r="F35" s="26">
         <f>ROUNDUP((Tabela1[[#This Row],[Fim da Bolsa ]]-Tabela1[[#This Row],[Início da Bolsa]])/365*12,0)</f>
         <v>24</v>
       </c>
-      <c r="G35" s="31">
+      <c r="G35" s="26">
         <f>YEAR(Tabela1[[#This Row],[Início da Bolsa]])</f>
         <v>2017</v>
       </c>
-      <c r="H35" s="31">
+      <c r="H35" s="26">
         <f>YEAR(Tabela1[[#This Row],[Fim da Bolsa ]])</f>
         <v>2018</v>
       </c>
-      <c r="I35" s="11" t="s">
+      <c r="I35" s="10" t="s">
         <v>124</v>
       </c>
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A36" s="40" t="s">
-        <v>32</v>
-      </c>
-      <c r="B36" s="9" t="s">
+      <c r="A36" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="B36" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="C36" s="32">
+      <c r="C36" s="27">
         <v>42736</v>
       </c>
-      <c r="D36" s="32">
+      <c r="D36" s="27">
         <v>43465</v>
       </c>
       <c r="E36" s="7" t="s">
         <v>96</v>
       </c>
-      <c r="F36" s="31">
+      <c r="F36" s="26">
         <f>ROUNDUP((Tabela1[[#This Row],[Fim da Bolsa ]]-Tabela1[[#This Row],[Início da Bolsa]])/365*12,0)</f>
         <v>24</v>
       </c>
-      <c r="G36" s="31">
+      <c r="G36" s="26">
         <f>YEAR(Tabela1[[#This Row],[Início da Bolsa]])</f>
         <v>2017</v>
       </c>
-      <c r="H36" s="31">
+      <c r="H36" s="26">
         <f>YEAR(Tabela1[[#This Row],[Fim da Bolsa ]])</f>
         <v>2018</v>
       </c>
-      <c r="I36" s="11" t="s">
+      <c r="I36" s="10" t="s">
         <v>124</v>
       </c>
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A37" s="40" t="s">
-        <v>32</v>
-      </c>
-      <c r="B37" s="9" t="s">
+      <c r="A37" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="B37" s="8" t="s">
         <v>116</v>
       </c>
-      <c r="C37" s="32">
+      <c r="C37" s="27">
         <v>42917</v>
       </c>
-      <c r="D37" s="32">
+      <c r="D37" s="27">
         <v>43617</v>
       </c>
       <c r="E37" s="7" t="s">
         <v>96</v>
       </c>
-      <c r="F37" s="31">
+      <c r="F37" s="26">
         <f>ROUNDUP((Tabela1[[#This Row],[Fim da Bolsa ]]-Tabela1[[#This Row],[Início da Bolsa]])/365*12,0)</f>
         <v>24</v>
       </c>
-      <c r="G37" s="31">
+      <c r="G37" s="26">
         <f>YEAR(Tabela1[[#This Row],[Início da Bolsa]])</f>
         <v>2017</v>
       </c>
-      <c r="H37" s="31">
+      <c r="H37" s="26">
         <f>YEAR(Tabela1[[#This Row],[Fim da Bolsa ]])</f>
         <v>2019</v>
       </c>
-      <c r="I37" s="11" t="s">
+      <c r="I37" s="10" t="s">
         <v>124</v>
       </c>
     </row>
     <row r="38" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A38" s="40" t="s">
-        <v>32</v>
-      </c>
-      <c r="B38" s="9" t="s">
+      <c r="A38" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="B38" s="8" t="s">
         <v>115</v>
       </c>
-      <c r="C38" s="32">
+      <c r="C38" s="27">
         <v>42917</v>
       </c>
-      <c r="D38" s="32">
+      <c r="D38" s="27">
         <v>43646</v>
       </c>
       <c r="E38" s="7" t="s">
         <v>96</v>
       </c>
-      <c r="F38" s="31">
+      <c r="F38" s="26">
         <f>ROUNDUP((Tabela1[[#This Row],[Fim da Bolsa ]]-Tabela1[[#This Row],[Início da Bolsa]])/365*12,0)</f>
         <v>24</v>
       </c>
-      <c r="G38" s="31">
+      <c r="G38" s="26">
         <f>YEAR(Tabela1[[#This Row],[Início da Bolsa]])</f>
         <v>2017</v>
       </c>
-      <c r="H38" s="31">
+      <c r="H38" s="26">
         <f>YEAR(Tabela1[[#This Row],[Fim da Bolsa ]])</f>
         <v>2019</v>
       </c>
-      <c r="I38" s="11" t="s">
+      <c r="I38" s="10" t="s">
         <v>124</v>
       </c>
     </row>
     <row r="39" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A39" s="40" t="s">
-        <v>32</v>
-      </c>
-      <c r="B39" s="9" t="s">
+      <c r="A39" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="B39" s="8" t="s">
         <v>117</v>
       </c>
-      <c r="C39" s="32">
+      <c r="C39" s="27">
         <v>42948</v>
       </c>
-      <c r="D39" s="32">
+      <c r="D39" s="27">
         <v>43646</v>
       </c>
       <c r="E39" s="7" t="s">
         <v>96</v>
       </c>
-      <c r="F39" s="31">
+      <c r="F39" s="26">
         <f>ROUNDUP((Tabela1[[#This Row],[Fim da Bolsa ]]-Tabela1[[#This Row],[Início da Bolsa]])/365*12,0)</f>
         <v>23</v>
       </c>
-      <c r="G39" s="31">
+      <c r="G39" s="26">
         <f>YEAR(Tabela1[[#This Row],[Início da Bolsa]])</f>
         <v>2017</v>
       </c>
-      <c r="H39" s="31">
+      <c r="H39" s="26">
         <f>YEAR(Tabela1[[#This Row],[Fim da Bolsa ]])</f>
         <v>2019</v>
       </c>
-      <c r="I39" s="11" t="s">
+      <c r="I39" s="10" t="s">
         <v>124</v>
       </c>
     </row>
     <row r="40" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A40" s="40" t="s">
-        <v>32</v>
-      </c>
-      <c r="B40" s="9" t="s">
+      <c r="A40" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="B40" s="8" t="s">
         <v>118</v>
       </c>
-      <c r="C40" s="32">
+      <c r="C40" s="27">
         <v>42948</v>
       </c>
-      <c r="D40" s="32">
+      <c r="D40" s="27">
         <v>43677</v>
       </c>
       <c r="E40" s="7" t="s">
         <v>96</v>
       </c>
-      <c r="F40" s="31">
+      <c r="F40" s="26">
         <f>ROUNDUP((Tabela1[[#This Row],[Fim da Bolsa ]]-Tabela1[[#This Row],[Início da Bolsa]])/365*12,0)</f>
         <v>24</v>
       </c>
-      <c r="G40" s="31">
+      <c r="G40" s="26">
         <f>YEAR(Tabela1[[#This Row],[Início da Bolsa]])</f>
         <v>2017</v>
       </c>
-      <c r="H40" s="31">
+      <c r="H40" s="26">
         <f>YEAR(Tabela1[[#This Row],[Fim da Bolsa ]])</f>
         <v>2019</v>
       </c>
-      <c r="I40" s="11" t="s">
+      <c r="I40" s="10" t="s">
         <v>124</v>
       </c>
     </row>
     <row r="41" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A41" s="40" t="s">
+      <c r="A41" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="B41" s="9" t="s">
+      <c r="B41" s="8" t="s">
         <v>111</v>
       </c>
-      <c r="C41" s="32">
+      <c r="C41" s="27">
         <v>42309</v>
       </c>
-      <c r="D41" s="32">
+      <c r="D41" s="27">
         <v>43769</v>
       </c>
       <c r="E41" s="7" t="s">
         <v>96</v>
       </c>
-      <c r="F41" s="31">
+      <c r="F41" s="26">
         <f>ROUNDUP((Tabela1[[#This Row],[Fim da Bolsa ]]-Tabela1[[#This Row],[Início da Bolsa]])/365*12,0)</f>
         <v>48</v>
       </c>
-      <c r="G41" s="31">
+      <c r="G41" s="26">
         <f>YEAR(Tabela1[[#This Row],[Início da Bolsa]])</f>
         <v>2015</v>
       </c>
-      <c r="H41" s="31">
+      <c r="H41" s="26">
         <f>YEAR(Tabela1[[#This Row],[Fim da Bolsa ]])</f>
         <v>2019</v>
       </c>
-      <c r="I41" s="11" t="s">
+      <c r="I41" s="10" t="s">
         <v>124</v>
       </c>
     </row>
     <row r="42" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A42" s="40" t="s">
+      <c r="A42" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="B42" s="9" t="s">
+      <c r="B42" s="8" t="s">
         <v>93</v>
       </c>
-      <c r="C42" s="32">
+      <c r="C42" s="27">
         <v>42309</v>
       </c>
-      <c r="D42" s="32">
+      <c r="D42" s="27">
         <v>43769</v>
       </c>
       <c r="E42" s="7" t="s">
         <v>96</v>
       </c>
-      <c r="F42" s="31">
+      <c r="F42" s="26">
         <f>ROUNDUP((Tabela1[[#This Row],[Fim da Bolsa ]]-Tabela1[[#This Row],[Início da Bolsa]])/365*12,0)</f>
         <v>48</v>
       </c>
-      <c r="G42" s="31">
+      <c r="G42" s="26">
         <f>YEAR(Tabela1[[#This Row],[Início da Bolsa]])</f>
         <v>2015</v>
       </c>
-      <c r="H42" s="31">
+      <c r="H42" s="26">
         <f>YEAR(Tabela1[[#This Row],[Fim da Bolsa ]])</f>
         <v>2019</v>
       </c>
-      <c r="I42" s="11" t="s">
+      <c r="I42" s="10" t="s">
         <v>124</v>
       </c>
     </row>
     <row r="43" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A43" s="40" t="s">
+      <c r="A43" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="B43" s="42" t="s">
+      <c r="B43" s="8" t="s">
         <v>94</v>
       </c>
-      <c r="C43" s="32">
+      <c r="C43" s="27">
         <v>42309</v>
       </c>
-      <c r="D43" s="32">
+      <c r="D43" s="27">
         <v>43769</v>
       </c>
       <c r="E43" s="7" t="s">
         <v>96</v>
       </c>
-      <c r="F43" s="31">
+      <c r="F43" s="26">
         <f>ROUNDUP((Tabela1[[#This Row],[Fim da Bolsa ]]-Tabela1[[#This Row],[Início da Bolsa]])/365*12,0)</f>
         <v>48</v>
       </c>
-      <c r="G43" s="31">
+      <c r="G43" s="26">
         <f>YEAR(Tabela1[[#This Row],[Início da Bolsa]])</f>
         <v>2015</v>
       </c>
-      <c r="H43" s="31">
+      <c r="H43" s="26">
         <f>YEAR(Tabela1[[#This Row],[Fim da Bolsa ]])</f>
         <v>2019</v>
       </c>
-      <c r="I43" s="11" t="s">
+      <c r="I43" s="10" t="s">
         <v>124</v>
       </c>
     </row>
     <row r="44" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A44" s="40" t="s">
+      <c r="A44" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="B44" s="9" t="s">
+      <c r="B44" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="C44" s="32">
+      <c r="C44" s="27">
         <v>42309</v>
       </c>
-      <c r="D44" s="32">
+      <c r="D44" s="27">
         <v>43769</v>
       </c>
       <c r="E44" s="7" t="s">
         <v>96</v>
       </c>
-      <c r="F44" s="31">
+      <c r="F44" s="26">
         <f>ROUNDUP((Tabela1[[#This Row],[Fim da Bolsa ]]-Tabela1[[#This Row],[Início da Bolsa]])/365*12,0)</f>
         <v>48</v>
       </c>
-      <c r="G44" s="31">
+      <c r="G44" s="26">
         <f>YEAR(Tabela1[[#This Row],[Início da Bolsa]])</f>
         <v>2015</v>
       </c>
-      <c r="H44" s="31">
+      <c r="H44" s="26">
         <f>YEAR(Tabela1[[#This Row],[Fim da Bolsa ]])</f>
         <v>2019</v>
       </c>
-      <c r="I44" s="11" t="s">
+      <c r="I44" s="10" t="s">
         <v>124</v>
       </c>
     </row>
     <row r="45" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A45" s="40" t="s">
+      <c r="A45" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="B45" s="9" t="s">
+      <c r="B45" s="8" t="s">
         <v>101</v>
       </c>
-      <c r="C45" s="32">
+      <c r="C45" s="27">
         <v>42309</v>
       </c>
-      <c r="D45" s="32">
+      <c r="D45" s="27">
         <v>43769</v>
       </c>
       <c r="E45" s="7" t="s">
         <v>96</v>
       </c>
-      <c r="F45" s="31">
+      <c r="F45" s="26">
         <f>ROUNDUP((Tabela1[[#This Row],[Fim da Bolsa ]]-Tabela1[[#This Row],[Início da Bolsa]])/365*12,0)</f>
         <v>48</v>
       </c>
-      <c r="G45" s="31">
+      <c r="G45" s="26">
         <f>YEAR(Tabela1[[#This Row],[Início da Bolsa]])</f>
         <v>2015</v>
       </c>
-      <c r="H45" s="31">
+      <c r="H45" s="26">
         <f>YEAR(Tabela1[[#This Row],[Fim da Bolsa ]])</f>
         <v>2019</v>
       </c>
-      <c r="I45" s="11" t="s">
+      <c r="I45" s="10" t="s">
         <v>124</v>
       </c>
     </row>
     <row r="46" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A46" s="40" t="s">
+      <c r="A46" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="B46" s="9" t="s">
+      <c r="B46" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="C46" s="32">
+      <c r="C46" s="27">
         <v>42309</v>
       </c>
-      <c r="D46" s="32">
+      <c r="D46" s="27">
         <v>43769</v>
       </c>
       <c r="E46" s="7" t="s">
         <v>96</v>
       </c>
-      <c r="F46" s="31">
+      <c r="F46" s="26">
         <f>ROUNDUP((Tabela1[[#This Row],[Fim da Bolsa ]]-Tabela1[[#This Row],[Início da Bolsa]])/365*12,0)</f>
         <v>48</v>
       </c>
-      <c r="G46" s="31">
+      <c r="G46" s="26">
         <f>YEAR(Tabela1[[#This Row],[Início da Bolsa]])</f>
         <v>2015</v>
       </c>
-      <c r="H46" s="31">
+      <c r="H46" s="26">
         <f>YEAR(Tabela1[[#This Row],[Fim da Bolsa ]])</f>
         <v>2019</v>
       </c>
-      <c r="I46" s="11" t="s">
+      <c r="I46" s="10" t="s">
         <v>124</v>
       </c>
     </row>
     <row r="47" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A47" s="40" t="s">
+      <c r="A47" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="B47" s="9" t="s">
+      <c r="B47" s="8" t="s">
         <v>85</v>
       </c>
-      <c r="C47" s="32">
+      <c r="C47" s="27">
         <v>42309</v>
       </c>
-      <c r="D47" s="32">
+      <c r="D47" s="27">
         <v>43769</v>
       </c>
       <c r="E47" s="7" t="s">
         <v>96</v>
       </c>
-      <c r="F47" s="31">
+      <c r="F47" s="26">
         <f>ROUNDUP((Tabela1[[#This Row],[Fim da Bolsa ]]-Tabela1[[#This Row],[Início da Bolsa]])/365*12,0)</f>
         <v>48</v>
       </c>
-      <c r="G47" s="31">
+      <c r="G47" s="26">
         <f>YEAR(Tabela1[[#This Row],[Início da Bolsa]])</f>
         <v>2015</v>
       </c>
-      <c r="H47" s="31">
+      <c r="H47" s="26">
         <f>YEAR(Tabela1[[#This Row],[Fim da Bolsa ]])</f>
         <v>2019</v>
       </c>
-      <c r="I47" s="11" t="s">
+      <c r="I47" s="10" t="s">
         <v>124</v>
       </c>
     </row>
     <row r="48" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A48" s="40" t="s">
+      <c r="A48" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="B48" s="9" t="s">
+      <c r="B48" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="C48" s="32">
+      <c r="C48" s="27">
         <v>42309</v>
       </c>
-      <c r="D48" s="32">
+      <c r="D48" s="27">
         <v>43769</v>
       </c>
       <c r="E48" s="7" t="s">
         <v>96</v>
       </c>
-      <c r="F48" s="31">
+      <c r="F48" s="26">
         <f>ROUNDUP((Tabela1[[#This Row],[Fim da Bolsa ]]-Tabela1[[#This Row],[Início da Bolsa]])/365*12,0)</f>
         <v>48</v>
       </c>
-      <c r="G48" s="31">
+      <c r="G48" s="26">
         <f>YEAR(Tabela1[[#This Row],[Início da Bolsa]])</f>
         <v>2015</v>
       </c>
-      <c r="H48" s="31">
+      <c r="H48" s="26">
         <f>YEAR(Tabela1[[#This Row],[Fim da Bolsa ]])</f>
         <v>2019</v>
       </c>
-      <c r="I48" s="11" t="s">
+      <c r="I48" s="10" t="s">
         <v>124</v>
       </c>
     </row>
     <row r="49" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A49" s="40" t="s">
+      <c r="A49" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="B49" s="9" t="s">
+      <c r="B49" s="8" t="s">
         <v>112</v>
       </c>
-      <c r="C49" s="32">
+      <c r="C49" s="27">
         <v>42309</v>
       </c>
-      <c r="D49" s="32">
+      <c r="D49" s="27">
         <v>43769</v>
       </c>
       <c r="E49" s="7" t="s">
         <v>96</v>
       </c>
-      <c r="F49" s="31">
+      <c r="F49" s="26">
         <f>ROUNDUP((Tabela1[[#This Row],[Fim da Bolsa ]]-Tabela1[[#This Row],[Início da Bolsa]])/365*12,0)</f>
         <v>48</v>
       </c>
-      <c r="G49" s="31">
+      <c r="G49" s="26">
         <f>YEAR(Tabela1[[#This Row],[Início da Bolsa]])</f>
         <v>2015</v>
       </c>
-      <c r="H49" s="31">
+      <c r="H49" s="26">
         <f>YEAR(Tabela1[[#This Row],[Fim da Bolsa ]])</f>
         <v>2019</v>
       </c>
-      <c r="I49" s="11" t="s">
+      <c r="I49" s="10" t="s">
         <v>124</v>
       </c>
     </row>
     <row r="50" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A50" s="40" t="s">
+      <c r="A50" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="B50" s="9" t="s">
+      <c r="B50" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="C50" s="32">
+      <c r="C50" s="27">
         <v>42309</v>
       </c>
-      <c r="D50" s="32">
+      <c r="D50" s="27">
         <v>43769</v>
       </c>
       <c r="E50" s="7" t="s">
         <v>96</v>
       </c>
-      <c r="F50" s="31">
+      <c r="F50" s="26">
         <f>ROUNDUP((Tabela1[[#This Row],[Fim da Bolsa ]]-Tabela1[[#This Row],[Início da Bolsa]])/365*12,0)</f>
         <v>48</v>
       </c>
-      <c r="G50" s="31">
+      <c r="G50" s="26">
         <f>YEAR(Tabela1[[#This Row],[Início da Bolsa]])</f>
         <v>2015</v>
       </c>
-      <c r="H50" s="31">
+      <c r="H50" s="26">
         <f>YEAR(Tabela1[[#This Row],[Fim da Bolsa ]])</f>
         <v>2019</v>
       </c>
-      <c r="I50" s="11" t="s">
+      <c r="I50" s="10" t="s">
         <v>124</v>
       </c>
     </row>
     <row r="51" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A51" s="40" t="s">
+      <c r="A51" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="B51" s="9" t="s">
+      <c r="B51" s="8" t="s">
         <v>120</v>
       </c>
-      <c r="C51" s="32">
+      <c r="C51" s="27">
         <v>42309</v>
       </c>
-      <c r="D51" s="32">
+      <c r="D51" s="27">
         <v>43769</v>
       </c>
       <c r="E51" s="7" t="s">
         <v>96</v>
       </c>
-      <c r="F51" s="31">
+      <c r="F51" s="26">
         <f>ROUNDUP((Tabela1[[#This Row],[Fim da Bolsa ]]-Tabela1[[#This Row],[Início da Bolsa]])/365*12,0)</f>
         <v>48</v>
       </c>
-      <c r="G51" s="31">
+      <c r="G51" s="26">
         <f>YEAR(Tabela1[[#This Row],[Início da Bolsa]])</f>
         <v>2015</v>
       </c>
-      <c r="H51" s="31">
+      <c r="H51" s="26">
         <f>YEAR(Tabela1[[#This Row],[Fim da Bolsa ]])</f>
         <v>2019</v>
       </c>
-      <c r="I51" s="11" t="s">
+      <c r="I51" s="10" t="s">
         <v>124</v>
       </c>
     </row>
     <row r="52" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A52" s="40" t="s">
-        <v>32</v>
-      </c>
-      <c r="B52" s="9" t="s">
+      <c r="A52" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="B52" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="C52" s="32">
+      <c r="C52" s="27">
         <v>43313</v>
       </c>
-      <c r="D52" s="32">
+      <c r="D52" s="27">
         <v>43769</v>
       </c>
       <c r="E52" s="7" t="s">
         <v>96</v>
       </c>
-      <c r="F52" s="31">
+      <c r="F52" s="26">
         <f>ROUNDUP((Tabela1[[#This Row],[Fim da Bolsa ]]-Tabela1[[#This Row],[Início da Bolsa]])/365*12,0)</f>
         <v>15</v>
       </c>
-      <c r="G52" s="31">
+      <c r="G52" s="26">
         <f>YEAR(Tabela1[[#This Row],[Início da Bolsa]])</f>
         <v>2018</v>
       </c>
-      <c r="H52" s="31">
+      <c r="H52" s="26">
         <f>YEAR(Tabela1[[#This Row],[Fim da Bolsa ]])</f>
         <v>2019</v>
       </c>
-      <c r="I52" s="11" t="s">
+      <c r="I52" s="10" t="s">
         <v>124</v>
       </c>
     </row>
     <row r="53" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A53" s="40" t="s">
+      <c r="A53" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="B53" s="9" t="s">
+      <c r="B53" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="C53" s="32">
+      <c r="C53" s="27">
         <v>42339</v>
       </c>
-      <c r="D53" s="32">
+      <c r="D53" s="27">
         <v>43799</v>
       </c>
       <c r="E53" s="7" t="s">
         <v>96</v>
       </c>
-      <c r="F53" s="31">
+      <c r="F53" s="26">
         <f>ROUNDUP((Tabela1[[#This Row],[Fim da Bolsa ]]-Tabela1[[#This Row],[Início da Bolsa]])/365*12,0)</f>
         <v>48</v>
       </c>
-      <c r="G53" s="31">
+      <c r="G53" s="26">
         <f>YEAR(Tabela1[[#This Row],[Início da Bolsa]])</f>
         <v>2015</v>
       </c>
-      <c r="H53" s="31">
+      <c r="H53" s="26">
         <f>YEAR(Tabela1[[#This Row],[Fim da Bolsa ]])</f>
         <v>2019</v>
       </c>
-      <c r="I53" s="11" t="s">
+      <c r="I53" s="10" t="s">
         <v>124</v>
       </c>
     </row>
     <row r="54" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A54" s="40" t="s">
-        <v>32</v>
-      </c>
-      <c r="B54" s="9" t="s">
+      <c r="A54" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="B54" s="8" t="s">
         <v>121</v>
       </c>
-      <c r="C54" s="32">
+      <c r="C54" s="27">
         <v>43647</v>
       </c>
-      <c r="D54" s="32">
+      <c r="D54" s="27">
         <v>43799</v>
       </c>
-      <c r="E54" s="32" t="s">
+      <c r="E54" s="27" t="s">
         <v>96</v>
       </c>
-      <c r="F54" s="31">
+      <c r="F54" s="26">
         <f>ROUNDUP((Tabela1[[#This Row],[Fim da Bolsa ]]-Tabela1[[#This Row],[Início da Bolsa]])/365*12,0)</f>
         <v>5</v>
       </c>
-      <c r="G54" s="31">
+      <c r="G54" s="26">
         <f>YEAR(Tabela1[[#This Row],[Início da Bolsa]])</f>
         <v>2019</v>
       </c>
-      <c r="H54" s="31">
+      <c r="H54" s="26">
         <f>YEAR(Tabela1[[#This Row],[Fim da Bolsa ]])</f>
         <v>2019</v>
       </c>
-      <c r="I54" s="11" t="s">
+      <c r="I54" s="10" t="s">
         <v>124</v>
       </c>
     </row>
     <row r="55" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A55" s="40" t="s">
-        <v>32</v>
-      </c>
-      <c r="B55" s="9" t="s">
+      <c r="A55" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="B55" s="8" t="s">
         <v>56</v>
       </c>
-      <c r="C55" s="32">
+      <c r="C55" s="27">
         <v>43647</v>
       </c>
-      <c r="D55" s="32">
+      <c r="D55" s="27">
         <v>43830</v>
       </c>
-      <c r="E55" s="32" t="s">
+      <c r="E55" s="27" t="s">
         <v>96</v>
       </c>
-      <c r="F55" s="31">
+      <c r="F55" s="26">
         <f>ROUNDUP((Tabela1[[#This Row],[Fim da Bolsa ]]-Tabela1[[#This Row],[Início da Bolsa]])/365*12,0)</f>
         <v>7</v>
       </c>
-      <c r="G55" s="31">
+      <c r="G55" s="26">
         <f>YEAR(Tabela1[[#This Row],[Início da Bolsa]])</f>
         <v>2019</v>
       </c>
-      <c r="H55" s="31">
+      <c r="H55" s="26">
         <f>YEAR(Tabela1[[#This Row],[Fim da Bolsa ]])</f>
         <v>2019</v>
       </c>
-      <c r="I55" s="11" t="s">
+      <c r="I55" s="10" t="s">
         <v>124</v>
       </c>
     </row>
     <row r="56" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A56" s="40" t="s">
-        <v>32</v>
-      </c>
-      <c r="B56" s="9" t="s">
+      <c r="A56" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="B56" s="8" t="s">
         <v>119</v>
       </c>
-      <c r="C56" s="32">
+      <c r="C56" s="27">
         <v>43132</v>
       </c>
-      <c r="D56" s="32">
+      <c r="D56" s="27">
         <v>43861</v>
       </c>
       <c r="E56" s="7" t="s">
         <v>96</v>
       </c>
-      <c r="F56" s="31">
+      <c r="F56" s="26">
         <f>ROUNDUP((Tabela1[[#This Row],[Fim da Bolsa ]]-Tabela1[[#This Row],[Início da Bolsa]])/365*12,0)</f>
         <v>24</v>
       </c>
-      <c r="G56" s="31">
+      <c r="G56" s="26">
         <f>YEAR(Tabela1[[#This Row],[Início da Bolsa]])</f>
         <v>2018</v>
       </c>
-      <c r="H56" s="31">
+      <c r="H56" s="26">
         <f>YEAR(Tabela1[[#This Row],[Fim da Bolsa ]])</f>
         <v>2020</v>
       </c>
-      <c r="I56" s="11" t="s">
+      <c r="I56" s="10" t="s">
         <v>124</v>
       </c>
     </row>
     <row r="57" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A57" s="40" t="s">
-        <v>32</v>
-      </c>
-      <c r="B57" s="9" t="s">
+      <c r="A57" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="B57" s="8" t="s">
         <v>70</v>
       </c>
-      <c r="C57" s="32">
+      <c r="C57" s="27">
         <v>43647</v>
       </c>
-      <c r="D57" s="32">
+      <c r="D57" s="27">
         <v>43861</v>
       </c>
-      <c r="E57" s="32" t="s">
+      <c r="E57" s="27" t="s">
         <v>96</v>
       </c>
-      <c r="F57" s="31">
+      <c r="F57" s="26">
         <f>ROUNDUP((Tabela1[[#This Row],[Fim da Bolsa ]]-Tabela1[[#This Row],[Início da Bolsa]])/365*12,0)</f>
         <v>8</v>
       </c>
-      <c r="G57" s="31">
+      <c r="G57" s="26">
         <f>YEAR(Tabela1[[#This Row],[Início da Bolsa]])</f>
         <v>2019</v>
       </c>
-      <c r="H57" s="31">
+      <c r="H57" s="26">
         <f>YEAR(Tabela1[[#This Row],[Fim da Bolsa ]])</f>
         <v>2020</v>
       </c>
-      <c r="I57" s="11" t="s">
+      <c r="I57" s="10" t="s">
         <v>124</v>
       </c>
     </row>
     <row r="58" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A58" s="8" t="s">
+      <c r="A58" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="B58" s="9" t="s">
+      <c r="B58" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="C58" s="32">
+      <c r="C58" s="27">
         <v>42736</v>
       </c>
-      <c r="D58" s="32">
+      <c r="D58" s="27">
         <v>43889</v>
       </c>
       <c r="E58" s="7" t="s">
         <v>95</v>
       </c>
-      <c r="F58" s="31">
+      <c r="F58" s="26">
         <f>ROUNDUP((Tabela1[[#This Row],[Fim da Bolsa ]]-Tabela1[[#This Row],[Início da Bolsa]])/365*12,0)</f>
         <v>38</v>
       </c>
-      <c r="G58" s="31">
+      <c r="G58" s="26">
         <f>YEAR(Tabela1[[#This Row],[Início da Bolsa]])</f>
         <v>2017</v>
       </c>
-      <c r="H58" s="31">
+      <c r="H58" s="26">
         <f>YEAR(Tabela1[[#This Row],[Fim da Bolsa ]])</f>
         <v>2020</v>
       </c>
-      <c r="I58" s="11" t="s">
+      <c r="I58" s="10" t="s">
         <v>95</v>
       </c>
     </row>
     <row r="59" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A59" s="50" t="s">
-        <v>32</v>
-      </c>
-      <c r="B59" s="51" t="s">
+      <c r="A59" s="41" t="s">
+        <v>32</v>
+      </c>
+      <c r="B59" s="42" t="s">
         <v>51</v>
       </c>
-      <c r="C59" s="52">
+      <c r="C59" s="43">
         <v>43466</v>
       </c>
-      <c r="D59" s="52">
+      <c r="D59" s="43">
         <v>43890</v>
       </c>
-      <c r="E59" s="53" t="s">
+      <c r="E59" s="44" t="s">
         <v>100</v>
       </c>
-      <c r="F59" s="54">
+      <c r="F59" s="45">
         <f>ROUNDUP((Tabela1[[#This Row],[Fim da Bolsa ]]-Tabela1[[#This Row],[Início da Bolsa]])/365*12,0)</f>
         <v>14</v>
       </c>
-      <c r="G59" s="54">
+      <c r="G59" s="45">
         <f>YEAR(Tabela1[[#This Row],[Início da Bolsa]])</f>
         <v>2019</v>
       </c>
-      <c r="H59" s="54">
+      <c r="H59" s="45">
         <f>YEAR(Tabela1[[#This Row],[Fim da Bolsa ]])</f>
         <v>2020</v>
       </c>
-      <c r="I59" s="54" t="s">
+      <c r="I59" s="45" t="s">
         <v>124</v>
       </c>
     </row>
     <row r="60" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A60" s="40" t="s">
-        <v>32</v>
-      </c>
-      <c r="B60" s="9" t="s">
+      <c r="A60" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="B60" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="C60" s="32">
+      <c r="C60" s="27">
         <v>43313</v>
       </c>
-      <c r="D60" s="32">
+      <c r="D60" s="27">
         <v>43921</v>
       </c>
       <c r="E60" s="7" t="s">
         <v>96</v>
       </c>
-      <c r="F60" s="31">
+      <c r="F60" s="26">
         <f>ROUNDUP((Tabela1[[#This Row],[Fim da Bolsa ]]-Tabela1[[#This Row],[Início da Bolsa]])/365*12,0)</f>
         <v>20</v>
       </c>
-      <c r="G60" s="31">
+      <c r="G60" s="26">
         <f>YEAR(Tabela1[[#This Row],[Início da Bolsa]])</f>
         <v>2018</v>
       </c>
-      <c r="H60" s="31">
+      <c r="H60" s="26">
         <f>YEAR(Tabela1[[#This Row],[Fim da Bolsa ]])</f>
         <v>2020</v>
       </c>
-      <c r="I60" s="11" t="s">
+      <c r="I60" s="10" t="s">
         <v>124</v>
       </c>
     </row>
     <row r="61" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A61" s="40" t="s">
-        <v>32</v>
-      </c>
-      <c r="B61" s="9" t="s">
+      <c r="A61" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="B61" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="C61" s="32">
+      <c r="C61" s="27">
         <v>43313</v>
       </c>
-      <c r="D61" s="32">
+      <c r="D61" s="27">
         <v>44043</v>
       </c>
       <c r="E61" s="7" t="s">
         <v>96</v>
       </c>
-      <c r="F61" s="31">
+      <c r="F61" s="26">
         <f>ROUNDUP((Tabela1[[#This Row],[Fim da Bolsa ]]-Tabela1[[#This Row],[Início da Bolsa]])/365*12,0)</f>
         <v>24</v>
       </c>
-      <c r="G61" s="31">
+      <c r="G61" s="26">
         <f>YEAR(Tabela1[[#This Row],[Início da Bolsa]])</f>
         <v>2018</v>
       </c>
-      <c r="H61" s="31">
+      <c r="H61" s="26">
         <f>YEAR(Tabela1[[#This Row],[Fim da Bolsa ]])</f>
         <v>2020</v>
       </c>
-      <c r="I61" s="11" t="s">
+      <c r="I61" s="10" t="s">
         <v>124</v>
       </c>
     </row>
     <row r="62" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A62" s="50" t="s">
-        <v>32</v>
-      </c>
-      <c r="B62" s="51" t="s">
+      <c r="A62" s="41" t="s">
+        <v>32</v>
+      </c>
+      <c r="B62" s="42" t="s">
         <v>71</v>
       </c>
-      <c r="C62" s="52">
+      <c r="C62" s="43">
         <v>43983</v>
       </c>
-      <c r="D62" s="52">
+      <c r="D62" s="43">
         <v>44196</v>
       </c>
-      <c r="E62" s="52" t="s">
+      <c r="E62" s="43" t="s">
         <v>100</v>
       </c>
-      <c r="F62" s="54">
+      <c r="F62" s="45">
         <f>ROUNDUP((Tabela1[[#This Row],[Fim da Bolsa ]]-Tabela1[[#This Row],[Início da Bolsa]])/365*12,0)</f>
         <v>8</v>
       </c>
-      <c r="G62" s="54">
+      <c r="G62" s="45">
         <f>YEAR(Tabela1[[#This Row],[Início da Bolsa]])</f>
         <v>2020</v>
       </c>
-      <c r="H62" s="54">
+      <c r="H62" s="45">
         <f>YEAR(Tabela1[[#This Row],[Fim da Bolsa ]])</f>
         <v>2020</v>
       </c>
-      <c r="I62" s="54" t="s">
+      <c r="I62" s="45" t="s">
         <v>124</v>
       </c>
     </row>
     <row r="63" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A63" s="40" t="s">
-        <v>32</v>
-      </c>
-      <c r="B63" s="9" t="s">
+      <c r="A63" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="B63" s="8" t="s">
         <v>50</v>
       </c>
-      <c r="C63" s="32">
+      <c r="C63" s="27">
         <v>43497</v>
       </c>
-      <c r="D63" s="32">
+      <c r="D63" s="27">
         <v>44227</v>
       </c>
       <c r="E63" s="7" t="s">
         <v>96</v>
       </c>
-      <c r="F63" s="31">
+      <c r="F63" s="26">
         <f>ROUNDUP((Tabela1[[#This Row],[Fim da Bolsa ]]-Tabela1[[#This Row],[Início da Bolsa]])/365*12,0)</f>
         <v>24</v>
       </c>
-      <c r="G63" s="31">
+      <c r="G63" s="26">
         <f>YEAR(Tabela1[[#This Row],[Início da Bolsa]])</f>
         <v>2019</v>
       </c>
-      <c r="H63" s="31">
+      <c r="H63" s="26">
         <f>YEAR(Tabela1[[#This Row],[Fim da Bolsa ]])</f>
         <v>2021</v>
       </c>
-      <c r="I63" s="11" t="s">
+      <c r="I63" s="10" t="s">
         <v>124</v>
       </c>
     </row>
     <row r="64" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A64" s="40" t="s">
-        <v>32</v>
-      </c>
-      <c r="B64" s="9" t="s">
+      <c r="A64" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="B64" s="8" t="s">
         <v>122</v>
       </c>
-      <c r="C64" s="32">
+      <c r="C64" s="27">
         <v>43770</v>
       </c>
-      <c r="D64" s="32">
+      <c r="D64" s="27">
         <v>44227</v>
       </c>
-      <c r="E64" s="32" t="s">
+      <c r="E64" s="27" t="s">
         <v>96</v>
       </c>
-      <c r="F64" s="31">
+      <c r="F64" s="26">
         <f>ROUNDUP((Tabela1[[#This Row],[Fim da Bolsa ]]-Tabela1[[#This Row],[Início da Bolsa]])/365*12,0)</f>
         <v>16</v>
       </c>
-      <c r="G64" s="31">
+      <c r="G64" s="26">
         <f>YEAR(Tabela1[[#This Row],[Início da Bolsa]])</f>
         <v>2019</v>
       </c>
-      <c r="H64" s="31">
+      <c r="H64" s="26">
         <f>YEAR(Tabela1[[#This Row],[Fim da Bolsa ]])</f>
         <v>2021</v>
       </c>
-      <c r="I64" s="11" t="s">
+      <c r="I64" s="10" t="s">
         <v>124</v>
       </c>
     </row>
     <row r="65" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A65" s="40" t="s">
-        <v>32</v>
-      </c>
-      <c r="B65" s="9" t="s">
+      <c r="A65" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="B65" s="8" t="s">
         <v>49</v>
       </c>
-      <c r="C65" s="32">
+      <c r="C65" s="27">
         <v>43556</v>
       </c>
-      <c r="D65" s="32">
+      <c r="D65" s="27">
         <v>44255</v>
       </c>
       <c r="E65" s="7" t="s">
         <v>96</v>
       </c>
-      <c r="F65" s="31">
+      <c r="F65" s="26">
         <f>ROUNDUP((Tabela1[[#This Row],[Fim da Bolsa ]]-Tabela1[[#This Row],[Início da Bolsa]])/365*12,0)</f>
         <v>23</v>
       </c>
-      <c r="G65" s="31">
+      <c r="G65" s="26">
         <f>YEAR(Tabela1[[#This Row],[Início da Bolsa]])</f>
         <v>2019</v>
       </c>
-      <c r="H65" s="31">
+      <c r="H65" s="26">
         <f>YEAR(Tabela1[[#This Row],[Fim da Bolsa ]])</f>
         <v>2021</v>
       </c>
-      <c r="I65" s="11" t="s">
+      <c r="I65" s="10" t="s">
         <v>124</v>
       </c>
     </row>
     <row r="66" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A66" s="40" t="s">
-        <v>32</v>
-      </c>
-      <c r="B66" s="9" t="s">
+      <c r="A66" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="B66" s="8" t="s">
         <v>52</v>
       </c>
-      <c r="C66" s="32">
+      <c r="C66" s="27">
         <v>43678</v>
       </c>
-      <c r="D66" s="32">
+      <c r="D66" s="27">
         <v>44408</v>
       </c>
-      <c r="E66" s="32" t="s">
+      <c r="E66" s="27" t="s">
         <v>96</v>
       </c>
-      <c r="F66" s="31">
+      <c r="F66" s="26">
         <f>ROUNDUP((Tabela1[[#This Row],[Fim da Bolsa ]]-Tabela1[[#This Row],[Início da Bolsa]])/365*12,0)</f>
         <v>24</v>
       </c>
-      <c r="G66" s="31">
+      <c r="G66" s="26">
         <f>YEAR(Tabela1[[#This Row],[Início da Bolsa]])</f>
         <v>2019</v>
       </c>
-      <c r="H66" s="31">
+      <c r="H66" s="26">
         <f>YEAR(Tabela1[[#This Row],[Fim da Bolsa ]])</f>
         <v>2021</v>
       </c>
-      <c r="I66" s="11" t="s">
+      <c r="I66" s="10" t="s">
         <v>124</v>
       </c>
     </row>
     <row r="67" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A67" s="40" t="s">
-        <v>32</v>
-      </c>
-      <c r="B67" s="9" t="s">
+      <c r="A67" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="B67" s="8" t="s">
         <v>54</v>
       </c>
-      <c r="C67" s="32">
+      <c r="C67" s="27">
         <v>43862</v>
       </c>
-      <c r="D67" s="32">
+      <c r="D67" s="27">
         <v>44592</v>
       </c>
-      <c r="E67" s="32" t="s">
+      <c r="E67" s="27" t="s">
         <v>96</v>
       </c>
-      <c r="F67" s="31">
+      <c r="F67" s="26">
         <f>ROUNDUP((Tabela1[[#This Row],[Fim da Bolsa ]]-Tabela1[[#This Row],[Início da Bolsa]])/365*12,0)</f>
         <v>24</v>
       </c>
-      <c r="G67" s="31">
+      <c r="G67" s="26">
         <f>YEAR(Tabela1[[#This Row],[Início da Bolsa]])</f>
         <v>2020</v>
       </c>
-      <c r="H67" s="31">
+      <c r="H67" s="26">
         <f>YEAR(Tabela1[[#This Row],[Fim da Bolsa ]])</f>
         <v>2022</v>
       </c>
-      <c r="I67" s="11" t="s">
+      <c r="I67" s="10" t="s">
         <v>124</v>
       </c>
     </row>
     <row r="68" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A68" s="40" t="s">
-        <v>32</v>
-      </c>
-      <c r="B68" s="9" t="s">
+      <c r="A68" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="B68" s="8" t="s">
         <v>55</v>
       </c>
-      <c r="C68" s="32">
+      <c r="C68" s="27">
         <v>43862</v>
       </c>
-      <c r="D68" s="32">
+      <c r="D68" s="27">
         <v>44592</v>
       </c>
-      <c r="E68" s="32" t="s">
+      <c r="E68" s="27" t="s">
         <v>96</v>
       </c>
-      <c r="F68" s="31">
+      <c r="F68" s="26">
         <f>ROUNDUP((Tabela1[[#This Row],[Fim da Bolsa ]]-Tabela1[[#This Row],[Início da Bolsa]])/365*12,0)</f>
         <v>24</v>
       </c>
-      <c r="G68" s="31">
+      <c r="G68" s="26">
         <f>YEAR(Tabela1[[#This Row],[Início da Bolsa]])</f>
         <v>2020</v>
       </c>
-      <c r="H68" s="31">
+      <c r="H68" s="26">
         <f>YEAR(Tabela1[[#This Row],[Fim da Bolsa ]])</f>
         <v>2022</v>
       </c>
-      <c r="I68" s="11" t="s">
+      <c r="I68" s="10" t="s">
         <v>124</v>
       </c>
     </row>
     <row r="69" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A69" s="55" t="s">
-        <v>32</v>
-      </c>
-      <c r="B69" s="56" t="s">
+      <c r="A69" s="46" t="s">
+        <v>32</v>
+      </c>
+      <c r="B69" s="47" t="s">
         <v>57</v>
       </c>
-      <c r="C69" s="49">
+      <c r="C69" s="40">
         <v>43862</v>
       </c>
-      <c r="D69" s="49">
+      <c r="D69" s="40">
         <v>44592</v>
       </c>
-      <c r="E69" s="49"/>
-      <c r="F69" s="48">
+      <c r="E69" s="40"/>
+      <c r="F69" s="39">
         <f>ROUNDUP((Tabela1[[#This Row],[Fim da Bolsa ]]-Tabela1[[#This Row],[Início da Bolsa]])/365*12,0)</f>
         <v>24</v>
       </c>
-      <c r="G69" s="48">
+      <c r="G69" s="39">
         <f>YEAR(Tabela1[[#This Row],[Início da Bolsa]])</f>
         <v>2020</v>
       </c>
-      <c r="H69" s="48">
+      <c r="H69" s="39">
         <f>YEAR(Tabela1[[#This Row],[Fim da Bolsa ]])</f>
         <v>2022</v>
       </c>
-      <c r="I69" s="48"/>
+      <c r="I69" s="39"/>
     </row>
     <row r="70" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A70" s="40" t="s">
-        <v>32</v>
-      </c>
-      <c r="B70" s="9" t="s">
+      <c r="A70" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="B70" s="8" t="s">
         <v>53</v>
       </c>
-      <c r="C70" s="32">
+      <c r="C70" s="27">
         <v>43862</v>
       </c>
-      <c r="D70" s="32">
+      <c r="D70" s="27">
         <v>44592</v>
       </c>
-      <c r="E70" s="32" t="s">
+      <c r="E70" s="27" t="s">
         <v>96</v>
       </c>
-      <c r="F70" s="31">
+      <c r="F70" s="26">
         <f>ROUNDUP((Tabela1[[#This Row],[Fim da Bolsa ]]-Tabela1[[#This Row],[Início da Bolsa]])/365*12,0)</f>
         <v>24</v>
       </c>
-      <c r="G70" s="31">
+      <c r="G70" s="26">
         <f>YEAR(Tabela1[[#This Row],[Início da Bolsa]])</f>
         <v>2020</v>
       </c>
-      <c r="H70" s="31">
+      <c r="H70" s="26">
         <f>YEAR(Tabela1[[#This Row],[Fim da Bolsa ]])</f>
         <v>2022</v>
       </c>
-      <c r="I70" s="11" t="s">
+      <c r="I70" s="10" t="s">
         <v>124</v>
       </c>
     </row>
     <row r="71" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A71" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="B71" s="9" t="s">
+      <c r="A71" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="B71" s="8" t="s">
         <v>69</v>
       </c>
-      <c r="C71" s="32">
+      <c r="C71" s="27">
         <v>43891</v>
       </c>
-      <c r="D71" s="32">
+      <c r="D71" s="27">
         <v>44592</v>
       </c>
-      <c r="E71" s="32" t="s">
+      <c r="E71" s="27" t="s">
         <v>96</v>
       </c>
-      <c r="F71" s="31">
+      <c r="F71" s="26">
         <f>ROUNDUP((Tabela1[[#This Row],[Fim da Bolsa ]]-Tabela1[[#This Row],[Início da Bolsa]])/365*12,0)</f>
         <v>24</v>
       </c>
-      <c r="G71" s="31">
+      <c r="G71" s="26">
         <f>YEAR(Tabela1[[#This Row],[Início da Bolsa]])</f>
         <v>2020</v>
       </c>
-      <c r="H71" s="31">
+      <c r="H71" s="26">
         <f>YEAR(Tabela1[[#This Row],[Fim da Bolsa ]])</f>
         <v>2022</v>
       </c>
-      <c r="I71" s="11" t="s">
+      <c r="I71" s="10" t="s">
         <v>124</v>
       </c>
     </row>
     <row r="72" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A72" s="55" t="s">
-        <v>32</v>
-      </c>
-      <c r="B72" s="56" t="s">
+      <c r="A72" s="46" t="s">
+        <v>32</v>
+      </c>
+      <c r="B72" s="47" t="s">
         <v>72</v>
       </c>
-      <c r="C72" s="49">
+      <c r="C72" s="40">
         <v>43891</v>
       </c>
-      <c r="D72" s="49">
+      <c r="D72" s="40">
         <v>44592</v>
       </c>
-      <c r="E72" s="49"/>
-      <c r="F72" s="48">
+      <c r="E72" s="40"/>
+      <c r="F72" s="39">
         <f>ROUNDUP((Tabela1[[#This Row],[Fim da Bolsa ]]-Tabela1[[#This Row],[Início da Bolsa]])/365*12,0)</f>
         <v>24</v>
       </c>
-      <c r="G72" s="48">
+      <c r="G72" s="39">
         <f>YEAR(Tabela1[[#This Row],[Início da Bolsa]])</f>
         <v>2020</v>
       </c>
-      <c r="H72" s="48">
+      <c r="H72" s="39">
         <f>YEAR(Tabela1[[#This Row],[Fim da Bolsa ]])</f>
         <v>2022</v>
       </c>
-      <c r="I72" s="48"/>
+      <c r="I72" s="39"/>
     </row>
     <row r="73" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A73" s="55" t="s">
-        <v>32</v>
-      </c>
-      <c r="B73" s="56" t="s">
+      <c r="A73" s="46" t="s">
+        <v>32</v>
+      </c>
+      <c r="B73" s="47" t="s">
         <v>68</v>
       </c>
-      <c r="C73" s="49">
+      <c r="C73" s="40">
         <v>43891</v>
       </c>
-      <c r="D73" s="49">
+      <c r="D73" s="40">
         <v>44620</v>
       </c>
-      <c r="E73" s="49"/>
-      <c r="F73" s="48">
+      <c r="E73" s="40"/>
+      <c r="F73" s="39">
         <f>ROUNDUP((Tabela1[[#This Row],[Fim da Bolsa ]]-Tabela1[[#This Row],[Início da Bolsa]])/365*12,0)</f>
         <v>24</v>
       </c>
-      <c r="G73" s="48">
+      <c r="G73" s="39">
         <f>YEAR(Tabela1[[#This Row],[Início da Bolsa]])</f>
         <v>2020</v>
       </c>
-      <c r="H73" s="48">
+      <c r="H73" s="39">
         <f>YEAR(Tabela1[[#This Row],[Fim da Bolsa ]])</f>
         <v>2022</v>
       </c>
-      <c r="I73" s="48"/>
+      <c r="I73" s="39"/>
     </row>
     <row r="74" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A74" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="B74" s="9" t="s">
+      <c r="A74" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="B74" s="8" t="s">
         <v>78</v>
       </c>
-      <c r="C74" s="32">
+      <c r="C74" s="27">
         <v>44075</v>
       </c>
-      <c r="D74" s="32">
+      <c r="D74" s="27">
         <v>44773</v>
       </c>
-      <c r="F74" s="31">
+      <c r="F74" s="26">
         <f>ROUNDUP((Tabela1[[#This Row],[Fim da Bolsa ]]-Tabela1[[#This Row],[Início da Bolsa]])/365*12,0)</f>
         <v>23</v>
       </c>
-      <c r="G74" s="31">
+      <c r="G74" s="26">
         <f>YEAR(Tabela1[[#This Row],[Início da Bolsa]])</f>
         <v>2020</v>
       </c>
-      <c r="H74" s="31">
+      <c r="H74" s="26">
         <f>YEAR(Tabela1[[#This Row],[Fim da Bolsa ]])</f>
         <v>2022</v>
       </c>
-      <c r="I74" s="11"/>
+      <c r="I74" s="10"/>
     </row>
     <row r="75" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A75" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="B75" s="9" t="s">
+      <c r="A75" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="B75" s="8" t="s">
         <v>75</v>
       </c>
-      <c r="C75" s="32">
+      <c r="C75" s="27">
         <v>44256</v>
       </c>
-      <c r="D75" s="32">
+      <c r="D75" s="27">
         <v>44985</v>
       </c>
-      <c r="F75" s="31">
+      <c r="F75" s="26">
         <f>ROUNDUP((Tabela1[[#This Row],[Fim da Bolsa ]]-Tabela1[[#This Row],[Início da Bolsa]])/365*12,0)</f>
         <v>24</v>
       </c>
-      <c r="G75" s="31">
+      <c r="G75" s="26">
         <f>YEAR(Tabela1[[#This Row],[Início da Bolsa]])</f>
         <v>2021</v>
       </c>
-      <c r="H75" s="31">
+      <c r="H75" s="26">
         <f>YEAR(Tabela1[[#This Row],[Fim da Bolsa ]])</f>
         <v>2023</v>
       </c>
-      <c r="I75" s="11"/>
+      <c r="I75" s="10"/>
     </row>
     <row r="76" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A76" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="B76" s="9" t="s">
+      <c r="A76" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="B76" s="8" t="s">
         <v>76</v>
       </c>
-      <c r="C76" s="32">
+      <c r="C76" s="27">
         <v>44256</v>
       </c>
-      <c r="D76" s="32">
+      <c r="D76" s="27">
         <v>44985</v>
       </c>
-      <c r="F76" s="31">
+      <c r="F76" s="26">
         <f>ROUNDUP((Tabela1[[#This Row],[Fim da Bolsa ]]-Tabela1[[#This Row],[Início da Bolsa]])/365*12,0)</f>
         <v>24</v>
       </c>
-      <c r="G76" s="31">
+      <c r="G76" s="26">
         <f>YEAR(Tabela1[[#This Row],[Início da Bolsa]])</f>
         <v>2021</v>
       </c>
-      <c r="H76" s="31">
+      <c r="H76" s="26">
         <f>YEAR(Tabela1[[#This Row],[Fim da Bolsa ]])</f>
         <v>2023</v>
       </c>
-      <c r="I76" s="11"/>
+      <c r="I76" s="10"/>
     </row>
     <row r="77" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A77" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="B77" s="9" t="s">
+      <c r="A77" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="B77" s="8" t="s">
         <v>77</v>
       </c>
-      <c r="C77" s="32">
+      <c r="C77" s="27">
         <v>44256</v>
       </c>
-      <c r="D77" s="32">
+      <c r="D77" s="27">
         <v>44985</v>
       </c>
-      <c r="F77" s="31">
+      <c r="F77" s="26">
         <f>ROUNDUP((Tabela1[[#This Row],[Fim da Bolsa ]]-Tabela1[[#This Row],[Início da Bolsa]])/365*12,0)</f>
         <v>24</v>
       </c>
-      <c r="G77" s="31">
+      <c r="G77" s="26">
         <f>YEAR(Tabela1[[#This Row],[Início da Bolsa]])</f>
         <v>2021</v>
       </c>
-      <c r="H77" s="31">
+      <c r="H77" s="26">
         <f>YEAR(Tabela1[[#This Row],[Fim da Bolsa ]])</f>
         <v>2023</v>
       </c>
-      <c r="I77" s="11"/>
+      <c r="I77" s="10"/>
     </row>
     <row r="78" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A78" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="B78" s="9" t="s">
+      <c r="A78" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="B78" s="8" t="s">
         <v>79</v>
       </c>
-      <c r="C78" s="32">
+      <c r="C78" s="27">
         <v>44256</v>
       </c>
-      <c r="D78" s="32">
+      <c r="D78" s="27">
         <v>44985</v>
       </c>
-      <c r="F78" s="31">
+      <c r="F78" s="26">
         <f>ROUNDUP((Tabela1[[#This Row],[Fim da Bolsa ]]-Tabela1[[#This Row],[Início da Bolsa]])/365*12,0)</f>
         <v>24</v>
       </c>
-      <c r="G78" s="31">
+      <c r="G78" s="26">
         <f>YEAR(Tabela1[[#This Row],[Início da Bolsa]])</f>
         <v>2021</v>
       </c>
-      <c r="H78" s="31">
+      <c r="H78" s="26">
         <f>YEAR(Tabela1[[#This Row],[Fim da Bolsa ]])</f>
         <v>2023</v>
       </c>
-      <c r="I78" s="11"/>
+      <c r="I78" s="10"/>
     </row>
     <row r="79" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A79" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="B79" s="9" t="s">
+      <c r="A79" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="B79" s="8" t="s">
         <v>81</v>
       </c>
-      <c r="C79" s="32">
+      <c r="C79" s="27">
         <v>44256</v>
       </c>
-      <c r="D79" s="32">
+      <c r="D79" s="27">
         <v>44985</v>
       </c>
-      <c r="F79" s="31">
+      <c r="F79" s="26">
         <f>ROUNDUP((Tabela1[[#This Row],[Fim da Bolsa ]]-Tabela1[[#This Row],[Início da Bolsa]])/365*12,0)</f>
         <v>24</v>
       </c>
-      <c r="G79" s="31">
+      <c r="G79" s="26">
         <f>YEAR(Tabela1[[#This Row],[Início da Bolsa]])</f>
         <v>2021</v>
       </c>
-      <c r="H79" s="31">
+      <c r="H79" s="26">
         <f>YEAR(Tabela1[[#This Row],[Fim da Bolsa ]])</f>
         <v>2023</v>
       </c>
-      <c r="I79" s="11"/>
+      <c r="I79" s="10"/>
     </row>
     <row r="80" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A80" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="B80" s="9" t="s">
+      <c r="A80" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="B80" s="8" t="s">
         <v>82</v>
       </c>
-      <c r="C80" s="32">
+      <c r="C80" s="27">
         <v>44256</v>
       </c>
-      <c r="D80" s="32">
+      <c r="D80" s="27">
         <v>44985</v>
       </c>
-      <c r="F80" s="31">
+      <c r="F80" s="26">
         <f>ROUNDUP((Tabela1[[#This Row],[Fim da Bolsa ]]-Tabela1[[#This Row],[Início da Bolsa]])/365*12,0)</f>
         <v>24</v>
       </c>
-      <c r="G80" s="31">
+      <c r="G80" s="26">
         <f>YEAR(Tabela1[[#This Row],[Início da Bolsa]])</f>
         <v>2021</v>
       </c>
-      <c r="H80" s="31">
+      <c r="H80" s="26">
         <f>YEAR(Tabela1[[#This Row],[Fim da Bolsa ]])</f>
         <v>2023</v>
       </c>
-      <c r="I80" s="11"/>
+      <c r="I80" s="10"/>
     </row>
     <row r="81" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A81" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="B81" s="9" t="s">
+      <c r="A81" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="B81" s="8" t="s">
         <v>83</v>
       </c>
-      <c r="C81" s="32">
+      <c r="C81" s="27">
         <v>44256</v>
       </c>
-      <c r="D81" s="32">
+      <c r="D81" s="27">
         <v>44985</v>
       </c>
-      <c r="F81" s="31">
+      <c r="F81" s="26">
         <f>ROUNDUP((Tabela1[[#This Row],[Fim da Bolsa ]]-Tabela1[[#This Row],[Início da Bolsa]])/365*12,0)</f>
         <v>24</v>
       </c>
-      <c r="G81" s="31">
+      <c r="G81" s="26">
         <f>YEAR(Tabela1[[#This Row],[Início da Bolsa]])</f>
         <v>2021</v>
       </c>
-      <c r="H81" s="31">
+      <c r="H81" s="26">
         <f>YEAR(Tabela1[[#This Row],[Fim da Bolsa ]])</f>
         <v>2023</v>
       </c>
-      <c r="I81" s="11"/>
+      <c r="I81" s="10"/>
     </row>
     <row r="82" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A82" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="B82" s="9" t="s">
+      <c r="A82" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="B82" s="8" t="s">
         <v>80</v>
       </c>
-      <c r="C82" s="32">
+      <c r="C82" s="27">
         <v>44440</v>
       </c>
-      <c r="D82" s="32">
+      <c r="D82" s="27">
         <v>45169</v>
       </c>
-      <c r="F82" s="31">
+      <c r="F82" s="26">
         <f>ROUNDUP((Tabela1[[#This Row],[Fim da Bolsa ]]-Tabela1[[#This Row],[Início da Bolsa]])/365*12,0)</f>
         <v>24</v>
       </c>
-      <c r="G82" s="31">
+      <c r="G82" s="26">
         <f>YEAR(Tabela1[[#This Row],[Início da Bolsa]])</f>
         <v>2021</v>
       </c>
-      <c r="H82" s="31">
+      <c r="H82" s="26">
         <f>YEAR(Tabela1[[#This Row],[Fim da Bolsa ]])</f>
         <v>2023</v>
       </c>
-      <c r="I82" s="11"/>
+      <c r="I82" s="10"/>
     </row>
     <row r="83" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A83" s="40" t="s">
+      <c r="A83" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="B83" s="9" t="s">
+      <c r="B83" s="8" t="s">
         <v>63</v>
       </c>
-      <c r="C83" s="32">
+      <c r="C83" s="27">
         <v>43770</v>
       </c>
-      <c r="D83" s="32">
+      <c r="D83" s="27">
         <v>45229</v>
       </c>
-      <c r="F83" s="31">
+      <c r="F83" s="26">
         <f>ROUNDUP((Tabela1[[#This Row],[Fim da Bolsa ]]-Tabela1[[#This Row],[Início da Bolsa]])/365*12,0)</f>
         <v>48</v>
       </c>
-      <c r="G83" s="31">
+      <c r="G83" s="26">
         <f>YEAR(Tabela1[[#This Row],[Início da Bolsa]])</f>
         <v>2019</v>
       </c>
-      <c r="H83" s="31">
+      <c r="H83" s="26">
         <f>YEAR(Tabela1[[#This Row],[Fim da Bolsa ]])</f>
         <v>2023</v>
       </c>
-      <c r="I83" s="11"/>
+      <c r="I83" s="10"/>
     </row>
     <row r="84" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A84" s="40" t="s">
+      <c r="A84" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="B84" s="9" t="s">
+      <c r="B84" s="8" t="s">
         <v>59</v>
       </c>
-      <c r="C84" s="32">
+      <c r="C84" s="27">
         <v>43770</v>
       </c>
-      <c r="D84" s="32">
+      <c r="D84" s="27">
         <v>45230</v>
       </c>
-      <c r="F84" s="31">
+      <c r="F84" s="26">
         <f>ROUNDUP((Tabela1[[#This Row],[Fim da Bolsa ]]-Tabela1[[#This Row],[Início da Bolsa]])/365*12,0)</f>
         <v>48</v>
       </c>
-      <c r="G84" s="31">
+      <c r="G84" s="26">
         <f>YEAR(Tabela1[[#This Row],[Início da Bolsa]])</f>
         <v>2019</v>
       </c>
-      <c r="H84" s="31">
+      <c r="H84" s="26">
         <f>YEAR(Tabela1[[#This Row],[Fim da Bolsa ]])</f>
         <v>2023</v>
       </c>
-      <c r="I84" s="11"/>
+      <c r="I84" s="10"/>
     </row>
     <row r="85" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A85" s="40" t="s">
+      <c r="A85" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="B85" s="9" t="s">
+      <c r="B85" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="C85" s="32">
+      <c r="C85" s="27">
         <v>43770</v>
       </c>
-      <c r="D85" s="32">
+      <c r="D85" s="27">
         <v>45230</v>
       </c>
-      <c r="F85" s="31">
+      <c r="F85" s="26">
         <f>ROUNDUP((Tabela1[[#This Row],[Fim da Bolsa ]]-Tabela1[[#This Row],[Início da Bolsa]])/365*12,0)</f>
         <v>48</v>
       </c>
-      <c r="G85" s="31">
+      <c r="G85" s="26">
         <f>YEAR(Tabela1[[#This Row],[Início da Bolsa]])</f>
         <v>2019</v>
       </c>
-      <c r="H85" s="31">
+      <c r="H85" s="26">
         <f>YEAR(Tabela1[[#This Row],[Fim da Bolsa ]])</f>
         <v>2023</v>
       </c>
-      <c r="I85" s="11"/>
+      <c r="I85" s="10"/>
     </row>
     <row r="86" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A86" s="40" t="s">
+      <c r="A86" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="B86" s="9" t="s">
+      <c r="B86" s="8" t="s">
         <v>60</v>
       </c>
-      <c r="C86" s="32">
+      <c r="C86" s="27">
         <v>43770</v>
       </c>
-      <c r="D86" s="32">
+      <c r="D86" s="27">
         <v>45230</v>
       </c>
-      <c r="F86" s="31">
+      <c r="F86" s="26">
         <f>ROUNDUP((Tabela1[[#This Row],[Fim da Bolsa ]]-Tabela1[[#This Row],[Início da Bolsa]])/365*12,0)</f>
         <v>48</v>
       </c>
-      <c r="G86" s="31">
+      <c r="G86" s="26">
         <f>YEAR(Tabela1[[#This Row],[Início da Bolsa]])</f>
         <v>2019</v>
       </c>
-      <c r="H86" s="31">
+      <c r="H86" s="26">
         <f>YEAR(Tabela1[[#This Row],[Fim da Bolsa ]])</f>
         <v>2023</v>
       </c>
-      <c r="I86" s="11"/>
+      <c r="I86" s="10"/>
     </row>
     <row r="87" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A87" s="40" t="s">
+      <c r="A87" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="B87" s="9" t="s">
+      <c r="B87" s="8" t="s">
         <v>58</v>
       </c>
-      <c r="C87" s="32">
+      <c r="C87" s="27">
         <v>43770</v>
       </c>
-      <c r="D87" s="32">
+      <c r="D87" s="27">
         <v>45230</v>
       </c>
-      <c r="F87" s="31">
+      <c r="F87" s="26">
         <f>ROUNDUP((Tabela1[[#This Row],[Fim da Bolsa ]]-Tabela1[[#This Row],[Início da Bolsa]])/365*12,0)</f>
         <v>48</v>
       </c>
-      <c r="G87" s="31">
+      <c r="G87" s="26">
         <f>YEAR(Tabela1[[#This Row],[Início da Bolsa]])</f>
         <v>2019</v>
       </c>
-      <c r="H87" s="31">
+      <c r="H87" s="26">
         <f>YEAR(Tabela1[[#This Row],[Fim da Bolsa ]])</f>
         <v>2023</v>
       </c>
-      <c r="I87" s="11"/>
+      <c r="I87" s="10"/>
     </row>
     <row r="88" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A88" s="8" t="s">
+      <c r="A88" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="B88" s="9" t="s">
+      <c r="B88" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="C88" s="32">
+      <c r="C88" s="27">
         <v>43770</v>
       </c>
-      <c r="D88" s="32">
+      <c r="D88" s="27">
         <v>45230</v>
       </c>
-      <c r="F88" s="31">
+      <c r="F88" s="26">
         <f>ROUNDUP((Tabela1[[#This Row],[Fim da Bolsa ]]-Tabela1[[#This Row],[Início da Bolsa]])/365*12,0)</f>
         <v>48</v>
       </c>
-      <c r="G88" s="31">
+      <c r="G88" s="26">
         <f>YEAR(Tabela1[[#This Row],[Início da Bolsa]])</f>
         <v>2019</v>
       </c>
-      <c r="H88" s="31">
+      <c r="H88" s="26">
         <f>YEAR(Tabela1[[#This Row],[Fim da Bolsa ]])</f>
         <v>2023</v>
       </c>
-      <c r="I88" s="11"/>
+      <c r="I88" s="10"/>
     </row>
     <row r="89" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A89" s="40" t="s">
+      <c r="A89" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="B89" s="9" t="s">
+      <c r="B89" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="C89" s="32">
+      <c r="C89" s="27">
         <v>43770</v>
       </c>
-      <c r="D89" s="32">
+      <c r="D89" s="27">
         <v>45230</v>
       </c>
-      <c r="F89" s="31">
+      <c r="F89" s="26">
         <f>ROUNDUP((Tabela1[[#This Row],[Fim da Bolsa ]]-Tabela1[[#This Row],[Início da Bolsa]])/365*12,0)</f>
         <v>48</v>
       </c>
-      <c r="G89" s="31">
+      <c r="G89" s="26">
         <f>YEAR(Tabela1[[#This Row],[Início da Bolsa]])</f>
         <v>2019</v>
       </c>
-      <c r="H89" s="31">
+      <c r="H89" s="26">
         <f>YEAR(Tabela1[[#This Row],[Fim da Bolsa ]])</f>
         <v>2023</v>
       </c>
-      <c r="I89" s="11"/>
+      <c r="I89" s="10"/>
     </row>
     <row r="90" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A90" s="40" t="s">
+      <c r="A90" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="B90" s="9" t="s">
+      <c r="B90" s="8" t="s">
         <v>62</v>
       </c>
-      <c r="C90" s="32">
+      <c r="C90" s="27">
         <v>43770</v>
       </c>
-      <c r="D90" s="32">
+      <c r="D90" s="27">
         <v>45230</v>
       </c>
-      <c r="F90" s="31">
+      <c r="F90" s="26">
         <f>ROUNDUP((Tabela1[[#This Row],[Fim da Bolsa ]]-Tabela1[[#This Row],[Início da Bolsa]])/365*12,0)</f>
         <v>48</v>
       </c>
-      <c r="G90" s="31">
+      <c r="G90" s="26">
         <f>YEAR(Tabela1[[#This Row],[Início da Bolsa]])</f>
         <v>2019</v>
       </c>
-      <c r="H90" s="31">
+      <c r="H90" s="26">
         <f>YEAR(Tabela1[[#This Row],[Fim da Bolsa ]])</f>
         <v>2023</v>
       </c>
-      <c r="I90" s="11"/>
+      <c r="I90" s="10"/>
     </row>
     <row r="91" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A91" s="40" t="s">
+      <c r="A91" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="B91" s="9" t="s">
+      <c r="B91" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="C91" s="32">
+      <c r="C91" s="27">
         <v>43770</v>
       </c>
-      <c r="D91" s="32">
+      <c r="D91" s="59">
+        <v>44834</v>
+      </c>
+      <c r="F91" s="26">
+        <f>ROUNDUP((Tabela1[[#This Row],[Fim da Bolsa ]]-Tabela1[[#This Row],[Início da Bolsa]])/365*12,0)</f>
+        <v>35</v>
+      </c>
+      <c r="G91" s="26">
+        <f>YEAR(Tabela1[[#This Row],[Início da Bolsa]])</f>
+        <v>2019</v>
+      </c>
+      <c r="H91" s="26">
+        <f>YEAR(Tabela1[[#This Row],[Fim da Bolsa ]])</f>
+        <v>2022</v>
+      </c>
+      <c r="I91" s="10"/>
+    </row>
+    <row r="92" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A92" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="B92" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="C92" s="27">
+        <v>43770</v>
+      </c>
+      <c r="D92" s="27">
         <v>45230</v>
       </c>
-      <c r="F91" s="31">
+      <c r="F92" s="26">
         <f>ROUNDUP((Tabela1[[#This Row],[Fim da Bolsa ]]-Tabela1[[#This Row],[Início da Bolsa]])/365*12,0)</f>
         <v>48</v>
       </c>
-      <c r="G91" s="31">
+      <c r="G92" s="26">
         <f>YEAR(Tabela1[[#This Row],[Início da Bolsa]])</f>
         <v>2019</v>
       </c>
-      <c r="H91" s="31">
+      <c r="H92" s="26">
         <f>YEAR(Tabela1[[#This Row],[Fim da Bolsa ]])</f>
         <v>2023</v>
       </c>
-      <c r="I91" s="11"/>
-    </row>
-    <row r="92" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A92" s="40" t="s">
+      <c r="I92" s="10"/>
+    </row>
+    <row r="93" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A93" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="B92" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="C92" s="32">
+      <c r="B93" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="C93" s="27">
         <v>43770</v>
       </c>
-      <c r="D92" s="32">
+      <c r="D93" s="27">
         <v>45230</v>
       </c>
-      <c r="F92" s="31">
+      <c r="F93" s="26">
         <f>ROUNDUP((Tabela1[[#This Row],[Fim da Bolsa ]]-Tabela1[[#This Row],[Início da Bolsa]])/365*12,0)</f>
         <v>48</v>
       </c>
-      <c r="G92" s="31">
+      <c r="G93" s="26">
         <f>YEAR(Tabela1[[#This Row],[Início da Bolsa]])</f>
         <v>2019</v>
       </c>
-      <c r="H92" s="31">
+      <c r="H93" s="26">
         <f>YEAR(Tabela1[[#This Row],[Fim da Bolsa ]])</f>
         <v>2023</v>
       </c>
-      <c r="I92" s="11"/>
-    </row>
-    <row r="93" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A93" s="40" t="s">
+      <c r="I93" s="10"/>
+    </row>
+    <row r="94" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A94" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="B93" s="9" t="s">
-        <v>64</v>
-      </c>
-      <c r="C93" s="32">
+      <c r="B94" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="C94" s="27">
         <v>43770</v>
       </c>
-      <c r="D93" s="32">
+      <c r="D94" s="27">
         <v>45230</v>
       </c>
-      <c r="F93" s="31">
+      <c r="F94" s="26">
         <f>ROUNDUP((Tabela1[[#This Row],[Fim da Bolsa ]]-Tabela1[[#This Row],[Início da Bolsa]])/365*12,0)</f>
         <v>48</v>
       </c>
-      <c r="G93" s="31">
+      <c r="G94" s="26">
         <f>YEAR(Tabela1[[#This Row],[Início da Bolsa]])</f>
         <v>2019</v>
       </c>
-      <c r="H93" s="31">
+      <c r="H94" s="26">
         <f>YEAR(Tabela1[[#This Row],[Fim da Bolsa ]])</f>
         <v>2023</v>
       </c>
-      <c r="I93" s="11"/>
-    </row>
-    <row r="94" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A94" s="40" t="s">
+      <c r="I94" s="10"/>
+    </row>
+    <row r="95" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A95" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="B95" s="8" t="s">
+        <v>89</v>
+      </c>
+      <c r="C95" s="27">
+        <v>44593</v>
+      </c>
+      <c r="D95" s="27">
+        <v>45230</v>
+      </c>
+      <c r="F95" s="26">
+        <f>ROUNDUP((Tabela1[[#This Row],[Fim da Bolsa ]]-Tabela1[[#This Row],[Início da Bolsa]])/365*12,0)</f>
+        <v>21</v>
+      </c>
+      <c r="G95" s="26">
+        <f>YEAR(Tabela1[[#This Row],[Início da Bolsa]])</f>
+        <v>2022</v>
+      </c>
+      <c r="H95" s="26">
+        <f>YEAR(Tabela1[[#This Row],[Fim da Bolsa ]])</f>
+        <v>2023</v>
+      </c>
+      <c r="I95" s="10"/>
+    </row>
+    <row r="96" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A96" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="B94" s="9" t="s">
-        <v>65</v>
-      </c>
-      <c r="C94" s="32">
-        <v>43770</v>
-      </c>
-      <c r="D94" s="32">
-        <v>45230</v>
-      </c>
-      <c r="F94" s="31">
+      <c r="B96" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="C96" s="27">
+        <v>43800</v>
+      </c>
+      <c r="D96" s="27">
+        <v>45260</v>
+      </c>
+      <c r="F96" s="26">
         <f>ROUNDUP((Tabela1[[#This Row],[Fim da Bolsa ]]-Tabela1[[#This Row],[Início da Bolsa]])/365*12,0)</f>
         <v>48</v>
       </c>
-      <c r="G94" s="31">
+      <c r="G96" s="26">
         <f>YEAR(Tabela1[[#This Row],[Início da Bolsa]])</f>
         <v>2019</v>
       </c>
-      <c r="H94" s="31">
+      <c r="H96" s="26">
         <f>YEAR(Tabela1[[#This Row],[Fim da Bolsa ]])</f>
         <v>2023</v>
       </c>
-      <c r="I94" s="11"/>
-    </row>
-    <row r="95" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A95" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="B95" s="9" t="s">
-        <v>89</v>
-      </c>
-      <c r="C95" s="32">
+      <c r="I96" s="10"/>
+    </row>
+    <row r="97" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A97" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="B97" s="8" t="s">
+        <v>88</v>
+      </c>
+      <c r="C97" s="27">
         <v>44593</v>
       </c>
-      <c r="D95" s="32">
-        <v>45230</v>
-      </c>
-      <c r="F95" s="31">
-        <f>ROUNDUP((Tabela1[[#This Row],[Fim da Bolsa ]]-Tabela1[[#This Row],[Início da Bolsa]])/365*12,0)</f>
-        <v>21</v>
-      </c>
-      <c r="G95" s="31">
+      <c r="D97" s="27">
+        <v>45322</v>
+      </c>
+      <c r="F97" s="26">
+        <f>ROUNDUP((Tabela1[[#This Row],[Fim da Bolsa ]]-Tabela1[[#This Row],[Início da Bolsa]])/365*12,0)</f>
+        <v>24</v>
+      </c>
+      <c r="G97" s="26">
         <f>YEAR(Tabela1[[#This Row],[Início da Bolsa]])</f>
         <v>2022</v>
       </c>
-      <c r="H95" s="31">
-        <f>YEAR(Tabela1[[#This Row],[Fim da Bolsa ]])</f>
-        <v>2023</v>
-      </c>
-      <c r="I95" s="11"/>
-    </row>
-    <row r="96" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A96" s="40" t="s">
+      <c r="H97" s="26">
+        <f>YEAR(Tabela1[[#This Row],[Fim da Bolsa ]])</f>
+        <v>2024</v>
+      </c>
+      <c r="I97" s="10"/>
+    </row>
+    <row r="98" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A98" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="B98" s="8" t="s">
+        <v>86</v>
+      </c>
+      <c r="C98" s="27">
+        <v>44593</v>
+      </c>
+      <c r="D98" s="27">
+        <v>45322</v>
+      </c>
+      <c r="F98" s="26">
+        <f>ROUNDUP((Tabela1[[#This Row],[Fim da Bolsa ]]-Tabela1[[#This Row],[Início da Bolsa]])/365*12,0)</f>
+        <v>24</v>
+      </c>
+      <c r="G98" s="26">
+        <f>YEAR(Tabela1[[#This Row],[Início da Bolsa]])</f>
+        <v>2022</v>
+      </c>
+      <c r="H98" s="26">
+        <f>YEAR(Tabela1[[#This Row],[Fim da Bolsa ]])</f>
+        <v>2024</v>
+      </c>
+      <c r="I98" s="10"/>
+    </row>
+    <row r="99" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A99" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="B99" s="8" t="s">
+        <v>87</v>
+      </c>
+      <c r="C99" s="27">
+        <v>44593</v>
+      </c>
+      <c r="D99" s="27">
+        <v>45322</v>
+      </c>
+      <c r="F99" s="26">
+        <f>ROUNDUP((Tabela1[[#This Row],[Fim da Bolsa ]]-Tabela1[[#This Row],[Início da Bolsa]])/365*12,0)</f>
+        <v>24</v>
+      </c>
+      <c r="G99" s="26">
+        <f>YEAR(Tabela1[[#This Row],[Início da Bolsa]])</f>
+        <v>2022</v>
+      </c>
+      <c r="H99" s="26">
+        <f>YEAR(Tabela1[[#This Row],[Fim da Bolsa ]])</f>
+        <v>2024</v>
+      </c>
+      <c r="I99" s="10"/>
+    </row>
+    <row r="100" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A100" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="B100" s="8" t="s">
+        <v>90</v>
+      </c>
+      <c r="C100" s="27">
+        <v>44593</v>
+      </c>
+      <c r="D100" s="27">
+        <v>45322</v>
+      </c>
+      <c r="F100" s="26">
+        <f>ROUNDUP((Tabela1[[#This Row],[Fim da Bolsa ]]-Tabela1[[#This Row],[Início da Bolsa]])/365*12,0)</f>
+        <v>24</v>
+      </c>
+      <c r="G100" s="26">
+        <f>YEAR(Tabela1[[#This Row],[Início da Bolsa]])</f>
+        <v>2022</v>
+      </c>
+      <c r="H100" s="26">
+        <f>YEAR(Tabela1[[#This Row],[Fim da Bolsa ]])</f>
+        <v>2024</v>
+      </c>
+      <c r="I100" s="10"/>
+    </row>
+    <row r="101" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A101" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="B101" s="8" t="s">
+        <v>92</v>
+      </c>
+      <c r="C101" s="27">
+        <v>44593</v>
+      </c>
+      <c r="D101" s="27">
+        <v>45322</v>
+      </c>
+      <c r="F101" s="26">
+        <f>ROUNDUP((Tabela1[[#This Row],[Fim da Bolsa ]]-Tabela1[[#This Row],[Início da Bolsa]])/365*12,0)</f>
+        <v>24</v>
+      </c>
+      <c r="G101" s="26">
+        <f>YEAR(Tabela1[[#This Row],[Início da Bolsa]])</f>
+        <v>2022</v>
+      </c>
+      <c r="H101" s="26">
+        <f>YEAR(Tabela1[[#This Row],[Fim da Bolsa ]])</f>
+        <v>2024</v>
+      </c>
+      <c r="I101" s="10"/>
+    </row>
+    <row r="102" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A102" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="B96" s="9" t="s">
-        <v>61</v>
-      </c>
-      <c r="C96" s="32">
-        <v>43800</v>
-      </c>
-      <c r="D96" s="32">
-        <v>45260</v>
-      </c>
-      <c r="F96" s="31">
+      <c r="B102" s="8" t="s">
+        <v>67</v>
+      </c>
+      <c r="C102" s="27">
+        <v>43891</v>
+      </c>
+      <c r="D102" s="27">
+        <v>45351</v>
+      </c>
+      <c r="F102" s="26">
         <f>ROUNDUP((Tabela1[[#This Row],[Fim da Bolsa ]]-Tabela1[[#This Row],[Início da Bolsa]])/365*12,0)</f>
         <v>48</v>
       </c>
-      <c r="G96" s="31">
-        <f>YEAR(Tabela1[[#This Row],[Início da Bolsa]])</f>
-        <v>2019</v>
-      </c>
-      <c r="H96" s="31">
-        <f>YEAR(Tabela1[[#This Row],[Fim da Bolsa ]])</f>
-        <v>2023</v>
-      </c>
-      <c r="I96" s="11"/>
-    </row>
-    <row r="97" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A97" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="B97" s="9" t="s">
-        <v>88</v>
-      </c>
-      <c r="C97" s="32">
-        <v>44593</v>
-      </c>
-      <c r="D97" s="32">
-        <v>45322</v>
-      </c>
-      <c r="F97" s="31">
+      <c r="G102" s="26">
+        <f>YEAR(Tabela1[[#This Row],[Início da Bolsa]])</f>
+        <v>2020</v>
+      </c>
+      <c r="H102" s="26">
+        <f>YEAR(Tabela1[[#This Row],[Fim da Bolsa ]])</f>
+        <v>2024</v>
+      </c>
+      <c r="I102" s="10"/>
+    </row>
+    <row r="103" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A103" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="B103" s="8" t="s">
+        <v>91</v>
+      </c>
+      <c r="C103" s="27">
+        <v>44621</v>
+      </c>
+      <c r="D103" s="27">
+        <v>45351</v>
+      </c>
+      <c r="F103" s="26">
         <f>ROUNDUP((Tabela1[[#This Row],[Fim da Bolsa ]]-Tabela1[[#This Row],[Início da Bolsa]])/365*12,0)</f>
         <v>24</v>
       </c>
-      <c r="G97" s="31">
+      <c r="G103" s="26">
         <f>YEAR(Tabela1[[#This Row],[Início da Bolsa]])</f>
         <v>2022</v>
       </c>
-      <c r="H97" s="31">
+      <c r="H103" s="26">
         <f>YEAR(Tabela1[[#This Row],[Fim da Bolsa ]])</f>
         <v>2024</v>
       </c>
-      <c r="I97" s="11"/>
-    </row>
-    <row r="98" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A98" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="B98" s="9" t="s">
-        <v>86</v>
-      </c>
-      <c r="C98" s="32">
-        <v>44593</v>
-      </c>
-      <c r="D98" s="32">
-        <v>45322</v>
-      </c>
-      <c r="F98" s="31">
+      <c r="I103" s="10"/>
+    </row>
+    <row r="104" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A104" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="B104" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="C104" s="27">
+        <v>43952</v>
+      </c>
+      <c r="D104" s="59">
+        <v>44834</v>
+      </c>
+      <c r="F104" s="26">
+        <f>ROUNDUP((Tabela1[[#This Row],[Fim da Bolsa ]]-Tabela1[[#This Row],[Início da Bolsa]])/365*12,0)</f>
+        <v>29</v>
+      </c>
+      <c r="G104" s="26">
+        <f>YEAR(Tabela1[[#This Row],[Início da Bolsa]])</f>
+        <v>2020</v>
+      </c>
+      <c r="H104" s="26">
+        <f>YEAR(Tabela1[[#This Row],[Fim da Bolsa ]])</f>
+        <v>2022</v>
+      </c>
+      <c r="I104" s="10"/>
+    </row>
+    <row r="105" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A105" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="B105" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="C105" s="59">
+        <v>44835</v>
+      </c>
+      <c r="D105" s="27">
+        <v>45412</v>
+      </c>
+      <c r="F105" s="26">
+        <f>ROUNDUP((Tabela1[[#This Row],[Fim da Bolsa ]]-Tabela1[[#This Row],[Início da Bolsa]])/365*12,0)</f>
+        <v>19</v>
+      </c>
+      <c r="G105" s="26">
+        <f>YEAR(Tabela1[[#This Row],[Início da Bolsa]])</f>
+        <v>2022</v>
+      </c>
+      <c r="H105" s="26">
+        <f>YEAR(Tabela1[[#This Row],[Fim da Bolsa ]])</f>
+        <v>2024</v>
+      </c>
+      <c r="I105" s="60"/>
+    </row>
+    <row r="106" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A106" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="B106" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="C106" s="27">
+        <v>44256</v>
+      </c>
+      <c r="D106" s="27">
+        <v>45716</v>
+      </c>
+      <c r="F106" s="26">
+        <f>ROUNDUP((Tabela1[[#This Row],[Fim da Bolsa ]]-Tabela1[[#This Row],[Início da Bolsa]])/365*12,0)</f>
+        <v>48</v>
+      </c>
+      <c r="G106" s="26">
+        <f>YEAR(Tabela1[[#This Row],[Início da Bolsa]])</f>
+        <v>2021</v>
+      </c>
+      <c r="H106" s="26">
+        <f>YEAR(Tabela1[[#This Row],[Fim da Bolsa ]])</f>
+        <v>2025</v>
+      </c>
+      <c r="I106" s="10"/>
+    </row>
+    <row r="107" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A107" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="B107" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="C107" s="27">
+        <v>44256</v>
+      </c>
+      <c r="D107" s="27">
+        <v>45716</v>
+      </c>
+      <c r="F107" s="26">
+        <f>ROUNDUP((Tabela1[[#This Row],[Fim da Bolsa ]]-Tabela1[[#This Row],[Início da Bolsa]])/365*12,0)</f>
+        <v>48</v>
+      </c>
+      <c r="G107" s="26">
+        <f>YEAR(Tabela1[[#This Row],[Início da Bolsa]])</f>
+        <v>2021</v>
+      </c>
+      <c r="H107" s="26">
+        <f>YEAR(Tabela1[[#This Row],[Fim da Bolsa ]])</f>
+        <v>2025</v>
+      </c>
+      <c r="I107" s="10"/>
+    </row>
+    <row r="108" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A108" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="B108" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="C108" s="27">
+        <v>44317</v>
+      </c>
+      <c r="D108" s="27">
+        <v>45777</v>
+      </c>
+      <c r="F108" s="26">
+        <f>ROUNDUP((Tabela1[[#This Row],[Fim da Bolsa ]]-Tabela1[[#This Row],[Início da Bolsa]])/365*12,0)</f>
+        <v>48</v>
+      </c>
+      <c r="G108" s="26">
+        <f>YEAR(Tabela1[[#This Row],[Início da Bolsa]])</f>
+        <v>2021</v>
+      </c>
+      <c r="H108" s="26">
+        <f>YEAR(Tabela1[[#This Row],[Fim da Bolsa ]])</f>
+        <v>2025</v>
+      </c>
+      <c r="I108" s="10"/>
+    </row>
+    <row r="109" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A109" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="B109" s="8" t="s">
+        <v>134</v>
+      </c>
+      <c r="C109" s="40">
+        <v>44805</v>
+      </c>
+      <c r="D109" s="40">
+        <v>45535</v>
+      </c>
+      <c r="F109" s="26">
         <f>ROUNDUP((Tabela1[[#This Row],[Fim da Bolsa ]]-Tabela1[[#This Row],[Início da Bolsa]])/365*12,0)</f>
         <v>24</v>
       </c>
-      <c r="G98" s="31">
+      <c r="G109" s="26">
         <f>YEAR(Tabela1[[#This Row],[Início da Bolsa]])</f>
         <v>2022</v>
       </c>
-      <c r="H98" s="31">
+      <c r="H109" s="26">
         <f>YEAR(Tabela1[[#This Row],[Fim da Bolsa ]])</f>
         <v>2024</v>
       </c>
-      <c r="I98" s="11"/>
-    </row>
-    <row r="99" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A99" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="B99" s="9" t="s">
-        <v>87</v>
-      </c>
-      <c r="C99" s="32">
-        <v>44593</v>
-      </c>
-      <c r="D99" s="32">
-        <v>45322</v>
-      </c>
-      <c r="F99" s="31">
-        <f>ROUNDUP((Tabela1[[#This Row],[Fim da Bolsa ]]-Tabela1[[#This Row],[Início da Bolsa]])/365*12,0)</f>
-        <v>24</v>
-      </c>
-      <c r="G99" s="31">
+      <c r="I109" s="10"/>
+    </row>
+    <row r="110" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A110" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="B110" s="8" t="s">
+        <v>135</v>
+      </c>
+      <c r="C110" s="27">
+        <v>44774</v>
+      </c>
+      <c r="D110" s="27">
+        <v>46234</v>
+      </c>
+      <c r="F110" s="26">
+        <f>ROUNDUP((Tabela1[[#This Row],[Fim da Bolsa ]]-Tabela1[[#This Row],[Início da Bolsa]])/365*12,0)</f>
+        <v>48</v>
+      </c>
+      <c r="G110" s="26">
         <f>YEAR(Tabela1[[#This Row],[Início da Bolsa]])</f>
         <v>2022</v>
       </c>
-      <c r="H99" s="31">
-        <f>YEAR(Tabela1[[#This Row],[Fim da Bolsa ]])</f>
-        <v>2024</v>
-      </c>
-      <c r="I99" s="11"/>
-    </row>
-    <row r="100" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A100" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="B100" s="9" t="s">
-        <v>90</v>
-      </c>
-      <c r="C100" s="32">
-        <v>44593</v>
-      </c>
-      <c r="D100" s="32">
-        <v>45322</v>
-      </c>
-      <c r="F100" s="31">
-        <f>ROUNDUP((Tabela1[[#This Row],[Fim da Bolsa ]]-Tabela1[[#This Row],[Início da Bolsa]])/365*12,0)</f>
-        <v>24</v>
-      </c>
-      <c r="G100" s="31">
+      <c r="H110" s="26">
+        <f>YEAR(Tabela1[[#This Row],[Fim da Bolsa ]])</f>
+        <v>2026</v>
+      </c>
+      <c r="I110" s="10"/>
+    </row>
+    <row r="111" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A111" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="B111" s="8" t="s">
+        <v>136</v>
+      </c>
+      <c r="C111" s="27">
+        <v>44774</v>
+      </c>
+      <c r="D111" s="27">
+        <v>46234</v>
+      </c>
+      <c r="F111" s="26">
+        <f>ROUNDUP((Tabela1[[#This Row],[Fim da Bolsa ]]-Tabela1[[#This Row],[Início da Bolsa]])/365*12,0)</f>
+        <v>48</v>
+      </c>
+      <c r="G111" s="26">
         <f>YEAR(Tabela1[[#This Row],[Início da Bolsa]])</f>
         <v>2022</v>
       </c>
-      <c r="H100" s="31">
-        <f>YEAR(Tabela1[[#This Row],[Fim da Bolsa ]])</f>
-        <v>2024</v>
-      </c>
-      <c r="I100" s="11"/>
-    </row>
-    <row r="101" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A101" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="B101" s="9" t="s">
-        <v>92</v>
-      </c>
-      <c r="C101" s="32">
-        <v>44593</v>
-      </c>
-      <c r="D101" s="32">
-        <v>45322</v>
-      </c>
-      <c r="F101" s="31">
-        <f>ROUNDUP((Tabela1[[#This Row],[Fim da Bolsa ]]-Tabela1[[#This Row],[Início da Bolsa]])/365*12,0)</f>
-        <v>24</v>
-      </c>
-      <c r="G101" s="31">
+      <c r="H111" s="26">
+        <f>YEAR(Tabela1[[#This Row],[Fim da Bolsa ]])</f>
+        <v>2026</v>
+      </c>
+      <c r="I111" s="10"/>
+    </row>
+    <row r="112" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A112" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="B112" s="8" t="s">
+        <v>137</v>
+      </c>
+      <c r="C112" s="27">
+        <v>44774</v>
+      </c>
+      <c r="D112" s="27">
+        <v>46234</v>
+      </c>
+      <c r="F112" s="26">
+        <f>ROUNDUP((Tabela1[[#This Row],[Fim da Bolsa ]]-Tabela1[[#This Row],[Início da Bolsa]])/365*12,0)</f>
+        <v>48</v>
+      </c>
+      <c r="G112" s="26">
         <f>YEAR(Tabela1[[#This Row],[Início da Bolsa]])</f>
         <v>2022</v>
       </c>
-      <c r="H101" s="31">
-        <f>YEAR(Tabela1[[#This Row],[Fim da Bolsa ]])</f>
-        <v>2024</v>
-      </c>
-      <c r="I101" s="11"/>
-    </row>
-    <row r="102" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A102" s="8" t="s">
+      <c r="H112" s="26">
+        <f>YEAR(Tabela1[[#This Row],[Fim da Bolsa ]])</f>
+        <v>2026</v>
+      </c>
+      <c r="I112" s="10"/>
+    </row>
+    <row r="113" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A113" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="B102" s="9" t="s">
-        <v>67</v>
-      </c>
-      <c r="C102" s="32">
-        <v>43891</v>
-      </c>
-      <c r="D102" s="32">
-        <v>45351</v>
-      </c>
-      <c r="F102" s="31">
+      <c r="B113" s="8" t="s">
+        <v>138</v>
+      </c>
+      <c r="C113" s="27">
+        <v>44774</v>
+      </c>
+      <c r="D113" s="27">
+        <v>46234</v>
+      </c>
+      <c r="F113" s="26">
         <f>ROUNDUP((Tabela1[[#This Row],[Fim da Bolsa ]]-Tabela1[[#This Row],[Início da Bolsa]])/365*12,0)</f>
         <v>48</v>
       </c>
-      <c r="G102" s="31">
-        <f>YEAR(Tabela1[[#This Row],[Início da Bolsa]])</f>
-        <v>2020</v>
-      </c>
-      <c r="H102" s="31">
-        <f>YEAR(Tabela1[[#This Row],[Fim da Bolsa ]])</f>
-        <v>2024</v>
-      </c>
-      <c r="I102" s="11"/>
-    </row>
-    <row r="103" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A103" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="B103" s="9" t="s">
-        <v>91</v>
-      </c>
-      <c r="C103" s="32">
-        <v>44621</v>
-      </c>
-      <c r="D103" s="32">
-        <v>45351</v>
-      </c>
-      <c r="F103" s="31">
-        <f>ROUNDUP((Tabela1[[#This Row],[Fim da Bolsa ]]-Tabela1[[#This Row],[Início da Bolsa]])/365*12,0)</f>
-        <v>24</v>
-      </c>
-      <c r="G103" s="31">
+      <c r="G113" s="26">
         <f>YEAR(Tabela1[[#This Row],[Início da Bolsa]])</f>
         <v>2022</v>
       </c>
-      <c r="H103" s="31">
-        <f>YEAR(Tabela1[[#This Row],[Fim da Bolsa ]])</f>
-        <v>2024</v>
-      </c>
-      <c r="I103" s="11"/>
-    </row>
-    <row r="104" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A104" s="8" t="s">
-        <v>33</v>
-      </c>
-      <c r="B104" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="C104" s="32">
-        <v>43952</v>
-      </c>
-      <c r="D104" s="32">
-        <v>45412</v>
-      </c>
-      <c r="F104" s="31">
-        <f>ROUNDUP((Tabela1[[#This Row],[Fim da Bolsa ]]-Tabela1[[#This Row],[Início da Bolsa]])/365*12,0)</f>
-        <v>48</v>
-      </c>
-      <c r="G104" s="31">
-        <f>YEAR(Tabela1[[#This Row],[Início da Bolsa]])</f>
-        <v>2020</v>
-      </c>
-      <c r="H104" s="31">
-        <f>YEAR(Tabela1[[#This Row],[Fim da Bolsa ]])</f>
-        <v>2024</v>
-      </c>
-      <c r="I104" s="11"/>
-    </row>
-    <row r="105" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A105" s="8" t="s">
-        <v>33</v>
-      </c>
-      <c r="B105" s="9" t="s">
-        <v>73</v>
-      </c>
-      <c r="C105" s="32">
-        <v>44256</v>
-      </c>
-      <c r="D105" s="32">
-        <v>45716</v>
-      </c>
-      <c r="F105" s="31">
-        <f>ROUNDUP((Tabela1[[#This Row],[Fim da Bolsa ]]-Tabela1[[#This Row],[Início da Bolsa]])/365*12,0)</f>
-        <v>48</v>
-      </c>
-      <c r="G105" s="31">
-        <f>YEAR(Tabela1[[#This Row],[Início da Bolsa]])</f>
-        <v>2021</v>
-      </c>
-      <c r="H105" s="31">
-        <f>YEAR(Tabela1[[#This Row],[Fim da Bolsa ]])</f>
-        <v>2025</v>
-      </c>
-      <c r="I105" s="11"/>
-    </row>
-    <row r="106" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A106" s="8" t="s">
-        <v>33</v>
-      </c>
-      <c r="B106" s="9" t="s">
-        <v>74</v>
-      </c>
-      <c r="C106" s="32">
-        <v>44256</v>
-      </c>
-      <c r="D106" s="32">
-        <v>45716</v>
-      </c>
-      <c r="F106" s="31">
-        <f>ROUNDUP((Tabela1[[#This Row],[Fim da Bolsa ]]-Tabela1[[#This Row],[Início da Bolsa]])/365*12,0)</f>
-        <v>48</v>
-      </c>
-      <c r="G106" s="31">
-        <f>YEAR(Tabela1[[#This Row],[Início da Bolsa]])</f>
-        <v>2021</v>
-      </c>
-      <c r="H106" s="31">
-        <f>YEAR(Tabela1[[#This Row],[Fim da Bolsa ]])</f>
-        <v>2025</v>
-      </c>
-      <c r="I106" s="11"/>
-    </row>
-    <row r="107" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A107" s="40" t="s">
-        <v>33</v>
-      </c>
-      <c r="B107" s="9" t="s">
-        <v>48</v>
-      </c>
-      <c r="C107" s="32">
-        <v>44317</v>
-      </c>
-      <c r="D107" s="32">
-        <v>45777</v>
-      </c>
-      <c r="F107" s="31">
-        <f>ROUNDUP((Tabela1[[#This Row],[Fim da Bolsa ]]-Tabela1[[#This Row],[Início da Bolsa]])/365*12,0)</f>
-        <v>48</v>
-      </c>
-      <c r="G107" s="31">
-        <f>YEAR(Tabela1[[#This Row],[Início da Bolsa]])</f>
-        <v>2021</v>
-      </c>
-      <c r="H107" s="31">
-        <f>YEAR(Tabela1[[#This Row],[Fim da Bolsa ]])</f>
-        <v>2025</v>
-      </c>
-      <c r="I107" s="11"/>
-    </row>
-    <row r="108" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A108" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="B108" s="9" t="s">
-        <v>134</v>
-      </c>
-      <c r="C108" s="49">
-        <v>44805</v>
-      </c>
-      <c r="D108" s="49">
-        <v>45535</v>
-      </c>
-      <c r="F108" s="31">
-        <f>ROUNDUP((Tabela1[[#This Row],[Fim da Bolsa ]]-Tabela1[[#This Row],[Início da Bolsa]])/365*12,0)</f>
-        <v>24</v>
-      </c>
-      <c r="G108" s="31">
-        <f>YEAR(Tabela1[[#This Row],[Início da Bolsa]])</f>
-        <v>2022</v>
-      </c>
-      <c r="H108" s="31">
-        <f>YEAR(Tabela1[[#This Row],[Fim da Bolsa ]])</f>
-        <v>2024</v>
-      </c>
-      <c r="I108" s="11"/>
-    </row>
-    <row r="109" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A109" s="68" t="s">
-        <v>33</v>
-      </c>
-      <c r="B109" s="9" t="s">
-        <v>135</v>
-      </c>
-      <c r="C109" s="32">
-        <v>44774</v>
-      </c>
-      <c r="D109" s="32">
-        <v>46234</v>
-      </c>
-      <c r="F109" s="31">
-        <f>ROUNDUP((Tabela1[[#This Row],[Fim da Bolsa ]]-Tabela1[[#This Row],[Início da Bolsa]])/365*12,0)</f>
-        <v>48</v>
-      </c>
-      <c r="G109" s="31">
-        <f>YEAR(Tabela1[[#This Row],[Início da Bolsa]])</f>
-        <v>2022</v>
-      </c>
-      <c r="H109" s="69">
+      <c r="H113" s="26">
         <f>YEAR(Tabela1[[#This Row],[Fim da Bolsa ]])</f>
         <v>2026</v>
       </c>
-      <c r="I109" s="11"/>
-    </row>
-    <row r="110" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A110" s="68" t="s">
-        <v>33</v>
-      </c>
-      <c r="B110" s="9" t="s">
-        <v>136</v>
-      </c>
-      <c r="C110" s="32">
-        <v>44774</v>
-      </c>
-      <c r="D110" s="32">
-        <v>46234</v>
-      </c>
-      <c r="F110" s="31">
-        <f>ROUNDUP((Tabela1[[#This Row],[Fim da Bolsa ]]-Tabela1[[#This Row],[Início da Bolsa]])/365*12,0)</f>
-        <v>48</v>
-      </c>
-      <c r="G110" s="31">
-        <f>YEAR(Tabela1[[#This Row],[Início da Bolsa]])</f>
-        <v>2022</v>
-      </c>
-      <c r="H110" s="69">
-        <f>YEAR(Tabela1[[#This Row],[Fim da Bolsa ]])</f>
-        <v>2026</v>
-      </c>
-      <c r="I110" s="11"/>
-    </row>
-    <row r="111" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A111" s="68" t="s">
-        <v>33</v>
-      </c>
-      <c r="B111" s="9" t="s">
-        <v>137</v>
-      </c>
-      <c r="C111" s="32">
-        <v>44774</v>
-      </c>
-      <c r="D111" s="32">
-        <v>46234</v>
-      </c>
-      <c r="F111" s="31">
-        <f>ROUNDUP((Tabela1[[#This Row],[Fim da Bolsa ]]-Tabela1[[#This Row],[Início da Bolsa]])/365*12,0)</f>
-        <v>48</v>
-      </c>
-      <c r="G111" s="31">
-        <f>YEAR(Tabela1[[#This Row],[Início da Bolsa]])</f>
-        <v>2022</v>
-      </c>
-      <c r="H111" s="69">
-        <f>YEAR(Tabela1[[#This Row],[Fim da Bolsa ]])</f>
-        <v>2026</v>
-      </c>
-      <c r="I111" s="11"/>
-    </row>
-    <row r="112" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A112" s="68" t="s">
-        <v>33</v>
-      </c>
-      <c r="B112" s="9" t="s">
-        <v>138</v>
-      </c>
-      <c r="C112" s="32">
-        <v>44774</v>
-      </c>
-      <c r="D112" s="32">
-        <v>46234</v>
-      </c>
-      <c r="F112" s="31">
-        <f>ROUNDUP((Tabela1[[#This Row],[Fim da Bolsa ]]-Tabela1[[#This Row],[Início da Bolsa]])/365*12,0)</f>
-        <v>48</v>
-      </c>
-      <c r="G112" s="31">
-        <f>YEAR(Tabela1[[#This Row],[Início da Bolsa]])</f>
-        <v>2022</v>
-      </c>
-      <c r="H112" s="69">
-        <f>YEAR(Tabela1[[#This Row],[Fim da Bolsa ]])</f>
-        <v>2026</v>
-      </c>
-      <c r="I112" s="11"/>
+      <c r="I113" s="10"/>
     </row>
   </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
@@ -6568,53 +6574,53 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="10.1640625" style="57" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="43" style="57" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="77.5" style="57" bestFit="1" customWidth="1"/>
-    <col min="4" max="16384" width="10.83203125" style="57"/>
+    <col min="1" max="1" width="10.1640625" style="48" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="43" style="48" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="77.5" style="48" bestFit="1" customWidth="1"/>
+    <col min="4" max="16384" width="10.83203125" style="48"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A1" s="61" t="s">
+      <c r="A1" s="52" t="s">
         <v>133</v>
       </c>
-      <c r="B1" s="60" t="s">
+      <c r="B1" s="51" t="s">
         <v>132</v>
       </c>
-      <c r="C1" s="60" t="s">
+      <c r="C1" s="51" t="s">
         <v>131</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A2" s="57">
+      <c r="A2" s="48">
         <v>2021</v>
       </c>
-      <c r="B2" s="57" t="s">
+      <c r="B2" s="48" t="s">
         <v>130</v>
       </c>
-      <c r="C2" s="59" t="s">
+      <c r="C2" s="50" t="s">
         <v>129</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A3" s="57">
+      <c r="A3" s="48">
         <v>2018</v>
       </c>
-      <c r="B3" s="57" t="s">
+      <c r="B3" s="48" t="s">
         <v>128</v>
       </c>
-      <c r="C3" s="58" t="s">
+      <c r="C3" s="49" t="s">
         <v>127</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A4" s="57">
+      <c r="A4" s="48">
         <v>2013</v>
       </c>
-      <c r="B4" s="57" t="s">
+      <c r="B4" s="48" t="s">
         <v>126</v>
       </c>
-      <c r="C4" s="58" t="s">
+      <c r="C4" s="49" t="s">
         <v>125</v>
       </c>
     </row>

--- a/docs/PPG/Bolsas.xlsx
+++ b/docs/PPG/Bolsas.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10814"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="11011"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/asferreira/Google Drive (cienciasdareabilitacao@souunisuam.com.br)/ObservatorioCR/PPG/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D573B3F1-A485-F14F-B1DA-86E09A9A40D4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C878332F-E837-A34A-8B16-3522CB01C6CB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="860" yWindow="500" windowWidth="27940" windowHeight="17500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="860" yWindow="500" windowWidth="27940" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="stats" sheetId="8" r:id="rId1"/>
@@ -434,21 +434,12 @@
     <t>OK</t>
   </si>
   <si>
-    <t>https://drive.google.com/file/d/1ITdjTv2GNPrwdvppY_pBlipAHXahyaFV/view?usp=sharing</t>
-  </si>
-  <si>
     <t>Portaria nº 123 de 01 de agosto de 2013</t>
   </si>
   <si>
-    <t>https://drive.google.com/file/d/1hbTJPpdBK1mnYFS5hlrh2Zjh-VKjBbRJ/view?usp=sharing</t>
-  </si>
-  <si>
     <t>Portaria nº 85 de 10 de agosto de 2018</t>
   </si>
   <si>
-    <t>https://drive.google.com/file/d/1lMLgjPVCe8bd-e7T-Lh2IM3HH6fWpEZi/view?usp=sharing</t>
-  </si>
-  <si>
     <t>Portaria nº 27 de 01 de julho de 2021</t>
   </si>
   <si>
@@ -474,6 +465,15 @@
   </si>
   <si>
     <t>Ygor Teixeira da Silva</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1lMLgjPVCe8bd-e7T-Lh2IM3HH6fWpEZi</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1hbTJPpdBK1mnYFS5hlrh2Zjh-VKjBbRJ</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1ITdjTv2GNPrwdvppY_pBlipAHXahyaFV</t>
   </si>
 </sst>
 </file>
@@ -662,7 +662,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="61">
+  <cellXfs count="60">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -808,6 +808,9 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="2" applyAlignment="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="49" fontId="7" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="2" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -825,12 +828,6 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="2" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -1457,7 +1454,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E6B50168-E3BA-8E48-82C0-0FE954EB8749}">
   <dimension ref="A1:T21"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
@@ -1496,22 +1493,22 @@
     </row>
     <row r="2" spans="1:20" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="1"/>
-      <c r="B2" s="53" t="s">
+      <c r="B2" s="54" t="s">
         <v>38</v>
       </c>
-      <c r="C2" s="53"/>
-      <c r="D2" s="53"/>
-      <c r="E2" s="53"/>
-      <c r="F2" s="53"/>
-      <c r="G2" s="53"/>
-      <c r="H2" s="53"/>
-      <c r="I2" s="53"/>
-      <c r="J2" s="53"/>
-      <c r="K2" s="53"/>
-      <c r="L2" s="53"/>
-      <c r="M2" s="53"/>
-      <c r="N2" s="53"/>
-      <c r="O2" s="53"/>
+      <c r="C2" s="54"/>
+      <c r="D2" s="54"/>
+      <c r="E2" s="54"/>
+      <c r="F2" s="54"/>
+      <c r="G2" s="54"/>
+      <c r="H2" s="54"/>
+      <c r="I2" s="54"/>
+      <c r="J2" s="54"/>
+      <c r="K2" s="54"/>
+      <c r="L2" s="54"/>
+      <c r="M2" s="54"/>
+      <c r="N2" s="54"/>
+      <c r="O2" s="54"/>
       <c r="P2" s="31"/>
       <c r="Q2" s="31"/>
       <c r="R2" s="31"/>
@@ -1520,42 +1517,42 @@
     </row>
     <row r="3" spans="1:20" s="17" customFormat="1" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="16"/>
-      <c r="B3" s="54" t="s">
+      <c r="B3" s="55" t="s">
         <v>35</v>
       </c>
-      <c r="C3" s="54"/>
+      <c r="C3" s="55"/>
       <c r="D3" s="20" t="s">
         <v>41</v>
       </c>
-      <c r="E3" s="58" t="s">
+      <c r="E3" s="59" t="s">
         <v>44</v>
       </c>
-      <c r="F3" s="58"/>
-      <c r="G3" s="58"/>
-      <c r="H3" s="56" t="s">
+      <c r="F3" s="59"/>
+      <c r="G3" s="59"/>
+      <c r="H3" s="57" t="s">
         <v>45</v>
       </c>
-      <c r="I3" s="56"/>
-      <c r="J3" s="56"/>
-      <c r="K3" s="56"/>
-      <c r="L3" s="56" t="s">
+      <c r="I3" s="57"/>
+      <c r="J3" s="57"/>
+      <c r="K3" s="57"/>
+      <c r="L3" s="57" t="s">
         <v>46</v>
       </c>
-      <c r="M3" s="56"/>
-      <c r="N3" s="56"/>
-      <c r="O3" s="56"/>
-      <c r="P3" s="56" t="s">
+      <c r="M3" s="57"/>
+      <c r="N3" s="57"/>
+      <c r="O3" s="57"/>
+      <c r="P3" s="57" t="s">
         <v>66</v>
       </c>
-      <c r="Q3" s="56"/>
-      <c r="R3" s="56"/>
-      <c r="S3" s="56"/>
+      <c r="Q3" s="57"/>
+      <c r="R3" s="57"/>
+      <c r="S3" s="57"/>
       <c r="T3" s="16"/>
     </row>
     <row r="4" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A4" s="1"/>
-      <c r="B4" s="55"/>
-      <c r="C4" s="55"/>
+      <c r="B4" s="56"/>
+      <c r="C4" s="56"/>
       <c r="D4" s="23"/>
       <c r="E4" s="23">
         <v>2010</v>
@@ -3072,12 +3069,12 @@
     </row>
     <row r="20" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A20" s="1"/>
-      <c r="B20" s="57" t="s">
+      <c r="B20" s="58" t="s">
         <v>39</v>
       </c>
-      <c r="C20" s="57"/>
-      <c r="D20" s="57"/>
-      <c r="E20" s="57"/>
+      <c r="C20" s="58"/>
+      <c r="D20" s="58"/>
+      <c r="E20" s="58"/>
       <c r="F20" s="1"/>
       <c r="G20" s="1"/>
       <c r="H20" s="1"/>
@@ -3135,7 +3132,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I113"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="70" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" zoomScaleSheetLayoutView="70" workbookViewId="0">
       <pane xSplit="3" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
@@ -5946,7 +5943,7 @@
       <c r="C91" s="27">
         <v>43770</v>
       </c>
-      <c r="D91" s="59">
+      <c r="D91" s="53">
         <v>44834</v>
       </c>
       <c r="F91" s="26">
@@ -6297,7 +6294,7 @@
       <c r="C104" s="27">
         <v>43952</v>
       </c>
-      <c r="D104" s="59">
+      <c r="D104" s="53">
         <v>44834</v>
       </c>
       <c r="F104" s="26">
@@ -6321,7 +6318,7 @@
       <c r="B105" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="C105" s="59">
+      <c r="C105" s="53">
         <v>44835</v>
       </c>
       <c r="D105" s="27">
@@ -6339,7 +6336,7 @@
         <f>YEAR(Tabela1[[#This Row],[Fim da Bolsa ]])</f>
         <v>2024</v>
       </c>
-      <c r="I105" s="60"/>
+      <c r="I105" s="10"/>
     </row>
     <row r="106" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A106" s="6" t="s">
@@ -6427,7 +6424,7 @@
         <v>32</v>
       </c>
       <c r="B109" s="8" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="C109" s="40">
         <v>44805</v>
@@ -6454,7 +6451,7 @@
         <v>33</v>
       </c>
       <c r="B110" s="8" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="C110" s="27">
         <v>44774</v>
@@ -6481,7 +6478,7 @@
         <v>33</v>
       </c>
       <c r="B111" s="8" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="C111" s="27">
         <v>44774</v>
@@ -6508,7 +6505,7 @@
         <v>33</v>
       </c>
       <c r="B112" s="8" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="C112" s="27">
         <v>44774</v>
@@ -6535,7 +6532,7 @@
         <v>33</v>
       </c>
       <c r="B113" s="8" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="C113" s="27">
         <v>44774</v>
@@ -6582,13 +6579,13 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" s="52" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="B1" s="51" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="C1" s="51" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
@@ -6596,10 +6593,10 @@
         <v>2021</v>
       </c>
       <c r="B2" s="48" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="C2" s="50" t="s">
-        <v>129</v>
+        <v>136</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
@@ -6607,10 +6604,10 @@
         <v>2018</v>
       </c>
       <c r="B3" s="48" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="C3" s="49" t="s">
-        <v>127</v>
+        <v>137</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
@@ -6618,10 +6615,10 @@
         <v>2013</v>
       </c>
       <c r="B4" s="48" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C4" s="49" t="s">
-        <v>125</v>
+        <v>138</v>
       </c>
     </row>
   </sheetData>

--- a/docs/PPG/Bolsas.xlsx
+++ b/docs/PPG/Bolsas.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/asferreira/Google Drive (cienciasdareabilitacao@souunisuam.com.br)/ObservatorioCR/PPG/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{82E18C2A-FBA4-8643-A62E-F62F3CEA8CC6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EA2952EA-C9F8-3746-B08A-3F060B2BA3D3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="860" yWindow="500" windowWidth="27940" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="860" yWindow="500" windowWidth="27940" windowHeight="17500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="PortariaBolsas" sheetId="9" r:id="rId1"/>
+    <sheet name="Portarias IES" sheetId="9" r:id="rId1"/>
+    <sheet name="PROSUP" sheetId="10" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -33,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="25">
   <si>
     <t>Portaria nº 123 de 01 de agosto de 2013</t>
   </si>
@@ -60,15 +61,77 @@
   </si>
   <si>
     <t>https://drive.google.com/file/d/15QxTGK9rJo9O-SSHGx8qcIdWfG4hTQ3Q</t>
+  </si>
+  <si>
+    <t>Calendário SCBA 2023</t>
+  </si>
+  <si>
+    <t>https://www.gov.br/capes/pt-br/centrais-de-conteudo/documentos/diretoria-de-bolsas-no-pais/04012023_CalendrioSCBA2023Institucionais.pdf</t>
+  </si>
+  <si>
+    <t>https://www.gov.br/capes/pt-br/acesso-a-informacao/acoes-e-programas/bolsas/bolsas-no-pais/22102018ModeloTermoCompromissoPROSUP.doc</t>
+  </si>
+  <si>
+    <t>Termo de Compromisso de beneficiário (doc)</t>
+  </si>
+  <si>
+    <t>Termo de Compromisso de beneficiário (pdf)</t>
+  </si>
+  <si>
+    <t>https://www.gov.br/capes/pt-br/centrais-de-conteudo/22102018ModeloTermoCompromissoPROSUP.pdf</t>
+  </si>
+  <si>
+    <t>Portaria nº 181 de 18 de dezembro 2012 Aprova o Regulamento do Programa de Suporte à Pós Graduação de instituições de Ensino Particulares</t>
+  </si>
+  <si>
+    <t>http://cad.capes.gov.br/ato-administrativo-detalhar?idAtoAdmElastic=572#anchor</t>
+  </si>
+  <si>
+    <t>Relação das Instituições de Ensino Superior e Programas de Pós-Graduação participantes</t>
+  </si>
+  <si>
+    <t>https://www.gov.br/capes/pt-br/centrais-de-conteudo/19122018PROSUPIESePPG.pdf</t>
+  </si>
+  <si>
+    <t>https://www.in.gov.br/materia/-/asset_publisher/Kujrw0TZC2Mb/content/id/39729251/do1-2018-09-05-portaria-n-206-de-4-de-setembro-de-2018-39729135</t>
+  </si>
+  <si>
+    <t>Portaria Nº 206 de 4 de setembro de 2018 Dispõe sobre obrigatoriedade de citação da CAPES</t>
+  </si>
+  <si>
+    <t>04/01/2023</t>
+  </si>
+  <si>
+    <t>22/10/2018</t>
+  </si>
+  <si>
+    <t>05/09/2018</t>
+  </si>
+  <si>
+    <t>20/12/2012</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -117,16 +180,18 @@
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="2"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="2" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="2"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="2" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Hiperlink" xfId="2" builtinId="8"/>
@@ -411,7 +476,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4D2A2F26-1678-FA4E-B9F8-88F4FD843D40}">
   <dimension ref="A1:C4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
@@ -473,4 +538,108 @@
   </hyperlinks>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BE69CE70-DFA3-5E49-A523-CFA0DDA93B5C}">
+  <dimension ref="A1:C7"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="10.83203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="121.83203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="77.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="16384" width="10.83203125" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A1" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A2" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="B2" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A3" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="B3" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A4" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="B4" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A5" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="B5" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A6" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="B6" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A7" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="B7" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="C2" r:id="rId1" xr:uid="{1AD1D5BE-44F9-1D4B-89CC-E1686CAF9071}"/>
+    <hyperlink ref="C3" r:id="rId2" xr:uid="{CFDB1A8B-BF62-D246-9D7A-DB8C40CEF4B0}"/>
+    <hyperlink ref="C4" r:id="rId3" xr:uid="{B927918F-7565-E542-B802-C6455BEC1726}"/>
+    <hyperlink ref="C6" r:id="rId4" location="anchor" xr:uid="{C4BED215-1CC6-5946-90A3-16810EF37D52}"/>
+    <hyperlink ref="C7" r:id="rId5" xr:uid="{2392AA86-0182-A541-A1BE-117DBA331788}"/>
+    <hyperlink ref="C5" r:id="rId6" xr:uid="{6149A74C-505E-AE48-99A1-06F86FD4A279}"/>
+  </hyperlinks>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+</worksheet>
 </file>
--- a/docs/PPG/Bolsas.xlsx
+++ b/docs/PPG/Bolsas.xlsx
@@ -1,20 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10212"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10409"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/asferreira/Google Drive (cienciasdareabilitacao@souunisuam.com.br)/ObservatorioCR/PPG/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EA2952EA-C9F8-3746-B08A-3F060B2BA3D3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{371AEFE1-241E-7947-BD94-5C9BE80E9F7C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="860" yWindow="500" windowWidth="27940" windowHeight="17500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="860" yWindow="500" windowWidth="27940" windowHeight="17500" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Portarias IES" sheetId="9" r:id="rId1"/>
     <sheet name="PROSUP" sheetId="10" r:id="rId2"/>
+    <sheet name="DOU" sheetId="11" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -34,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="33">
   <si>
     <t>Portaria nº 123 de 01 de agosto de 2013</t>
   </si>
@@ -109,15 +110,46 @@
   </si>
   <si>
     <t>20/12/2012</t>
+  </si>
+  <si>
+    <t>20/04/2023</t>
+  </si>
+  <si>
+    <t>Extrato de termo de cooperação técnica - PROSUP</t>
+  </si>
+  <si>
+    <t>https://www.in.gov.br/web/dou/-/extrato-de-termo-de-cooperacao-tecnica-478372214</t>
+  </si>
+  <si>
+    <t>https://www.in.gov.br/web/dou/-/extrato-de-cooperacao-tecnica-201904966</t>
+  </si>
+  <si>
+    <t>23/07/2019</t>
+  </si>
+  <si>
+    <t>10/06/2022</t>
+  </si>
+  <si>
+    <t>https://www.in.gov.br/web/dou/-/extrato-de-termo-de-cooperacao-tecnica-407200613</t>
+  </si>
+  <si>
+    <t>https://www.in.gov.br/web/dou/-/extrato-de-termo-de-cooperacao-tecnica-42867806</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -180,18 +212,22 @@
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="2"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="2" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="2"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="2" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="2" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Hiperlink" xfId="2" builtinId="8"/>
@@ -544,7 +580,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BE69CE70-DFA3-5E49-A523-CFA0DDA93B5C}">
   <dimension ref="A1:C7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
@@ -642,4 +678,84 @@
   </hyperlinks>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5C9027D0-BBC9-074A-98E0-BE8FDCCF0A4E}">
+  <dimension ref="A1:C5"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A6" sqref="A6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="2" max="2" width="43" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="123.1640625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+      <c r="A1" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+      <c r="A2" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="B2" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="C2" s="10" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+      <c r="A3" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="B3" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="C3" s="10" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+      <c r="A4" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="B4" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="C4" s="10" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+      <c r="A5" s="11">
+        <v>43371</v>
+      </c>
+      <c r="B5" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>32</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="C2" r:id="rId1" xr:uid="{6944FE21-1C9C-B94D-81F5-1BE2E1F176FE}"/>
+    <hyperlink ref="C4" r:id="rId2" xr:uid="{D55FC383-6BB1-2A40-A0A7-C3C5ABD4E3D4}"/>
+    <hyperlink ref="C3" r:id="rId3" xr:uid="{EDE1F38C-D6D5-904B-81E7-5C17BD574614}"/>
+    <hyperlink ref="C5" r:id="rId4" xr:uid="{2924B1AE-6C7A-AF49-8876-BA5D606E8B92}"/>
+  </hyperlinks>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+</worksheet>
 </file>
--- a/docs/PPG/Bolsas.xlsx
+++ b/docs/PPG/Bolsas.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/asferreira/Google Drive (cienciasdareabilitacao@souunisuam.com.br)/ObservatorioCR/PPG/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{371AEFE1-241E-7947-BD94-5C9BE80E9F7C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{29E02F11-24A8-1C41-AA5C-2AE1DB41A696}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="860" yWindow="500" windowWidth="27940" windowHeight="17500" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="34">
   <si>
     <t>Portaria nº 123 de 01 de agosto de 2013</t>
   </si>
@@ -134,15 +134,25 @@
   </si>
   <si>
     <t>https://www.in.gov.br/web/dou/-/extrato-de-termo-de-cooperacao-tecnica-42867806</t>
+  </si>
+  <si>
+    <t>28/09/2018</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -212,22 +222,22 @@
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="2"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="2" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="2"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="2" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="2" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="2" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Hiperlink" xfId="2" builtinId="8"/>
@@ -684,18 +694,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5C9027D0-BBC9-074A-98E0-BE8FDCCF0A4E}">
   <dimension ref="A1:C5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
+    <col min="1" max="1" width="10.83203125" style="8"/>
     <col min="2" max="2" width="43" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="123.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="16" x14ac:dyDescent="0.2">
-      <c r="A1" s="5" t="s">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A1" s="8" t="s">
         <v>5</v>
       </c>
       <c r="B1" s="4" t="s">
@@ -705,7 +714,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" s="8" t="s">
         <v>25</v>
       </c>
@@ -716,7 +725,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" s="8" t="s">
         <v>30</v>
       </c>
@@ -727,7 +736,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" s="8" t="s">
         <v>29</v>
       </c>
@@ -738,9 +747,9 @@
         <v>28</v>
       </c>
     </row>
-    <row r="5" spans="1:3" ht="16" x14ac:dyDescent="0.2">
-      <c r="A5" s="11">
-        <v>43371</v>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A5" s="11" t="s">
+        <v>33</v>
       </c>
       <c r="B5" s="9" t="s">
         <v>26</v>

--- a/docs/PPG/Bolsas.xlsx
+++ b/docs/PPG/Bolsas.xlsx
@@ -8,14 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/asferreira/Google Drive (cienciasdareabilitacao@souunisuam.com.br)/ObservatorioCR/PPG/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{29E02F11-24A8-1C41-AA5C-2AE1DB41A696}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3D553391-ABFF-3C49-8A2D-1F72AC83918E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="860" yWindow="500" windowWidth="27940" windowHeight="17500" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="860" yWindow="500" windowWidth="27940" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Portarias IES" sheetId="9" r:id="rId1"/>
-    <sheet name="PROSUP" sheetId="10" r:id="rId2"/>
-    <sheet name="DOU" sheetId="11" r:id="rId3"/>
+    <sheet name="Portarias CAPES" sheetId="12" r:id="rId2"/>
+    <sheet name="PROSUP" sheetId="10" r:id="rId3"/>
+    <sheet name="DOU" sheetId="11" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -35,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="37">
   <si>
     <t>Portaria nº 123 de 01 de agosto de 2013</t>
   </si>
@@ -137,15 +138,31 @@
   </si>
   <si>
     <t>28/09/2018</t>
+  </si>
+  <si>
+    <t>28/04/2023</t>
+  </si>
+  <si>
+    <t>Portaria nº 79, de 28 de Abril de 2023 - Altera o Anexo da Portaria nº 76, de 14 de abril de 2010</t>
+  </si>
+  <si>
+    <t>http://cad.capes.gov.br/ato-administrativo-detalhar?idAtoAdmElastic=11663#anchor</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -222,22 +239,24 @@
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="2"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="2" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="2"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="2" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="2" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="2" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Hiperlink" xfId="2" builtinId="8"/>
@@ -522,7 +541,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4D2A2F26-1678-FA4E-B9F8-88F4FD843D40}">
   <dimension ref="A1:C4"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
@@ -587,10 +606,78 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E7C5D405-DE71-CA4E-8BE5-C70B78132DAA}">
+  <dimension ref="A1:C4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="2" max="2" width="80.83203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="72.5" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+      <c r="A1" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+      <c r="A2" s="12" t="s">
+        <v>34</v>
+      </c>
+      <c r="B2" s="13" t="s">
+        <v>35</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" s="1" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A3" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="B3" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" s="1" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A4" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="B4" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="C2" r:id="rId1" location="anchor" xr:uid="{2E28350F-A3DF-DA40-803E-CF5D7F864079}"/>
+    <hyperlink ref="C4" r:id="rId2" location="anchor" xr:uid="{240A96BB-1DF3-E343-8EF1-24BF4D3B93A4}"/>
+    <hyperlink ref="C3" r:id="rId3" xr:uid="{CD343F73-7CC0-204F-A7E3-9D1A6ABD70C6}"/>
+  </hyperlinks>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BE69CE70-DFA3-5E49-A523-CFA0DDA93B5C}">
   <dimension ref="A1:C7"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A5" sqref="A5:XFD6"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
@@ -690,11 +777,11 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5C9027D0-BBC9-074A-98E0-BE8FDCCF0A4E}">
   <dimension ref="A1:C5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>

--- a/docs/PPG/Bolsas.xlsx
+++ b/docs/PPG/Bolsas.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10409"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10709"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/asferreira/Google Drive (cienciasdareabilitacao@souunisuam.com.br)/ObservatorioCR/PPG/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3D553391-ABFF-3C49-8A2D-1F72AC83918E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5EB9FAED-AB36-5F4C-8A39-E65D94688B1A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="860" yWindow="500" windowWidth="27940" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="40">
   <si>
     <t>Portaria nº 123 de 01 de agosto de 2013</t>
   </si>
@@ -147,15 +147,31 @@
   </si>
   <si>
     <t>http://cad.capes.gov.br/ato-administrativo-detalhar?idAtoAdmElastic=11663#anchor</t>
+  </si>
+  <si>
+    <t>Portaria nº 133, de 10 de Julho de 2023 - Regulamenta o acúmulo de bolsas de mestrado, doutorado e pós-doutorado concedidas pela CAPES no País com atividade remunerada ou outros rendimentos</t>
+  </si>
+  <si>
+    <t>https://www.in.gov.br/en/web/dou/-/portaria-capes-n-133-de-10-de-julho-de-2023-495844683</t>
+  </si>
+  <si>
+    <t>10/07/2023</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -239,22 +255,24 @@
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="2"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="2" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="2"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="2" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="49" fontId="8" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="2" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="2" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1"/>
   </cellXfs>
@@ -607,7 +625,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E7C5D405-DE71-CA4E-8BE5-C70B78132DAA}">
-  <dimension ref="A1:C4"/>
+  <dimension ref="A1:C5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -629,43 +647,55 @@
       </c>
     </row>
     <row r="2" spans="1:3" ht="16" x14ac:dyDescent="0.2">
-      <c r="A2" s="12" t="s">
+      <c r="A2" s="14" t="s">
+        <v>39</v>
+      </c>
+      <c r="B2" s="15" t="s">
+        <v>37</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+      <c r="A3" s="12" t="s">
         <v>34</v>
       </c>
-      <c r="B2" s="13" t="s">
+      <c r="B3" s="13" t="s">
         <v>35</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="C3" s="3" t="s">
         <v>36</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" s="1" customFormat="1" ht="16" x14ac:dyDescent="0.2">
-      <c r="A3" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="B3" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>19</v>
       </c>
     </row>
     <row r="4" spans="1:3" s="1" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A4" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="B4" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" s="1" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A5" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="B4" s="6" t="s">
+      <c r="B5" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="C4" s="2" t="s">
+      <c r="C5" s="2" t="s">
         <v>16</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C2" r:id="rId1" location="anchor" xr:uid="{2E28350F-A3DF-DA40-803E-CF5D7F864079}"/>
-    <hyperlink ref="C4" r:id="rId2" location="anchor" xr:uid="{240A96BB-1DF3-E343-8EF1-24BF4D3B93A4}"/>
-    <hyperlink ref="C3" r:id="rId3" xr:uid="{CD343F73-7CC0-204F-A7E3-9D1A6ABD70C6}"/>
+    <hyperlink ref="C3" r:id="rId1" location="anchor" xr:uid="{2E28350F-A3DF-DA40-803E-CF5D7F864079}"/>
+    <hyperlink ref="C5" r:id="rId2" location="anchor" xr:uid="{240A96BB-1DF3-E343-8EF1-24BF4D3B93A4}"/>
+    <hyperlink ref="C4" r:id="rId3" xr:uid="{CD343F73-7CC0-204F-A7E3-9D1A6ABD70C6}"/>
+    <hyperlink ref="C2" r:id="rId4" xr:uid="{8F29D6B3-1D4E-454B-83C6-E0285993D5FA}"/>
   </hyperlinks>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>

--- a/docs/PPG/Bolsas.xlsx
+++ b/docs/PPG/Bolsas.xlsx
@@ -1,22 +1,24 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10709"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10719"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/asferreira/Google Drive (cienciasdareabilitacao@souunisuam.com.br)/ObservatorioCR/PPG/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5EB9FAED-AB36-5F4C-8A39-E65D94688B1A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E865E572-5FA5-F84E-BA6A-58F8A3D17912}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="860" yWindow="500" windowWidth="27940" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="880" yWindow="500" windowWidth="27920" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Portarias IES" sheetId="9" r:id="rId1"/>
     <sheet name="Portarias CAPES" sheetId="12" r:id="rId2"/>
     <sheet name="PROSUP" sheetId="10" r:id="rId3"/>
-    <sheet name="DOU" sheetId="11" r:id="rId4"/>
+    <sheet name="PDSE" sheetId="14" r:id="rId4"/>
+    <sheet name="PNPD" sheetId="15" r:id="rId5"/>
+    <sheet name="DOU" sheetId="11" r:id="rId6"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="93">
   <si>
     <t>Portaria nº 123 de 01 de agosto de 2013</t>
   </si>
@@ -65,9 +67,6 @@
     <t>https://drive.google.com/file/d/15QxTGK9rJo9O-SSHGx8qcIdWfG4hTQ3Q</t>
   </si>
   <si>
-    <t>Calendário SCBA 2023</t>
-  </si>
-  <si>
     <t>https://www.gov.br/capes/pt-br/centrais-de-conteudo/documentos/diretoria-de-bolsas-no-pais/04012023_CalendrioSCBA2023Institucionais.pdf</t>
   </si>
   <si>
@@ -101,9 +100,6 @@
     <t>Portaria Nº 206 de 4 de setembro de 2018 Dispõe sobre obrigatoriedade de citação da CAPES</t>
   </si>
   <si>
-    <t>04/01/2023</t>
-  </si>
-  <si>
     <t>22/10/2018</t>
   </si>
   <si>
@@ -156,15 +152,201 @@
   </si>
   <si>
     <t>10/07/2023</t>
+  </si>
+  <si>
+    <t>Portaria Nº 206 de 4 de setembro de 2018 - Dispõe sobre obrigatoriedade de citação da CAPES</t>
+  </si>
+  <si>
+    <t>Portaria nº 181 de 18 de dezembro 2012 - Aprova o Regulamento do Programa de Suporte à Pós Graduação de instituições de Ensino Particulares</t>
+  </si>
+  <si>
+    <t>Portaria nº 34, de 9 de Março de 2020 - Dispõe sobre as condições para fomento a cursos de pós-graduação stricto sensu pela Diretoria de Programas e Bolsas no País da CAPES</t>
+  </si>
+  <si>
+    <t>https://www.in.gov.br/en/web/dou/-/portaria-n-34-de-9-de-marco-de-2020-248560278</t>
+  </si>
+  <si>
+    <t>09/03/2020</t>
+  </si>
+  <si>
+    <t>20/02/2020</t>
+  </si>
+  <si>
+    <t>Portaria nº 18, de 20 de Fevereiro de 2020 - Dispõe sobre os critérios para distribuição de bolsas e auxílios para pagamento de taxas escolares no âmbito do Programa de Suporte à Pós-Graduação de Instituições de Ensino Particulares (PROSUP) e do Programa de Suporte à Pós-Graduação de Instituições Comunitárias de Ensino Superior (PROSUC), referente ao período de março de 2020 a fevereiro de 2021, e dá outras providências.</t>
+  </si>
+  <si>
+    <t>12/02/2021</t>
+  </si>
+  <si>
+    <t>Portaria nº 28, de 12 de Fevereiro de 2021 - Consolida critérios para distribuição de bolsas no âmbito do Programa de Demanda Social (DS) e de bolsas e auxílios para pagamento de taxas escolares no âmbito do Programa de Excelência Acadêmica (PROEX), do Programa de Suporte à Pós-Graduação de Instituições de Ensino Particulares (PROSUP) e do Programa de Suporte à Pós-Graduação de Instituições Comunitárias de Educação Superior (PROSUC), referente ao período de março de 2021 a fevereiro de 2022, e dá outras providências.</t>
+  </si>
+  <si>
+    <t>http://cad.capes.gov.br/ato-administrativo-detalhar?idAtoAdmElastic=5926#anchor</t>
+  </si>
+  <si>
+    <t>http://cad.capes.gov.br/ato-administrativo-detalhar?idAtoAdmElastic=3284#anchor</t>
+  </si>
+  <si>
+    <t>Portaria nº 76, de 14 de Abril de 2010 - Aprova o novo Regulamento do Programa de Demanda Social constante do Anexo a esta Portaria</t>
+  </si>
+  <si>
+    <t>http://cad.capes.gov.br/ato-administrativo-detalhar?idAtoAdmElastic=741#anchor</t>
+  </si>
+  <si>
+    <t>Portaria nº 52, de 26 de Setembro de 2002 - Aprovar o novo Regulamento do Programa de Demanda Social constante do Anexo a esta Portaria.</t>
+  </si>
+  <si>
+    <t>http://cad.capes.gov.br/ato-administrativo-detalhar?idAtoAdmElastic=779#anchor</t>
+  </si>
+  <si>
+    <t>14/04/2010</t>
+  </si>
+  <si>
+    <t>26/09/2002</t>
+  </si>
+  <si>
+    <t>06/04/2022</t>
+  </si>
+  <si>
+    <t>Portaria nº 73, de 6 de Abril de 2022 - Institui a cota de bolsas de estudo e/ou auxílios escolares da pró-reitoria ou órgão equivalente incumbido dos programas de pós-graduação e altera a Portaria nº 76, de 14 de abril de 2010, a Portaria nº 181, de 18 de dezembro de 2012, e a Portaria nº 149, de 1º de agosto de 2017.</t>
+  </si>
+  <si>
+    <t>http://cad.capes.gov.br/ato-administrativo-detalhar?idAtoAdmElastic=8342#anchor</t>
+  </si>
+  <si>
+    <t>14/12/2022</t>
+  </si>
+  <si>
+    <t>https://www.gov.br/capes/pt-br/centrais-de-conteudo/CalendarioSCBAPROEX2021.pdf</t>
+  </si>
+  <si>
+    <t>07/12/2020</t>
+  </si>
+  <si>
+    <t>10/03/2023</t>
+  </si>
+  <si>
+    <t>https://www.gov.br/capes/pt-br/centrais-de-conteudo/documentos/diretoria-de-bolsas-no-pais/10032023_alteracao-calendario-scba.pdf</t>
+  </si>
+  <si>
+    <t>https://sei.capes.gov.br/sei/controlador_externo.php?acao=documento_conferir&amp;codigo_verificador=1122002&amp;codigo_crc=289939CB&amp;hash_download=449b3b0fc962c24d73fdabf1d13929e9016def4302529547c91b7327cb18bab31821b9633c211abb41d021eafd5081cf129ba2af16cb5d49fbade44f102740d4&amp;visualizacao=1&amp;id_orgao_acesso_externo=0</t>
+  </si>
+  <si>
+    <t>Ofício Circular nº 29/2020-CGSI/DPB/CAPES - Calendário de abertura do SCBA em 2021 — DS, PROSUP, PROSUC e PROEX.</t>
+  </si>
+  <si>
+    <t>Ofício Circular nº 4/2022-CGFIP/DPB/CAPES - Calendário de abertura do SCBA em 2023 — DS, Proex, Prosuc e Prosup.</t>
+  </si>
+  <si>
+    <t>Ofício Circular nº 4/2023-CGFIP/DPB/CAPES - Calendário de abertura do SCBA em 2023 — DS, Proex, Prosuc e Prosup.</t>
+  </si>
+  <si>
+    <t>Ofício Circular nº 24/2019-CPG/CGSI/DPB/CAPES - Calendário de abertura do SCBA — DS, PROSUP e PROSUC para 2020.</t>
+  </si>
+  <si>
+    <t>26/12/2019</t>
+  </si>
+  <si>
+    <t>15/04/2011</t>
+  </si>
+  <si>
+    <t>Nota sobre acúmulo de bolsa e vínculo empregatício Portaria Conjunta CAPES-CNPq n° 01/2010</t>
+  </si>
+  <si>
+    <t>https://www.gov.br/capes/pt-br/centrais-de-conteudo/notacapescnpq-pdf</t>
+  </si>
+  <si>
+    <t>https://www.gov.br/capes/pt-br/centrais-de-conteudo/editais/09102020_edital-19-pdse.pdf</t>
+  </si>
+  <si>
+    <t>Edital nº 19/2020 - Programa Doutorado-sanduíche no Exterior (PDSE)</t>
+  </si>
+  <si>
+    <t>09/10/2020</t>
+  </si>
+  <si>
+    <t>http://cad.capes.gov.br/ato-administrativo-detalhar?idAtoAdmElastic=45#anchor</t>
+  </si>
+  <si>
+    <t>Portaria nº 289, de 28 de dezembro de 2018</t>
+  </si>
+  <si>
+    <t>13/10/2020</t>
+  </si>
+  <si>
+    <t>https://www.gov.br/capes/pt-br/centrais-de-conteudo/editais/EDITAL192020_PDSERETIFICAO.pdf</t>
+  </si>
+  <si>
+    <t>03/11/2020</t>
+  </si>
+  <si>
+    <t>https://www.gov.br/capes/pt-br/centrais-de-conteudo/documentos/diretoria-de-relacoes-internacionais/pdse/Lista_Listagem_1439062_Lista_de_Inscricoes_Homologadas_PDSE___2020.pdf</t>
+  </si>
+  <si>
+    <t>27/04/2021</t>
+  </si>
+  <si>
+    <t>https://www.gov.br/capes/pt-br/centrais-de-conteudo/Lista_de_Inscricoes_Homologadas_PDSE___2020_REVISADA.pdf</t>
+  </si>
+  <si>
+    <t>01/06/2021</t>
+  </si>
+  <si>
+    <t>Lista de inscrições - Edital nº 19/2020 - Programa Doutorado-sanduíche no Exterior (PDSE)</t>
+  </si>
+  <si>
+    <t>Lista de candidaturas - Edital nº 19/2020 - Programa Doutorado-sanduíche no Exterior (PDSE)</t>
+  </si>
+  <si>
+    <t>Retificação do Edital nº 19/2020 - Programa Doutorado-sanduíche no Exterior (PDSE)</t>
+  </si>
+  <si>
+    <t>10/09/2021</t>
+  </si>
+  <si>
+    <t>https://www.gov.br/capes/pt-br/centrais-de-conteudo/resultados-dos-editais/EDITAL192020RESULTADOFINAL.pdf</t>
+  </si>
+  <si>
+    <t>Resultado final - Edital nº 19/2020 - Programa Doutorado-sanduíche no Exterior (PDSE)</t>
+  </si>
+  <si>
+    <t>PORTARIA No 086, DE 03 DE JULHO DE 2013</t>
+  </si>
+  <si>
+    <t>03/07/2013</t>
+  </si>
+  <si>
+    <t>https://www.gov.br/capes/pt-br/centrais-de-conteudo/portaria-86-2013-regulamento-pnpd-pdf</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="10" x14ac:knownFonts="1">
+  <fonts count="13" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -255,26 +437,73 @@
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="33">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="2"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="2" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="2"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="2" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="49" fontId="11" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="49" fontId="8" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="2" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="2" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="49" fontId="11" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="2" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="2" applyFill="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Hiperlink" xfId="2" builtinId="8"/>
@@ -625,77 +854,163 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E7C5D405-DE71-CA4E-8BE5-C70B78132DAA}">
-  <dimension ref="A1:C5"/>
+  <dimension ref="A1:C12"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="80.83203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="72.5" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.83203125" style="17"/>
+    <col min="2" max="2" width="168.83203125" style="27" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="72.5" style="17" bestFit="1" customWidth="1"/>
+    <col min="4" max="16384" width="10.83203125" style="17"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="16" x14ac:dyDescent="0.2">
-      <c r="A1" s="5" t="s">
+    <row r="1" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="A1" s="14" t="s">
         <v>5</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="B1" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="C1" s="16" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="16" x14ac:dyDescent="0.2">
-      <c r="A2" s="14" t="s">
+    <row r="2" spans="1:3" ht="34" x14ac:dyDescent="0.2">
+      <c r="A2" s="18" t="s">
+        <v>37</v>
+      </c>
+      <c r="B2" s="19" t="s">
+        <v>35</v>
+      </c>
+      <c r="C2" s="20" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="A3" s="21" t="s">
+        <v>32</v>
+      </c>
+      <c r="B3" s="22" t="s">
+        <v>33</v>
+      </c>
+      <c r="C3" s="20" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" ht="34" x14ac:dyDescent="0.2">
+      <c r="A4" s="23" t="s">
+        <v>55</v>
+      </c>
+      <c r="B4" s="24" t="s">
+        <v>56</v>
+      </c>
+      <c r="C4" s="20" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" ht="51" x14ac:dyDescent="0.2">
+      <c r="A5" s="23" t="s">
+        <v>45</v>
+      </c>
+      <c r="B5" s="24" t="s">
+        <v>46</v>
+      </c>
+      <c r="C5" s="20" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="A6" s="23" t="s">
+        <v>42</v>
+      </c>
+      <c r="B6" s="24" t="s">
+        <v>40</v>
+      </c>
+      <c r="C6" s="20" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" ht="51" x14ac:dyDescent="0.2">
+      <c r="A7" s="23" t="s">
+        <v>43</v>
+      </c>
+      <c r="B7" s="24" t="s">
+        <v>44</v>
+      </c>
+      <c r="C7" s="28" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" s="26" customFormat="1" ht="17" x14ac:dyDescent="0.2">
+      <c r="A8" s="25" t="s">
+        <v>21</v>
+      </c>
+      <c r="B8" s="24" t="s">
+        <v>38</v>
+      </c>
+      <c r="C8" s="20" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" s="26" customFormat="1" ht="17" x14ac:dyDescent="0.2">
+      <c r="A9" s="25" t="s">
+        <v>22</v>
+      </c>
+      <c r="B9" s="24" t="s">
         <v>39</v>
       </c>
-      <c r="B2" s="15" t="s">
-        <v>37</v>
-      </c>
-      <c r="C2" s="3" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" ht="16" x14ac:dyDescent="0.2">
-      <c r="A3" s="12" t="s">
-        <v>34</v>
-      </c>
-      <c r="B3" s="13" t="s">
-        <v>35</v>
-      </c>
-      <c r="C3" s="3" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" s="1" customFormat="1" ht="16" x14ac:dyDescent="0.2">
-      <c r="A4" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="B4" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" s="1" customFormat="1" ht="16" x14ac:dyDescent="0.2">
-      <c r="A5" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="B5" s="6" t="s">
+      <c r="C9" s="20" t="s">
         <v>15</v>
       </c>
-      <c r="C5" s="2" t="s">
-        <v>16</v>
+    </row>
+    <row r="10" spans="1:3" s="26" customFormat="1" ht="17" x14ac:dyDescent="0.2">
+      <c r="A10" s="23" t="s">
+        <v>69</v>
+      </c>
+      <c r="B10" s="24" t="s">
+        <v>70</v>
+      </c>
+      <c r="C10" s="20" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+      <c r="A11" s="23" t="s">
+        <v>53</v>
+      </c>
+      <c r="B11" s="27" t="s">
+        <v>49</v>
+      </c>
+      <c r="C11" s="20" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+      <c r="A12" s="23" t="s">
+        <v>54</v>
+      </c>
+      <c r="B12" s="27" t="s">
+        <v>51</v>
+      </c>
+      <c r="C12" s="20" t="s">
+        <v>52</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="C3" r:id="rId1" location="anchor" xr:uid="{2E28350F-A3DF-DA40-803E-CF5D7F864079}"/>
-    <hyperlink ref="C5" r:id="rId2" location="anchor" xr:uid="{240A96BB-1DF3-E343-8EF1-24BF4D3B93A4}"/>
-    <hyperlink ref="C4" r:id="rId3" xr:uid="{CD343F73-7CC0-204F-A7E3-9D1A6ABD70C6}"/>
+    <hyperlink ref="C9" r:id="rId2" location="anchor" xr:uid="{240A96BB-1DF3-E343-8EF1-24BF4D3B93A4}"/>
+    <hyperlink ref="C8" r:id="rId3" xr:uid="{CD343F73-7CC0-204F-A7E3-9D1A6ABD70C6}"/>
     <hyperlink ref="C2" r:id="rId4" xr:uid="{8F29D6B3-1D4E-454B-83C6-E0285993D5FA}"/>
+    <hyperlink ref="C6" r:id="rId5" xr:uid="{825A7385-974C-124B-B31F-A5BB8BDC141D}"/>
+    <hyperlink ref="C5" r:id="rId6" location="anchor" xr:uid="{C4E5EFDC-D85E-3842-9B0A-ADA3761C0EF6}"/>
+    <hyperlink ref="C7" r:id="rId7" location="anchor" xr:uid="{C05188F7-1396-6740-AA44-E550C6CEC7DD}"/>
+    <hyperlink ref="C11" r:id="rId8" location="anchor" xr:uid="{62FE8A21-52DE-424B-8F91-206F06A595AC}"/>
+    <hyperlink ref="C12" r:id="rId9" location="anchor" xr:uid="{BC5DAD18-94BD-B448-99DC-DFCCEAC0E5D3}"/>
+    <hyperlink ref="C4" r:id="rId10" location="anchor" xr:uid="{E599B2BC-273A-7B4D-A065-283DA2B6C531}"/>
+    <hyperlink ref="C10" r:id="rId11" xr:uid="{3484443A-C41A-E549-917D-F06152C9C7E3}"/>
   </hyperlinks>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>
@@ -703,11 +1018,9 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BE69CE70-DFA3-5E49-A523-CFA0DDA93B5C}">
-  <dimension ref="A1:C7"/>
+  <dimension ref="A1:C10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A5" sqref="A5:XFD6"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
@@ -729,85 +1042,269 @@
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A2" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="B2" s="6" t="s">
+      <c r="A2" s="13" t="s">
+        <v>61</v>
+      </c>
+      <c r="B2" s="12" t="s">
+        <v>66</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A3" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="B3" s="12" t="s">
+        <v>65</v>
+      </c>
+      <c r="C3" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="C2" s="3" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A3" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="B3" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>11</v>
-      </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A4" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="B4" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>14</v>
+      <c r="A4" s="13" t="s">
+        <v>60</v>
+      </c>
+      <c r="B4" s="12" t="s">
+        <v>64</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>59</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A5" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="B5" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>19</v>
+      <c r="A5" s="13" t="s">
+        <v>68</v>
+      </c>
+      <c r="B5" s="12" t="s">
+        <v>67</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>63</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6" s="7" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A7" s="7" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="B7" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A8" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="B8" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A9" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="B9" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A10" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="B10" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="C10" s="2" t="s">
         <v>17</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>18</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C2" r:id="rId1" xr:uid="{1AD1D5BE-44F9-1D4B-89CC-E1686CAF9071}"/>
-    <hyperlink ref="C3" r:id="rId2" xr:uid="{CFDB1A8B-BF62-D246-9D7A-DB8C40CEF4B0}"/>
-    <hyperlink ref="C4" r:id="rId3" xr:uid="{B927918F-7565-E542-B802-C6455BEC1726}"/>
-    <hyperlink ref="C6" r:id="rId4" location="anchor" xr:uid="{C4BED215-1CC6-5946-90A3-16810EF37D52}"/>
-    <hyperlink ref="C7" r:id="rId5" xr:uid="{2392AA86-0182-A541-A1BE-117DBA331788}"/>
-    <hyperlink ref="C5" r:id="rId6" xr:uid="{6149A74C-505E-AE48-99A1-06F86FD4A279}"/>
+    <hyperlink ref="C6" r:id="rId1" xr:uid="{CFDB1A8B-BF62-D246-9D7A-DB8C40CEF4B0}"/>
+    <hyperlink ref="C7" r:id="rId2" xr:uid="{B927918F-7565-E542-B802-C6455BEC1726}"/>
+    <hyperlink ref="C9" r:id="rId3" location="anchor" xr:uid="{C4BED215-1CC6-5946-90A3-16810EF37D52}"/>
+    <hyperlink ref="C10" r:id="rId4" xr:uid="{2392AA86-0182-A541-A1BE-117DBA331788}"/>
+    <hyperlink ref="C8" r:id="rId5" xr:uid="{6149A74C-505E-AE48-99A1-06F86FD4A279}"/>
+    <hyperlink ref="C3" r:id="rId6" xr:uid="{D0F7BA5B-9F0E-C041-A414-C338681AC4D9}"/>
+    <hyperlink ref="C4" r:id="rId7" xr:uid="{5D6B074E-AF30-E249-83E0-5E3312A3270E}"/>
+    <hyperlink ref="C2" r:id="rId8" xr:uid="{C8363C0D-FEB4-FC4C-85EC-82E5E8CF621A}"/>
+    <hyperlink ref="C5" r:id="rId9" display="https://sei.capes.gov.br/sei/controlador_externo.php?acao=documento_conferir&amp;codigo_verificador=1122002&amp;codigo_crc=289939CB&amp;hash_download=449b3b0fc962c24d73fdabf1d13929e9016def4302529547c91b7327cb18bab31821b9633c211abb41d021eafd5081cf129ba2af16cb5d49fbade44f102740d4&amp;visualizacao=1&amp;id_orgao_acesso_externo=0" xr:uid="{93A5AC1D-1ECD-D542-B23E-B63CEFC59AA1}"/>
   </hyperlinks>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6D8F5BDD-F0FB-BD47-8E46-C8D2F012CFA4}">
+  <dimension ref="A1:C7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="10.83203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="121.83203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="77.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="16384" width="10.83203125" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A1" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" s="29" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="30" t="s">
+        <v>87</v>
+      </c>
+      <c r="B2" s="29" t="s">
+        <v>89</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" s="29" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="30" t="s">
+        <v>83</v>
+      </c>
+      <c r="B3" s="29" t="s">
+        <v>84</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" s="29" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="30" t="s">
+        <v>81</v>
+      </c>
+      <c r="B4" s="29" t="s">
+        <v>85</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" s="29" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="30" t="s">
+        <v>79</v>
+      </c>
+      <c r="B5" s="29" t="s">
+        <v>86</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" s="29" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="30" t="s">
+        <v>77</v>
+      </c>
+      <c r="B6" s="29" t="s">
+        <v>76</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" s="29" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="30" t="s">
+        <v>74</v>
+      </c>
+      <c r="B7" s="29" t="s">
+        <v>73</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>72</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="C7" r:id="rId1" xr:uid="{832A9C72-5BBE-E243-9963-FEB4352C4020}"/>
+    <hyperlink ref="C6" r:id="rId2" location="anchor" xr:uid="{768FA349-B83B-7742-9727-EBEB0C39258B}"/>
+    <hyperlink ref="C5" r:id="rId3" xr:uid="{6DE490B0-BF39-B64A-80B5-368DBA00FEBD}"/>
+    <hyperlink ref="C4" r:id="rId4" xr:uid="{8E0BF29D-7B7D-EA45-99FD-558CFEE266B3}"/>
+    <hyperlink ref="C3" r:id="rId5" xr:uid="{9A25A643-C959-7C4C-8226-61AEDDE91803}"/>
+    <hyperlink ref="C2" r:id="rId6" xr:uid="{A129EB3C-F184-F64E-A3AA-2F7E2CC89AF7}"/>
+  </hyperlinks>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4BBF138D-2CA0-604B-B660-08AE8C958225}">
+  <dimension ref="A1:C2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="10.83203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="121.83203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="77.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="16384" width="10.83203125" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A1" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" s="29" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="32" t="s">
+        <v>91</v>
+      </c>
+      <c r="B2" s="31" t="s">
+        <v>90</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>92</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="C2" r:id="rId1" xr:uid="{28EAAA7A-A05B-C14A-AB25-0B8C86B80D30}"/>
+  </hyperlinks>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5C9027D0-BBC9-074A-98E0-BE8FDCCF0A4E}">
   <dimension ref="A1:C5"/>
   <sheetViews>
@@ -833,46 +1330,46 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="B2" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="C2" s="10" t="s">
         <v>25</v>
-      </c>
-      <c r="B2" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="C2" s="10" t="s">
-        <v>27</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" s="8" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B3" s="9" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C3" s="10" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" s="8" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B4" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="C4" s="10" t="s">
         <v>26</v>
-      </c>
-      <c r="C4" s="10" t="s">
-        <v>28</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5" s="11" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B5" s="9" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
   </sheetData>

--- a/docs/PPG/Bolsas.xlsx
+++ b/docs/PPG/Bolsas.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/asferreira/Google Drive (cienciasdareabilitacao@souunisuam.com.br)/ObservatorioCR/PPG/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E865E572-5FA5-F84E-BA6A-58F8A3D17912}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{60B5DEDF-9E91-9F49-AA9E-42596CB0339A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="880" yWindow="500" windowWidth="27920" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="93">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="96">
   <si>
     <t>Portaria nº 123 de 01 de agosto de 2013</t>
   </si>
@@ -317,15 +317,31 @@
   </si>
   <si>
     <t>https://www.gov.br/capes/pt-br/centrais-de-conteudo/portaria-86-2013-regulamento-pnpd-pdf</t>
+  </si>
+  <si>
+    <t>19/12/2011</t>
+  </si>
+  <si>
+    <t>Portaria CAPES nº 248, de 19/12/2011 - Normas de concessão de bolsas de estudo à proteção conferida por Lei às mulheres, em função da maternidade</t>
+  </si>
+  <si>
+    <t>https://www.gov.br/capes/pt-br/centrais-de-conteudo/portaria-248-19dez2011-licencamaternidade-pdf</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="13" x14ac:knownFonts="1">
+  <fonts count="14" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -437,73 +453,80 @@
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="33">
+  <cellXfs count="36">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="1"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="2"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="2" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="49" fontId="11" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="2"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="2" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="49" fontId="12" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="49" fontId="9" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="49" fontId="8" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="2" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="49" fontId="7" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="2" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="49" fontId="12" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="2" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="9" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="2" applyFill="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="49" fontId="11" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="2" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="8" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="2" applyFill="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="11" fillId="0" borderId="0" xfId="1" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Hiperlink" xfId="2" builtinId="8"/>
@@ -792,7 +815,7 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="10.1640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.83203125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="43" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="77.5" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="16384" width="10.83203125" style="1"/>
@@ -810,8 +833,8 @@
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A2" s="1">
-        <v>2021</v>
+      <c r="A2" s="35">
+        <v>44378</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>2</v>
@@ -821,8 +844,8 @@
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A3" s="1">
-        <v>2018</v>
+      <c r="A3" s="35">
+        <v>43322</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>1</v>
@@ -832,8 +855,8 @@
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A4" s="1">
-        <v>2013</v>
+      <c r="A4" s="35">
+        <v>41487</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>0</v>
@@ -854,7 +877,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E7C5D405-DE71-CA4E-8BE5-C70B78132DAA}">
-  <dimension ref="A1:C12"/>
+  <dimension ref="A1:C13"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -966,35 +989,46 @@
       </c>
     </row>
     <row r="10" spans="1:3" s="26" customFormat="1" ht="17" x14ac:dyDescent="0.2">
-      <c r="A10" s="23" t="s">
+      <c r="A10" s="33" t="s">
+        <v>93</v>
+      </c>
+      <c r="B10" s="34" t="s">
+        <v>94</v>
+      </c>
+      <c r="C10" s="28" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" s="26" customFormat="1" ht="17" x14ac:dyDescent="0.2">
+      <c r="A11" s="23" t="s">
         <v>69</v>
       </c>
-      <c r="B10" s="24" t="s">
+      <c r="B11" s="24" t="s">
         <v>70</v>
       </c>
-      <c r="C10" s="20" t="s">
+      <c r="C11" s="20" t="s">
         <v>71</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" ht="16" x14ac:dyDescent="0.2">
-      <c r="A11" s="23" t="s">
-        <v>53</v>
-      </c>
-      <c r="B11" s="27" t="s">
-        <v>49</v>
-      </c>
-      <c r="C11" s="20" t="s">
-        <v>50</v>
       </c>
     </row>
     <row r="12" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A12" s="23" t="s">
+        <v>53</v>
+      </c>
+      <c r="B12" s="27" t="s">
+        <v>49</v>
+      </c>
+      <c r="C12" s="20" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+      <c r="A13" s="23" t="s">
         <v>54</v>
       </c>
-      <c r="B12" s="27" t="s">
+      <c r="B13" s="27" t="s">
         <v>51</v>
       </c>
-      <c r="C12" s="20" t="s">
+      <c r="C13" s="20" t="s">
         <v>52</v>
       </c>
     </row>
@@ -1007,10 +1041,11 @@
     <hyperlink ref="C6" r:id="rId5" xr:uid="{825A7385-974C-124B-B31F-A5BB8BDC141D}"/>
     <hyperlink ref="C5" r:id="rId6" location="anchor" xr:uid="{C4E5EFDC-D85E-3842-9B0A-ADA3761C0EF6}"/>
     <hyperlink ref="C7" r:id="rId7" location="anchor" xr:uid="{C05188F7-1396-6740-AA44-E550C6CEC7DD}"/>
-    <hyperlink ref="C11" r:id="rId8" location="anchor" xr:uid="{62FE8A21-52DE-424B-8F91-206F06A595AC}"/>
-    <hyperlink ref="C12" r:id="rId9" location="anchor" xr:uid="{BC5DAD18-94BD-B448-99DC-DFCCEAC0E5D3}"/>
+    <hyperlink ref="C12" r:id="rId8" location="anchor" xr:uid="{62FE8A21-52DE-424B-8F91-206F06A595AC}"/>
+    <hyperlink ref="C13" r:id="rId9" location="anchor" xr:uid="{BC5DAD18-94BD-B448-99DC-DFCCEAC0E5D3}"/>
     <hyperlink ref="C4" r:id="rId10" location="anchor" xr:uid="{E599B2BC-273A-7B4D-A065-283DA2B6C531}"/>
-    <hyperlink ref="C10" r:id="rId11" xr:uid="{3484443A-C41A-E549-917D-F06152C9C7E3}"/>
+    <hyperlink ref="C11" r:id="rId11" xr:uid="{3484443A-C41A-E549-917D-F06152C9C7E3}"/>
+    <hyperlink ref="C10" r:id="rId12" xr:uid="{A2BB4E65-1354-5442-AB9B-6796590ACA55}"/>
   </hyperlinks>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>

--- a/docs/PPG/Bolsas.xlsx
+++ b/docs/PPG/Bolsas.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/asferreira/Google Drive (cienciasdareabilitacao@souunisuam.com.br)/ObservatorioCR/PPG/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{60B5DEDF-9E91-9F49-AA9E-42596CB0339A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C8FE8F34-D368-5549-8DEC-5DB9C41E137E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="880" yWindow="500" windowWidth="27920" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -18,7 +18,8 @@
     <sheet name="PROSUP" sheetId="10" r:id="rId3"/>
     <sheet name="PDSE" sheetId="14" r:id="rId4"/>
     <sheet name="PNPD" sheetId="15" r:id="rId5"/>
-    <sheet name="DOU" sheetId="11" r:id="rId6"/>
+    <sheet name="UNISUAM" sheetId="17" r:id="rId6"/>
+    <sheet name="DOU" sheetId="11" r:id="rId7"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -38,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="96">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="113">
   <si>
     <t>Portaria nº 123 de 01 de agosto de 2013</t>
   </si>
@@ -326,15 +327,80 @@
   </si>
   <si>
     <t>https://www.gov.br/capes/pt-br/centrais-de-conteudo/portaria-248-19dez2011-licencamaternidade-pdf</t>
+  </si>
+  <si>
+    <t>2014</t>
+  </si>
+  <si>
+    <t>Critérios para Obtenção de Bolsas Acadêmicas e Termo de Compromisso.pdf</t>
+  </si>
+  <si>
+    <t>Formulário de Avaliação de Bolsistas.pdf</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1PTewj7tGTS9QXP0YfklKIcCg2W1GqA6m</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1PVREkU9TakhRD98AOHtfmQAM7d5pRU8l</t>
+  </si>
+  <si>
+    <t>https://sei.capes.gov.br/sei/controlador_externo.php?acao=documento_conferir&amp;codigo_verificador=0339325&amp;codigo_crc=499CC556&amp;hash_download=877c0950a7536647184dd1e3a1c9414d0995405e078be7824fe7258b89e6db6fe8b07ef4f2ec02b91da337bd1d653374c718f6617aa4414ac6548e63aeee0c66&amp;visualizacao=1&amp;id_orgao_acesso_externo=0</t>
+  </si>
+  <si>
+    <t>16/02/2017</t>
+  </si>
+  <si>
+    <t>Ofício Circular nº 6/2017-CDS/CGSI/DPB/CAPES - Calendário de abertura do SAC — DS e PROSUP</t>
+  </si>
+  <si>
+    <t>15/12/2021</t>
+  </si>
+  <si>
+    <t>Ofício Circular no 8/2021-CGSI/DPB/CAPES - Calendário de abertura do SCBA em 2022 — DS, Proex, Prosuc e Prosup.</t>
+  </si>
+  <si>
+    <t>https://sei.capes.gov.br/sei/controlador_externo.php?acao=documento_conferir&amp;codigo_verificador=1604656&amp;codigo_crc=3876C0B0&amp;hash_download=17f26cc19c93d5cc93be2d0f7491d9c7523c30e3d7bae0d0961cbb5add014aa3d640ee0f2797947fe37116df2d11ed1264bade2249d647e09080fae8594b7e97&amp;visualizacao=1&amp;id_orgao_acesso_externo=0</t>
+  </si>
+  <si>
+    <t>24/02/2022</t>
+  </si>
+  <si>
+    <t>Portaria nº 40, de 24 de Fevereiro de 2022 - Dispõe sobre os critérios para distribuição de bolsas no âmbito do Programa de Demanda Social (DS) e de bolsas e/ou auxílios para pagamento de taxas escolares no âmbito do Programa de Excelência Acadêmica (PROEX), do Programa de Suporte à Pós-Graduação de Instituições de Ensino Particulares (PROSUP) e do Programa de Suporte à Pós-Graduação de Instituições Comunitárias de Educação Superior (PROSUC), referente ao período de março de 2022 a fevereiro de 2023, e dá outras providências.</t>
+  </si>
+  <si>
+    <t>06/03/2023</t>
+  </si>
+  <si>
+    <t>Portaria nº 40, de 6 de Março de 2023 - Dispõe sobre os critérios para distribuição de bolsas no âmbito do Programa de Demanda Social (DS) e de bolsas e/ou auxílios para pagamento de taxas escolares no âmbito do Programa de Excelência Acadêmica (PROEX), do Programa de Suporte à Pós-Graduação de Instituições de Ensino Particulares (PROSUP) e do Programa de Suporte à Pós-Graduação de Instituições Comunitárias de Educação Superior (PROSUC), referente ao período de março de 2023 a fevereiro de 2024, e dá outras providências.</t>
+  </si>
+  <si>
+    <t>https://www.in.gov.br/en/web/dou/-/portaria-capes-n-40-de-6-de-marco-de-2023-468110543</t>
+  </si>
+  <si>
+    <t>https://www.in.gov.br/web/dou/-/portaria-n-40-de-24-de-fevereiro-de-2022-382675366</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="14" x14ac:knownFonts="1">
+  <fonts count="16" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -453,80 +519,94 @@
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="36">
+  <cellXfs count="44">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="1"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="2"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="2" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="2"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="2" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="49" fontId="14" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="49" fontId="12" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="49" fontId="11" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="49" fontId="10" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="2" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="49" fontId="9" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="49" fontId="8" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="2" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="49" fontId="14" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="2" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="11" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="2" applyFill="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="49" fontId="12" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="2" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="9" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="2" applyFill="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="14" fontId="13" fillId="0" borderId="0" xfId="1" applyNumberFormat="1"/>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="49" fontId="13" fillId="0" borderId="0" xfId="1" applyNumberFormat="1"/>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="11" fillId="0" borderId="0" xfId="1" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Hiperlink" xfId="2" builtinId="8"/>
@@ -877,7 +957,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E7C5D405-DE71-CA4E-8BE5-C70B78132DAA}">
-  <dimension ref="A1:C13"/>
+  <dimension ref="A1:C15"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -922,130 +1002,154 @@
         <v>34</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="34" x14ac:dyDescent="0.2">
-      <c r="A4" s="23" t="s">
+    <row r="4" spans="1:3" ht="51" x14ac:dyDescent="0.2">
+      <c r="A4" s="42" t="s">
+        <v>109</v>
+      </c>
+      <c r="B4" s="43" t="s">
+        <v>110</v>
+      </c>
+      <c r="C4" s="20" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" ht="34" x14ac:dyDescent="0.2">
+      <c r="A5" s="23" t="s">
         <v>55</v>
       </c>
-      <c r="B4" s="24" t="s">
+      <c r="B5" s="24" t="s">
         <v>56</v>
       </c>
-      <c r="C4" s="20" t="s">
+      <c r="C5" s="20" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="5" spans="1:3" ht="51" x14ac:dyDescent="0.2">
-      <c r="A5" s="23" t="s">
-        <v>45</v>
-      </c>
-      <c r="B5" s="24" t="s">
-        <v>46</v>
-      </c>
-      <c r="C5" s="20" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" ht="17" x14ac:dyDescent="0.2">
-      <c r="A6" s="23" t="s">
-        <v>42</v>
-      </c>
-      <c r="B6" s="24" t="s">
-        <v>40</v>
-      </c>
-      <c r="C6" s="20" t="s">
-        <v>41</v>
+    <row r="6" spans="1:3" ht="51" x14ac:dyDescent="0.2">
+      <c r="A6" s="42" t="s">
+        <v>107</v>
+      </c>
+      <c r="B6" s="43" t="s">
+        <v>108</v>
+      </c>
+      <c r="C6" s="28" t="s">
+        <v>112</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="51" x14ac:dyDescent="0.2">
       <c r="A7" s="23" t="s">
+        <v>45</v>
+      </c>
+      <c r="B7" s="24" t="s">
+        <v>46</v>
+      </c>
+      <c r="C7" s="20" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="A8" s="23" t="s">
+        <v>42</v>
+      </c>
+      <c r="B8" s="24" t="s">
+        <v>40</v>
+      </c>
+      <c r="C8" s="20" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" ht="51" x14ac:dyDescent="0.2">
+      <c r="A9" s="23" t="s">
         <v>43</v>
       </c>
-      <c r="B7" s="24" t="s">
+      <c r="B9" s="24" t="s">
         <v>44</v>
       </c>
-      <c r="C7" s="28" t="s">
+      <c r="C9" s="28" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="8" spans="1:3" s="26" customFormat="1" ht="17" x14ac:dyDescent="0.2">
-      <c r="A8" s="25" t="s">
+    <row r="10" spans="1:3" s="26" customFormat="1" ht="17" x14ac:dyDescent="0.2">
+      <c r="A10" s="25" t="s">
         <v>21</v>
       </c>
-      <c r="B8" s="24" t="s">
+      <c r="B10" s="24" t="s">
         <v>38</v>
       </c>
-      <c r="C8" s="20" t="s">
+      <c r="C10" s="20" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="9" spans="1:3" s="26" customFormat="1" ht="17" x14ac:dyDescent="0.2">
-      <c r="A9" s="25" t="s">
+    <row r="11" spans="1:3" s="26" customFormat="1" ht="17" x14ac:dyDescent="0.2">
+      <c r="A11" s="25" t="s">
         <v>22</v>
       </c>
-      <c r="B9" s="24" t="s">
+      <c r="B11" s="24" t="s">
         <v>39</v>
       </c>
-      <c r="C9" s="20" t="s">
+      <c r="C11" s="20" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="10" spans="1:3" s="26" customFormat="1" ht="17" x14ac:dyDescent="0.2">
-      <c r="A10" s="33" t="s">
+    <row r="12" spans="1:3" s="26" customFormat="1" ht="17" x14ac:dyDescent="0.2">
+      <c r="A12" s="33" t="s">
         <v>93</v>
       </c>
-      <c r="B10" s="34" t="s">
+      <c r="B12" s="34" t="s">
         <v>94</v>
       </c>
-      <c r="C10" s="28" t="s">
+      <c r="C12" s="28" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="11" spans="1:3" s="26" customFormat="1" ht="17" x14ac:dyDescent="0.2">
-      <c r="A11" s="23" t="s">
+    <row r="13" spans="1:3" s="26" customFormat="1" ht="17" x14ac:dyDescent="0.2">
+      <c r="A13" s="23" t="s">
         <v>69</v>
       </c>
-      <c r="B11" s="24" t="s">
+      <c r="B13" s="24" t="s">
         <v>70</v>
       </c>
-      <c r="C11" s="20" t="s">
+      <c r="C13" s="20" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="12" spans="1:3" ht="16" x14ac:dyDescent="0.2">
-      <c r="A12" s="23" t="s">
+    <row r="14" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+      <c r="A14" s="23" t="s">
         <v>53</v>
       </c>
-      <c r="B12" s="27" t="s">
+      <c r="B14" s="27" t="s">
         <v>49</v>
       </c>
-      <c r="C12" s="20" t="s">
+      <c r="C14" s="20" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="13" spans="1:3" ht="16" x14ac:dyDescent="0.2">
-      <c r="A13" s="23" t="s">
+    <row r="15" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+      <c r="A15" s="23" t="s">
         <v>54</v>
       </c>
-      <c r="B13" s="27" t="s">
+      <c r="B15" s="27" t="s">
         <v>51</v>
       </c>
-      <c r="C13" s="20" t="s">
+      <c r="C15" s="20" t="s">
         <v>52</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="C3" r:id="rId1" location="anchor" xr:uid="{2E28350F-A3DF-DA40-803E-CF5D7F864079}"/>
-    <hyperlink ref="C9" r:id="rId2" location="anchor" xr:uid="{240A96BB-1DF3-E343-8EF1-24BF4D3B93A4}"/>
-    <hyperlink ref="C8" r:id="rId3" xr:uid="{CD343F73-7CC0-204F-A7E3-9D1A6ABD70C6}"/>
+    <hyperlink ref="C11" r:id="rId2" location="anchor" xr:uid="{240A96BB-1DF3-E343-8EF1-24BF4D3B93A4}"/>
+    <hyperlink ref="C10" r:id="rId3" xr:uid="{CD343F73-7CC0-204F-A7E3-9D1A6ABD70C6}"/>
     <hyperlink ref="C2" r:id="rId4" xr:uid="{8F29D6B3-1D4E-454B-83C6-E0285993D5FA}"/>
-    <hyperlink ref="C6" r:id="rId5" xr:uid="{825A7385-974C-124B-B31F-A5BB8BDC141D}"/>
-    <hyperlink ref="C5" r:id="rId6" location="anchor" xr:uid="{C4E5EFDC-D85E-3842-9B0A-ADA3761C0EF6}"/>
-    <hyperlink ref="C7" r:id="rId7" location="anchor" xr:uid="{C05188F7-1396-6740-AA44-E550C6CEC7DD}"/>
-    <hyperlink ref="C12" r:id="rId8" location="anchor" xr:uid="{62FE8A21-52DE-424B-8F91-206F06A595AC}"/>
-    <hyperlink ref="C13" r:id="rId9" location="anchor" xr:uid="{BC5DAD18-94BD-B448-99DC-DFCCEAC0E5D3}"/>
-    <hyperlink ref="C4" r:id="rId10" location="anchor" xr:uid="{E599B2BC-273A-7B4D-A065-283DA2B6C531}"/>
-    <hyperlink ref="C11" r:id="rId11" xr:uid="{3484443A-C41A-E549-917D-F06152C9C7E3}"/>
-    <hyperlink ref="C10" r:id="rId12" xr:uid="{A2BB4E65-1354-5442-AB9B-6796590ACA55}"/>
+    <hyperlink ref="C8" r:id="rId5" xr:uid="{825A7385-974C-124B-B31F-A5BB8BDC141D}"/>
+    <hyperlink ref="C7" r:id="rId6" location="anchor" xr:uid="{C4E5EFDC-D85E-3842-9B0A-ADA3761C0EF6}"/>
+    <hyperlink ref="C9" r:id="rId7" location="anchor" xr:uid="{C05188F7-1396-6740-AA44-E550C6CEC7DD}"/>
+    <hyperlink ref="C14" r:id="rId8" location="anchor" xr:uid="{62FE8A21-52DE-424B-8F91-206F06A595AC}"/>
+    <hyperlink ref="C15" r:id="rId9" location="anchor" xr:uid="{BC5DAD18-94BD-B448-99DC-DFCCEAC0E5D3}"/>
+    <hyperlink ref="C5" r:id="rId10" location="anchor" xr:uid="{E599B2BC-273A-7B4D-A065-283DA2B6C531}"/>
+    <hyperlink ref="C13" r:id="rId11" xr:uid="{3484443A-C41A-E549-917D-F06152C9C7E3}"/>
+    <hyperlink ref="C12" r:id="rId12" xr:uid="{A2BB4E65-1354-5442-AB9B-6796590ACA55}"/>
+    <hyperlink ref="C4" r:id="rId13" xr:uid="{A8506ACF-E6B2-5443-BC15-D9090D5BF09A}"/>
+    <hyperlink ref="C6" r:id="rId14" xr:uid="{9A443153-C704-0548-938C-9F12192C1493}"/>
   </hyperlinks>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>
@@ -1053,14 +1157,14 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BE69CE70-DFA3-5E49-A523-CFA0DDA93B5C}">
-  <dimension ref="A1:C10"/>
+  <dimension ref="A1:C12"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="10.83203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="121.83203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="124.83203125" style="1" customWidth="1"/>
     <col min="3" max="3" width="77.5" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="16384" width="10.83203125" style="1"/>
   </cols>
@@ -1098,94 +1202,118 @@
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A4" s="13" t="s">
-        <v>60</v>
-      </c>
-      <c r="B4" s="12" t="s">
-        <v>64</v>
+    <row r="4" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="A4" s="39" t="s">
+        <v>104</v>
+      </c>
+      <c r="B4" s="41" t="s">
+        <v>105</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>59</v>
+        <v>106</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5" s="13" t="s">
+        <v>60</v>
+      </c>
+      <c r="B5" s="12" t="s">
+        <v>64</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A6" s="39" t="s">
+        <v>102</v>
+      </c>
+      <c r="B6" s="40" t="s">
+        <v>103</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A7" s="13" t="s">
         <v>68</v>
       </c>
-      <c r="B5" s="12" t="s">
+      <c r="B7" s="12" t="s">
         <v>67</v>
       </c>
-      <c r="C5" s="3" t="s">
+      <c r="C7" s="3" t="s">
         <v>63</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A6" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="B6" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A7" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="B7" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A8" s="7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A9" s="7" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B9" s="6" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A10" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="B10" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A11" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="B10" s="6" t="s">
+      <c r="B11" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A12" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="B12" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="C10" s="2" t="s">
+      <c r="C12" s="2" t="s">
         <v>17</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C6" r:id="rId1" xr:uid="{CFDB1A8B-BF62-D246-9D7A-DB8C40CEF4B0}"/>
-    <hyperlink ref="C7" r:id="rId2" xr:uid="{B927918F-7565-E542-B802-C6455BEC1726}"/>
-    <hyperlink ref="C9" r:id="rId3" location="anchor" xr:uid="{C4BED215-1CC6-5946-90A3-16810EF37D52}"/>
-    <hyperlink ref="C10" r:id="rId4" xr:uid="{2392AA86-0182-A541-A1BE-117DBA331788}"/>
-    <hyperlink ref="C8" r:id="rId5" xr:uid="{6149A74C-505E-AE48-99A1-06F86FD4A279}"/>
+    <hyperlink ref="C8" r:id="rId1" xr:uid="{CFDB1A8B-BF62-D246-9D7A-DB8C40CEF4B0}"/>
+    <hyperlink ref="C9" r:id="rId2" xr:uid="{B927918F-7565-E542-B802-C6455BEC1726}"/>
+    <hyperlink ref="C11" r:id="rId3" location="anchor" xr:uid="{C4BED215-1CC6-5946-90A3-16810EF37D52}"/>
+    <hyperlink ref="C12" r:id="rId4" xr:uid="{2392AA86-0182-A541-A1BE-117DBA331788}"/>
+    <hyperlink ref="C10" r:id="rId5" xr:uid="{6149A74C-505E-AE48-99A1-06F86FD4A279}"/>
     <hyperlink ref="C3" r:id="rId6" xr:uid="{D0F7BA5B-9F0E-C041-A414-C338681AC4D9}"/>
-    <hyperlink ref="C4" r:id="rId7" xr:uid="{5D6B074E-AF30-E249-83E0-5E3312A3270E}"/>
+    <hyperlink ref="C5" r:id="rId7" xr:uid="{5D6B074E-AF30-E249-83E0-5E3312A3270E}"/>
     <hyperlink ref="C2" r:id="rId8" xr:uid="{C8363C0D-FEB4-FC4C-85EC-82E5E8CF621A}"/>
-    <hyperlink ref="C5" r:id="rId9" display="https://sei.capes.gov.br/sei/controlador_externo.php?acao=documento_conferir&amp;codigo_verificador=1122002&amp;codigo_crc=289939CB&amp;hash_download=449b3b0fc962c24d73fdabf1d13929e9016def4302529547c91b7327cb18bab31821b9633c211abb41d021eafd5081cf129ba2af16cb5d49fbade44f102740d4&amp;visualizacao=1&amp;id_orgao_acesso_externo=0" xr:uid="{93A5AC1D-1ECD-D542-B23E-B63CEFC59AA1}"/>
+    <hyperlink ref="C7" r:id="rId9" display="https://sei.capes.gov.br/sei/controlador_externo.php?acao=documento_conferir&amp;codigo_verificador=1122002&amp;codigo_crc=289939CB&amp;hash_download=449b3b0fc962c24d73fdabf1d13929e9016def4302529547c91b7327cb18bab31821b9633c211abb41d021eafd5081cf129ba2af16cb5d49fbade44f102740d4&amp;visualizacao=1&amp;id_orgao_acesso_externo=0" xr:uid="{93A5AC1D-1ECD-D542-B23E-B63CEFC59AA1}"/>
+    <hyperlink ref="C6" r:id="rId10" display="https://sei.capes.gov.br/sei/controlador_externo.php?acao=documento_conferir&amp;codigo_verificador=0339325&amp;codigo_crc=499CC556&amp;hash_download=877c0950a7536647184dd1e3a1c9414d0995405e078be7824fe7258b89e6db6fe8b07ef4f2ec02b91da337bd1d653374c718f6617aa4414ac6548e63aeee0c66&amp;visualizacao=1&amp;id_orgao_acesso_externo=0" xr:uid="{6FC038AD-2D31-FD43-AB00-749DDE76B733}"/>
+    <hyperlink ref="C4" r:id="rId11" display="https://sei.capes.gov.br/sei/controlador_externo.php?acao=documento_conferir&amp;codigo_verificador=1604656&amp;codigo_crc=3876C0B0&amp;hash_download=17f26cc19c93d5cc93be2d0f7491d9c7523c30e3d7bae0d0961cbb5add014aa3d640ee0f2797947fe37116df2d11ed1264bade2249d647e09080fae8594b7e97&amp;visualizacao=1&amp;id_orgao_acesso_externo=0" xr:uid="{BE20119B-2DC3-604F-858B-F8B3B465C6A5}"/>
   </hyperlinks>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>
@@ -1340,6 +1468,62 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3D9B172E-47D5-4F47-9C82-D25A282E23A6}">
+  <dimension ref="A1:C3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="10.83203125" style="38" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="121.83203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="77.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="16384" width="10.83203125" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A1" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A2" s="36" t="s">
+        <v>96</v>
+      </c>
+      <c r="B2" s="37" t="s">
+        <v>97</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A3" s="38">
+        <v>2014</v>
+      </c>
+      <c r="B3" s="37" t="s">
+        <v>98</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>100</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="C2" r:id="rId1" xr:uid="{9ECAA008-1919-6444-B35E-B47FFDD29A33}"/>
+    <hyperlink ref="C3" r:id="rId2" xr:uid="{98E8195E-3352-1C4E-95D0-987970B70781}"/>
+  </hyperlinks>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5C9027D0-BBC9-074A-98E0-BE8FDCCF0A4E}">
   <dimension ref="A1:C5"/>
   <sheetViews>
@@ -1353,7 +1537,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A1" s="8" t="s">
+      <c r="A1" s="5" t="s">
         <v>5</v>
       </c>
       <c r="B1" s="4" t="s">

--- a/docs/PPG/Bolsas.xlsx
+++ b/docs/PPG/Bolsas.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10719"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10811"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/asferreira/Google Drive (cienciasdareabilitacao@souunisuam.com.br)/ObservatorioCR/PPG/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C8FE8F34-D368-5549-8DEC-5DB9C41E137E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A07CAACA-EEC0-144C-9973-AC96B9B34A3D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="880" yWindow="500" windowWidth="27920" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="900" yWindow="500" windowWidth="27900" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Portarias IES" sheetId="9" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="113">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="143" uniqueCount="116">
   <si>
     <t>Portaria nº 123 de 01 de agosto de 2013</t>
   </si>
@@ -378,15 +378,31 @@
   </si>
   <si>
     <t>https://www.in.gov.br/web/dou/-/portaria-n-40-de-24-de-fevereiro-de-2022-382675366</t>
+  </si>
+  <si>
+    <t>01/07/2021</t>
+  </si>
+  <si>
+    <t>10/08/2018</t>
+  </si>
+  <si>
+    <t>01/08/2013</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="16" x14ac:knownFonts="1">
+  <fonts count="17" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -519,94 +535,94 @@
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="44">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="1"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="2"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="2" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="49" fontId="14" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="2"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="2" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="49" fontId="15" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="49" fontId="12" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="49" fontId="11" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="2" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="49" fontId="10" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="2" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="9" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="49" fontId="15" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="2" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="9" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="12" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="2" applyFill="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="49" fontId="14" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="2" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="8" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="11" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="2" applyFill="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="13" fillId="0" borderId="0" xfId="1" applyNumberFormat="1"/>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="49" fontId="14" fillId="0" borderId="0" xfId="1" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="49" fontId="13" fillId="0" borderId="0" xfId="1" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Hiperlink" xfId="2" builtinId="8"/>
@@ -895,7 +911,7 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="10.83203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="18" style="37" customWidth="1"/>
     <col min="2" max="2" width="43" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="77.5" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="16384" width="10.83203125" style="1"/>
@@ -913,8 +929,8 @@
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A2" s="35">
-        <v>44378</v>
+      <c r="A2" s="43" t="s">
+        <v>113</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>2</v>
@@ -924,8 +940,8 @@
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A3" s="35">
-        <v>43322</v>
+      <c r="A3" s="43" t="s">
+        <v>114</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>1</v>
@@ -935,8 +951,8 @@
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A4" s="35">
-        <v>41487</v>
+      <c r="A4" s="43" t="s">
+        <v>115</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>0</v>
@@ -1003,10 +1019,10 @@
       </c>
     </row>
     <row r="4" spans="1:3" ht="51" x14ac:dyDescent="0.2">
-      <c r="A4" s="42" t="s">
+      <c r="A4" s="41" t="s">
         <v>109</v>
       </c>
-      <c r="B4" s="43" t="s">
+      <c r="B4" s="42" t="s">
         <v>110</v>
       </c>
       <c r="C4" s="20" t="s">
@@ -1025,10 +1041,10 @@
       </c>
     </row>
     <row r="6" spans="1:3" ht="51" x14ac:dyDescent="0.2">
-      <c r="A6" s="42" t="s">
+      <c r="A6" s="41" t="s">
         <v>107</v>
       </c>
-      <c r="B6" s="43" t="s">
+      <c r="B6" s="42" t="s">
         <v>108</v>
       </c>
       <c r="C6" s="28" t="s">
@@ -1203,10 +1219,10 @@
       </c>
     </row>
     <row r="4" spans="1:3" ht="17" x14ac:dyDescent="0.2">
-      <c r="A4" s="39" t="s">
+      <c r="A4" s="38" t="s">
         <v>104</v>
       </c>
-      <c r="B4" s="41" t="s">
+      <c r="B4" s="40" t="s">
         <v>105</v>
       </c>
       <c r="C4" s="3" t="s">
@@ -1225,10 +1241,10 @@
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A6" s="39" t="s">
+      <c r="A6" s="38" t="s">
         <v>102</v>
       </c>
-      <c r="B6" s="40" t="s">
+      <c r="B6" s="39" t="s">
         <v>103</v>
       </c>
       <c r="C6" s="3" t="s">
@@ -1475,7 +1491,7 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="10.83203125" style="38" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.83203125" style="37" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="121.83203125" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="77.5" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="16384" width="10.83203125" style="1"/>
@@ -1493,10 +1509,10 @@
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A2" s="36" t="s">
+      <c r="A2" s="35" t="s">
         <v>96</v>
       </c>
-      <c r="B2" s="37" t="s">
+      <c r="B2" s="36" t="s">
         <v>97</v>
       </c>
       <c r="C2" s="3" t="s">
@@ -1504,10 +1520,10 @@
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A3" s="38">
+      <c r="A3" s="37">
         <v>2014</v>
       </c>
-      <c r="B3" s="37" t="s">
+      <c r="B3" s="36" t="s">
         <v>98</v>
       </c>
       <c r="C3" s="2" t="s">

--- a/docs/PPG/Bolsas.xlsx
+++ b/docs/PPG/Bolsas.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10811"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="11210"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/asferreira/Google Drive (cienciasdareabilitacao@souunisuam.com.br)/ObservatorioCR/PPG/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A07CAACA-EEC0-144C-9973-AC96B9B34A3D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CC91B1AC-956A-DC45-8690-33D6A7846C7A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="900" yWindow="500" windowWidth="27900" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="900" yWindow="500" windowWidth="27900" windowHeight="17500" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Portarias IES" sheetId="9" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="143" uniqueCount="116">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="146" uniqueCount="118">
   <si>
     <t>Portaria nº 123 de 01 de agosto de 2013</t>
   </si>
@@ -387,15 +387,28 @@
   </si>
   <si>
     <t>01/08/2013</t>
+  </si>
+  <si>
+    <t>Ofício Circular no 7/2023-CGFIP/DPB/CAPES - Calendário de abertura do SCBA em 2024 — DS, Proex, Prosuc, Prosup e PNPD</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1spNQWTXdjTxlle9yxoJ_231kdAjz0O8I</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="17" x14ac:knownFonts="1">
+  <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -535,94 +548,95 @@
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="44">
+  <cellXfs count="45">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="1"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="2"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="2" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="49" fontId="15" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="2"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="2" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="49" fontId="16" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="49" fontId="13" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="49" fontId="12" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="2" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="49" fontId="11" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="2" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="10" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="49" fontId="8" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="49" fontId="16" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="9" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="2" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="10" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="13" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="2" applyFill="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="49" fontId="7" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="49" fontId="15" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="8" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="2" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="9" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="12" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="2" applyFill="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="49" fontId="15" fillId="0" borderId="0" xfId="1" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="49" fontId="14" fillId="0" borderId="0" xfId="1" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Hiperlink" xfId="2" builtinId="8"/>
@@ -907,7 +921,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4D2A2F26-1678-FA4E-B9F8-88F4FD843D40}">
   <dimension ref="A1:C4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
@@ -1173,9 +1187,9 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BE69CE70-DFA3-5E49-A523-CFA0DDA93B5C}">
-  <dimension ref="A1:C12"/>
+  <dimension ref="A1:C13"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
@@ -1200,77 +1214,77 @@
       <c r="A2" s="13" t="s">
         <v>61</v>
       </c>
-      <c r="B2" s="12" t="s">
-        <v>66</v>
+      <c r="B2" s="44" t="s">
+        <v>116</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>62</v>
+        <v>117</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" s="13" t="s">
+        <v>61</v>
+      </c>
+      <c r="B3" s="12" t="s">
+        <v>66</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A4" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="B3" s="12" t="s">
+      <c r="B4" s="12" t="s">
         <v>65</v>
       </c>
-      <c r="C3" s="3" t="s">
+      <c r="C4" s="3" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="17" x14ac:dyDescent="0.2">
-      <c r="A4" s="38" t="s">
+    <row r="5" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="A5" s="38" t="s">
         <v>104</v>
       </c>
-      <c r="B4" s="40" t="s">
+      <c r="B5" s="40" t="s">
         <v>105</v>
       </c>
-      <c r="C4" s="3" t="s">
+      <c r="C5" s="3" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A5" s="13" t="s">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A6" s="13" t="s">
         <v>60</v>
       </c>
-      <c r="B5" s="12" t="s">
+      <c r="B6" s="12" t="s">
         <v>64</v>
       </c>
-      <c r="C5" s="3" t="s">
+      <c r="C6" s="3" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A6" s="38" t="s">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A7" s="38" t="s">
         <v>102</v>
       </c>
-      <c r="B6" s="39" t="s">
+      <c r="B7" s="39" t="s">
         <v>103</v>
       </c>
-      <c r="C6" s="3" t="s">
+      <c r="C7" s="3" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A7" s="13" t="s">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A8" s="13" t="s">
         <v>68</v>
       </c>
-      <c r="B7" s="12" t="s">
+      <c r="B8" s="12" t="s">
         <v>67</v>
       </c>
-      <c r="C7" s="3" t="s">
+      <c r="C8" s="3" t="s">
         <v>63</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A8" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="B8" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>10</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.2">
@@ -1278,32 +1292,32 @@
         <v>20</v>
       </c>
       <c r="B9" s="6" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A10" s="7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B10" s="6" t="s">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A11" s="7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B11" s="6" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.2">
@@ -1311,25 +1325,37 @@
         <v>22</v>
       </c>
       <c r="B12" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A13" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="B13" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="C12" s="2" t="s">
+      <c r="C13" s="2" t="s">
         <v>17</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C8" r:id="rId1" xr:uid="{CFDB1A8B-BF62-D246-9D7A-DB8C40CEF4B0}"/>
-    <hyperlink ref="C9" r:id="rId2" xr:uid="{B927918F-7565-E542-B802-C6455BEC1726}"/>
-    <hyperlink ref="C11" r:id="rId3" location="anchor" xr:uid="{C4BED215-1CC6-5946-90A3-16810EF37D52}"/>
-    <hyperlink ref="C12" r:id="rId4" xr:uid="{2392AA86-0182-A541-A1BE-117DBA331788}"/>
-    <hyperlink ref="C10" r:id="rId5" xr:uid="{6149A74C-505E-AE48-99A1-06F86FD4A279}"/>
-    <hyperlink ref="C3" r:id="rId6" xr:uid="{D0F7BA5B-9F0E-C041-A414-C338681AC4D9}"/>
-    <hyperlink ref="C5" r:id="rId7" xr:uid="{5D6B074E-AF30-E249-83E0-5E3312A3270E}"/>
-    <hyperlink ref="C2" r:id="rId8" xr:uid="{C8363C0D-FEB4-FC4C-85EC-82E5E8CF621A}"/>
-    <hyperlink ref="C7" r:id="rId9" display="https://sei.capes.gov.br/sei/controlador_externo.php?acao=documento_conferir&amp;codigo_verificador=1122002&amp;codigo_crc=289939CB&amp;hash_download=449b3b0fc962c24d73fdabf1d13929e9016def4302529547c91b7327cb18bab31821b9633c211abb41d021eafd5081cf129ba2af16cb5d49fbade44f102740d4&amp;visualizacao=1&amp;id_orgao_acesso_externo=0" xr:uid="{93A5AC1D-1ECD-D542-B23E-B63CEFC59AA1}"/>
-    <hyperlink ref="C6" r:id="rId10" display="https://sei.capes.gov.br/sei/controlador_externo.php?acao=documento_conferir&amp;codigo_verificador=0339325&amp;codigo_crc=499CC556&amp;hash_download=877c0950a7536647184dd1e3a1c9414d0995405e078be7824fe7258b89e6db6fe8b07ef4f2ec02b91da337bd1d653374c718f6617aa4414ac6548e63aeee0c66&amp;visualizacao=1&amp;id_orgao_acesso_externo=0" xr:uid="{6FC038AD-2D31-FD43-AB00-749DDE76B733}"/>
-    <hyperlink ref="C4" r:id="rId11" display="https://sei.capes.gov.br/sei/controlador_externo.php?acao=documento_conferir&amp;codigo_verificador=1604656&amp;codigo_crc=3876C0B0&amp;hash_download=17f26cc19c93d5cc93be2d0f7491d9c7523c30e3d7bae0d0961cbb5add014aa3d640ee0f2797947fe37116df2d11ed1264bade2249d647e09080fae8594b7e97&amp;visualizacao=1&amp;id_orgao_acesso_externo=0" xr:uid="{BE20119B-2DC3-604F-858B-F8B3B465C6A5}"/>
+    <hyperlink ref="C9" r:id="rId1" xr:uid="{CFDB1A8B-BF62-D246-9D7A-DB8C40CEF4B0}"/>
+    <hyperlink ref="C10" r:id="rId2" xr:uid="{B927918F-7565-E542-B802-C6455BEC1726}"/>
+    <hyperlink ref="C12" r:id="rId3" location="anchor" xr:uid="{C4BED215-1CC6-5946-90A3-16810EF37D52}"/>
+    <hyperlink ref="C13" r:id="rId4" xr:uid="{2392AA86-0182-A541-A1BE-117DBA331788}"/>
+    <hyperlink ref="C11" r:id="rId5" xr:uid="{6149A74C-505E-AE48-99A1-06F86FD4A279}"/>
+    <hyperlink ref="C4" r:id="rId6" xr:uid="{D0F7BA5B-9F0E-C041-A414-C338681AC4D9}"/>
+    <hyperlink ref="C6" r:id="rId7" xr:uid="{5D6B074E-AF30-E249-83E0-5E3312A3270E}"/>
+    <hyperlink ref="C3" r:id="rId8" xr:uid="{C8363C0D-FEB4-FC4C-85EC-82E5E8CF621A}"/>
+    <hyperlink ref="C8" r:id="rId9" display="https://sei.capes.gov.br/sei/controlador_externo.php?acao=documento_conferir&amp;codigo_verificador=1122002&amp;codigo_crc=289939CB&amp;hash_download=449b3b0fc962c24d73fdabf1d13929e9016def4302529547c91b7327cb18bab31821b9633c211abb41d021eafd5081cf129ba2af16cb5d49fbade44f102740d4&amp;visualizacao=1&amp;id_orgao_acesso_externo=0" xr:uid="{93A5AC1D-1ECD-D542-B23E-B63CEFC59AA1}"/>
+    <hyperlink ref="C7" r:id="rId10" display="https://sei.capes.gov.br/sei/controlador_externo.php?acao=documento_conferir&amp;codigo_verificador=0339325&amp;codigo_crc=499CC556&amp;hash_download=877c0950a7536647184dd1e3a1c9414d0995405e078be7824fe7258b89e6db6fe8b07ef4f2ec02b91da337bd1d653374c718f6617aa4414ac6548e63aeee0c66&amp;visualizacao=1&amp;id_orgao_acesso_externo=0" xr:uid="{6FC038AD-2D31-FD43-AB00-749DDE76B733}"/>
+    <hyperlink ref="C5" r:id="rId11" display="https://sei.capes.gov.br/sei/controlador_externo.php?acao=documento_conferir&amp;codigo_verificador=1604656&amp;codigo_crc=3876C0B0&amp;hash_download=17f26cc19c93d5cc93be2d0f7491d9c7523c30e3d7bae0d0961cbb5add014aa3d640ee0f2797947fe37116df2d11ed1264bade2249d647e09080fae8594b7e97&amp;visualizacao=1&amp;id_orgao_acesso_externo=0" xr:uid="{BE20119B-2DC3-604F-858B-F8B3B465C6A5}"/>
+    <hyperlink ref="C2" r:id="rId12" xr:uid="{8A1ADAC6-9AA9-F74E-81A5-558BD0B6AE8E}"/>
   </hyperlinks>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>

--- a/docs/PPG/Bolsas.xlsx
+++ b/docs/PPG/Bolsas.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/asferreira/Google Drive (cienciasdareabilitacao@souunisuam.com.br)/ObservatorioCR/PPG/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CC91B1AC-956A-DC45-8690-33D6A7846C7A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6596ED6C-ABC3-6741-B565-A8F05606453D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="900" yWindow="500" windowWidth="27900" windowHeight="17500" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="146" uniqueCount="118">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="146" uniqueCount="119">
   <si>
     <t>Portaria nº 123 de 01 de agosto de 2013</t>
   </si>
@@ -393,15 +393,25 @@
   </si>
   <si>
     <t>https://drive.google.com/file/d/1spNQWTXdjTxlle9yxoJ_231kdAjz0O8I</t>
+  </si>
+  <si>
+    <t>06/12/2023</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="18" x14ac:knownFonts="1">
+  <fonts count="19" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -548,95 +558,96 @@
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="45">
+  <cellXfs count="46">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="1"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="2"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="2" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="49" fontId="16" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="2"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="2" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="49" fontId="17" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="49" fontId="14" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="49" fontId="13" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="2" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="49" fontId="12" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="2" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="11" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="49" fontId="9" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="49" fontId="17" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="10" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="2" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="11" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="9" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="14" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="2" applyFill="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="49" fontId="8" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="49" fontId="16" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="9" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="2" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="10" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="8" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="13" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="2" applyFill="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="49" fontId="7" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="49" fontId="16" fillId="0" borderId="0" xfId="1" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="49" fontId="15" fillId="0" borderId="0" xfId="1" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Hiperlink" xfId="2" builtinId="8"/>
@@ -1211,8 +1222,8 @@
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A2" s="13" t="s">
-        <v>61</v>
+      <c r="A2" s="45" t="s">
+        <v>118</v>
       </c>
       <c r="B2" s="44" t="s">
         <v>116</v>

--- a/docs/PPG/Bolsas.xlsx
+++ b/docs/PPG/Bolsas.xlsx
@@ -1,25 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="11210"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10311"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/asferreira/Google Drive (cienciasdareabilitacao@souunisuam.com.br)/ObservatorioCR/PPG/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6596ED6C-ABC3-6741-B565-A8F05606453D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0A754661-45F9-144F-BEA3-9E38A8145656}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="900" yWindow="500" windowWidth="27900" windowHeight="17500" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="900" yWindow="500" windowWidth="27900" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Portarias IES" sheetId="9" r:id="rId1"/>
-    <sheet name="Portarias CAPES" sheetId="12" r:id="rId2"/>
+    <sheet name="IES" sheetId="9" r:id="rId1"/>
+    <sheet name="CAPES" sheetId="12" r:id="rId2"/>
     <sheet name="PROSUP" sheetId="10" r:id="rId3"/>
     <sheet name="PDSE" sheetId="14" r:id="rId4"/>
     <sheet name="PNPD" sheetId="15" r:id="rId5"/>
-    <sheet name="UNISUAM" sheetId="17" r:id="rId6"/>
-    <sheet name="DOU" sheetId="11" r:id="rId7"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -39,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="146" uniqueCount="119">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="155" uniqueCount="129">
   <si>
     <t>Portaria nº 123 de 01 de agosto de 2013</t>
   </si>
@@ -83,9 +81,6 @@
     <t>https://www.gov.br/capes/pt-br/centrais-de-conteudo/22102018ModeloTermoCompromissoPROSUP.pdf</t>
   </si>
   <si>
-    <t>Portaria nº 181 de 18 de dezembro 2012 Aprova o Regulamento do Programa de Suporte à Pós Graduação de instituições de Ensino Particulares</t>
-  </si>
-  <si>
     <t>http://cad.capes.gov.br/ato-administrativo-detalhar?idAtoAdmElastic=572#anchor</t>
   </si>
   <si>
@@ -98,9 +93,6 @@
     <t>https://www.in.gov.br/materia/-/asset_publisher/Kujrw0TZC2Mb/content/id/39729251/do1-2018-09-05-portaria-n-206-de-4-de-setembro-de-2018-39729135</t>
   </si>
   <si>
-    <t>Portaria Nº 206 de 4 de setembro de 2018 Dispõe sobre obrigatoriedade de citação da CAPES</t>
-  </si>
-  <si>
     <t>22/10/2018</t>
   </si>
   <si>
@@ -396,13 +388,49 @@
   </si>
   <si>
     <t>06/12/2023</t>
+  </si>
+  <si>
+    <t>Ofício Circular no 2/2024-CGFIP/DPB/CAPES - Calendário de abertura do SCBA em 2024 — DS, Proex, Prosuc, Prosup e PNPD</t>
+  </si>
+  <si>
+    <t>11/03/2024</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1auvQgu5qCSSM4AXMPZvSFDu_7vyKpoRg</t>
+  </si>
+  <si>
+    <t>Portaria nº 80, de 11 de Março de 2024 - Dispõe sobre os critérios para distribuição de bolsas no âmbito do Programa de Demanda Social (DS) e de bolsas e/ou auxílios para pagamento de taxas escolares no âmbito do Programa de Excelência Acadêmica (PROEX), do Programa de Suporte à Pós- Graduação de Instituições de Ensino Particulares (PROSUP) e do Programa de Suporte à Pós-Graduação de Instituições Comunitárias de Educação Superior (PROSUC), referente ao período de março de 2024 a fevereiro de 2025, e dá outras providências.</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1ayFKZnSK4SmJO1EEBaCGfee18cZ_dukI</t>
+  </si>
+  <si>
+    <t>20/03/2015</t>
+  </si>
+  <si>
+    <t>https://pesquisa.in.gov.br/imprensa/jsp/visualiza/index.jsp?data=20/03/2015&amp;jornal=3&amp;pagina=25&amp;totalArquivos=216</t>
+  </si>
+  <si>
+    <t>Termo de Cooperação Técnica</t>
+  </si>
+  <si>
+    <t>https://pesquisa.in.gov.br/imprensa/jsp/visualiza/index.jsp?data=20/04/2015&amp;jornal=3&amp;pagina=24&amp;totalArquivos=256</t>
+  </si>
+  <si>
+    <t>12/09/2016</t>
+  </si>
+  <si>
+    <t>https://pesquisa.in.gov.br/imprensa/jsp/visualiza/index.jsp?data=12/09/2016&amp;jornal=3&amp;pagina=30&amp;totalArquivos=256</t>
+  </si>
+  <si>
+    <t>https://pesquisa.in.gov.br/imprensa/jsp/visualiza/index.jsp?data=10/06/2022&amp;jornal=530&amp;pagina=125&amp;totalArquivos=372</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="19" x14ac:knownFonts="1">
+  <fonts count="21" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -523,6 +551,20 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="12"/>
       <color theme="1"/>
@@ -539,12 +581,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -558,96 +606,120 @@
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="46">
+  <cellXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="1"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="2"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="2" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="49" fontId="17" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="2"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="2" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="49" fontId="19" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="49" fontId="15" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="2" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="49" fontId="14" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="49" fontId="13" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="2" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="12" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="49" fontId="19" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="12" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="2" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="13" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="11" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="16" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="2" applyFill="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="49" fontId="10" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="49" fontId="9" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="49" fontId="17" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="8" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="49" fontId="18" fillId="0" borderId="0" xfId="1" applyNumberFormat="1"/>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="49" fontId="19" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="11" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="16" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="2" borderId="0" xfId="2" applyFill="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="10" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="2" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="11" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="9" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="14" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="2" applyFill="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="49" fontId="8" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="49" fontId="16" fillId="0" borderId="0" xfId="1" applyNumberFormat="1"/>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Hiperlink" xfId="2" builtinId="8"/>
@@ -930,13 +1002,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4D2A2F26-1678-FA4E-B9F8-88F4FD843D40}">
-  <dimension ref="A1:C4"/>
+  <dimension ref="A1:C6"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="18" style="37" customWidth="1"/>
+    <col min="1" max="1" width="18" style="33" customWidth="1"/>
     <col min="2" max="2" width="43" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="77.5" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="16384" width="10.83203125" style="1"/>
@@ -954,8 +1026,8 @@
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A2" s="43" t="s">
-        <v>113</v>
+      <c r="A2" s="36" t="s">
+        <v>111</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>2</v>
@@ -965,8 +1037,8 @@
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A3" s="43" t="s">
-        <v>114</v>
+      <c r="A3" s="36" t="s">
+        <v>112</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>1</v>
@@ -976,13 +1048,35 @@
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A4" s="43" t="s">
-        <v>115</v>
-      </c>
-      <c r="B4" s="1" t="s">
+      <c r="A4" s="31" t="s">
+        <v>94</v>
+      </c>
+      <c r="B4" s="32" t="s">
+        <v>95</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A5" s="33">
+        <v>2014</v>
+      </c>
+      <c r="B5" s="32" t="s">
+        <v>96</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A6" s="36" t="s">
+        <v>113</v>
+      </c>
+      <c r="B6" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C4" s="2" t="s">
+      <c r="C6" s="2" t="s">
         <v>8</v>
       </c>
     </row>
@@ -990,7 +1084,9 @@
   <hyperlinks>
     <hyperlink ref="C2" r:id="rId1" xr:uid="{DAFF28A2-3D16-B846-AC00-04249F628951}"/>
     <hyperlink ref="C3" r:id="rId2" xr:uid="{233C7167-F13E-DD44-874D-863A4362D865}"/>
-    <hyperlink ref="C4" r:id="rId3" xr:uid="{D84B1959-9D47-A046-BBB7-4A0FF67F3C0C}"/>
+    <hyperlink ref="C6" r:id="rId3" xr:uid="{D84B1959-9D47-A046-BBB7-4A0FF67F3C0C}"/>
+    <hyperlink ref="C4" r:id="rId4" xr:uid="{9ECAA008-1919-6444-B35E-B47FFDD29A33}"/>
+    <hyperlink ref="C5" r:id="rId5" xr:uid="{98E8195E-3352-1C4E-95D0-987970B70781}"/>
   </hyperlinks>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>
@@ -1004,175 +1100,175 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="10.83203125" style="17"/>
-    <col min="2" max="2" width="168.83203125" style="27" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="72.5" style="17" bestFit="1" customWidth="1"/>
-    <col min="4" max="16384" width="10.83203125" style="17"/>
+    <col min="1" max="1" width="10.83203125" style="13"/>
+    <col min="2" max="2" width="168.83203125" style="23" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="72.5" style="13" bestFit="1" customWidth="1"/>
+    <col min="4" max="16384" width="10.83203125" style="13"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="17" x14ac:dyDescent="0.2">
-      <c r="A1" s="14" t="s">
+      <c r="A1" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="B1" s="15" t="s">
+      <c r="B1" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="C1" s="16" t="s">
+      <c r="C1" s="12" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="34" x14ac:dyDescent="0.2">
-      <c r="A2" s="18" t="s">
+      <c r="A2" s="14" t="s">
+        <v>35</v>
+      </c>
+      <c r="B2" s="15" t="s">
+        <v>33</v>
+      </c>
+      <c r="C2" s="16" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="A3" s="17" t="s">
+        <v>30</v>
+      </c>
+      <c r="B3" s="18" t="s">
+        <v>31</v>
+      </c>
+      <c r="C3" s="16" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" ht="51" x14ac:dyDescent="0.2">
+      <c r="A4" s="34" t="s">
+        <v>107</v>
+      </c>
+      <c r="B4" s="35" t="s">
+        <v>108</v>
+      </c>
+      <c r="C4" s="16" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" ht="34" x14ac:dyDescent="0.2">
+      <c r="A5" s="19" t="s">
+        <v>53</v>
+      </c>
+      <c r="B5" s="20" t="s">
+        <v>54</v>
+      </c>
+      <c r="C5" s="16" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" ht="51" x14ac:dyDescent="0.2">
+      <c r="A6" s="34" t="s">
+        <v>105</v>
+      </c>
+      <c r="B6" s="35" t="s">
+        <v>106</v>
+      </c>
+      <c r="C6" s="24" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" ht="51" x14ac:dyDescent="0.2">
+      <c r="A7" s="19" t="s">
+        <v>43</v>
+      </c>
+      <c r="B7" s="20" t="s">
+        <v>44</v>
+      </c>
+      <c r="C7" s="16" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="A8" s="19" t="s">
+        <v>40</v>
+      </c>
+      <c r="B8" s="20" t="s">
+        <v>38</v>
+      </c>
+      <c r="C8" s="16" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" ht="51" x14ac:dyDescent="0.2">
+      <c r="A9" s="19" t="s">
+        <v>41</v>
+      </c>
+      <c r="B9" s="20" t="s">
+        <v>42</v>
+      </c>
+      <c r="C9" s="24" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" s="22" customFormat="1" ht="17" x14ac:dyDescent="0.2">
+      <c r="A10" s="21" t="s">
+        <v>19</v>
+      </c>
+      <c r="B10" s="20" t="s">
+        <v>36</v>
+      </c>
+      <c r="C10" s="16" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" s="22" customFormat="1" ht="17" x14ac:dyDescent="0.2">
+      <c r="A11" s="21" t="s">
+        <v>20</v>
+      </c>
+      <c r="B11" s="20" t="s">
         <v>37</v>
       </c>
-      <c r="B2" s="19" t="s">
-        <v>35</v>
-      </c>
-      <c r="C2" s="20" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" ht="17" x14ac:dyDescent="0.2">
-      <c r="A3" s="21" t="s">
-        <v>32</v>
-      </c>
-      <c r="B3" s="22" t="s">
-        <v>33</v>
-      </c>
-      <c r="C3" s="20" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" ht="51" x14ac:dyDescent="0.2">
-      <c r="A4" s="41" t="s">
-        <v>109</v>
-      </c>
-      <c r="B4" s="42" t="s">
-        <v>110</v>
-      </c>
-      <c r="C4" s="20" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" ht="34" x14ac:dyDescent="0.2">
-      <c r="A5" s="23" t="s">
-        <v>55</v>
-      </c>
-      <c r="B5" s="24" t="s">
-        <v>56</v>
-      </c>
-      <c r="C5" s="20" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" ht="51" x14ac:dyDescent="0.2">
-      <c r="A6" s="41" t="s">
-        <v>107</v>
-      </c>
-      <c r="B6" s="42" t="s">
-        <v>108</v>
-      </c>
-      <c r="C6" s="28" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" ht="51" x14ac:dyDescent="0.2">
-      <c r="A7" s="23" t="s">
-        <v>45</v>
-      </c>
-      <c r="B7" s="24" t="s">
-        <v>46</v>
-      </c>
-      <c r="C7" s="20" t="s">
+      <c r="C11" s="16" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" s="22" customFormat="1" ht="17" x14ac:dyDescent="0.2">
+      <c r="A12" s="29" t="s">
+        <v>91</v>
+      </c>
+      <c r="B12" s="30" t="s">
+        <v>92</v>
+      </c>
+      <c r="C12" s="24" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" s="22" customFormat="1" ht="17" x14ac:dyDescent="0.2">
+      <c r="A13" s="19" t="s">
+        <v>67</v>
+      </c>
+      <c r="B13" s="20" t="s">
+        <v>68</v>
+      </c>
+      <c r="C13" s="16" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+      <c r="A14" s="19" t="s">
+        <v>51</v>
+      </c>
+      <c r="B14" s="23" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="8" spans="1:3" ht="17" x14ac:dyDescent="0.2">
-      <c r="A8" s="23" t="s">
-        <v>42</v>
-      </c>
-      <c r="B8" s="24" t="s">
-        <v>40</v>
-      </c>
-      <c r="C8" s="20" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" ht="51" x14ac:dyDescent="0.2">
-      <c r="A9" s="23" t="s">
-        <v>43</v>
-      </c>
-      <c r="B9" s="24" t="s">
-        <v>44</v>
-      </c>
-      <c r="C9" s="28" t="s">
+      <c r="C14" s="16" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="10" spans="1:3" s="26" customFormat="1" ht="17" x14ac:dyDescent="0.2">
-      <c r="A10" s="25" t="s">
-        <v>21</v>
-      </c>
-      <c r="B10" s="24" t="s">
-        <v>38</v>
-      </c>
-      <c r="C10" s="20" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" s="26" customFormat="1" ht="17" x14ac:dyDescent="0.2">
-      <c r="A11" s="25" t="s">
-        <v>22</v>
-      </c>
-      <c r="B11" s="24" t="s">
-        <v>39</v>
-      </c>
-      <c r="C11" s="20" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" s="26" customFormat="1" ht="17" x14ac:dyDescent="0.2">
-      <c r="A12" s="33" t="s">
-        <v>93</v>
-      </c>
-      <c r="B12" s="34" t="s">
-        <v>94</v>
-      </c>
-      <c r="C12" s="28" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" s="26" customFormat="1" ht="17" x14ac:dyDescent="0.2">
-      <c r="A13" s="23" t="s">
-        <v>69</v>
-      </c>
-      <c r="B13" s="24" t="s">
-        <v>70</v>
-      </c>
-      <c r="C13" s="20" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" ht="16" x14ac:dyDescent="0.2">
-      <c r="A14" s="23" t="s">
-        <v>53</v>
-      </c>
-      <c r="B14" s="27" t="s">
+    <row r="15" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+      <c r="A15" s="19" t="s">
+        <v>52</v>
+      </c>
+      <c r="B15" s="23" t="s">
         <v>49</v>
       </c>
-      <c r="C14" s="20" t="s">
+      <c r="C15" s="16" t="s">
         <v>50</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" ht="16" x14ac:dyDescent="0.2">
-      <c r="A15" s="23" t="s">
-        <v>54</v>
-      </c>
-      <c r="B15" s="27" t="s">
-        <v>51</v>
-      </c>
-      <c r="C15" s="20" t="s">
-        <v>52</v>
       </c>
     </row>
   </sheetData>
@@ -1198,175 +1294,259 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BE69CE70-DFA3-5E49-A523-CFA0DDA93B5C}">
-  <dimension ref="A1:C13"/>
+  <dimension ref="A1:C20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="10.83203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="124.83203125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="77.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="16384" width="10.83203125" style="1"/>
+    <col min="1" max="1" width="10.83203125" style="38" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="124.83203125" style="38" customWidth="1"/>
+    <col min="3" max="3" width="77.5" style="22" bestFit="1" customWidth="1"/>
+    <col min="4" max="16384" width="10.83203125" style="38"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A1" s="5" t="s">
+    <row r="1" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="A1" s="37" t="s">
         <v>5</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="B1" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="C1" s="12" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A2" s="45" t="s">
+    <row r="2" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="A2" s="39" t="s">
         <v>118</v>
       </c>
-      <c r="B2" s="44" t="s">
+      <c r="B2" s="40" t="s">
+        <v>117</v>
+      </c>
+      <c r="C2" s="47" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" ht="68" x14ac:dyDescent="0.2">
+      <c r="A3" s="39" t="s">
+        <v>118</v>
+      </c>
+      <c r="B3" s="40" t="s">
+        <v>120</v>
+      </c>
+      <c r="C3" s="47" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="A4" s="41" t="s">
         <v>116</v>
       </c>
-      <c r="C2" s="3" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A3" s="13" t="s">
+      <c r="B4" s="42" t="s">
+        <v>114</v>
+      </c>
+      <c r="C4" s="47" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="B5" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="C5" s="8" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="A6" s="43" t="s">
+        <v>59</v>
+      </c>
+      <c r="B6" s="20" t="s">
+        <v>64</v>
+      </c>
+      <c r="C6" s="16" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="A7" s="43" t="s">
+        <v>56</v>
+      </c>
+      <c r="B7" s="20" t="s">
+        <v>63</v>
+      </c>
+      <c r="C7" s="16" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="B8" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="C8" s="8" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="A9" s="44" t="s">
+        <v>102</v>
+      </c>
+      <c r="B9" s="35" t="s">
+        <v>103</v>
+      </c>
+      <c r="C9" s="16" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="A10" s="43" t="s">
+        <v>58</v>
+      </c>
+      <c r="B10" s="20" t="s">
+        <v>62</v>
+      </c>
+      <c r="C10" s="16" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="A11" s="43" t="s">
+        <v>66</v>
+      </c>
+      <c r="B11" s="20" t="s">
+        <v>65</v>
+      </c>
+      <c r="C11" s="16" t="s">
         <v>61</v>
       </c>
-      <c r="B3" s="12" t="s">
-        <v>66</v>
-      </c>
-      <c r="C3" s="3" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A4" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="B4" s="12" t="s">
-        <v>65</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" ht="17" x14ac:dyDescent="0.2">
-      <c r="A5" s="38" t="s">
-        <v>104</v>
-      </c>
-      <c r="B5" s="40" t="s">
-        <v>105</v>
-      </c>
-      <c r="C5" s="3" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A6" s="13" t="s">
-        <v>60</v>
-      </c>
-      <c r="B6" s="12" t="s">
-        <v>64</v>
-      </c>
-      <c r="C6" s="3" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A7" s="38" t="s">
-        <v>102</v>
-      </c>
-      <c r="B7" s="39" t="s">
-        <v>103</v>
-      </c>
-      <c r="C7" s="3" t="s">
+    </row>
+    <row r="12" spans="1:3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="B12" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="C12" s="8" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="A13" s="45" t="s">
+        <v>18</v>
+      </c>
+      <c r="B13" s="46" t="s">
+        <v>11</v>
+      </c>
+      <c r="C13" s="16" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="A14" s="45" t="s">
+        <v>18</v>
+      </c>
+      <c r="B14" s="46" t="s">
+        <v>12</v>
+      </c>
+      <c r="C14" s="16" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="B15" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="A16" s="44" t="s">
+        <v>100</v>
+      </c>
+      <c r="B16" s="35" t="s">
         <v>101</v>
       </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A8" s="13" t="s">
-        <v>68</v>
-      </c>
-      <c r="B8" s="12" t="s">
-        <v>67</v>
-      </c>
-      <c r="C8" s="3" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A9" s="7" t="s">
+      <c r="C16" s="16" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" s="25" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="48" t="s">
+        <v>26</v>
+      </c>
+      <c r="B17" s="49" t="s">
+        <v>124</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" s="25" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="48" t="s">
+        <v>122</v>
+      </c>
+      <c r="B18" s="49" t="s">
+        <v>124</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="A19" s="45" t="s">
         <v>20</v>
       </c>
-      <c r="B9" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="C9" s="2" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A10" s="7" t="s">
+      <c r="B19" s="40" t="s">
+        <v>37</v>
+      </c>
+      <c r="C19" s="16" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="A20" s="45" t="s">
         <v>20</v>
       </c>
-      <c r="B10" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="C10" s="2" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A11" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="B11" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="C11" s="2" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A12" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="B12" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="C12" s="2" t="s">
+      <c r="B20" s="46" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A13" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="B13" s="6" t="s">
+      <c r="C20" s="16" t="s">
         <v>16</v>
-      </c>
-      <c r="C13" s="2" t="s">
-        <v>17</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C9" r:id="rId1" xr:uid="{CFDB1A8B-BF62-D246-9D7A-DB8C40CEF4B0}"/>
-    <hyperlink ref="C10" r:id="rId2" xr:uid="{B927918F-7565-E542-B802-C6455BEC1726}"/>
-    <hyperlink ref="C12" r:id="rId3" location="anchor" xr:uid="{C4BED215-1CC6-5946-90A3-16810EF37D52}"/>
-    <hyperlink ref="C13" r:id="rId4" xr:uid="{2392AA86-0182-A541-A1BE-117DBA331788}"/>
-    <hyperlink ref="C11" r:id="rId5" xr:uid="{6149A74C-505E-AE48-99A1-06F86FD4A279}"/>
-    <hyperlink ref="C4" r:id="rId6" xr:uid="{D0F7BA5B-9F0E-C041-A414-C338681AC4D9}"/>
-    <hyperlink ref="C6" r:id="rId7" xr:uid="{5D6B074E-AF30-E249-83E0-5E3312A3270E}"/>
-    <hyperlink ref="C3" r:id="rId8" xr:uid="{C8363C0D-FEB4-FC4C-85EC-82E5E8CF621A}"/>
-    <hyperlink ref="C8" r:id="rId9" display="https://sei.capes.gov.br/sei/controlador_externo.php?acao=documento_conferir&amp;codigo_verificador=1122002&amp;codigo_crc=289939CB&amp;hash_download=449b3b0fc962c24d73fdabf1d13929e9016def4302529547c91b7327cb18bab31821b9633c211abb41d021eafd5081cf129ba2af16cb5d49fbade44f102740d4&amp;visualizacao=1&amp;id_orgao_acesso_externo=0" xr:uid="{93A5AC1D-1ECD-D542-B23E-B63CEFC59AA1}"/>
-    <hyperlink ref="C7" r:id="rId10" display="https://sei.capes.gov.br/sei/controlador_externo.php?acao=documento_conferir&amp;codigo_verificador=0339325&amp;codigo_crc=499CC556&amp;hash_download=877c0950a7536647184dd1e3a1c9414d0995405e078be7824fe7258b89e6db6fe8b07ef4f2ec02b91da337bd1d653374c718f6617aa4414ac6548e63aeee0c66&amp;visualizacao=1&amp;id_orgao_acesso_externo=0" xr:uid="{6FC038AD-2D31-FD43-AB00-749DDE76B733}"/>
-    <hyperlink ref="C5" r:id="rId11" display="https://sei.capes.gov.br/sei/controlador_externo.php?acao=documento_conferir&amp;codigo_verificador=1604656&amp;codigo_crc=3876C0B0&amp;hash_download=17f26cc19c93d5cc93be2d0f7491d9c7523c30e3d7bae0d0961cbb5add014aa3d640ee0f2797947fe37116df2d11ed1264bade2249d647e09080fae8594b7e97&amp;visualizacao=1&amp;id_orgao_acesso_externo=0" xr:uid="{BE20119B-2DC3-604F-858B-F8B3B465C6A5}"/>
-    <hyperlink ref="C2" r:id="rId12" xr:uid="{8A1ADAC6-9AA9-F74E-81A5-558BD0B6AE8E}"/>
+    <hyperlink ref="C13" r:id="rId1" xr:uid="{CFDB1A8B-BF62-D246-9D7A-DB8C40CEF4B0}"/>
+    <hyperlink ref="C14" r:id="rId2" xr:uid="{B927918F-7565-E542-B802-C6455BEC1726}"/>
+    <hyperlink ref="C19" r:id="rId3" location="anchor" xr:uid="{C4BED215-1CC6-5946-90A3-16810EF37D52}"/>
+    <hyperlink ref="C20" r:id="rId4" xr:uid="{2392AA86-0182-A541-A1BE-117DBA331788}"/>
+    <hyperlink ref="C7" r:id="rId5" xr:uid="{D0F7BA5B-9F0E-C041-A414-C338681AC4D9}"/>
+    <hyperlink ref="C10" r:id="rId6" xr:uid="{5D6B074E-AF30-E249-83E0-5E3312A3270E}"/>
+    <hyperlink ref="C6" r:id="rId7" xr:uid="{C8363C0D-FEB4-FC4C-85EC-82E5E8CF621A}"/>
+    <hyperlink ref="C11" r:id="rId8" display="https://sei.capes.gov.br/sei/controlador_externo.php?acao=documento_conferir&amp;codigo_verificador=1122002&amp;codigo_crc=289939CB&amp;hash_download=449b3b0fc962c24d73fdabf1d13929e9016def4302529547c91b7327cb18bab31821b9633c211abb41d021eafd5081cf129ba2af16cb5d49fbade44f102740d4&amp;visualizacao=1&amp;id_orgao_acesso_externo=0" xr:uid="{93A5AC1D-1ECD-D542-B23E-B63CEFC59AA1}"/>
+    <hyperlink ref="C16" r:id="rId9" display="https://sei.capes.gov.br/sei/controlador_externo.php?acao=documento_conferir&amp;codigo_verificador=0339325&amp;codigo_crc=499CC556&amp;hash_download=877c0950a7536647184dd1e3a1c9414d0995405e078be7824fe7258b89e6db6fe8b07ef4f2ec02b91da337bd1d653374c718f6617aa4414ac6548e63aeee0c66&amp;visualizacao=1&amp;id_orgao_acesso_externo=0" xr:uid="{6FC038AD-2D31-FD43-AB00-749DDE76B733}"/>
+    <hyperlink ref="C9" r:id="rId10" display="https://sei.capes.gov.br/sei/controlador_externo.php?acao=documento_conferir&amp;codigo_verificador=1604656&amp;codigo_crc=3876C0B0&amp;hash_download=17f26cc19c93d5cc93be2d0f7491d9c7523c30e3d7bae0d0961cbb5add014aa3d640ee0f2797947fe37116df2d11ed1264bade2249d647e09080fae8594b7e97&amp;visualizacao=1&amp;id_orgao_acesso_externo=0" xr:uid="{BE20119B-2DC3-604F-858B-F8B3B465C6A5}"/>
+    <hyperlink ref="C4" r:id="rId11" xr:uid="{8A1ADAC6-9AA9-F74E-81A5-558BD0B6AE8E}"/>
+    <hyperlink ref="C2" r:id="rId12" xr:uid="{7DEE1662-6085-6048-A1C7-DF7B04B5FADD}"/>
+    <hyperlink ref="C3" r:id="rId13" xr:uid="{7F5C11A0-076A-634E-8B00-FC1902655798}"/>
+    <hyperlink ref="C5" r:id="rId14" xr:uid="{6944FE21-1C9C-B94D-81F5-1BE2E1F176FE}"/>
+    <hyperlink ref="C12" r:id="rId15" xr:uid="{D55FC383-6BB1-2A40-A0A7-C3C5ABD4E3D4}"/>
+    <hyperlink ref="C8" r:id="rId16" xr:uid="{EDE1F38C-D6D5-904B-81E7-5C17BD574614}"/>
+    <hyperlink ref="C15" r:id="rId17" xr:uid="{2924B1AE-6C7A-AF49-8876-BA5D606E8B92}"/>
+    <hyperlink ref="C18" r:id="rId18" xr:uid="{6A018B38-6AC6-7541-A415-8E16D447DB38}"/>
+    <hyperlink ref="C17" r:id="rId19" xr:uid="{18EE8016-E6DE-D648-ACA7-63DD117F2DA2}"/>
   </hyperlinks>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>
@@ -1397,70 +1577,70 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:3" s="29" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="30" t="s">
+    <row r="2" spans="1:3" s="25" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="26" t="s">
+        <v>85</v>
+      </c>
+      <c r="B2" s="25" t="s">
         <v>87</v>
       </c>
-      <c r="B2" s="29" t="s">
-        <v>89</v>
-      </c>
       <c r="C2" s="2" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" s="29" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="30" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" s="25" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="26" t="s">
+        <v>81</v>
+      </c>
+      <c r="B3" s="25" t="s">
+        <v>82</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" s="25" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="26" t="s">
+        <v>79</v>
+      </c>
+      <c r="B4" s="25" t="s">
         <v>83</v>
       </c>
-      <c r="B3" s="29" t="s">
+      <c r="C4" s="2" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" s="25" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="26" t="s">
+        <v>77</v>
+      </c>
+      <c r="B5" s="25" t="s">
         <v>84</v>
       </c>
-      <c r="C3" s="2" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" s="29" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="30" t="s">
-        <v>81</v>
-      </c>
-      <c r="B4" s="29" t="s">
-        <v>85</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" s="29" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="30" t="s">
-        <v>79</v>
-      </c>
-      <c r="B5" s="29" t="s">
-        <v>86</v>
-      </c>
       <c r="C5" s="2" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" s="29" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="30" t="s">
-        <v>77</v>
-      </c>
-      <c r="B6" s="29" t="s">
         <v>76</v>
       </c>
+    </row>
+    <row r="6" spans="1:3" s="25" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="26" t="s">
+        <v>75</v>
+      </c>
+      <c r="B6" s="25" t="s">
+        <v>74</v>
+      </c>
       <c r="C6" s="2" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" s="29" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="30" t="s">
-        <v>74</v>
-      </c>
-      <c r="B7" s="29" t="s">
         <v>73</v>
       </c>
+    </row>
+    <row r="7" spans="1:3" s="25" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="26" t="s">
+        <v>72</v>
+      </c>
+      <c r="B7" s="25" t="s">
+        <v>71</v>
+      </c>
       <c r="C7" s="2" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
     </row>
   </sheetData>
@@ -1478,7 +1658,7 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4BBF138D-2CA0-604B-B660-08AE8C958225}">
-  <dimension ref="A1:C2"/>
+  <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1501,155 +1681,44 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:3" s="29" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="32" t="s">
-        <v>91</v>
-      </c>
-      <c r="B2" s="31" t="s">
+    <row r="2" spans="1:3" s="25" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="48" t="s">
+        <v>126</v>
+      </c>
+      <c r="B2" s="49" t="s">
+        <v>124</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" s="25" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="48" t="s">
+        <v>122</v>
+      </c>
+      <c r="B3" s="49" t="s">
+        <v>124</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" s="25" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="28" t="s">
+        <v>89</v>
+      </c>
+      <c r="B4" s="27" t="s">
+        <v>88</v>
+      </c>
+      <c r="C4" s="2" t="s">
         <v>90</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>92</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C2" r:id="rId1" xr:uid="{28EAAA7A-A05B-C14A-AB25-0B8C86B80D30}"/>
-  </hyperlinks>
-  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3D9B172E-47D5-4F47-9C82-D25A282E23A6}">
-  <dimension ref="A1:C3"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="10.83203125" style="37" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="121.83203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="77.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="16384" width="10.83203125" style="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A1" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="B1" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="C1" s="4" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A2" s="35" t="s">
-        <v>96</v>
-      </c>
-      <c r="B2" s="36" t="s">
-        <v>97</v>
-      </c>
-      <c r="C2" s="3" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A3" s="37">
-        <v>2014</v>
-      </c>
-      <c r="B3" s="36" t="s">
-        <v>98</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>100</v>
-      </c>
-    </row>
-  </sheetData>
-  <hyperlinks>
-    <hyperlink ref="C2" r:id="rId1" xr:uid="{9ECAA008-1919-6444-B35E-B47FFDD29A33}"/>
-    <hyperlink ref="C3" r:id="rId2" xr:uid="{98E8195E-3352-1C4E-95D0-987970B70781}"/>
-  </hyperlinks>
-  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5C9027D0-BBC9-074A-98E0-BE8FDCCF0A4E}">
-  <dimension ref="A1:C5"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="10.83203125" style="8"/>
-    <col min="2" max="2" width="43" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="123.1640625" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A1" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="B1" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="C1" s="4" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A2" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="B2" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="C2" s="10" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A3" s="8" t="s">
-        <v>28</v>
-      </c>
-      <c r="B3" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="C3" s="10" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A4" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="B4" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="C4" s="10" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A5" s="11" t="s">
-        <v>31</v>
-      </c>
-      <c r="B5" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>30</v>
-      </c>
-    </row>
-  </sheetData>
-  <hyperlinks>
-    <hyperlink ref="C2" r:id="rId1" xr:uid="{6944FE21-1C9C-B94D-81F5-1BE2E1F176FE}"/>
-    <hyperlink ref="C4" r:id="rId2" xr:uid="{D55FC383-6BB1-2A40-A0A7-C3C5ABD4E3D4}"/>
-    <hyperlink ref="C3" r:id="rId3" xr:uid="{EDE1F38C-D6D5-904B-81E7-5C17BD574614}"/>
-    <hyperlink ref="C5" r:id="rId4" xr:uid="{2924B1AE-6C7A-AF49-8876-BA5D606E8B92}"/>
+    <hyperlink ref="C4" r:id="rId1" xr:uid="{28EAAA7A-A05B-C14A-AB25-0B8C86B80D30}"/>
+    <hyperlink ref="C3" r:id="rId2" xr:uid="{1F34A1FB-95EE-164C-9182-DB12826D68E6}"/>
+    <hyperlink ref="C2" r:id="rId3" xr:uid="{428BB508-10E1-0F47-A53C-61FF565D0795}"/>
   </hyperlinks>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>

--- a/docs/PPG/Bolsas.xlsx
+++ b/docs/PPG/Bolsas.xlsx
@@ -1,23 +1,24 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10311"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10917"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/asferreira/Google Drive (cienciasdareabilitacao@souunisuam.com.br)/ObservatorioCR/PPG/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/arthurdesaferreira1/Documents/Google drive (arthur_sf)/Observatorios/ObservatorioUNISUAM-CR/PPG/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0A754661-45F9-144F-BEA3-9E38A8145656}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{385E4BFA-1FB1-1F40-9425-22A13E6072DC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="900" yWindow="500" windowWidth="27900" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1020" yWindow="500" windowWidth="27900" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="IES" sheetId="9" r:id="rId1"/>
-    <sheet name="CAPES" sheetId="12" r:id="rId2"/>
-    <sheet name="PROSUP" sheetId="10" r:id="rId3"/>
-    <sheet name="PDSE" sheetId="14" r:id="rId4"/>
-    <sheet name="PNPD" sheetId="15" r:id="rId5"/>
+    <sheet name="CNPq" sheetId="16" r:id="rId2"/>
+    <sheet name="CAPES" sheetId="12" r:id="rId3"/>
+    <sheet name="PROSUP" sheetId="10" r:id="rId4"/>
+    <sheet name="PDSE" sheetId="14" r:id="rId5"/>
+    <sheet name="PNPD" sheetId="15" r:id="rId6"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -37,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="155" uniqueCount="129">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="161" uniqueCount="132">
   <si>
     <t>Portaria nº 123 de 01 de agosto de 2013</t>
   </si>
@@ -424,15 +425,31 @@
   </si>
   <si>
     <t>https://pesquisa.in.gov.br/imprensa/jsp/visualiza/index.jsp?data=10/06/2022&amp;jornal=530&amp;pagina=125&amp;totalArquivos=372</t>
+  </si>
+  <si>
+    <t>http://portal-adm.cnpq.br/web/guest/view/-/journal_content/56_INSTANCE_0oED/10157/21786999</t>
+  </si>
+  <si>
+    <t>Portaria 1735/2024 de 1 de agosto de 2024 - Código de Conduta aos bolsistas, aos proponentes nas Chamadas Públicas e aos membros dos Órgãos de Assessoramento Científico - Tecnológico do CNPq</t>
+  </si>
+  <si>
+    <t>01/08/2024</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="21" x14ac:knownFonts="1">
+  <fonts count="22" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -606,120 +623,126 @@
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="50">
+  <cellXfs count="52">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="1"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="2"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="2" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="49" fontId="19" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="2"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="2" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="49" fontId="20" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="49" fontId="16" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="2" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="49" fontId="15" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="2" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="14" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="49" fontId="19" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="20" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
+    <xf numFmtId="49" fontId="13" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="2" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="14" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="49" fontId="12" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="2" applyAlignment="1">
+    <xf numFmtId="49" fontId="17" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="49" fontId="13" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="11" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="16" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="2" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="2" applyFill="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="49" fontId="11" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="49" fontId="10" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="49" fontId="9" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="49" fontId="8" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="9" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="49" fontId="18" fillId="0" borderId="0" xfId="1" applyNumberFormat="1"/>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="8" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="49" fontId="19" fillId="0" borderId="0" xfId="1" applyNumberFormat="1"/>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="49" fontId="19" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="49" fontId="20" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="11" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="16" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="12" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="2" borderId="0" xfId="2" applyFill="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="17" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="2" borderId="0" xfId="2" applyFill="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Hiperlink" xfId="2" builtinId="8"/>
@@ -1093,10 +1116,53 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E536550B-AD4A-2847-A4EB-402930A7053F}">
+  <dimension ref="A1:C2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="95.6640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="11.33203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="A1" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1" s="12" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" ht="34" x14ac:dyDescent="0.2">
+      <c r="A2" s="51" t="s">
+        <v>131</v>
+      </c>
+      <c r="B2" s="50" t="s">
+        <v>130</v>
+      </c>
+      <c r="C2" s="16" t="s">
+        <v>129</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="C2" r:id="rId1" xr:uid="{B0CC1335-3A53-A24E-B10E-E2077FE00D94}"/>
+  </hyperlinks>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E7C5D405-DE71-CA4E-8BE5-C70B78132DAA}">
   <dimension ref="A1:C15"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:C2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
@@ -1292,7 +1358,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BE69CE70-DFA3-5E49-A523-CFA0DDA93B5C}">
   <dimension ref="A1:C20"/>
   <sheetViews>
@@ -1552,7 +1618,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6D8F5BDD-F0FB-BD47-8E46-C8D2F012CFA4}">
   <dimension ref="A1:C7"/>
   <sheetViews>
@@ -1656,7 +1722,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4BBF138D-2CA0-604B-B660-08AE8C958225}">
   <dimension ref="A1:C4"/>
   <sheetViews>

--- a/docs/PPG/Bolsas.xlsx
+++ b/docs/PPG/Bolsas.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10917"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="11207"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/arthurdesaferreira1/Documents/Google drive (arthur_sf)/Observatorios/ObservatorioUNISUAM-CR/PPG/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/asferreira/Google Drive (arthur_sf@icloud.com)/Observatorios/ObservatorioUNISUAM-CR/PPG/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{385E4BFA-1FB1-1F40-9425-22A13E6072DC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F24794AB-A257-C349-9C3D-97E3E250F17C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1020" yWindow="500" windowWidth="27900" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="900" yWindow="500" windowWidth="27900" windowHeight="17500" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="IES" sheetId="9" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="161" uniqueCount="132">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="135">
   <si>
     <t>Portaria nº 123 de 01 de agosto de 2013</t>
   </si>
@@ -434,13 +434,22 @@
   </si>
   <si>
     <t>01/08/2024</t>
+  </si>
+  <si>
+    <t>Ofício Circular no 17/2024-CGFIP/DPB/CAPES - Calendário de abertura do SCBA em 2025 — DS, Proex, Prosuc, Prosup, PNPD e PIPD</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1N9ckO7Y716oI3CAA0TScydrRsVY4Hgvu</t>
+  </si>
+  <si>
+    <t>10/12/2024</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="22" x14ac:knownFonts="1">
+  <fonts count="23" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -582,6 +591,13 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="12"/>
       <color theme="1"/>
@@ -598,18 +614,12 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
-        <bgColor indexed="64"/>
-      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -623,125 +633,128 @@
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="52">
+  <cellXfs count="53">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="1"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="2"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="2" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="49" fontId="20" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="2"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="2" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="49" fontId="21" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="49" fontId="17" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="2" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="49" fontId="16" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="2" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="15" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="49" fontId="20" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="21" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
+    <xf numFmtId="49" fontId="14" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="2" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="15" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="49" fontId="13" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="2" applyAlignment="1">
+    <xf numFmtId="49" fontId="18" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="49" fontId="14" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="12" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="2" applyFill="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="17" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="2" applyFill="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="49" fontId="12" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="49" fontId="11" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="49" fontId="10" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="49" fontId="9" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="10" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="8" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="49" fontId="19" fillId="0" borderId="0" xfId="1" applyNumberFormat="1"/>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="9" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="49" fontId="20" fillId="0" borderId="0" xfId="1" applyNumberFormat="1"/>
+    <xf numFmtId="49" fontId="8" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="49" fontId="20" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="49" fontId="21" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="12" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="17" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="2" borderId="0" xfId="2" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="13" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="18" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="top"/>
+      <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -1027,7 +1040,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4D2A2F26-1678-FA4E-B9F8-88F4FD843D40}">
   <dimension ref="A1:C6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
@@ -1138,10 +1151,10 @@
       </c>
     </row>
     <row r="2" spans="1:3" ht="34" x14ac:dyDescent="0.2">
-      <c r="A2" s="51" t="s">
+      <c r="A2" s="50" t="s">
         <v>131</v>
       </c>
-      <c r="B2" s="50" t="s">
+      <c r="B2" s="49" t="s">
         <v>130</v>
       </c>
       <c r="C2" s="16" t="s">
@@ -1160,9 +1173,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E7C5D405-DE71-CA4E-8BE5-C70B78132DAA}">
   <dimension ref="A1:C15"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:C2"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
@@ -1360,9 +1371,9 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BE69CE70-DFA3-5E49-A523-CFA0DDA93B5C}">
-  <dimension ref="A1:C20"/>
+  <dimension ref="A1:C21"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
@@ -1384,135 +1395,135 @@
       </c>
     </row>
     <row r="2" spans="1:3" ht="17" x14ac:dyDescent="0.2">
-      <c r="A2" s="39" t="s">
-        <v>118</v>
-      </c>
-      <c r="B2" s="40" t="s">
-        <v>117</v>
-      </c>
-      <c r="C2" s="47" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" ht="68" x14ac:dyDescent="0.2">
+      <c r="A2" s="52" t="s">
+        <v>134</v>
+      </c>
+      <c r="B2" s="51" t="s">
+        <v>132</v>
+      </c>
+      <c r="C2" s="24" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A3" s="39" t="s">
         <v>118</v>
       </c>
       <c r="B3" s="40" t="s">
+        <v>117</v>
+      </c>
+      <c r="C3" s="24" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" ht="68" x14ac:dyDescent="0.2">
+      <c r="A4" s="39" t="s">
+        <v>118</v>
+      </c>
+      <c r="B4" s="40" t="s">
         <v>120</v>
       </c>
-      <c r="C3" s="47" t="s">
+      <c r="C4" s="24" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="17" x14ac:dyDescent="0.2">
-      <c r="A4" s="41" t="s">
+    <row r="5" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="A5" s="41" t="s">
         <v>116</v>
       </c>
-      <c r="B4" s="42" t="s">
+      <c r="B5" s="42" t="s">
         <v>114</v>
       </c>
-      <c r="C4" s="47" t="s">
+      <c r="C5" s="24" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="5" spans="1:3" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="6" t="s">
+    <row r="6" spans="1:3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="B5" s="7" t="s">
+      <c r="B6" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="C5" s="8" t="s">
+      <c r="C6" s="8" t="s">
         <v>23</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" ht="17" x14ac:dyDescent="0.2">
-      <c r="A6" s="43" t="s">
-        <v>59</v>
-      </c>
-      <c r="B6" s="20" t="s">
-        <v>64</v>
-      </c>
-      <c r="C6" s="16" t="s">
-        <v>60</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A7" s="43" t="s">
+        <v>59</v>
+      </c>
+      <c r="B7" s="20" t="s">
+        <v>64</v>
+      </c>
+      <c r="C7" s="16" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="A8" s="43" t="s">
         <v>56</v>
       </c>
-      <c r="B7" s="20" t="s">
+      <c r="B8" s="20" t="s">
         <v>63</v>
       </c>
-      <c r="C7" s="16" t="s">
+      <c r="C8" s="16" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="8" spans="1:3" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="6" t="s">
+    <row r="9" spans="1:3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="B8" s="7" t="s">
+      <c r="B9" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="C8" s="8" t="s">
+      <c r="C9" s="8" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="9" spans="1:3" ht="17" x14ac:dyDescent="0.2">
-      <c r="A9" s="44" t="s">
+    <row r="10" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="A10" s="44" t="s">
         <v>102</v>
       </c>
-      <c r="B9" s="35" t="s">
+      <c r="B10" s="35" t="s">
         <v>103</v>
       </c>
-      <c r="C9" s="16" t="s">
+      <c r="C10" s="16" t="s">
         <v>104</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" ht="17" x14ac:dyDescent="0.2">
-      <c r="A10" s="43" t="s">
-        <v>58</v>
-      </c>
-      <c r="B10" s="20" t="s">
-        <v>62</v>
-      </c>
-      <c r="C10" s="16" t="s">
-        <v>57</v>
       </c>
     </row>
     <row r="11" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A11" s="43" t="s">
+        <v>58</v>
+      </c>
+      <c r="B11" s="20" t="s">
+        <v>62</v>
+      </c>
+      <c r="C11" s="16" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="A12" s="43" t="s">
         <v>66</v>
       </c>
-      <c r="B11" s="20" t="s">
+      <c r="B12" s="20" t="s">
         <v>65</v>
       </c>
-      <c r="C11" s="16" t="s">
+      <c r="C12" s="16" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="12" spans="1:3" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="6" t="s">
+    <row r="13" spans="1:3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="B12" s="7" t="s">
+      <c r="B13" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="C12" s="8" t="s">
+      <c r="C13" s="8" t="s">
         <v>24</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" ht="17" x14ac:dyDescent="0.2">
-      <c r="A13" s="45" t="s">
-        <v>18</v>
-      </c>
-      <c r="B13" s="46" t="s">
-        <v>11</v>
-      </c>
-      <c r="C13" s="16" t="s">
-        <v>10</v>
       </c>
     </row>
     <row r="14" spans="1:3" ht="17" x14ac:dyDescent="0.2">
@@ -1520,99 +1531,111 @@
         <v>18</v>
       </c>
       <c r="B14" s="46" t="s">
+        <v>11</v>
+      </c>
+      <c r="C14" s="16" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="A15" s="45" t="s">
+        <v>18</v>
+      </c>
+      <c r="B15" s="46" t="s">
         <v>12</v>
       </c>
-      <c r="C14" s="16" t="s">
+      <c r="C15" s="16" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="15" spans="1:3" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="9" t="s">
+    <row r="16" spans="1:3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="B15" s="7" t="s">
+      <c r="B16" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="C15" s="2" t="s">
+      <c r="C16" s="2" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="16" spans="1:3" ht="17" x14ac:dyDescent="0.2">
-      <c r="A16" s="44" t="s">
+    <row r="17" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="A17" s="44" t="s">
         <v>100</v>
       </c>
-      <c r="B16" s="35" t="s">
+      <c r="B17" s="35" t="s">
         <v>101</v>
       </c>
-      <c r="C16" s="16" t="s">
+      <c r="C17" s="16" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="17" spans="1:3" s="25" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="48" t="s">
+    <row r="18" spans="1:3" s="25" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="47" t="s">
         <v>26</v>
       </c>
-      <c r="B17" s="49" t="s">
+      <c r="B18" s="48" t="s">
         <v>124</v>
       </c>
-      <c r="C17" s="2" t="s">
+      <c r="C18" s="2" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="18" spans="1:3" s="25" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="48" t="s">
+    <row r="19" spans="1:3" s="25" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A19" s="47" t="s">
         <v>122</v>
       </c>
-      <c r="B18" s="49" t="s">
+      <c r="B19" s="48" t="s">
         <v>124</v>
       </c>
-      <c r="C18" s="2" t="s">
+      <c r="C19" s="2" t="s">
         <v>125</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" ht="17" x14ac:dyDescent="0.2">
-      <c r="A19" s="45" t="s">
-        <v>20</v>
-      </c>
-      <c r="B19" s="40" t="s">
-        <v>37</v>
-      </c>
-      <c r="C19" s="16" t="s">
-        <v>14</v>
       </c>
     </row>
     <row r="20" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A20" s="45" t="s">
         <v>20</v>
       </c>
-      <c r="B20" s="46" t="s">
+      <c r="B20" s="40" t="s">
+        <v>37</v>
+      </c>
+      <c r="C20" s="16" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="A21" s="45" t="s">
+        <v>20</v>
+      </c>
+      <c r="B21" s="46" t="s">
         <v>15</v>
       </c>
-      <c r="C20" s="16" t="s">
+      <c r="C21" s="16" t="s">
         <v>16</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C13" r:id="rId1" xr:uid="{CFDB1A8B-BF62-D246-9D7A-DB8C40CEF4B0}"/>
-    <hyperlink ref="C14" r:id="rId2" xr:uid="{B927918F-7565-E542-B802-C6455BEC1726}"/>
-    <hyperlink ref="C19" r:id="rId3" location="anchor" xr:uid="{C4BED215-1CC6-5946-90A3-16810EF37D52}"/>
-    <hyperlink ref="C20" r:id="rId4" xr:uid="{2392AA86-0182-A541-A1BE-117DBA331788}"/>
-    <hyperlink ref="C7" r:id="rId5" xr:uid="{D0F7BA5B-9F0E-C041-A414-C338681AC4D9}"/>
-    <hyperlink ref="C10" r:id="rId6" xr:uid="{5D6B074E-AF30-E249-83E0-5E3312A3270E}"/>
-    <hyperlink ref="C6" r:id="rId7" xr:uid="{C8363C0D-FEB4-FC4C-85EC-82E5E8CF621A}"/>
-    <hyperlink ref="C11" r:id="rId8" display="https://sei.capes.gov.br/sei/controlador_externo.php?acao=documento_conferir&amp;codigo_verificador=1122002&amp;codigo_crc=289939CB&amp;hash_download=449b3b0fc962c24d73fdabf1d13929e9016def4302529547c91b7327cb18bab31821b9633c211abb41d021eafd5081cf129ba2af16cb5d49fbade44f102740d4&amp;visualizacao=1&amp;id_orgao_acesso_externo=0" xr:uid="{93A5AC1D-1ECD-D542-B23E-B63CEFC59AA1}"/>
-    <hyperlink ref="C16" r:id="rId9" display="https://sei.capes.gov.br/sei/controlador_externo.php?acao=documento_conferir&amp;codigo_verificador=0339325&amp;codigo_crc=499CC556&amp;hash_download=877c0950a7536647184dd1e3a1c9414d0995405e078be7824fe7258b89e6db6fe8b07ef4f2ec02b91da337bd1d653374c718f6617aa4414ac6548e63aeee0c66&amp;visualizacao=1&amp;id_orgao_acesso_externo=0" xr:uid="{6FC038AD-2D31-FD43-AB00-749DDE76B733}"/>
-    <hyperlink ref="C9" r:id="rId10" display="https://sei.capes.gov.br/sei/controlador_externo.php?acao=documento_conferir&amp;codigo_verificador=1604656&amp;codigo_crc=3876C0B0&amp;hash_download=17f26cc19c93d5cc93be2d0f7491d9c7523c30e3d7bae0d0961cbb5add014aa3d640ee0f2797947fe37116df2d11ed1264bade2249d647e09080fae8594b7e97&amp;visualizacao=1&amp;id_orgao_acesso_externo=0" xr:uid="{BE20119B-2DC3-604F-858B-F8B3B465C6A5}"/>
-    <hyperlink ref="C4" r:id="rId11" xr:uid="{8A1ADAC6-9AA9-F74E-81A5-558BD0B6AE8E}"/>
-    <hyperlink ref="C2" r:id="rId12" xr:uid="{7DEE1662-6085-6048-A1C7-DF7B04B5FADD}"/>
-    <hyperlink ref="C3" r:id="rId13" xr:uid="{7F5C11A0-076A-634E-8B00-FC1902655798}"/>
-    <hyperlink ref="C5" r:id="rId14" xr:uid="{6944FE21-1C9C-B94D-81F5-1BE2E1F176FE}"/>
-    <hyperlink ref="C12" r:id="rId15" xr:uid="{D55FC383-6BB1-2A40-A0A7-C3C5ABD4E3D4}"/>
-    <hyperlink ref="C8" r:id="rId16" xr:uid="{EDE1F38C-D6D5-904B-81E7-5C17BD574614}"/>
-    <hyperlink ref="C15" r:id="rId17" xr:uid="{2924B1AE-6C7A-AF49-8876-BA5D606E8B92}"/>
-    <hyperlink ref="C18" r:id="rId18" xr:uid="{6A018B38-6AC6-7541-A415-8E16D447DB38}"/>
-    <hyperlink ref="C17" r:id="rId19" xr:uid="{18EE8016-E6DE-D648-ACA7-63DD117F2DA2}"/>
+    <hyperlink ref="C14" r:id="rId1" xr:uid="{CFDB1A8B-BF62-D246-9D7A-DB8C40CEF4B0}"/>
+    <hyperlink ref="C15" r:id="rId2" xr:uid="{B927918F-7565-E542-B802-C6455BEC1726}"/>
+    <hyperlink ref="C20" r:id="rId3" location="anchor" xr:uid="{C4BED215-1CC6-5946-90A3-16810EF37D52}"/>
+    <hyperlink ref="C21" r:id="rId4" xr:uid="{2392AA86-0182-A541-A1BE-117DBA331788}"/>
+    <hyperlink ref="C8" r:id="rId5" xr:uid="{D0F7BA5B-9F0E-C041-A414-C338681AC4D9}"/>
+    <hyperlink ref="C11" r:id="rId6" xr:uid="{5D6B074E-AF30-E249-83E0-5E3312A3270E}"/>
+    <hyperlink ref="C7" r:id="rId7" xr:uid="{C8363C0D-FEB4-FC4C-85EC-82E5E8CF621A}"/>
+    <hyperlink ref="C12" r:id="rId8" display="https://sei.capes.gov.br/sei/controlador_externo.php?acao=documento_conferir&amp;codigo_verificador=1122002&amp;codigo_crc=289939CB&amp;hash_download=449b3b0fc962c24d73fdabf1d13929e9016def4302529547c91b7327cb18bab31821b9633c211abb41d021eafd5081cf129ba2af16cb5d49fbade44f102740d4&amp;visualizacao=1&amp;id_orgao_acesso_externo=0" xr:uid="{93A5AC1D-1ECD-D542-B23E-B63CEFC59AA1}"/>
+    <hyperlink ref="C17" r:id="rId9" display="https://sei.capes.gov.br/sei/controlador_externo.php?acao=documento_conferir&amp;codigo_verificador=0339325&amp;codigo_crc=499CC556&amp;hash_download=877c0950a7536647184dd1e3a1c9414d0995405e078be7824fe7258b89e6db6fe8b07ef4f2ec02b91da337bd1d653374c718f6617aa4414ac6548e63aeee0c66&amp;visualizacao=1&amp;id_orgao_acesso_externo=0" xr:uid="{6FC038AD-2D31-FD43-AB00-749DDE76B733}"/>
+    <hyperlink ref="C10" r:id="rId10" display="https://sei.capes.gov.br/sei/controlador_externo.php?acao=documento_conferir&amp;codigo_verificador=1604656&amp;codigo_crc=3876C0B0&amp;hash_download=17f26cc19c93d5cc93be2d0f7491d9c7523c30e3d7bae0d0961cbb5add014aa3d640ee0f2797947fe37116df2d11ed1264bade2249d647e09080fae8594b7e97&amp;visualizacao=1&amp;id_orgao_acesso_externo=0" xr:uid="{BE20119B-2DC3-604F-858B-F8B3B465C6A5}"/>
+    <hyperlink ref="C5" r:id="rId11" xr:uid="{8A1ADAC6-9AA9-F74E-81A5-558BD0B6AE8E}"/>
+    <hyperlink ref="C3" r:id="rId12" xr:uid="{7DEE1662-6085-6048-A1C7-DF7B04B5FADD}"/>
+    <hyperlink ref="C4" r:id="rId13" xr:uid="{7F5C11A0-076A-634E-8B00-FC1902655798}"/>
+    <hyperlink ref="C6" r:id="rId14" xr:uid="{6944FE21-1C9C-B94D-81F5-1BE2E1F176FE}"/>
+    <hyperlink ref="C13" r:id="rId15" xr:uid="{D55FC383-6BB1-2A40-A0A7-C3C5ABD4E3D4}"/>
+    <hyperlink ref="C9" r:id="rId16" xr:uid="{EDE1F38C-D6D5-904B-81E7-5C17BD574614}"/>
+    <hyperlink ref="C16" r:id="rId17" xr:uid="{2924B1AE-6C7A-AF49-8876-BA5D606E8B92}"/>
+    <hyperlink ref="C19" r:id="rId18" xr:uid="{6A018B38-6AC6-7541-A415-8E16D447DB38}"/>
+    <hyperlink ref="C18" r:id="rId19" xr:uid="{18EE8016-E6DE-D648-ACA7-63DD117F2DA2}"/>
+    <hyperlink ref="C2" r:id="rId20" xr:uid="{56994366-5984-1C40-BBD4-436A7D3ECDA2}"/>
   </hyperlinks>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>
@@ -1748,10 +1771,10 @@
       </c>
     </row>
     <row r="2" spans="1:3" s="25" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="48" t="s">
+      <c r="A2" s="47" t="s">
         <v>126</v>
       </c>
-      <c r="B2" s="49" t="s">
+      <c r="B2" s="48" t="s">
         <v>124</v>
       </c>
       <c r="C2" s="2" t="s">
@@ -1759,10 +1782,10 @@
       </c>
     </row>
     <row r="3" spans="1:3" s="25" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="48" t="s">
+      <c r="A3" s="47" t="s">
         <v>122</v>
       </c>
-      <c r="B3" s="49" t="s">
+      <c r="B3" s="48" t="s">
         <v>124</v>
       </c>
       <c r="C3" s="2" t="s">

--- a/docs/PPG/Bolsas.xlsx
+++ b/docs/PPG/Bolsas.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="11207"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10209"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/asferreira/Google Drive (arthur_sf@icloud.com)/Observatorios/ObservatorioUNISUAM-CR/PPG/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F24794AB-A257-C349-9C3D-97E3E250F17C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{838805E9-1143-7C4E-8194-AA61F20095C8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="900" yWindow="500" windowWidth="27900" windowHeight="17500" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -439,10 +439,10 @@
     <t>Ofício Circular no 17/2024-CGFIP/DPB/CAPES - Calendário de abertura do SCBA em 2025 — DS, Proex, Prosuc, Prosup, PNPD e PIPD</t>
   </si>
   <si>
-    <t>https://drive.google.com/file/d/1N9ckO7Y716oI3CAA0TScydrRsVY4Hgvu</t>
-  </si>
-  <si>
     <t>10/12/2024</t>
+  </si>
+  <si>
+    <t>https://www.gov.br/capes/pt-br/centrais-de-conteudo/documentos/30122024_SEI_2513263_Oficio_Circular_17.pdf</t>
   </si>
 </sst>
 </file>
@@ -1396,13 +1396,13 @@
     </row>
     <row r="2" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A2" s="52" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B2" s="51" t="s">
         <v>132</v>
       </c>
       <c r="C2" s="24" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="17" x14ac:dyDescent="0.2">

--- a/docs/PPG/Bolsas.xlsx
+++ b/docs/PPG/Bolsas.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10209"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10309"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/asferreira/Google Drive (arthur_sf@icloud.com)/Observatorios/ObservatorioUNISUAM-CR/PPG/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{838805E9-1143-7C4E-8194-AA61F20095C8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{91CDCB7C-08F6-DE4F-AAF1-0B2AC2B28F79}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="900" yWindow="500" windowWidth="27900" windowHeight="17500" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="135">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="167" uniqueCount="138">
   <si>
     <t>Portaria nº 123 de 01 de agosto de 2013</t>
   </si>
@@ -443,15 +443,31 @@
   </si>
   <si>
     <t>https://www.gov.br/capes/pt-br/centrais-de-conteudo/documentos/30122024_SEI_2513263_Oficio_Circular_17.pdf</t>
+  </si>
+  <si>
+    <t>17/03/2025</t>
+  </si>
+  <si>
+    <t>Portaria nº 53, de 14 de Março de 2025 - Dispõe sobre os critérios para distribuição de bolsas no âmbito do Programa de Demanda Social - DS e de bolsas e auxílios para pagamento de taxas escolares no âmbito do Programa de Excelência Acadêmica - PROEX, do Programa de Suporte à Pós-Graduação de Instituições de Ensino Particulares - PROSUP e do Programa de Suporte à Pós-Graduação de Instituições Comunitárias de Educação Superior - PROSUC, referente ao período de março de 2025 a fevereiro de 2026.</t>
+  </si>
+  <si>
+    <t>https://cad.capes.gov.br/ato-administrativo-detalhar?idAtoAdmElastic=17603#anchor</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="23" x14ac:knownFonts="1">
+  <fonts count="24" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -633,127 +649,133 @@
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="53">
+  <cellXfs count="55">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="1"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="2"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="2" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="49" fontId="21" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="2"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="2" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="49" fontId="22" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="49" fontId="18" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="2" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="49" fontId="17" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="2" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="16" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="49" fontId="21" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="22" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
+    <xf numFmtId="49" fontId="15" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="2" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="16" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="49" fontId="14" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="2" applyAlignment="1">
+    <xf numFmtId="49" fontId="19" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="49" fontId="15" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="13" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="2" applyFill="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="18" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="2" applyFill="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="49" fontId="13" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="49" fontId="12" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="49" fontId="11" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="49" fontId="10" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="11" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="9" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="49" fontId="20" fillId="0" borderId="0" xfId="1" applyNumberFormat="1"/>
-    <xf numFmtId="49" fontId="8" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="10" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="49" fontId="21" fillId="0" borderId="0" xfId="1" applyNumberFormat="1"/>
+    <xf numFmtId="49" fontId="9" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="49" fontId="21" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="49" fontId="22" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="13" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="8" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="18" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="14" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="9" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="19" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="top"/>
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1371,7 +1393,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BE69CE70-DFA3-5E49-A523-CFA0DDA93B5C}">
-  <dimension ref="A1:C21"/>
+  <dimension ref="A1:C22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1394,147 +1416,147 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="17" x14ac:dyDescent="0.2">
-      <c r="A2" s="52" t="s">
+    <row r="2" spans="1:3" s="54" customFormat="1" ht="68" x14ac:dyDescent="0.2">
+      <c r="A2" s="53" t="s">
+        <v>135</v>
+      </c>
+      <c r="B2" s="54" t="s">
+        <v>136</v>
+      </c>
+      <c r="C2" s="16" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="A3" s="52" t="s">
         <v>133</v>
       </c>
-      <c r="B2" s="51" t="s">
+      <c r="B3" s="51" t="s">
         <v>132</v>
       </c>
-      <c r="C2" s="24" t="s">
+      <c r="C3" s="24" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="17" x14ac:dyDescent="0.2">
-      <c r="A3" s="39" t="s">
-        <v>118</v>
-      </c>
-      <c r="B3" s="40" t="s">
-        <v>117</v>
-      </c>
-      <c r="C3" s="24" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" ht="68" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A4" s="39" t="s">
         <v>118</v>
       </c>
       <c r="B4" s="40" t="s">
+        <v>117</v>
+      </c>
+      <c r="C4" s="24" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" ht="68" x14ac:dyDescent="0.2">
+      <c r="A5" s="39" t="s">
+        <v>118</v>
+      </c>
+      <c r="B5" s="40" t="s">
         <v>120</v>
       </c>
-      <c r="C4" s="24" t="s">
+      <c r="C5" s="24" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="5" spans="1:3" ht="17" x14ac:dyDescent="0.2">
-      <c r="A5" s="41" t="s">
+    <row r="6" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="A6" s="41" t="s">
         <v>116</v>
       </c>
-      <c r="B5" s="42" t="s">
+      <c r="B6" s="42" t="s">
         <v>114</v>
       </c>
-      <c r="C5" s="24" t="s">
+      <c r="C6" s="24" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="6" spans="1:3" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="6" t="s">
+    <row r="7" spans="1:3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="B6" s="7" t="s">
+      <c r="B7" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="C6" s="8" t="s">
+      <c r="C7" s="8" t="s">
         <v>23</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" ht="17" x14ac:dyDescent="0.2">
-      <c r="A7" s="43" t="s">
-        <v>59</v>
-      </c>
-      <c r="B7" s="20" t="s">
-        <v>64</v>
-      </c>
-      <c r="C7" s="16" t="s">
-        <v>60</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A8" s="43" t="s">
+        <v>59</v>
+      </c>
+      <c r="B8" s="20" t="s">
+        <v>64</v>
+      </c>
+      <c r="C8" s="16" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="A9" s="43" t="s">
         <v>56</v>
       </c>
-      <c r="B8" s="20" t="s">
+      <c r="B9" s="20" t="s">
         <v>63</v>
       </c>
-      <c r="C8" s="16" t="s">
+      <c r="C9" s="16" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="9" spans="1:3" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="6" t="s">
+    <row r="10" spans="1:3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="B9" s="7" t="s">
+      <c r="B10" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="C9" s="8" t="s">
+      <c r="C10" s="8" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="10" spans="1:3" ht="17" x14ac:dyDescent="0.2">
-      <c r="A10" s="44" t="s">
+    <row r="11" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="A11" s="44" t="s">
         <v>102</v>
       </c>
-      <c r="B10" s="35" t="s">
+      <c r="B11" s="35" t="s">
         <v>103</v>
       </c>
-      <c r="C10" s="16" t="s">
+      <c r="C11" s="16" t="s">
         <v>104</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" ht="17" x14ac:dyDescent="0.2">
-      <c r="A11" s="43" t="s">
-        <v>58</v>
-      </c>
-      <c r="B11" s="20" t="s">
-        <v>62</v>
-      </c>
-      <c r="C11" s="16" t="s">
-        <v>57</v>
       </c>
     </row>
     <row r="12" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A12" s="43" t="s">
+        <v>58</v>
+      </c>
+      <c r="B12" s="20" t="s">
+        <v>62</v>
+      </c>
+      <c r="C12" s="16" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="A13" s="43" t="s">
         <v>66</v>
       </c>
-      <c r="B12" s="20" t="s">
+      <c r="B13" s="20" t="s">
         <v>65</v>
       </c>
-      <c r="C12" s="16" t="s">
+      <c r="C13" s="16" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="13" spans="1:3" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="6" t="s">
+    <row r="14" spans="1:3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="B13" s="7" t="s">
+      <c r="B14" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="C13" s="8" t="s">
+      <c r="C14" s="8" t="s">
         <v>24</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" ht="17" x14ac:dyDescent="0.2">
-      <c r="A14" s="45" t="s">
-        <v>18</v>
-      </c>
-      <c r="B14" s="46" t="s">
-        <v>11</v>
-      </c>
-      <c r="C14" s="16" t="s">
-        <v>10</v>
       </c>
     </row>
     <row r="15" spans="1:3" ht="17" x14ac:dyDescent="0.2">
@@ -1542,100 +1564,112 @@
         <v>18</v>
       </c>
       <c r="B15" s="46" t="s">
+        <v>11</v>
+      </c>
+      <c r="C15" s="16" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="A16" s="45" t="s">
+        <v>18</v>
+      </c>
+      <c r="B16" s="46" t="s">
         <v>12</v>
       </c>
-      <c r="C15" s="16" t="s">
+      <c r="C16" s="16" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="16" spans="1:3" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="9" t="s">
+    <row r="17" spans="1:3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="B16" s="7" t="s">
+      <c r="B17" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="C16" s="2" t="s">
+      <c r="C17" s="2" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="17" spans="1:3" ht="17" x14ac:dyDescent="0.2">
-      <c r="A17" s="44" t="s">
+    <row r="18" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="A18" s="44" t="s">
         <v>100</v>
       </c>
-      <c r="B17" s="35" t="s">
+      <c r="B18" s="35" t="s">
         <v>101</v>
       </c>
-      <c r="C17" s="16" t="s">
+      <c r="C18" s="16" t="s">
         <v>99</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" s="25" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="47" t="s">
-        <v>26</v>
-      </c>
-      <c r="B18" s="48" t="s">
-        <v>124</v>
-      </c>
-      <c r="C18" s="2" t="s">
-        <v>128</v>
       </c>
     </row>
     <row r="19" spans="1:3" s="25" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A19" s="47" t="s">
-        <v>122</v>
+        <v>26</v>
       </c>
       <c r="B19" s="48" t="s">
         <v>124</v>
       </c>
       <c r="C19" s="2" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" s="25" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A20" s="47" t="s">
+        <v>122</v>
+      </c>
+      <c r="B20" s="48" t="s">
+        <v>124</v>
+      </c>
+      <c r="C20" s="2" t="s">
         <v>125</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" ht="17" x14ac:dyDescent="0.2">
-      <c r="A20" s="45" t="s">
-        <v>20</v>
-      </c>
-      <c r="B20" s="40" t="s">
-        <v>37</v>
-      </c>
-      <c r="C20" s="16" t="s">
-        <v>14</v>
       </c>
     </row>
     <row r="21" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A21" s="45" t="s">
         <v>20</v>
       </c>
-      <c r="B21" s="46" t="s">
+      <c r="B21" s="40" t="s">
+        <v>37</v>
+      </c>
+      <c r="C21" s="16" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="A22" s="45" t="s">
+        <v>20</v>
+      </c>
+      <c r="B22" s="46" t="s">
         <v>15</v>
       </c>
-      <c r="C21" s="16" t="s">
+      <c r="C22" s="16" t="s">
         <v>16</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C14" r:id="rId1" xr:uid="{CFDB1A8B-BF62-D246-9D7A-DB8C40CEF4B0}"/>
-    <hyperlink ref="C15" r:id="rId2" xr:uid="{B927918F-7565-E542-B802-C6455BEC1726}"/>
-    <hyperlink ref="C20" r:id="rId3" location="anchor" xr:uid="{C4BED215-1CC6-5946-90A3-16810EF37D52}"/>
-    <hyperlink ref="C21" r:id="rId4" xr:uid="{2392AA86-0182-A541-A1BE-117DBA331788}"/>
-    <hyperlink ref="C8" r:id="rId5" xr:uid="{D0F7BA5B-9F0E-C041-A414-C338681AC4D9}"/>
-    <hyperlink ref="C11" r:id="rId6" xr:uid="{5D6B074E-AF30-E249-83E0-5E3312A3270E}"/>
-    <hyperlink ref="C7" r:id="rId7" xr:uid="{C8363C0D-FEB4-FC4C-85EC-82E5E8CF621A}"/>
-    <hyperlink ref="C12" r:id="rId8" display="https://sei.capes.gov.br/sei/controlador_externo.php?acao=documento_conferir&amp;codigo_verificador=1122002&amp;codigo_crc=289939CB&amp;hash_download=449b3b0fc962c24d73fdabf1d13929e9016def4302529547c91b7327cb18bab31821b9633c211abb41d021eafd5081cf129ba2af16cb5d49fbade44f102740d4&amp;visualizacao=1&amp;id_orgao_acesso_externo=0" xr:uid="{93A5AC1D-1ECD-D542-B23E-B63CEFC59AA1}"/>
-    <hyperlink ref="C17" r:id="rId9" display="https://sei.capes.gov.br/sei/controlador_externo.php?acao=documento_conferir&amp;codigo_verificador=0339325&amp;codigo_crc=499CC556&amp;hash_download=877c0950a7536647184dd1e3a1c9414d0995405e078be7824fe7258b89e6db6fe8b07ef4f2ec02b91da337bd1d653374c718f6617aa4414ac6548e63aeee0c66&amp;visualizacao=1&amp;id_orgao_acesso_externo=0" xr:uid="{6FC038AD-2D31-FD43-AB00-749DDE76B733}"/>
-    <hyperlink ref="C10" r:id="rId10" display="https://sei.capes.gov.br/sei/controlador_externo.php?acao=documento_conferir&amp;codigo_verificador=1604656&amp;codigo_crc=3876C0B0&amp;hash_download=17f26cc19c93d5cc93be2d0f7491d9c7523c30e3d7bae0d0961cbb5add014aa3d640ee0f2797947fe37116df2d11ed1264bade2249d647e09080fae8594b7e97&amp;visualizacao=1&amp;id_orgao_acesso_externo=0" xr:uid="{BE20119B-2DC3-604F-858B-F8B3B465C6A5}"/>
-    <hyperlink ref="C5" r:id="rId11" xr:uid="{8A1ADAC6-9AA9-F74E-81A5-558BD0B6AE8E}"/>
-    <hyperlink ref="C3" r:id="rId12" xr:uid="{7DEE1662-6085-6048-A1C7-DF7B04B5FADD}"/>
-    <hyperlink ref="C4" r:id="rId13" xr:uid="{7F5C11A0-076A-634E-8B00-FC1902655798}"/>
-    <hyperlink ref="C6" r:id="rId14" xr:uid="{6944FE21-1C9C-B94D-81F5-1BE2E1F176FE}"/>
-    <hyperlink ref="C13" r:id="rId15" xr:uid="{D55FC383-6BB1-2A40-A0A7-C3C5ABD4E3D4}"/>
-    <hyperlink ref="C9" r:id="rId16" xr:uid="{EDE1F38C-D6D5-904B-81E7-5C17BD574614}"/>
-    <hyperlink ref="C16" r:id="rId17" xr:uid="{2924B1AE-6C7A-AF49-8876-BA5D606E8B92}"/>
-    <hyperlink ref="C19" r:id="rId18" xr:uid="{6A018B38-6AC6-7541-A415-8E16D447DB38}"/>
-    <hyperlink ref="C18" r:id="rId19" xr:uid="{18EE8016-E6DE-D648-ACA7-63DD117F2DA2}"/>
-    <hyperlink ref="C2" r:id="rId20" xr:uid="{56994366-5984-1C40-BBD4-436A7D3ECDA2}"/>
+    <hyperlink ref="C15" r:id="rId1" xr:uid="{CFDB1A8B-BF62-D246-9D7A-DB8C40CEF4B0}"/>
+    <hyperlink ref="C16" r:id="rId2" xr:uid="{B927918F-7565-E542-B802-C6455BEC1726}"/>
+    <hyperlink ref="C21" r:id="rId3" location="anchor" xr:uid="{C4BED215-1CC6-5946-90A3-16810EF37D52}"/>
+    <hyperlink ref="C22" r:id="rId4" xr:uid="{2392AA86-0182-A541-A1BE-117DBA331788}"/>
+    <hyperlink ref="C9" r:id="rId5" xr:uid="{D0F7BA5B-9F0E-C041-A414-C338681AC4D9}"/>
+    <hyperlink ref="C12" r:id="rId6" xr:uid="{5D6B074E-AF30-E249-83E0-5E3312A3270E}"/>
+    <hyperlink ref="C8" r:id="rId7" xr:uid="{C8363C0D-FEB4-FC4C-85EC-82E5E8CF621A}"/>
+    <hyperlink ref="C13" r:id="rId8" display="https://sei.capes.gov.br/sei/controlador_externo.php?acao=documento_conferir&amp;codigo_verificador=1122002&amp;codigo_crc=289939CB&amp;hash_download=449b3b0fc962c24d73fdabf1d13929e9016def4302529547c91b7327cb18bab31821b9633c211abb41d021eafd5081cf129ba2af16cb5d49fbade44f102740d4&amp;visualizacao=1&amp;id_orgao_acesso_externo=0" xr:uid="{93A5AC1D-1ECD-D542-B23E-B63CEFC59AA1}"/>
+    <hyperlink ref="C18" r:id="rId9" display="https://sei.capes.gov.br/sei/controlador_externo.php?acao=documento_conferir&amp;codigo_verificador=0339325&amp;codigo_crc=499CC556&amp;hash_download=877c0950a7536647184dd1e3a1c9414d0995405e078be7824fe7258b89e6db6fe8b07ef4f2ec02b91da337bd1d653374c718f6617aa4414ac6548e63aeee0c66&amp;visualizacao=1&amp;id_orgao_acesso_externo=0" xr:uid="{6FC038AD-2D31-FD43-AB00-749DDE76B733}"/>
+    <hyperlink ref="C11" r:id="rId10" display="https://sei.capes.gov.br/sei/controlador_externo.php?acao=documento_conferir&amp;codigo_verificador=1604656&amp;codigo_crc=3876C0B0&amp;hash_download=17f26cc19c93d5cc93be2d0f7491d9c7523c30e3d7bae0d0961cbb5add014aa3d640ee0f2797947fe37116df2d11ed1264bade2249d647e09080fae8594b7e97&amp;visualizacao=1&amp;id_orgao_acesso_externo=0" xr:uid="{BE20119B-2DC3-604F-858B-F8B3B465C6A5}"/>
+    <hyperlink ref="C6" r:id="rId11" xr:uid="{8A1ADAC6-9AA9-F74E-81A5-558BD0B6AE8E}"/>
+    <hyperlink ref="C4" r:id="rId12" xr:uid="{7DEE1662-6085-6048-A1C7-DF7B04B5FADD}"/>
+    <hyperlink ref="C5" r:id="rId13" xr:uid="{7F5C11A0-076A-634E-8B00-FC1902655798}"/>
+    <hyperlink ref="C7" r:id="rId14" xr:uid="{6944FE21-1C9C-B94D-81F5-1BE2E1F176FE}"/>
+    <hyperlink ref="C14" r:id="rId15" xr:uid="{D55FC383-6BB1-2A40-A0A7-C3C5ABD4E3D4}"/>
+    <hyperlink ref="C10" r:id="rId16" xr:uid="{EDE1F38C-D6D5-904B-81E7-5C17BD574614}"/>
+    <hyperlink ref="C17" r:id="rId17" xr:uid="{2924B1AE-6C7A-AF49-8876-BA5D606E8B92}"/>
+    <hyperlink ref="C20" r:id="rId18" xr:uid="{6A018B38-6AC6-7541-A415-8E16D447DB38}"/>
+    <hyperlink ref="C19" r:id="rId19" xr:uid="{18EE8016-E6DE-D648-ACA7-63DD117F2DA2}"/>
+    <hyperlink ref="C3" r:id="rId20" xr:uid="{56994366-5984-1C40-BBD4-436A7D3ECDA2}"/>
+    <hyperlink ref="C2" r:id="rId21" location="anchor" xr:uid="{71838580-F419-0849-815A-7C00172C9307}"/>
   </hyperlinks>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>

--- a/docs/PPG/Bolsas.xlsx
+++ b/docs/PPG/Bolsas.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10309"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10526"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/asferreira/Google Drive (arthur_sf@icloud.com)/Observatorios/ObservatorioUNISUAM-CR/PPG/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{91CDCB7C-08F6-DE4F-AAF1-0B2AC2B28F79}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{13BC8B9E-0BA6-7945-AF53-0E7E10A9C9EF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="900" yWindow="500" windowWidth="27900" windowHeight="17500" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="167" uniqueCount="138">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="173" uniqueCount="143">
   <si>
     <t>Portaria nº 123 de 01 de agosto de 2013</t>
   </si>
@@ -452,15 +452,37 @@
   </si>
   <si>
     <t>https://cad.capes.gov.br/ato-administrativo-detalhar?idAtoAdmElastic=17603#anchor</t>
+  </si>
+  <si>
+    <t>Portaria CAPES Nº 154, DE 12 DE JUNHO DE 2025 - Altera o anexo à Portaria nº 076, de 14 de abril de 2010 - Regulamento do Programa de Demanda Social</t>
+  </si>
+  <si>
+    <t>12/06/2025</t>
+  </si>
+  <si>
+    <t>https://www.gov.br/capes/pt-br/centrais-de-conteudo/documentos/copy_of_Portaria_2618741_SEI_2617493_Portaria_GAB_154.pdf</t>
+  </si>
+  <si>
+    <t>Portaria CAPES Nº 155, DE 12 DE JUNHO DE 2025 - Altera o anexo à Portaria nº 181, de 18 de dezembro de 2012 - Regulamento do Programa de Suporte à Pós-Graduação de Instituições de Ensino Superior Particulares - PROSUP</t>
+  </si>
+  <si>
+    <t>https://abmes.org.br/arquivos/legislacoes/Portaria-capes-155-2025-06-12.pdf</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="24" x14ac:knownFonts="1">
+  <fonts count="25" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -649,127 +671,133 @@
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="55">
+  <cellXfs count="57">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="1"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="2"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="2" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="49" fontId="22" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="2"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="2" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="49" fontId="23" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="49" fontId="19" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="2" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="49" fontId="18" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="2" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="17" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="49" fontId="22" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="23" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
+    <xf numFmtId="49" fontId="16" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="2" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="17" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="49" fontId="15" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="2" applyAlignment="1">
+    <xf numFmtId="49" fontId="20" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="49" fontId="16" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="14" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="2" applyFill="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="19" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="2" applyFill="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="49" fontId="14" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="49" fontId="13" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="49" fontId="12" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="49" fontId="11" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="12" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="10" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="49" fontId="21" fillId="0" borderId="0" xfId="1" applyNumberFormat="1"/>
-    <xf numFmtId="49" fontId="9" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="11" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="49" fontId="22" fillId="0" borderId="0" xfId="1" applyNumberFormat="1"/>
+    <xf numFmtId="49" fontId="10" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="8" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="49" fontId="22" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="9" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="49" fontId="23" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="14" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="9" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="19" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="15" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="10" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="20" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="top"/>
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
@@ -1393,7 +1421,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BE69CE70-DFA3-5E49-A523-CFA0DDA93B5C}">
-  <dimension ref="A1:C22"/>
+  <dimension ref="A1:C24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1416,260 +1444,284 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:3" s="54" customFormat="1" ht="68" x14ac:dyDescent="0.2">
-      <c r="A2" s="53" t="s">
+    <row r="2" spans="1:3" s="56" customFormat="1" ht="34" x14ac:dyDescent="0.2">
+      <c r="A2" s="55" t="s">
+        <v>139</v>
+      </c>
+      <c r="B2" s="56" t="s">
+        <v>141</v>
+      </c>
+      <c r="C2" s="16" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" s="56" customFormat="1" ht="34" x14ac:dyDescent="0.2">
+      <c r="A3" s="55" t="s">
+        <v>139</v>
+      </c>
+      <c r="B3" s="56" t="s">
+        <v>138</v>
+      </c>
+      <c r="C3" s="16" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" s="54" customFormat="1" ht="68" x14ac:dyDescent="0.2">
+      <c r="A4" s="53" t="s">
         <v>135</v>
       </c>
-      <c r="B2" s="54" t="s">
+      <c r="B4" s="54" t="s">
         <v>136</v>
       </c>
-      <c r="C2" s="16" t="s">
+      <c r="C4" s="16" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="17" x14ac:dyDescent="0.2">
-      <c r="A3" s="52" t="s">
+    <row r="5" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="A5" s="52" t="s">
         <v>133</v>
       </c>
-      <c r="B3" s="51" t="s">
+      <c r="B5" s="51" t="s">
         <v>132</v>
       </c>
-      <c r="C3" s="24" t="s">
+      <c r="C5" s="24" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="17" x14ac:dyDescent="0.2">
-      <c r="A4" s="39" t="s">
+    <row r="6" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="A6" s="39" t="s">
         <v>118</v>
       </c>
-      <c r="B4" s="40" t="s">
+      <c r="B6" s="40" t="s">
         <v>117</v>
       </c>
-      <c r="C4" s="24" t="s">
+      <c r="C6" s="24" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="5" spans="1:3" ht="68" x14ac:dyDescent="0.2">
-      <c r="A5" s="39" t="s">
+    <row r="7" spans="1:3" ht="68" x14ac:dyDescent="0.2">
+      <c r="A7" s="39" t="s">
         <v>118</v>
       </c>
-      <c r="B5" s="40" t="s">
+      <c r="B7" s="40" t="s">
         <v>120</v>
       </c>
-      <c r="C5" s="24" t="s">
+      <c r="C7" s="24" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="6" spans="1:3" ht="17" x14ac:dyDescent="0.2">
-      <c r="A6" s="41" t="s">
+    <row r="8" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="A8" s="41" t="s">
         <v>116</v>
       </c>
-      <c r="B6" s="42" t="s">
+      <c r="B8" s="42" t="s">
         <v>114</v>
       </c>
-      <c r="C6" s="24" t="s">
+      <c r="C8" s="24" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="7" spans="1:3" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="6" t="s">
+    <row r="9" spans="1:3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="B7" s="7" t="s">
+      <c r="B9" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="C7" s="8" t="s">
+      <c r="C9" s="8" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="8" spans="1:3" ht="17" x14ac:dyDescent="0.2">
-      <c r="A8" s="43" t="s">
+    <row r="10" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="A10" s="43" t="s">
         <v>59</v>
       </c>
-      <c r="B8" s="20" t="s">
+      <c r="B10" s="20" t="s">
         <v>64</v>
       </c>
-      <c r="C8" s="16" t="s">
+      <c r="C10" s="16" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="9" spans="1:3" ht="17" x14ac:dyDescent="0.2">
-      <c r="A9" s="43" t="s">
+    <row r="11" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="A11" s="43" t="s">
         <v>56</v>
       </c>
-      <c r="B9" s="20" t="s">
+      <c r="B11" s="20" t="s">
         <v>63</v>
       </c>
-      <c r="C9" s="16" t="s">
+      <c r="C11" s="16" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="10" spans="1:3" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="6" t="s">
+    <row r="12" spans="1:3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="B10" s="7" t="s">
+      <c r="B12" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="C10" s="8" t="s">
+      <c r="C12" s="8" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="11" spans="1:3" ht="17" x14ac:dyDescent="0.2">
-      <c r="A11" s="44" t="s">
+    <row r="13" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="A13" s="44" t="s">
         <v>102</v>
       </c>
-      <c r="B11" s="35" t="s">
+      <c r="B13" s="35" t="s">
         <v>103</v>
       </c>
-      <c r="C11" s="16" t="s">
+      <c r="C13" s="16" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="12" spans="1:3" ht="17" x14ac:dyDescent="0.2">
-      <c r="A12" s="43" t="s">
+    <row r="14" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="A14" s="43" t="s">
         <v>58</v>
       </c>
-      <c r="B12" s="20" t="s">
+      <c r="B14" s="20" t="s">
         <v>62</v>
       </c>
-      <c r="C12" s="16" t="s">
+      <c r="C14" s="16" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="13" spans="1:3" ht="17" x14ac:dyDescent="0.2">
-      <c r="A13" s="43" t="s">
+    <row r="15" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="A15" s="43" t="s">
         <v>66</v>
       </c>
-      <c r="B13" s="20" t="s">
+      <c r="B15" s="20" t="s">
         <v>65</v>
       </c>
-      <c r="C13" s="16" t="s">
+      <c r="C15" s="16" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="14" spans="1:3" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="6" t="s">
+    <row r="16" spans="1:3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="B14" s="7" t="s">
+      <c r="B16" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="C14" s="8" t="s">
+      <c r="C16" s="8" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="15" spans="1:3" ht="17" x14ac:dyDescent="0.2">
-      <c r="A15" s="45" t="s">
+    <row r="17" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="A17" s="45" t="s">
         <v>18</v>
       </c>
-      <c r="B15" s="46" t="s">
+      <c r="B17" s="46" t="s">
         <v>11</v>
       </c>
-      <c r="C15" s="16" t="s">
+      <c r="C17" s="16" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="16" spans="1:3" ht="17" x14ac:dyDescent="0.2">
-      <c r="A16" s="45" t="s">
+    <row r="18" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="A18" s="45" t="s">
         <v>18</v>
       </c>
-      <c r="B16" s="46" t="s">
+      <c r="B18" s="46" t="s">
         <v>12</v>
       </c>
-      <c r="C16" s="16" t="s">
+      <c r="C18" s="16" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="17" spans="1:3" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="9" t="s">
+    <row r="19" spans="1:3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A19" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="B17" s="7" t="s">
+      <c r="B19" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="C17" s="2" t="s">
+      <c r="C19" s="2" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="18" spans="1:3" ht="17" x14ac:dyDescent="0.2">
-      <c r="A18" s="44" t="s">
+    <row r="20" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="A20" s="44" t="s">
         <v>100</v>
       </c>
-      <c r="B18" s="35" t="s">
+      <c r="B20" s="35" t="s">
         <v>101</v>
       </c>
-      <c r="C18" s="16" t="s">
+      <c r="C20" s="16" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="19" spans="1:3" s="25" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="47" t="s">
+    <row r="21" spans="1:3" s="25" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A21" s="47" t="s">
         <v>26</v>
       </c>
-      <c r="B19" s="48" t="s">
+      <c r="B21" s="48" t="s">
         <v>124</v>
       </c>
-      <c r="C19" s="2" t="s">
+      <c r="C21" s="2" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="20" spans="1:3" s="25" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="47" t="s">
+    <row r="22" spans="1:3" s="25" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A22" s="47" t="s">
         <v>122</v>
       </c>
-      <c r="B20" s="48" t="s">
+      <c r="B22" s="48" t="s">
         <v>124</v>
       </c>
-      <c r="C20" s="2" t="s">
+      <c r="C22" s="2" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="21" spans="1:3" ht="17" x14ac:dyDescent="0.2">
-      <c r="A21" s="45" t="s">
+    <row r="23" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="A23" s="45" t="s">
         <v>20</v>
       </c>
-      <c r="B21" s="40" t="s">
+      <c r="B23" s="40" t="s">
         <v>37</v>
       </c>
-      <c r="C21" s="16" t="s">
+      <c r="C23" s="16" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="22" spans="1:3" ht="17" x14ac:dyDescent="0.2">
-      <c r="A22" s="45" t="s">
+    <row r="24" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="A24" s="45" t="s">
         <v>20</v>
       </c>
-      <c r="B22" s="46" t="s">
+      <c r="B24" s="46" t="s">
         <v>15</v>
       </c>
-      <c r="C22" s="16" t="s">
+      <c r="C24" s="16" t="s">
         <v>16</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C15" r:id="rId1" xr:uid="{CFDB1A8B-BF62-D246-9D7A-DB8C40CEF4B0}"/>
-    <hyperlink ref="C16" r:id="rId2" xr:uid="{B927918F-7565-E542-B802-C6455BEC1726}"/>
-    <hyperlink ref="C21" r:id="rId3" location="anchor" xr:uid="{C4BED215-1CC6-5946-90A3-16810EF37D52}"/>
-    <hyperlink ref="C22" r:id="rId4" xr:uid="{2392AA86-0182-A541-A1BE-117DBA331788}"/>
-    <hyperlink ref="C9" r:id="rId5" xr:uid="{D0F7BA5B-9F0E-C041-A414-C338681AC4D9}"/>
-    <hyperlink ref="C12" r:id="rId6" xr:uid="{5D6B074E-AF30-E249-83E0-5E3312A3270E}"/>
-    <hyperlink ref="C8" r:id="rId7" xr:uid="{C8363C0D-FEB4-FC4C-85EC-82E5E8CF621A}"/>
-    <hyperlink ref="C13" r:id="rId8" display="https://sei.capes.gov.br/sei/controlador_externo.php?acao=documento_conferir&amp;codigo_verificador=1122002&amp;codigo_crc=289939CB&amp;hash_download=449b3b0fc962c24d73fdabf1d13929e9016def4302529547c91b7327cb18bab31821b9633c211abb41d021eafd5081cf129ba2af16cb5d49fbade44f102740d4&amp;visualizacao=1&amp;id_orgao_acesso_externo=0" xr:uid="{93A5AC1D-1ECD-D542-B23E-B63CEFC59AA1}"/>
-    <hyperlink ref="C18" r:id="rId9" display="https://sei.capes.gov.br/sei/controlador_externo.php?acao=documento_conferir&amp;codigo_verificador=0339325&amp;codigo_crc=499CC556&amp;hash_download=877c0950a7536647184dd1e3a1c9414d0995405e078be7824fe7258b89e6db6fe8b07ef4f2ec02b91da337bd1d653374c718f6617aa4414ac6548e63aeee0c66&amp;visualizacao=1&amp;id_orgao_acesso_externo=0" xr:uid="{6FC038AD-2D31-FD43-AB00-749DDE76B733}"/>
-    <hyperlink ref="C11" r:id="rId10" display="https://sei.capes.gov.br/sei/controlador_externo.php?acao=documento_conferir&amp;codigo_verificador=1604656&amp;codigo_crc=3876C0B0&amp;hash_download=17f26cc19c93d5cc93be2d0f7491d9c7523c30e3d7bae0d0961cbb5add014aa3d640ee0f2797947fe37116df2d11ed1264bade2249d647e09080fae8594b7e97&amp;visualizacao=1&amp;id_orgao_acesso_externo=0" xr:uid="{BE20119B-2DC3-604F-858B-F8B3B465C6A5}"/>
-    <hyperlink ref="C6" r:id="rId11" xr:uid="{8A1ADAC6-9AA9-F74E-81A5-558BD0B6AE8E}"/>
-    <hyperlink ref="C4" r:id="rId12" xr:uid="{7DEE1662-6085-6048-A1C7-DF7B04B5FADD}"/>
-    <hyperlink ref="C5" r:id="rId13" xr:uid="{7F5C11A0-076A-634E-8B00-FC1902655798}"/>
-    <hyperlink ref="C7" r:id="rId14" xr:uid="{6944FE21-1C9C-B94D-81F5-1BE2E1F176FE}"/>
-    <hyperlink ref="C14" r:id="rId15" xr:uid="{D55FC383-6BB1-2A40-A0A7-C3C5ABD4E3D4}"/>
-    <hyperlink ref="C10" r:id="rId16" xr:uid="{EDE1F38C-D6D5-904B-81E7-5C17BD574614}"/>
-    <hyperlink ref="C17" r:id="rId17" xr:uid="{2924B1AE-6C7A-AF49-8876-BA5D606E8B92}"/>
-    <hyperlink ref="C20" r:id="rId18" xr:uid="{6A018B38-6AC6-7541-A415-8E16D447DB38}"/>
-    <hyperlink ref="C19" r:id="rId19" xr:uid="{18EE8016-E6DE-D648-ACA7-63DD117F2DA2}"/>
-    <hyperlink ref="C3" r:id="rId20" xr:uid="{56994366-5984-1C40-BBD4-436A7D3ECDA2}"/>
-    <hyperlink ref="C2" r:id="rId21" location="anchor" xr:uid="{71838580-F419-0849-815A-7C00172C9307}"/>
+    <hyperlink ref="C17" r:id="rId1" xr:uid="{CFDB1A8B-BF62-D246-9D7A-DB8C40CEF4B0}"/>
+    <hyperlink ref="C18" r:id="rId2" xr:uid="{B927918F-7565-E542-B802-C6455BEC1726}"/>
+    <hyperlink ref="C23" r:id="rId3" location="anchor" xr:uid="{C4BED215-1CC6-5946-90A3-16810EF37D52}"/>
+    <hyperlink ref="C24" r:id="rId4" xr:uid="{2392AA86-0182-A541-A1BE-117DBA331788}"/>
+    <hyperlink ref="C11" r:id="rId5" xr:uid="{D0F7BA5B-9F0E-C041-A414-C338681AC4D9}"/>
+    <hyperlink ref="C14" r:id="rId6" xr:uid="{5D6B074E-AF30-E249-83E0-5E3312A3270E}"/>
+    <hyperlink ref="C10" r:id="rId7" xr:uid="{C8363C0D-FEB4-FC4C-85EC-82E5E8CF621A}"/>
+    <hyperlink ref="C15" r:id="rId8" display="https://sei.capes.gov.br/sei/controlador_externo.php?acao=documento_conferir&amp;codigo_verificador=1122002&amp;codigo_crc=289939CB&amp;hash_download=449b3b0fc962c24d73fdabf1d13929e9016def4302529547c91b7327cb18bab31821b9633c211abb41d021eafd5081cf129ba2af16cb5d49fbade44f102740d4&amp;visualizacao=1&amp;id_orgao_acesso_externo=0" xr:uid="{93A5AC1D-1ECD-D542-B23E-B63CEFC59AA1}"/>
+    <hyperlink ref="C20" r:id="rId9" display="https://sei.capes.gov.br/sei/controlador_externo.php?acao=documento_conferir&amp;codigo_verificador=0339325&amp;codigo_crc=499CC556&amp;hash_download=877c0950a7536647184dd1e3a1c9414d0995405e078be7824fe7258b89e6db6fe8b07ef4f2ec02b91da337bd1d653374c718f6617aa4414ac6548e63aeee0c66&amp;visualizacao=1&amp;id_orgao_acesso_externo=0" xr:uid="{6FC038AD-2D31-FD43-AB00-749DDE76B733}"/>
+    <hyperlink ref="C13" r:id="rId10" display="https://sei.capes.gov.br/sei/controlador_externo.php?acao=documento_conferir&amp;codigo_verificador=1604656&amp;codigo_crc=3876C0B0&amp;hash_download=17f26cc19c93d5cc93be2d0f7491d9c7523c30e3d7bae0d0961cbb5add014aa3d640ee0f2797947fe37116df2d11ed1264bade2249d647e09080fae8594b7e97&amp;visualizacao=1&amp;id_orgao_acesso_externo=0" xr:uid="{BE20119B-2DC3-604F-858B-F8B3B465C6A5}"/>
+    <hyperlink ref="C8" r:id="rId11" xr:uid="{8A1ADAC6-9AA9-F74E-81A5-558BD0B6AE8E}"/>
+    <hyperlink ref="C6" r:id="rId12" xr:uid="{7DEE1662-6085-6048-A1C7-DF7B04B5FADD}"/>
+    <hyperlink ref="C7" r:id="rId13" xr:uid="{7F5C11A0-076A-634E-8B00-FC1902655798}"/>
+    <hyperlink ref="C9" r:id="rId14" xr:uid="{6944FE21-1C9C-B94D-81F5-1BE2E1F176FE}"/>
+    <hyperlink ref="C16" r:id="rId15" xr:uid="{D55FC383-6BB1-2A40-A0A7-C3C5ABD4E3D4}"/>
+    <hyperlink ref="C12" r:id="rId16" xr:uid="{EDE1F38C-D6D5-904B-81E7-5C17BD574614}"/>
+    <hyperlink ref="C19" r:id="rId17" xr:uid="{2924B1AE-6C7A-AF49-8876-BA5D606E8B92}"/>
+    <hyperlink ref="C22" r:id="rId18" xr:uid="{6A018B38-6AC6-7541-A415-8E16D447DB38}"/>
+    <hyperlink ref="C21" r:id="rId19" xr:uid="{18EE8016-E6DE-D648-ACA7-63DD117F2DA2}"/>
+    <hyperlink ref="C5" r:id="rId20" xr:uid="{56994366-5984-1C40-BBD4-436A7D3ECDA2}"/>
+    <hyperlink ref="C4" r:id="rId21" location="anchor" xr:uid="{71838580-F419-0849-815A-7C00172C9307}"/>
+    <hyperlink ref="C3" r:id="rId22" xr:uid="{A5501423-474A-654A-8AB7-E3C85724D7CD}"/>
+    <hyperlink ref="C2" r:id="rId23" xr:uid="{2B3EFA27-27D0-354C-84F7-8E92F116C152}"/>
   </hyperlinks>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>

--- a/docs/PPG/Bolsas.xlsx
+++ b/docs/PPG/Bolsas.xlsx
@@ -1,19 +1,19 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10526"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10608"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/asferreira/Google Drive (arthur_sf@icloud.com)/Observatorios/ObservatorioUNISUAM-CR/PPG/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{13BC8B9E-0BA6-7945-AF53-0E7E10A9C9EF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{215CA8F1-E842-E740-8C5A-A0CA4A434C7F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="900" yWindow="500" windowWidth="27900" windowHeight="17500" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="900" yWindow="500" windowWidth="27900" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="IES" sheetId="9" r:id="rId1"/>
+    <sheet name="UNISUAM" sheetId="9" r:id="rId1"/>
     <sheet name="CNPq" sheetId="16" r:id="rId2"/>
     <sheet name="CAPES" sheetId="12" r:id="rId3"/>
     <sheet name="PROSUP" sheetId="10" r:id="rId4"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="173" uniqueCount="143">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="176" uniqueCount="146">
   <si>
     <t>Portaria nº 123 de 01 de agosto de 2013</t>
   </si>
@@ -467,15 +467,31 @@
   </si>
   <si>
     <t>https://abmes.org.br/arquivos/legislacoes/Portaria-capes-155-2025-06-12.pdf</t>
+  </si>
+  <si>
+    <t>19/05/2025</t>
+  </si>
+  <si>
+    <t>Portaria nº 83 de 19 de maio de 2025</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1vp2GxEc9guSuGIlMivgjm6atybaYh4iC</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="25" x14ac:knownFonts="1">
+  <fonts count="26" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -671,140 +687,165 @@
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="57">
+  <cellXfs count="66">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="1"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="2"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="2" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="49" fontId="23" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="2"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="2" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="49" fontId="24" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="49" fontId="20" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="2" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="49" fontId="19" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="2" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="18" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="49" fontId="23" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="24" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
+    <xf numFmtId="49" fontId="17" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="2" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="18" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="49" fontId="16" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="2" applyAlignment="1">
+    <xf numFmtId="49" fontId="21" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="49" fontId="17" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="15" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="20" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="2" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="2" applyFill="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="49" fontId="15" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="49" fontId="14" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="49" fontId="13" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="49" fontId="12" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="13" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="11" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="49" fontId="22" fillId="0" borderId="0" xfId="1" applyNumberFormat="1"/>
-    <xf numFmtId="49" fontId="10" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="12" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="49" fontId="23" fillId="0" borderId="0" xfId="1" applyNumberFormat="1"/>
+    <xf numFmtId="49" fontId="11" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="9" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="49" fontId="23" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="10" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="49" fontId="24" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="7" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="8" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="15" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="16" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="10" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="11" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="20" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="21" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="top"/>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -1088,13 +1129,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4D2A2F26-1678-FA4E-B9F8-88F4FD843D40}">
-  <dimension ref="A1:C6"/>
+  <dimension ref="A1:C7"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="18" style="33" customWidth="1"/>
+    <col min="1" max="1" width="18" style="32" customWidth="1"/>
     <col min="2" max="2" width="43" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="77.5" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="16384" width="10.83203125" style="1"/>
@@ -1112,67 +1153,79 @@
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A2" s="36" t="s">
+      <c r="A2" s="52" t="s">
+        <v>143</v>
+      </c>
+      <c r="B2" s="53" t="s">
+        <v>144</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A3" s="35" t="s">
         <v>111</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B3" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="C3" s="3" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A3" s="36" t="s">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A4" s="35" t="s">
         <v>112</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="B4" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="C4" s="2" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A4" s="31" t="s">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A5" s="30" t="s">
         <v>94</v>
       </c>
-      <c r="B4" s="32" t="s">
+      <c r="B5" s="31" t="s">
         <v>95</v>
       </c>
-      <c r="C4" s="3" t="s">
+      <c r="C5" s="3" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A5" s="33">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A6" s="32">
         <v>2014</v>
       </c>
-      <c r="B5" s="32" t="s">
+      <c r="B6" s="31" t="s">
         <v>96</v>
       </c>
-      <c r="C5" s="2" t="s">
+      <c r="C6" s="2" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A6" s="36" t="s">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A7" s="35" t="s">
         <v>113</v>
       </c>
-      <c r="B6" s="1" t="s">
+      <c r="B7" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C6" s="2" t="s">
+      <c r="C7" s="2" t="s">
         <v>8</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C2" r:id="rId1" xr:uid="{DAFF28A2-3D16-B846-AC00-04249F628951}"/>
-    <hyperlink ref="C3" r:id="rId2" xr:uid="{233C7167-F13E-DD44-874D-863A4362D865}"/>
-    <hyperlink ref="C6" r:id="rId3" xr:uid="{D84B1959-9D47-A046-BBB7-4A0FF67F3C0C}"/>
-    <hyperlink ref="C4" r:id="rId4" xr:uid="{9ECAA008-1919-6444-B35E-B47FFDD29A33}"/>
-    <hyperlink ref="C5" r:id="rId5" xr:uid="{98E8195E-3352-1C4E-95D0-987970B70781}"/>
+    <hyperlink ref="C3" r:id="rId1" xr:uid="{DAFF28A2-3D16-B846-AC00-04249F628951}"/>
+    <hyperlink ref="C4" r:id="rId2" xr:uid="{233C7167-F13E-DD44-874D-863A4362D865}"/>
+    <hyperlink ref="C7" r:id="rId3" xr:uid="{D84B1959-9D47-A046-BBB7-4A0FF67F3C0C}"/>
+    <hyperlink ref="C5" r:id="rId4" xr:uid="{9ECAA008-1919-6444-B35E-B47FFDD29A33}"/>
+    <hyperlink ref="C6" r:id="rId5" xr:uid="{98E8195E-3352-1C4E-95D0-987970B70781}"/>
+    <hyperlink ref="C2" r:id="rId6" xr:uid="{1A4A31FF-545E-B542-9A3D-97E4C923FCD4}"/>
   </hyperlinks>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>
@@ -1190,24 +1243,24 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="17" x14ac:dyDescent="0.2">
-      <c r="A1" s="10" t="s">
+      <c r="A1" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="B1" s="11" t="s">
+      <c r="B1" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="C1" s="12" t="s">
+      <c r="C1" s="11" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="34" x14ac:dyDescent="0.2">
-      <c r="A2" s="50" t="s">
+      <c r="A2" s="46" t="s">
         <v>131</v>
       </c>
-      <c r="B2" s="49" t="s">
+      <c r="B2" s="45" t="s">
         <v>130</v>
       </c>
-      <c r="C2" s="16" t="s">
+      <c r="C2" s="15" t="s">
         <v>129</v>
       </c>
     </row>
@@ -1227,174 +1280,174 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="10.83203125" style="13"/>
-    <col min="2" max="2" width="168.83203125" style="23" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="72.5" style="13" bestFit="1" customWidth="1"/>
-    <col min="4" max="16384" width="10.83203125" style="13"/>
+    <col min="1" max="1" width="10.83203125" style="12"/>
+    <col min="2" max="2" width="168.83203125" style="22" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="72.5" style="12" bestFit="1" customWidth="1"/>
+    <col min="4" max="16384" width="10.83203125" style="12"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="17" x14ac:dyDescent="0.2">
-      <c r="A1" s="10" t="s">
+      <c r="A1" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="B1" s="11" t="s">
+      <c r="B1" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="C1" s="12" t="s">
+      <c r="C1" s="11" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="34" x14ac:dyDescent="0.2">
-      <c r="A2" s="14" t="s">
+      <c r="A2" s="13" t="s">
         <v>35</v>
       </c>
-      <c r="B2" s="15" t="s">
+      <c r="B2" s="14" t="s">
         <v>33</v>
       </c>
-      <c r="C2" s="16" t="s">
+      <c r="C2" s="15" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="17" x14ac:dyDescent="0.2">
-      <c r="A3" s="17" t="s">
+      <c r="A3" s="16" t="s">
         <v>30</v>
       </c>
-      <c r="B3" s="18" t="s">
+      <c r="B3" s="17" t="s">
         <v>31</v>
       </c>
-      <c r="C3" s="16" t="s">
+      <c r="C3" s="15" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="51" x14ac:dyDescent="0.2">
-      <c r="A4" s="34" t="s">
+      <c r="A4" s="33" t="s">
         <v>107</v>
       </c>
-      <c r="B4" s="35" t="s">
+      <c r="B4" s="34" t="s">
         <v>108</v>
       </c>
-      <c r="C4" s="16" t="s">
+      <c r="C4" s="15" t="s">
         <v>109</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="34" x14ac:dyDescent="0.2">
-      <c r="A5" s="19" t="s">
+      <c r="A5" s="18" t="s">
         <v>53</v>
       </c>
-      <c r="B5" s="20" t="s">
+      <c r="B5" s="19" t="s">
         <v>54</v>
       </c>
-      <c r="C5" s="16" t="s">
+      <c r="C5" s="15" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="51" x14ac:dyDescent="0.2">
-      <c r="A6" s="34" t="s">
+      <c r="A6" s="33" t="s">
         <v>105</v>
       </c>
-      <c r="B6" s="35" t="s">
+      <c r="B6" s="34" t="s">
         <v>106</v>
       </c>
-      <c r="C6" s="24" t="s">
+      <c r="C6" s="23" t="s">
         <v>110</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="51" x14ac:dyDescent="0.2">
-      <c r="A7" s="19" t="s">
+      <c r="A7" s="18" t="s">
         <v>43</v>
       </c>
-      <c r="B7" s="20" t="s">
+      <c r="B7" s="19" t="s">
         <v>44</v>
       </c>
-      <c r="C7" s="16" t="s">
+      <c r="C7" s="15" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="17" x14ac:dyDescent="0.2">
-      <c r="A8" s="19" t="s">
+      <c r="A8" s="18" t="s">
         <v>40</v>
       </c>
-      <c r="B8" s="20" t="s">
+      <c r="B8" s="19" t="s">
         <v>38</v>
       </c>
-      <c r="C8" s="16" t="s">
+      <c r="C8" s="15" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="51" x14ac:dyDescent="0.2">
-      <c r="A9" s="19" t="s">
+      <c r="A9" s="18" t="s">
         <v>41</v>
       </c>
-      <c r="B9" s="20" t="s">
+      <c r="B9" s="19" t="s">
         <v>42</v>
       </c>
-      <c r="C9" s="24" t="s">
+      <c r="C9" s="23" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="10" spans="1:3" s="22" customFormat="1" ht="17" x14ac:dyDescent="0.2">
-      <c r="A10" s="21" t="s">
+    <row r="10" spans="1:3" s="21" customFormat="1" ht="17" x14ac:dyDescent="0.2">
+      <c r="A10" s="20" t="s">
         <v>19</v>
       </c>
-      <c r="B10" s="20" t="s">
+      <c r="B10" s="19" t="s">
         <v>36</v>
       </c>
-      <c r="C10" s="16" t="s">
+      <c r="C10" s="15" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="11" spans="1:3" s="22" customFormat="1" ht="17" x14ac:dyDescent="0.2">
-      <c r="A11" s="21" t="s">
+    <row r="11" spans="1:3" s="21" customFormat="1" ht="17" x14ac:dyDescent="0.2">
+      <c r="A11" s="20" t="s">
         <v>20</v>
       </c>
-      <c r="B11" s="20" t="s">
+      <c r="B11" s="19" t="s">
         <v>37</v>
       </c>
-      <c r="C11" s="16" t="s">
+      <c r="C11" s="15" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="12" spans="1:3" s="22" customFormat="1" ht="17" x14ac:dyDescent="0.2">
-      <c r="A12" s="29" t="s">
+    <row r="12" spans="1:3" s="21" customFormat="1" ht="17" x14ac:dyDescent="0.2">
+      <c r="A12" s="28" t="s">
         <v>91</v>
       </c>
-      <c r="B12" s="30" t="s">
+      <c r="B12" s="29" t="s">
         <v>92</v>
       </c>
-      <c r="C12" s="24" t="s">
+      <c r="C12" s="23" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="13" spans="1:3" s="22" customFormat="1" ht="17" x14ac:dyDescent="0.2">
-      <c r="A13" s="19" t="s">
+    <row r="13" spans="1:3" s="21" customFormat="1" ht="17" x14ac:dyDescent="0.2">
+      <c r="A13" s="18" t="s">
         <v>67</v>
       </c>
-      <c r="B13" s="20" t="s">
+      <c r="B13" s="19" t="s">
         <v>68</v>
       </c>
-      <c r="C13" s="16" t="s">
+      <c r="C13" s="15" t="s">
         <v>69</v>
       </c>
     </row>
     <row r="14" spans="1:3" ht="16" x14ac:dyDescent="0.2">
-      <c r="A14" s="19" t="s">
+      <c r="A14" s="18" t="s">
         <v>51</v>
       </c>
-      <c r="B14" s="23" t="s">
+      <c r="B14" s="22" t="s">
         <v>47</v>
       </c>
-      <c r="C14" s="16" t="s">
+      <c r="C14" s="15" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="15" spans="1:3" ht="16" x14ac:dyDescent="0.2">
-      <c r="A15" s="19" t="s">
+      <c r="A15" s="18" t="s">
         <v>52</v>
       </c>
-      <c r="B15" s="23" t="s">
+      <c r="B15" s="22" t="s">
         <v>49</v>
       </c>
-      <c r="C15" s="16" t="s">
+      <c r="C15" s="15" t="s">
         <v>50</v>
       </c>
     </row>
@@ -1423,252 +1476,252 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BE69CE70-DFA3-5E49-A523-CFA0DDA93B5C}">
   <dimension ref="A1:C24"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="10.83203125" style="38" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="124.83203125" style="38" customWidth="1"/>
-    <col min="3" max="3" width="77.5" style="22" bestFit="1" customWidth="1"/>
-    <col min="4" max="16384" width="10.83203125" style="38"/>
+    <col min="1" max="1" width="10.83203125" style="37" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="137.6640625" style="63" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="77.5" style="21" bestFit="1" customWidth="1"/>
+    <col min="4" max="16384" width="10.83203125" style="37"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="17" x14ac:dyDescent="0.2">
-      <c r="A1" s="37" t="s">
+      <c r="A1" s="36" t="s">
         <v>5</v>
       </c>
-      <c r="B1" s="11" t="s">
+      <c r="B1" s="54" t="s">
         <v>4</v>
       </c>
-      <c r="C1" s="12" t="s">
+      <c r="C1" s="11" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:3" s="56" customFormat="1" ht="34" x14ac:dyDescent="0.2">
-      <c r="A2" s="55" t="s">
+    <row r="2" spans="1:3" s="51" customFormat="1" ht="34" x14ac:dyDescent="0.2">
+      <c r="A2" s="50" t="s">
         <v>139</v>
       </c>
-      <c r="B2" s="56" t="s">
+      <c r="B2" s="55" t="s">
         <v>141</v>
       </c>
-      <c r="C2" s="16" t="s">
+      <c r="C2" s="15" t="s">
         <v>142</v>
       </c>
     </row>
-    <row r="3" spans="1:3" s="56" customFormat="1" ht="34" x14ac:dyDescent="0.2">
-      <c r="A3" s="55" t="s">
+    <row r="3" spans="1:3" s="51" customFormat="1" ht="17" x14ac:dyDescent="0.2">
+      <c r="A3" s="50" t="s">
         <v>139</v>
       </c>
-      <c r="B3" s="56" t="s">
+      <c r="B3" s="55" t="s">
         <v>138</v>
       </c>
-      <c r="C3" s="16" t="s">
+      <c r="C3" s="15" t="s">
         <v>140</v>
       </c>
     </row>
-    <row r="4" spans="1:3" s="54" customFormat="1" ht="68" x14ac:dyDescent="0.2">
-      <c r="A4" s="53" t="s">
+    <row r="4" spans="1:3" s="49" customFormat="1" ht="68" x14ac:dyDescent="0.2">
+      <c r="A4" s="48" t="s">
         <v>135</v>
       </c>
-      <c r="B4" s="54" t="s">
+      <c r="B4" s="56" t="s">
         <v>136</v>
       </c>
-      <c r="C4" s="16" t="s">
+      <c r="C4" s="15" t="s">
         <v>137</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="17" x14ac:dyDescent="0.2">
-      <c r="A5" s="52" t="s">
+      <c r="A5" s="47" t="s">
         <v>133</v>
       </c>
-      <c r="B5" s="51" t="s">
+      <c r="B5" s="57" t="s">
         <v>132</v>
       </c>
-      <c r="C5" s="24" t="s">
+      <c r="C5" s="23" t="s">
         <v>134</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="17" x14ac:dyDescent="0.2">
-      <c r="A6" s="39" t="s">
+      <c r="A6" s="38" t="s">
         <v>118</v>
       </c>
-      <c r="B6" s="40" t="s">
+      <c r="B6" s="58" t="s">
         <v>117</v>
       </c>
-      <c r="C6" s="24" t="s">
+      <c r="C6" s="23" t="s">
         <v>119</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="68" x14ac:dyDescent="0.2">
-      <c r="A7" s="39" t="s">
+      <c r="A7" s="38" t="s">
         <v>118</v>
       </c>
-      <c r="B7" s="40" t="s">
+      <c r="B7" s="58" t="s">
         <v>120</v>
       </c>
-      <c r="C7" s="24" t="s">
+      <c r="C7" s="23" t="s">
         <v>121</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="17" x14ac:dyDescent="0.2">
-      <c r="A8" s="41" t="s">
+      <c r="A8" s="39" t="s">
         <v>116</v>
       </c>
-      <c r="B8" s="42" t="s">
+      <c r="B8" s="59" t="s">
         <v>114</v>
       </c>
-      <c r="C8" s="24" t="s">
+      <c r="C8" s="23" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="9" spans="1:3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:3" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="A9" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="B9" s="7" t="s">
+      <c r="B9" s="64" t="s">
         <v>22</v>
       </c>
-      <c r="C9" s="8" t="s">
+      <c r="C9" s="7" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="17" x14ac:dyDescent="0.2">
-      <c r="A10" s="43" t="s">
+      <c r="A10" s="40" t="s">
         <v>59</v>
       </c>
-      <c r="B10" s="20" t="s">
+      <c r="B10" s="60" t="s">
         <v>64</v>
       </c>
-      <c r="C10" s="16" t="s">
+      <c r="C10" s="15" t="s">
         <v>60</v>
       </c>
     </row>
     <row r="11" spans="1:3" ht="17" x14ac:dyDescent="0.2">
-      <c r="A11" s="43" t="s">
+      <c r="A11" s="40" t="s">
         <v>56</v>
       </c>
-      <c r="B11" s="20" t="s">
+      <c r="B11" s="60" t="s">
         <v>63</v>
       </c>
-      <c r="C11" s="16" t="s">
+      <c r="C11" s="15" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="12" spans="1:3" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="6" t="s">
+    <row r="12" spans="1:3" s="24" customFormat="1" ht="17" x14ac:dyDescent="0.2">
+      <c r="A12" s="43" t="s">
         <v>26</v>
       </c>
-      <c r="B12" s="7" t="s">
+      <c r="B12" s="65" t="s">
+        <v>124</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" customFormat="1" ht="17" x14ac:dyDescent="0.2">
+      <c r="A13" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="B13" s="64" t="s">
         <v>22</v>
       </c>
-      <c r="C12" s="8" t="s">
+      <c r="C13" s="7" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="13" spans="1:3" ht="17" x14ac:dyDescent="0.2">
-      <c r="A13" s="44" t="s">
+    <row r="14" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="A14" s="41" t="s">
         <v>102</v>
       </c>
-      <c r="B13" s="35" t="s">
+      <c r="B14" s="61" t="s">
         <v>103</v>
       </c>
-      <c r="C13" s="16" t="s">
+      <c r="C14" s="15" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="14" spans="1:3" ht="17" x14ac:dyDescent="0.2">
-      <c r="A14" s="43" t="s">
+    <row r="15" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="A15" s="40" t="s">
         <v>58</v>
       </c>
-      <c r="B14" s="20" t="s">
+      <c r="B15" s="60" t="s">
         <v>62</v>
       </c>
-      <c r="C14" s="16" t="s">
+      <c r="C15" s="15" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="15" spans="1:3" ht="17" x14ac:dyDescent="0.2">
-      <c r="A15" s="43" t="s">
+    <row r="16" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="A16" s="40" t="s">
         <v>66</v>
       </c>
-      <c r="B15" s="20" t="s">
+      <c r="B16" s="60" t="s">
         <v>65</v>
       </c>
-      <c r="C15" s="16" t="s">
+      <c r="C16" s="15" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="16" spans="1:3" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="6" t="s">
+    <row r="17" spans="1:3" customFormat="1" ht="17" x14ac:dyDescent="0.2">
+      <c r="A17" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="B16" s="7" t="s">
+      <c r="B17" s="64" t="s">
         <v>22</v>
       </c>
-      <c r="C16" s="8" t="s">
+      <c r="C17" s="7" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="17" spans="1:3" ht="17" x14ac:dyDescent="0.2">
-      <c r="A17" s="45" t="s">
+    <row r="18" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="A18" s="42" t="s">
         <v>18</v>
       </c>
-      <c r="B17" s="46" t="s">
+      <c r="B18" s="62" t="s">
         <v>11</v>
       </c>
-      <c r="C17" s="16" t="s">
+      <c r="C18" s="15" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="18" spans="1:3" ht="17" x14ac:dyDescent="0.2">
-      <c r="A18" s="45" t="s">
+    <row r="19" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="A19" s="42" t="s">
         <v>18</v>
       </c>
-      <c r="B18" s="46" t="s">
+      <c r="B19" s="62" t="s">
         <v>12</v>
       </c>
-      <c r="C18" s="16" t="s">
+      <c r="C19" s="15" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="19" spans="1:3" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="9" t="s">
+    <row r="20" spans="1:3" customFormat="1" ht="17" x14ac:dyDescent="0.2">
+      <c r="A20" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="B19" s="7" t="s">
+      <c r="B20" s="64" t="s">
         <v>22</v>
       </c>
-      <c r="C19" s="2" t="s">
+      <c r="C20" s="2" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="20" spans="1:3" ht="17" x14ac:dyDescent="0.2">
-      <c r="A20" s="44" t="s">
+    <row r="21" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="A21" s="41" t="s">
         <v>100</v>
       </c>
-      <c r="B20" s="35" t="s">
+      <c r="B21" s="61" t="s">
         <v>101</v>
       </c>
-      <c r="C20" s="16" t="s">
+      <c r="C21" s="15" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="21" spans="1:3" s="25" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="47" t="s">
-        <v>26</v>
-      </c>
-      <c r="B21" s="48" t="s">
-        <v>124</v>
-      </c>
-      <c r="C21" s="2" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" s="25" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="47" t="s">
+    <row r="22" spans="1:3" s="24" customFormat="1" ht="17" x14ac:dyDescent="0.2">
+      <c r="A22" s="43" t="s">
         <v>122</v>
       </c>
-      <c r="B22" s="48" t="s">
+      <c r="B22" s="65" t="s">
         <v>124</v>
       </c>
       <c r="C22" s="2" t="s">
@@ -1676,48 +1729,48 @@
       </c>
     </row>
     <row r="23" spans="1:3" ht="17" x14ac:dyDescent="0.2">
-      <c r="A23" s="45" t="s">
+      <c r="A23" s="42" t="s">
         <v>20</v>
       </c>
-      <c r="B23" s="40" t="s">
+      <c r="B23" s="58" t="s">
         <v>37</v>
       </c>
-      <c r="C23" s="16" t="s">
+      <c r="C23" s="15" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="24" spans="1:3" ht="17" x14ac:dyDescent="0.2">
-      <c r="A24" s="45" t="s">
+      <c r="A24" s="42" t="s">
         <v>20</v>
       </c>
-      <c r="B24" s="46" t="s">
+      <c r="B24" s="62" t="s">
         <v>15</v>
       </c>
-      <c r="C24" s="16" t="s">
+      <c r="C24" s="15" t="s">
         <v>16</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C17" r:id="rId1" xr:uid="{CFDB1A8B-BF62-D246-9D7A-DB8C40CEF4B0}"/>
-    <hyperlink ref="C18" r:id="rId2" xr:uid="{B927918F-7565-E542-B802-C6455BEC1726}"/>
+    <hyperlink ref="C18" r:id="rId1" xr:uid="{CFDB1A8B-BF62-D246-9D7A-DB8C40CEF4B0}"/>
+    <hyperlink ref="C19" r:id="rId2" xr:uid="{B927918F-7565-E542-B802-C6455BEC1726}"/>
     <hyperlink ref="C23" r:id="rId3" location="anchor" xr:uid="{C4BED215-1CC6-5946-90A3-16810EF37D52}"/>
     <hyperlink ref="C24" r:id="rId4" xr:uid="{2392AA86-0182-A541-A1BE-117DBA331788}"/>
     <hyperlink ref="C11" r:id="rId5" xr:uid="{D0F7BA5B-9F0E-C041-A414-C338681AC4D9}"/>
-    <hyperlink ref="C14" r:id="rId6" xr:uid="{5D6B074E-AF30-E249-83E0-5E3312A3270E}"/>
+    <hyperlink ref="C15" r:id="rId6" xr:uid="{5D6B074E-AF30-E249-83E0-5E3312A3270E}"/>
     <hyperlink ref="C10" r:id="rId7" xr:uid="{C8363C0D-FEB4-FC4C-85EC-82E5E8CF621A}"/>
-    <hyperlink ref="C15" r:id="rId8" display="https://sei.capes.gov.br/sei/controlador_externo.php?acao=documento_conferir&amp;codigo_verificador=1122002&amp;codigo_crc=289939CB&amp;hash_download=449b3b0fc962c24d73fdabf1d13929e9016def4302529547c91b7327cb18bab31821b9633c211abb41d021eafd5081cf129ba2af16cb5d49fbade44f102740d4&amp;visualizacao=1&amp;id_orgao_acesso_externo=0" xr:uid="{93A5AC1D-1ECD-D542-B23E-B63CEFC59AA1}"/>
-    <hyperlink ref="C20" r:id="rId9" display="https://sei.capes.gov.br/sei/controlador_externo.php?acao=documento_conferir&amp;codigo_verificador=0339325&amp;codigo_crc=499CC556&amp;hash_download=877c0950a7536647184dd1e3a1c9414d0995405e078be7824fe7258b89e6db6fe8b07ef4f2ec02b91da337bd1d653374c718f6617aa4414ac6548e63aeee0c66&amp;visualizacao=1&amp;id_orgao_acesso_externo=0" xr:uid="{6FC038AD-2D31-FD43-AB00-749DDE76B733}"/>
-    <hyperlink ref="C13" r:id="rId10" display="https://sei.capes.gov.br/sei/controlador_externo.php?acao=documento_conferir&amp;codigo_verificador=1604656&amp;codigo_crc=3876C0B0&amp;hash_download=17f26cc19c93d5cc93be2d0f7491d9c7523c30e3d7bae0d0961cbb5add014aa3d640ee0f2797947fe37116df2d11ed1264bade2249d647e09080fae8594b7e97&amp;visualizacao=1&amp;id_orgao_acesso_externo=0" xr:uid="{BE20119B-2DC3-604F-858B-F8B3B465C6A5}"/>
+    <hyperlink ref="C16" r:id="rId8" display="https://sei.capes.gov.br/sei/controlador_externo.php?acao=documento_conferir&amp;codigo_verificador=1122002&amp;codigo_crc=289939CB&amp;hash_download=449b3b0fc962c24d73fdabf1d13929e9016def4302529547c91b7327cb18bab31821b9633c211abb41d021eafd5081cf129ba2af16cb5d49fbade44f102740d4&amp;visualizacao=1&amp;id_orgao_acesso_externo=0" xr:uid="{93A5AC1D-1ECD-D542-B23E-B63CEFC59AA1}"/>
+    <hyperlink ref="C21" r:id="rId9" display="https://sei.capes.gov.br/sei/controlador_externo.php?acao=documento_conferir&amp;codigo_verificador=0339325&amp;codigo_crc=499CC556&amp;hash_download=877c0950a7536647184dd1e3a1c9414d0995405e078be7824fe7258b89e6db6fe8b07ef4f2ec02b91da337bd1d653374c718f6617aa4414ac6548e63aeee0c66&amp;visualizacao=1&amp;id_orgao_acesso_externo=0" xr:uid="{6FC038AD-2D31-FD43-AB00-749DDE76B733}"/>
+    <hyperlink ref="C14" r:id="rId10" display="https://sei.capes.gov.br/sei/controlador_externo.php?acao=documento_conferir&amp;codigo_verificador=1604656&amp;codigo_crc=3876C0B0&amp;hash_download=17f26cc19c93d5cc93be2d0f7491d9c7523c30e3d7bae0d0961cbb5add014aa3d640ee0f2797947fe37116df2d11ed1264bade2249d647e09080fae8594b7e97&amp;visualizacao=1&amp;id_orgao_acesso_externo=0" xr:uid="{BE20119B-2DC3-604F-858B-F8B3B465C6A5}"/>
     <hyperlink ref="C8" r:id="rId11" xr:uid="{8A1ADAC6-9AA9-F74E-81A5-558BD0B6AE8E}"/>
     <hyperlink ref="C6" r:id="rId12" xr:uid="{7DEE1662-6085-6048-A1C7-DF7B04B5FADD}"/>
     <hyperlink ref="C7" r:id="rId13" xr:uid="{7F5C11A0-076A-634E-8B00-FC1902655798}"/>
     <hyperlink ref="C9" r:id="rId14" xr:uid="{6944FE21-1C9C-B94D-81F5-1BE2E1F176FE}"/>
-    <hyperlink ref="C16" r:id="rId15" xr:uid="{D55FC383-6BB1-2A40-A0A7-C3C5ABD4E3D4}"/>
-    <hyperlink ref="C12" r:id="rId16" xr:uid="{EDE1F38C-D6D5-904B-81E7-5C17BD574614}"/>
-    <hyperlink ref="C19" r:id="rId17" xr:uid="{2924B1AE-6C7A-AF49-8876-BA5D606E8B92}"/>
+    <hyperlink ref="C17" r:id="rId15" xr:uid="{D55FC383-6BB1-2A40-A0A7-C3C5ABD4E3D4}"/>
+    <hyperlink ref="C13" r:id="rId16" xr:uid="{EDE1F38C-D6D5-904B-81E7-5C17BD574614}"/>
+    <hyperlink ref="C20" r:id="rId17" xr:uid="{2924B1AE-6C7A-AF49-8876-BA5D606E8B92}"/>
     <hyperlink ref="C22" r:id="rId18" xr:uid="{6A018B38-6AC6-7541-A415-8E16D447DB38}"/>
-    <hyperlink ref="C21" r:id="rId19" xr:uid="{18EE8016-E6DE-D648-ACA7-63DD117F2DA2}"/>
+    <hyperlink ref="C12" r:id="rId19" xr:uid="{18EE8016-E6DE-D648-ACA7-63DD117F2DA2}"/>
     <hyperlink ref="C5" r:id="rId20" xr:uid="{56994366-5984-1C40-BBD4-436A7D3ECDA2}"/>
     <hyperlink ref="C4" r:id="rId21" location="anchor" xr:uid="{71838580-F419-0849-815A-7C00172C9307}"/>
     <hyperlink ref="C3" r:id="rId22" xr:uid="{A5501423-474A-654A-8AB7-E3C85724D7CD}"/>
@@ -1752,66 +1805,66 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:3" s="25" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="26" t="s">
+    <row r="2" spans="1:3" s="24" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="25" t="s">
         <v>85</v>
       </c>
-      <c r="B2" s="25" t="s">
+      <c r="B2" s="24" t="s">
         <v>87</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="3" spans="1:3" s="25" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="26" t="s">
+    <row r="3" spans="1:3" s="24" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="25" t="s">
         <v>81</v>
       </c>
-      <c r="B3" s="25" t="s">
+      <c r="B3" s="24" t="s">
         <v>82</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="4" spans="1:3" s="25" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="26" t="s">
+    <row r="4" spans="1:3" s="24" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="25" t="s">
         <v>79</v>
       </c>
-      <c r="B4" s="25" t="s">
+      <c r="B4" s="24" t="s">
         <v>83</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="5" spans="1:3" s="25" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="26" t="s">
+    <row r="5" spans="1:3" s="24" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="25" t="s">
         <v>77</v>
       </c>
-      <c r="B5" s="25" t="s">
+      <c r="B5" s="24" t="s">
         <v>84</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="6" spans="1:3" s="25" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="26" t="s">
+    <row r="6" spans="1:3" s="24" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="25" t="s">
         <v>75</v>
       </c>
-      <c r="B6" s="25" t="s">
+      <c r="B6" s="24" t="s">
         <v>74</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="7" spans="1:3" s="25" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="26" t="s">
+    <row r="7" spans="1:3" s="24" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="25" t="s">
         <v>72</v>
       </c>
-      <c r="B7" s="25" t="s">
+      <c r="B7" s="24" t="s">
         <v>71</v>
       </c>
       <c r="C7" s="2" t="s">
@@ -1856,33 +1909,33 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:3" s="25" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="47" t="s">
+    <row r="2" spans="1:3" s="24" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="43" t="s">
         <v>126</v>
       </c>
-      <c r="B2" s="48" t="s">
+      <c r="B2" s="44" t="s">
         <v>124</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="3" spans="1:3" s="25" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="47" t="s">
+    <row r="3" spans="1:3" s="24" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="43" t="s">
         <v>122</v>
       </c>
-      <c r="B3" s="48" t="s">
+      <c r="B3" s="44" t="s">
         <v>124</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="4" spans="1:3" s="25" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="28" t="s">
+    <row r="4" spans="1:3" s="24" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="27" t="s">
         <v>89</v>
       </c>
-      <c r="B4" s="27" t="s">
+      <c r="B4" s="26" t="s">
         <v>88</v>
       </c>
       <c r="C4" s="2" t="s">

--- a/docs/PPG/Bolsas.xlsx
+++ b/docs/PPG/Bolsas.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/asferreira/Google Drive (arthur_sf@icloud.com)/Observatorios/ObservatorioUNISUAM-CR/PPG/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/arthurferreira/Google Drive - arthur_sf/Observatorios/ObservatorioUNISUAM-CR/PPG/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{215CA8F1-E842-E740-8C5A-A0CA4A434C7F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6D29121E-34B9-A34C-8F71-550E694F20FD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="900" yWindow="500" windowWidth="27900" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="940" yWindow="680" windowWidth="27900" windowHeight="17500" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="UNISUAM" sheetId="9" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="176" uniqueCount="146">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="188" uniqueCount="158">
   <si>
     <t>Portaria nº 123 de 01 de agosto de 2013</t>
   </si>
@@ -476,15 +476,58 @@
   </si>
   <si>
     <t>https://drive.google.com/file/d/1vp2GxEc9guSuGIlMivgjm6atybaYh4iC</t>
+  </si>
+  <si>
+    <t>https://www.gov.br/capes/pt-br/centrais-de-conteudo/editais/08102024_Edital_2474014_SEI_2472849_Edital_26_2024.pdf</t>
+  </si>
+  <si>
+    <t>08/10/2024</t>
+  </si>
+  <si>
+    <t>Edital nº 26/2024 - Programa Institucional de Doutorado Sanduíche no Exterior (PDSE)</t>
+  </si>
+  <si>
+    <t>29/04/2025</t>
+  </si>
+  <si>
+    <t>Lista de inscrições homologadas do Edital nº 26/2024 - PDSE</t>
+  </si>
+  <si>
+    <t>https://www.gov.br/capes/pt-br/centrais-de-conteudo/resultados-dos-editais/29042025_Lista_Listagem_2587896_Lista_de_homologados_PDSE_26_2024.pdf</t>
+  </si>
+  <si>
+    <t>09/07/2025</t>
+  </si>
+  <si>
+    <t>Resultado do Edital nº 26/2024 – Programa CAPES – PDSE</t>
+  </si>
+  <si>
+    <t>https://www.gov.br/capes/pt-br/centrais-de-conteudo/resultados-dos-editais/Edital_2633439_SEI_2632092_Edital_26_2024___Resultado.pdf</t>
+  </si>
+  <si>
+    <t>12/03/2024</t>
+  </si>
+  <si>
+    <t>Portaria nº 77/2024 - Dispõe sobre o Regulamento do Programa Institucional de Doutorado Sanduíche no Exterior - PDSE</t>
+  </si>
+  <si>
+    <t>http://cad.capes.gov.br/ato-administrativo-detalhar?idAtoAdmElastic=14344#anchor</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="26" x14ac:knownFonts="1">
+  <fonts count="27" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -687,166 +730,168 @@
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="66">
+  <cellXfs count="68">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="1"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="2"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="2" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="49" fontId="24" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="2"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="2" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="49" fontId="25" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="49" fontId="21" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="2" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="49" fontId="20" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="2" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="19" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="49" fontId="24" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="25" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
+    <xf numFmtId="49" fontId="18" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="2" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="19" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="49" fontId="17" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="2" applyAlignment="1">
+    <xf numFmtId="49" fontId="22" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="49" fontId="18" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="16" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="21" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="2" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="2" applyFill="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="49" fontId="16" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="49" fontId="15" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="49" fontId="14" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="49" fontId="13" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="14" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="12" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="49" fontId="23" fillId="0" borderId="0" xfId="1" applyNumberFormat="1"/>
-    <xf numFmtId="49" fontId="11" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="13" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="49" fontId="24" fillId="0" borderId="0" xfId="1" applyNumberFormat="1"/>
+    <xf numFmtId="49" fontId="12" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="10" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="49" fontId="24" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="11" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="49" fontId="25" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="8" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="16" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="9" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="11" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="17" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="21" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="12" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="22" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
     <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="top"/>
+      <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Hiperlink" xfId="2" builtinId="8"/>
@@ -1131,7 +1176,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4D2A2F26-1678-FA4E-B9F8-88F4FD843D40}">
   <dimension ref="A1:C7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
@@ -1782,9 +1827,9 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6D8F5BDD-F0FB-BD47-8E46-C8D2F012CFA4}">
-  <dimension ref="A1:C7"/>
+  <dimension ref="A1:C11"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
@@ -1805,80 +1850,128 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:3" s="24" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="25" t="s">
-        <v>85</v>
-      </c>
-      <c r="B2" s="24" t="s">
-        <v>87</v>
+    <row r="2" spans="1:3" s="67" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="66" t="s">
+        <v>152</v>
+      </c>
+      <c r="B2" s="67" t="s">
+        <v>153</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" s="24" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="25" t="s">
-        <v>81</v>
-      </c>
-      <c r="B3" s="24" t="s">
-        <v>82</v>
+        <v>154</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" s="67" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="66" t="s">
+        <v>149</v>
+      </c>
+      <c r="B3" s="67" t="s">
+        <v>150</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" s="24" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="25" t="s">
-        <v>79</v>
-      </c>
-      <c r="B4" s="24" t="s">
-        <v>83</v>
+        <v>151</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" s="67" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="66" t="s">
+        <v>147</v>
+      </c>
+      <c r="B4" s="67" t="s">
+        <v>148</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" s="24" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="25" t="s">
-        <v>77</v>
-      </c>
-      <c r="B5" s="24" t="s">
-        <v>84</v>
+        <v>146</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" s="67" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="66" t="s">
+        <v>155</v>
+      </c>
+      <c r="B5" s="67" t="s">
+        <v>156</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>76</v>
+        <v>157</v>
       </c>
     </row>
     <row r="6" spans="1:3" s="24" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A6" s="25" t="s">
-        <v>75</v>
+        <v>85</v>
       </c>
       <c r="B6" s="24" t="s">
-        <v>74</v>
+        <v>87</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>73</v>
+        <v>86</v>
       </c>
     </row>
     <row r="7" spans="1:3" s="24" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A7" s="25" t="s">
+        <v>81</v>
+      </c>
+      <c r="B7" s="24" t="s">
+        <v>82</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" s="24" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="25" t="s">
+        <v>79</v>
+      </c>
+      <c r="B8" s="24" t="s">
+        <v>83</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" s="24" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="25" t="s">
+        <v>77</v>
+      </c>
+      <c r="B9" s="24" t="s">
+        <v>84</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" s="24" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="25" t="s">
+        <v>75</v>
+      </c>
+      <c r="B10" s="24" t="s">
+        <v>74</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" s="24" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="25" t="s">
         <v>72</v>
       </c>
-      <c r="B7" s="24" t="s">
+      <c r="B11" s="24" t="s">
         <v>71</v>
       </c>
-      <c r="C7" s="2" t="s">
+      <c r="C11" s="2" t="s">
         <v>70</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C7" r:id="rId1" xr:uid="{832A9C72-5BBE-E243-9963-FEB4352C4020}"/>
-    <hyperlink ref="C6" r:id="rId2" location="anchor" xr:uid="{768FA349-B83B-7742-9727-EBEB0C39258B}"/>
-    <hyperlink ref="C5" r:id="rId3" xr:uid="{6DE490B0-BF39-B64A-80B5-368DBA00FEBD}"/>
-    <hyperlink ref="C4" r:id="rId4" xr:uid="{8E0BF29D-7B7D-EA45-99FD-558CFEE266B3}"/>
-    <hyperlink ref="C3" r:id="rId5" xr:uid="{9A25A643-C959-7C4C-8226-61AEDDE91803}"/>
-    <hyperlink ref="C2" r:id="rId6" xr:uid="{A129EB3C-F184-F64E-A3AA-2F7E2CC89AF7}"/>
+    <hyperlink ref="C11" r:id="rId1" xr:uid="{832A9C72-5BBE-E243-9963-FEB4352C4020}"/>
+    <hyperlink ref="C10" r:id="rId2" location="anchor" xr:uid="{768FA349-B83B-7742-9727-EBEB0C39258B}"/>
+    <hyperlink ref="C9" r:id="rId3" xr:uid="{6DE490B0-BF39-B64A-80B5-368DBA00FEBD}"/>
+    <hyperlink ref="C8" r:id="rId4" xr:uid="{8E0BF29D-7B7D-EA45-99FD-558CFEE266B3}"/>
+    <hyperlink ref="C7" r:id="rId5" xr:uid="{9A25A643-C959-7C4C-8226-61AEDDE91803}"/>
+    <hyperlink ref="C6" r:id="rId6" xr:uid="{A129EB3C-F184-F64E-A3AA-2F7E2CC89AF7}"/>
+    <hyperlink ref="C4" r:id="rId7" xr:uid="{EF491418-C1B1-2049-9E12-81A72840023C}"/>
+    <hyperlink ref="C3" r:id="rId8" xr:uid="{49CC7339-F78C-7945-A88A-628FB19DA3F3}"/>
+    <hyperlink ref="C2" r:id="rId9" xr:uid="{F670F3C2-F386-4748-998D-B2863D7E444F}"/>
+    <hyperlink ref="C5" r:id="rId10" location="anchor" xr:uid="{7838239D-4D27-9248-AF06-E018801928FB}"/>
   </hyperlinks>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>

--- a/docs/PPG/Bolsas.xlsx
+++ b/docs/PPG/Bolsas.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10608"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10824"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/arthurferreira/Google Drive - arthur_sf/Observatorios/ObservatorioUNISUAM-CR/PPG/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6D29121E-34B9-A34C-8F71-550E694F20FD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BF6B2816-35AE-2C4B-BD88-69BF24130E6D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="940" yWindow="680" windowWidth="27900" windowHeight="17500" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="940" yWindow="680" windowWidth="27900" windowHeight="17500" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="UNISUAM" sheetId="9" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="188" uniqueCount="158">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="194" uniqueCount="164">
   <si>
     <t>Portaria nº 123 de 01 de agosto de 2013</t>
   </si>
@@ -512,15 +512,40 @@
   </si>
   <si>
     <t>http://cad.capes.gov.br/ato-administrativo-detalhar?idAtoAdmElastic=14344#anchor</t>
+  </si>
+  <si>
+    <t>08/08/2025</t>
+  </si>
+  <si>
+    <t>Portaria 2346/2025 de 8 de agosto de 2025 - Acúmulo de bolsas do CNPq e complementação financeira advinda de outras fontes</t>
+  </si>
+  <si>
+    <t>http://memoria2.cnpq.br/web/guest/view/-/journal_content/56_INSTANCE_0oED/10157/22706767</t>
+  </si>
+  <si>
+    <t>21/08/2025</t>
+  </si>
+  <si>
+    <t>Portaria nº 221, de 19 de Agosto de 2025 - Altera os regulamentos dos Programas Demanda Social - DS, Programa de Suporte às Instituições Comunitárias de Educação Superior - PROSUC, Programa de Suporte às Instituições de Ensino Particulares - PROSUP e Programa de Excelência Acadêmica - PROEX para aumentar o escopo do estágio em docência obrigatório.</t>
+  </si>
+  <si>
+    <t>https://cad.capes.gov.br/ato-administrativo-detalhar?idAtoAdmElastic=18647#anchor</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="27" x14ac:knownFonts="1">
+  <fonts count="28" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -730,168 +755,174 @@
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="68">
+  <cellXfs count="70">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="1"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="2"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="2" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="49" fontId="25" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="2"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="2" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="49" fontId="26" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="49" fontId="22" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="2" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="49" fontId="21" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="2" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="20" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="49" fontId="25" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="26" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
+    <xf numFmtId="49" fontId="19" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="2" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="20" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="49" fontId="18" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="2" applyAlignment="1">
+    <xf numFmtId="49" fontId="23" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="49" fontId="19" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="17" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="22" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="2" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="2" applyFill="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="49" fontId="17" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="49" fontId="16" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="49" fontId="15" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="49" fontId="14" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="15" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="13" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="49" fontId="24" fillId="0" borderId="0" xfId="1" applyNumberFormat="1"/>
-    <xf numFmtId="49" fontId="12" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="14" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="49" fontId="25" fillId="0" borderId="0" xfId="1" applyNumberFormat="1"/>
+    <xf numFmtId="49" fontId="13" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="11" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="49" fontId="25" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="12" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="49" fontId="26" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="8" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="9" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="17" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="10" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="12" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="18" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="22" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="13" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="23" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="49" fontId="8" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
     <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="top"/>
+      <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Hiperlink" xfId="2" builtinId="8"/>
@@ -1278,7 +1309,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E536550B-AD4A-2847-A4EB-402930A7053F}">
-  <dimension ref="A1:C2"/>
+  <dimension ref="A1:C3"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1299,19 +1330,31 @@
       </c>
     </row>
     <row r="2" spans="1:3" ht="34" x14ac:dyDescent="0.2">
-      <c r="A2" s="46" t="s">
+      <c r="A2" s="68" t="s">
+        <v>158</v>
+      </c>
+      <c r="B2" s="69" t="s">
+        <v>159</v>
+      </c>
+      <c r="C2" s="15" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" ht="34" x14ac:dyDescent="0.2">
+      <c r="A3" s="46" t="s">
         <v>131</v>
       </c>
-      <c r="B2" s="45" t="s">
+      <c r="B3" s="45" t="s">
         <v>130</v>
       </c>
-      <c r="C2" s="15" t="s">
+      <c r="C3" s="15" t="s">
         <v>129</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C2" r:id="rId1" xr:uid="{B0CC1335-3A53-A24E-B10E-E2077FE00D94}"/>
+    <hyperlink ref="C3" r:id="rId1" xr:uid="{B0CC1335-3A53-A24E-B10E-E2077FE00D94}"/>
+    <hyperlink ref="C2" r:id="rId2" xr:uid="{0BBDEBFE-C2F2-0945-B69D-9C8BEBDBFBEE}"/>
   </hyperlinks>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>
@@ -1319,9 +1362,9 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E7C5D405-DE71-CA4E-8BE5-C70B78132DAA}">
-  <dimension ref="A1:C15"/>
+  <dimension ref="A1:C16"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
@@ -1343,175 +1386,187 @@
       </c>
     </row>
     <row r="2" spans="1:3" ht="34" x14ac:dyDescent="0.2">
-      <c r="A2" s="13" t="s">
+      <c r="A2" s="68" t="s">
+        <v>161</v>
+      </c>
+      <c r="B2" s="69" t="s">
+        <v>162</v>
+      </c>
+      <c r="C2" s="15" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" ht="34" x14ac:dyDescent="0.2">
+      <c r="A3" s="13" t="s">
         <v>35</v>
       </c>
-      <c r="B2" s="14" t="s">
+      <c r="B3" s="14" t="s">
         <v>33</v>
       </c>
-      <c r="C2" s="15" t="s">
+      <c r="C3" s="15" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="17" x14ac:dyDescent="0.2">
-      <c r="A3" s="16" t="s">
+    <row r="4" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="A4" s="16" t="s">
         <v>30</v>
       </c>
-      <c r="B3" s="17" t="s">
+      <c r="B4" s="17" t="s">
         <v>31</v>
       </c>
-      <c r="C3" s="15" t="s">
+      <c r="C4" s="15" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="51" x14ac:dyDescent="0.2">
-      <c r="A4" s="33" t="s">
+    <row r="5" spans="1:3" ht="51" x14ac:dyDescent="0.2">
+      <c r="A5" s="33" t="s">
         <v>107</v>
       </c>
-      <c r="B4" s="34" t="s">
+      <c r="B5" s="34" t="s">
         <v>108</v>
       </c>
-      <c r="C4" s="15" t="s">
+      <c r="C5" s="15" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="5" spans="1:3" ht="34" x14ac:dyDescent="0.2">
-      <c r="A5" s="18" t="s">
+    <row r="6" spans="1:3" ht="34" x14ac:dyDescent="0.2">
+      <c r="A6" s="18" t="s">
         <v>53</v>
       </c>
-      <c r="B5" s="19" t="s">
+      <c r="B6" s="19" t="s">
         <v>54</v>
       </c>
-      <c r="C5" s="15" t="s">
+      <c r="C6" s="15" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="6" spans="1:3" ht="51" x14ac:dyDescent="0.2">
-      <c r="A6" s="33" t="s">
+    <row r="7" spans="1:3" ht="51" x14ac:dyDescent="0.2">
+      <c r="A7" s="33" t="s">
         <v>105</v>
       </c>
-      <c r="B6" s="34" t="s">
+      <c r="B7" s="34" t="s">
         <v>106</v>
       </c>
-      <c r="C6" s="23" t="s">
+      <c r="C7" s="23" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="7" spans="1:3" ht="51" x14ac:dyDescent="0.2">
-      <c r="A7" s="18" t="s">
+    <row r="8" spans="1:3" ht="51" x14ac:dyDescent="0.2">
+      <c r="A8" s="18" t="s">
         <v>43</v>
       </c>
-      <c r="B7" s="19" t="s">
+      <c r="B8" s="19" t="s">
         <v>44</v>
       </c>
-      <c r="C7" s="15" t="s">
+      <c r="C8" s="15" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="8" spans="1:3" ht="17" x14ac:dyDescent="0.2">
-      <c r="A8" s="18" t="s">
+    <row r="9" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="A9" s="18" t="s">
         <v>40</v>
       </c>
-      <c r="B8" s="19" t="s">
+      <c r="B9" s="19" t="s">
         <v>38</v>
       </c>
-      <c r="C8" s="15" t="s">
+      <c r="C9" s="15" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="9" spans="1:3" ht="51" x14ac:dyDescent="0.2">
-      <c r="A9" s="18" t="s">
+    <row r="10" spans="1:3" ht="51" x14ac:dyDescent="0.2">
+      <c r="A10" s="18" t="s">
         <v>41</v>
       </c>
-      <c r="B9" s="19" t="s">
+      <c r="B10" s="19" t="s">
         <v>42</v>
       </c>
-      <c r="C9" s="23" t="s">
+      <c r="C10" s="23" t="s">
         <v>46</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" s="21" customFormat="1" ht="17" x14ac:dyDescent="0.2">
-      <c r="A10" s="20" t="s">
-        <v>19</v>
-      </c>
-      <c r="B10" s="19" t="s">
-        <v>36</v>
-      </c>
-      <c r="C10" s="15" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="11" spans="1:3" s="21" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="A11" s="20" t="s">
+        <v>19</v>
+      </c>
+      <c r="B11" s="19" t="s">
+        <v>36</v>
+      </c>
+      <c r="C11" s="15" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" s="21" customFormat="1" ht="17" x14ac:dyDescent="0.2">
+      <c r="A12" s="20" t="s">
         <v>20</v>
       </c>
-      <c r="B11" s="19" t="s">
+      <c r="B12" s="19" t="s">
         <v>37</v>
       </c>
-      <c r="C11" s="15" t="s">
+      <c r="C12" s="15" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="12" spans="1:3" s="21" customFormat="1" ht="17" x14ac:dyDescent="0.2">
-      <c r="A12" s="28" t="s">
+    <row r="13" spans="1:3" s="21" customFormat="1" ht="17" x14ac:dyDescent="0.2">
+      <c r="A13" s="28" t="s">
         <v>91</v>
       </c>
-      <c r="B12" s="29" t="s">
+      <c r="B13" s="29" t="s">
         <v>92</v>
       </c>
-      <c r="C12" s="23" t="s">
+      <c r="C13" s="23" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="13" spans="1:3" s="21" customFormat="1" ht="17" x14ac:dyDescent="0.2">
-      <c r="A13" s="18" t="s">
+    <row r="14" spans="1:3" s="21" customFormat="1" ht="17" x14ac:dyDescent="0.2">
+      <c r="A14" s="18" t="s">
         <v>67</v>
       </c>
-      <c r="B13" s="19" t="s">
+      <c r="B14" s="19" t="s">
         <v>68</v>
       </c>
-      <c r="C13" s="15" t="s">
+      <c r="C14" s="15" t="s">
         <v>69</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" ht="16" x14ac:dyDescent="0.2">
-      <c r="A14" s="18" t="s">
-        <v>51</v>
-      </c>
-      <c r="B14" s="22" t="s">
-        <v>47</v>
-      </c>
-      <c r="C14" s="15" t="s">
-        <v>48</v>
       </c>
     </row>
     <row r="15" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A15" s="18" t="s">
+        <v>51</v>
+      </c>
+      <c r="B15" s="22" t="s">
+        <v>47</v>
+      </c>
+      <c r="C15" s="15" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+      <c r="A16" s="18" t="s">
         <v>52</v>
       </c>
-      <c r="B15" s="22" t="s">
+      <c r="B16" s="22" t="s">
         <v>49</v>
       </c>
-      <c r="C15" s="15" t="s">
+      <c r="C16" s="15" t="s">
         <v>50</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C3" r:id="rId1" location="anchor" xr:uid="{2E28350F-A3DF-DA40-803E-CF5D7F864079}"/>
-    <hyperlink ref="C11" r:id="rId2" location="anchor" xr:uid="{240A96BB-1DF3-E343-8EF1-24BF4D3B93A4}"/>
-    <hyperlink ref="C10" r:id="rId3" xr:uid="{CD343F73-7CC0-204F-A7E3-9D1A6ABD70C6}"/>
-    <hyperlink ref="C2" r:id="rId4" xr:uid="{8F29D6B3-1D4E-454B-83C6-E0285993D5FA}"/>
-    <hyperlink ref="C8" r:id="rId5" xr:uid="{825A7385-974C-124B-B31F-A5BB8BDC141D}"/>
-    <hyperlink ref="C7" r:id="rId6" location="anchor" xr:uid="{C4E5EFDC-D85E-3842-9B0A-ADA3761C0EF6}"/>
-    <hyperlink ref="C9" r:id="rId7" location="anchor" xr:uid="{C05188F7-1396-6740-AA44-E550C6CEC7DD}"/>
-    <hyperlink ref="C14" r:id="rId8" location="anchor" xr:uid="{62FE8A21-52DE-424B-8F91-206F06A595AC}"/>
-    <hyperlink ref="C15" r:id="rId9" location="anchor" xr:uid="{BC5DAD18-94BD-B448-99DC-DFCCEAC0E5D3}"/>
-    <hyperlink ref="C5" r:id="rId10" location="anchor" xr:uid="{E599B2BC-273A-7B4D-A065-283DA2B6C531}"/>
-    <hyperlink ref="C13" r:id="rId11" xr:uid="{3484443A-C41A-E549-917D-F06152C9C7E3}"/>
-    <hyperlink ref="C12" r:id="rId12" xr:uid="{A2BB4E65-1354-5442-AB9B-6796590ACA55}"/>
-    <hyperlink ref="C4" r:id="rId13" xr:uid="{A8506ACF-E6B2-5443-BC15-D9090D5BF09A}"/>
-    <hyperlink ref="C6" r:id="rId14" xr:uid="{9A443153-C704-0548-938C-9F12192C1493}"/>
+    <hyperlink ref="C4" r:id="rId1" location="anchor" xr:uid="{2E28350F-A3DF-DA40-803E-CF5D7F864079}"/>
+    <hyperlink ref="C12" r:id="rId2" location="anchor" xr:uid="{240A96BB-1DF3-E343-8EF1-24BF4D3B93A4}"/>
+    <hyperlink ref="C11" r:id="rId3" xr:uid="{CD343F73-7CC0-204F-A7E3-9D1A6ABD70C6}"/>
+    <hyperlink ref="C3" r:id="rId4" xr:uid="{8F29D6B3-1D4E-454B-83C6-E0285993D5FA}"/>
+    <hyperlink ref="C9" r:id="rId5" xr:uid="{825A7385-974C-124B-B31F-A5BB8BDC141D}"/>
+    <hyperlink ref="C8" r:id="rId6" location="anchor" xr:uid="{C4E5EFDC-D85E-3842-9B0A-ADA3761C0EF6}"/>
+    <hyperlink ref="C10" r:id="rId7" location="anchor" xr:uid="{C05188F7-1396-6740-AA44-E550C6CEC7DD}"/>
+    <hyperlink ref="C15" r:id="rId8" location="anchor" xr:uid="{62FE8A21-52DE-424B-8F91-206F06A595AC}"/>
+    <hyperlink ref="C16" r:id="rId9" location="anchor" xr:uid="{BC5DAD18-94BD-B448-99DC-DFCCEAC0E5D3}"/>
+    <hyperlink ref="C6" r:id="rId10" location="anchor" xr:uid="{E599B2BC-273A-7B4D-A065-283DA2B6C531}"/>
+    <hyperlink ref="C14" r:id="rId11" xr:uid="{3484443A-C41A-E549-917D-F06152C9C7E3}"/>
+    <hyperlink ref="C13" r:id="rId12" xr:uid="{A2BB4E65-1354-5442-AB9B-6796590ACA55}"/>
+    <hyperlink ref="C5" r:id="rId13" xr:uid="{A8506ACF-E6B2-5443-BC15-D9090D5BF09A}"/>
+    <hyperlink ref="C7" r:id="rId14" xr:uid="{9A443153-C704-0548-938C-9F12192C1493}"/>
+    <hyperlink ref="C2" r:id="rId15" location="anchor" xr:uid="{73236D6F-C94E-D54E-979F-856754396D1E}"/>
   </hyperlinks>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>
@@ -1829,7 +1884,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6D8F5BDD-F0FB-BD47-8E46-C8D2F012CFA4}">
   <dimension ref="A1:C11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>

--- a/docs/PPG/Bolsas.xlsx
+++ b/docs/PPG/Bolsas.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10824"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="11214"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/arthurferreira/Google Drive - arthur_sf/Observatorios/ObservatorioUNISUAM-CR/PPG/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BF6B2816-35AE-2C4B-BD88-69BF24130E6D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BCC23E83-51DC-4F49-B5B2-D49469A8D3A9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="940" yWindow="680" windowWidth="27900" windowHeight="17500" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="940" yWindow="680" windowWidth="27900" windowHeight="17500" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="UNISUAM" sheetId="9" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="194" uniqueCount="164">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="197" uniqueCount="167">
   <si>
     <t>Portaria nº 123 de 01 de agosto de 2013</t>
   </si>
@@ -530,15 +530,31 @@
   </si>
   <si>
     <t>https://cad.capes.gov.br/ato-administrativo-detalhar?idAtoAdmElastic=18647#anchor</t>
+  </si>
+  <si>
+    <t>18/12/2025</t>
+  </si>
+  <si>
+    <t>Ofício Circular nº 4/2025-CGFIP/DPB/CAPES - Calendário de abertura do SCBA em 2026 — DS, Proex, Prosuc, Prosup, PNPD e PIPD.</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/18m4GF-YvIDSDn1OnxZom1EE99pKBGw6N</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="28" x14ac:knownFonts="1">
+  <fonts count="29" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -755,170 +771,179 @@
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="70">
+  <cellXfs count="73">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="1"/>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="2"/>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="2" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="49" fontId="26" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="2"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="2" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="49" fontId="27" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="49" fontId="23" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="2" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="49" fontId="22" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="2" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="21" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="49" fontId="26" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="27" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
+    <xf numFmtId="49" fontId="20" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="2" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="21" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="49" fontId="19" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="2" applyAlignment="1">
+    <xf numFmtId="49" fontId="24" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="49" fontId="20" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="18" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="2" applyFill="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="23" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="2" applyFill="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="49" fontId="18" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="49" fontId="17" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="49" fontId="16" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="49" fontId="15" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="16" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="14" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="49" fontId="25" fillId="0" borderId="0" xfId="1" applyNumberFormat="1"/>
-    <xf numFmtId="49" fontId="13" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="15" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="49" fontId="26" fillId="0" borderId="0" xfId="1" applyNumberFormat="1"/>
+    <xf numFmtId="49" fontId="14" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="12" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="49" fontId="26" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="9" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="13" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="49" fontId="27" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="10" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="18" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="13" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="23" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="8" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="49" fontId="11" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="19" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="14" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="24" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="9" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
@@ -1364,7 +1389,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E7C5D405-DE71-CA4E-8BE5-C70B78132DAA}">
   <dimension ref="A1:C16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
@@ -1574,13 +1599,13 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BE69CE70-DFA3-5E49-A523-CFA0DDA93B5C}">
-  <dimension ref="A1:C24"/>
+  <dimension ref="A1:C25"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScale="93" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="10.83203125" style="37" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.83203125" style="37" customWidth="1"/>
     <col min="2" max="2" width="137.6640625" style="63" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="77.5" style="21" bestFit="1" customWidth="1"/>
     <col min="4" max="16384" width="10.83203125" style="37"/>
@@ -1597,191 +1622,191 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:3" s="51" customFormat="1" ht="34" x14ac:dyDescent="0.2">
-      <c r="A2" s="50" t="s">
-        <v>139</v>
-      </c>
-      <c r="B2" s="55" t="s">
-        <v>141</v>
+    <row r="2" spans="1:3" s="72" customFormat="1" ht="17" x14ac:dyDescent="0.2">
+      <c r="A2" s="70" t="s">
+        <v>164</v>
+      </c>
+      <c r="B2" s="71" t="s">
+        <v>165</v>
       </c>
       <c r="C2" s="15" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" s="51" customFormat="1" ht="17" x14ac:dyDescent="0.2">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" s="51" customFormat="1" ht="34" x14ac:dyDescent="0.2">
       <c r="A3" s="50" t="s">
         <v>139</v>
       </c>
       <c r="B3" s="55" t="s">
+        <v>141</v>
+      </c>
+      <c r="C3" s="15" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" s="51" customFormat="1" ht="17" x14ac:dyDescent="0.2">
+      <c r="A4" s="50" t="s">
+        <v>139</v>
+      </c>
+      <c r="B4" s="55" t="s">
         <v>138</v>
       </c>
-      <c r="C3" s="15" t="s">
+      <c r="C4" s="15" t="s">
         <v>140</v>
       </c>
     </row>
-    <row r="4" spans="1:3" s="49" customFormat="1" ht="68" x14ac:dyDescent="0.2">
-      <c r="A4" s="48" t="s">
+    <row r="5" spans="1:3" s="49" customFormat="1" ht="68" x14ac:dyDescent="0.2">
+      <c r="A5" s="48" t="s">
         <v>135</v>
       </c>
-      <c r="B4" s="56" t="s">
+      <c r="B5" s="56" t="s">
         <v>136</v>
       </c>
-      <c r="C4" s="15" t="s">
+      <c r="C5" s="15" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="5" spans="1:3" ht="17" x14ac:dyDescent="0.2">
-      <c r="A5" s="47" t="s">
+    <row r="6" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="A6" s="47" t="s">
         <v>133</v>
       </c>
-      <c r="B5" s="57" t="s">
+      <c r="B6" s="57" t="s">
         <v>132</v>
       </c>
-      <c r="C5" s="23" t="s">
+      <c r="C6" s="23" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="6" spans="1:3" ht="17" x14ac:dyDescent="0.2">
-      <c r="A6" s="38" t="s">
-        <v>118</v>
-      </c>
-      <c r="B6" s="58" t="s">
-        <v>117</v>
-      </c>
-      <c r="C6" s="23" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" ht="68" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A7" s="38" t="s">
         <v>118</v>
       </c>
       <c r="B7" s="58" t="s">
+        <v>117</v>
+      </c>
+      <c r="C7" s="23" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" ht="68" x14ac:dyDescent="0.2">
+      <c r="A8" s="38" t="s">
+        <v>118</v>
+      </c>
+      <c r="B8" s="58" t="s">
         <v>120</v>
       </c>
-      <c r="C7" s="23" t="s">
+      <c r="C8" s="23" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="8" spans="1:3" ht="17" x14ac:dyDescent="0.2">
-      <c r="A8" s="39" t="s">
+    <row r="9" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="A9" s="39" t="s">
         <v>116</v>
       </c>
-      <c r="B8" s="59" t="s">
+      <c r="B9" s="59" t="s">
         <v>114</v>
       </c>
-      <c r="C8" s="23" t="s">
+      <c r="C9" s="23" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="9" spans="1:3" customFormat="1" ht="17" x14ac:dyDescent="0.2">
-      <c r="A9" s="6" t="s">
+    <row r="10" spans="1:3" customFormat="1" ht="17" x14ac:dyDescent="0.2">
+      <c r="A10" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="B9" s="64" t="s">
+      <c r="B10" s="64" t="s">
         <v>22</v>
       </c>
-      <c r="C9" s="7" t="s">
+      <c r="C10" s="7" t="s">
         <v>23</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" ht="17" x14ac:dyDescent="0.2">
-      <c r="A10" s="40" t="s">
-        <v>59</v>
-      </c>
-      <c r="B10" s="60" t="s">
-        <v>64</v>
-      </c>
-      <c r="C10" s="15" t="s">
-        <v>60</v>
       </c>
     </row>
     <row r="11" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A11" s="40" t="s">
+        <v>59</v>
+      </c>
+      <c r="B11" s="60" t="s">
+        <v>64</v>
+      </c>
+      <c r="C11" s="15" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="A12" s="40" t="s">
         <v>56</v>
       </c>
-      <c r="B11" s="60" t="s">
+      <c r="B12" s="60" t="s">
         <v>63</v>
       </c>
-      <c r="C11" s="15" t="s">
+      <c r="C12" s="15" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="12" spans="1:3" s="24" customFormat="1" ht="17" x14ac:dyDescent="0.2">
-      <c r="A12" s="43" t="s">
+    <row r="13" spans="1:3" s="24" customFormat="1" ht="17" x14ac:dyDescent="0.2">
+      <c r="A13" s="43" t="s">
         <v>26</v>
       </c>
-      <c r="B12" s="65" t="s">
+      <c r="B13" s="65" t="s">
         <v>124</v>
       </c>
-      <c r="C12" s="2" t="s">
+      <c r="C13" s="2" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="13" spans="1:3" customFormat="1" ht="17" x14ac:dyDescent="0.2">
-      <c r="A13" s="6" t="s">
+    <row r="14" spans="1:3" customFormat="1" ht="17" x14ac:dyDescent="0.2">
+      <c r="A14" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="B13" s="64" t="s">
+      <c r="B14" s="64" t="s">
         <v>22</v>
       </c>
-      <c r="C13" s="7" t="s">
+      <c r="C14" s="7" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="14" spans="1:3" ht="17" x14ac:dyDescent="0.2">
-      <c r="A14" s="41" t="s">
+    <row r="15" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="A15" s="41" t="s">
         <v>102</v>
       </c>
-      <c r="B14" s="61" t="s">
+      <c r="B15" s="61" t="s">
         <v>103</v>
       </c>
-      <c r="C14" s="15" t="s">
+      <c r="C15" s="15" t="s">
         <v>104</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" ht="17" x14ac:dyDescent="0.2">
-      <c r="A15" s="40" t="s">
-        <v>58</v>
-      </c>
-      <c r="B15" s="60" t="s">
-        <v>62</v>
-      </c>
-      <c r="C15" s="15" t="s">
-        <v>57</v>
       </c>
     </row>
     <row r="16" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A16" s="40" t="s">
+        <v>58</v>
+      </c>
+      <c r="B16" s="60" t="s">
+        <v>62</v>
+      </c>
+      <c r="C16" s="15" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="A17" s="40" t="s">
         <v>66</v>
       </c>
-      <c r="B16" s="60" t="s">
+      <c r="B17" s="60" t="s">
         <v>65</v>
       </c>
-      <c r="C16" s="15" t="s">
+      <c r="C17" s="15" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="17" spans="1:3" customFormat="1" ht="17" x14ac:dyDescent="0.2">
-      <c r="A17" s="6" t="s">
+    <row r="18" spans="1:3" customFormat="1" ht="17" x14ac:dyDescent="0.2">
+      <c r="A18" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="B17" s="64" t="s">
+      <c r="B18" s="64" t="s">
         <v>22</v>
       </c>
-      <c r="C17" s="7" t="s">
+      <c r="C18" s="7" t="s">
         <v>24</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" ht="17" x14ac:dyDescent="0.2">
-      <c r="A18" s="42" t="s">
-        <v>18</v>
-      </c>
-      <c r="B18" s="62" t="s">
-        <v>11</v>
-      </c>
-      <c r="C18" s="15" t="s">
-        <v>10</v>
       </c>
     </row>
     <row r="19" spans="1:3" ht="17" x14ac:dyDescent="0.2">
@@ -1789,92 +1814,104 @@
         <v>18</v>
       </c>
       <c r="B19" s="62" t="s">
+        <v>11</v>
+      </c>
+      <c r="C19" s="15" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="A20" s="42" t="s">
+        <v>18</v>
+      </c>
+      <c r="B20" s="62" t="s">
         <v>12</v>
       </c>
-      <c r="C19" s="15" t="s">
+      <c r="C20" s="15" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="20" spans="1:3" customFormat="1" ht="17" x14ac:dyDescent="0.2">
-      <c r="A20" s="8" t="s">
+    <row r="21" spans="1:3" customFormat="1" ht="17" x14ac:dyDescent="0.2">
+      <c r="A21" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="B20" s="64" t="s">
+      <c r="B21" s="64" t="s">
         <v>22</v>
       </c>
-      <c r="C20" s="2" t="s">
+      <c r="C21" s="2" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="21" spans="1:3" ht="17" x14ac:dyDescent="0.2">
-      <c r="A21" s="41" t="s">
+    <row r="22" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="A22" s="41" t="s">
         <v>100</v>
       </c>
-      <c r="B21" s="61" t="s">
+      <c r="B22" s="61" t="s">
         <v>101</v>
       </c>
-      <c r="C21" s="15" t="s">
+      <c r="C22" s="15" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="22" spans="1:3" s="24" customFormat="1" ht="17" x14ac:dyDescent="0.2">
-      <c r="A22" s="43" t="s">
+    <row r="23" spans="1:3" s="24" customFormat="1" ht="17" x14ac:dyDescent="0.2">
+      <c r="A23" s="43" t="s">
         <v>122</v>
       </c>
-      <c r="B22" s="65" t="s">
+      <c r="B23" s="65" t="s">
         <v>124</v>
       </c>
-      <c r="C22" s="2" t="s">
+      <c r="C23" s="2" t="s">
         <v>125</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" ht="17" x14ac:dyDescent="0.2">
-      <c r="A23" s="42" t="s">
-        <v>20</v>
-      </c>
-      <c r="B23" s="58" t="s">
-        <v>37</v>
-      </c>
-      <c r="C23" s="15" t="s">
-        <v>14</v>
       </c>
     </row>
     <row r="24" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A24" s="42" t="s">
         <v>20</v>
       </c>
-      <c r="B24" s="62" t="s">
+      <c r="B24" s="58" t="s">
+        <v>37</v>
+      </c>
+      <c r="C24" s="15" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="A25" s="42" t="s">
+        <v>20</v>
+      </c>
+      <c r="B25" s="62" t="s">
         <v>15</v>
       </c>
-      <c r="C24" s="15" t="s">
+      <c r="C25" s="15" t="s">
         <v>16</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C18" r:id="rId1" xr:uid="{CFDB1A8B-BF62-D246-9D7A-DB8C40CEF4B0}"/>
-    <hyperlink ref="C19" r:id="rId2" xr:uid="{B927918F-7565-E542-B802-C6455BEC1726}"/>
-    <hyperlink ref="C23" r:id="rId3" location="anchor" xr:uid="{C4BED215-1CC6-5946-90A3-16810EF37D52}"/>
-    <hyperlink ref="C24" r:id="rId4" xr:uid="{2392AA86-0182-A541-A1BE-117DBA331788}"/>
-    <hyperlink ref="C11" r:id="rId5" xr:uid="{D0F7BA5B-9F0E-C041-A414-C338681AC4D9}"/>
-    <hyperlink ref="C15" r:id="rId6" xr:uid="{5D6B074E-AF30-E249-83E0-5E3312A3270E}"/>
-    <hyperlink ref="C10" r:id="rId7" xr:uid="{C8363C0D-FEB4-FC4C-85EC-82E5E8CF621A}"/>
-    <hyperlink ref="C16" r:id="rId8" display="https://sei.capes.gov.br/sei/controlador_externo.php?acao=documento_conferir&amp;codigo_verificador=1122002&amp;codigo_crc=289939CB&amp;hash_download=449b3b0fc962c24d73fdabf1d13929e9016def4302529547c91b7327cb18bab31821b9633c211abb41d021eafd5081cf129ba2af16cb5d49fbade44f102740d4&amp;visualizacao=1&amp;id_orgao_acesso_externo=0" xr:uid="{93A5AC1D-1ECD-D542-B23E-B63CEFC59AA1}"/>
-    <hyperlink ref="C21" r:id="rId9" display="https://sei.capes.gov.br/sei/controlador_externo.php?acao=documento_conferir&amp;codigo_verificador=0339325&amp;codigo_crc=499CC556&amp;hash_download=877c0950a7536647184dd1e3a1c9414d0995405e078be7824fe7258b89e6db6fe8b07ef4f2ec02b91da337bd1d653374c718f6617aa4414ac6548e63aeee0c66&amp;visualizacao=1&amp;id_orgao_acesso_externo=0" xr:uid="{6FC038AD-2D31-FD43-AB00-749DDE76B733}"/>
-    <hyperlink ref="C14" r:id="rId10" display="https://sei.capes.gov.br/sei/controlador_externo.php?acao=documento_conferir&amp;codigo_verificador=1604656&amp;codigo_crc=3876C0B0&amp;hash_download=17f26cc19c93d5cc93be2d0f7491d9c7523c30e3d7bae0d0961cbb5add014aa3d640ee0f2797947fe37116df2d11ed1264bade2249d647e09080fae8594b7e97&amp;visualizacao=1&amp;id_orgao_acesso_externo=0" xr:uid="{BE20119B-2DC3-604F-858B-F8B3B465C6A5}"/>
-    <hyperlink ref="C8" r:id="rId11" xr:uid="{8A1ADAC6-9AA9-F74E-81A5-558BD0B6AE8E}"/>
-    <hyperlink ref="C6" r:id="rId12" xr:uid="{7DEE1662-6085-6048-A1C7-DF7B04B5FADD}"/>
-    <hyperlink ref="C7" r:id="rId13" xr:uid="{7F5C11A0-076A-634E-8B00-FC1902655798}"/>
-    <hyperlink ref="C9" r:id="rId14" xr:uid="{6944FE21-1C9C-B94D-81F5-1BE2E1F176FE}"/>
-    <hyperlink ref="C17" r:id="rId15" xr:uid="{D55FC383-6BB1-2A40-A0A7-C3C5ABD4E3D4}"/>
-    <hyperlink ref="C13" r:id="rId16" xr:uid="{EDE1F38C-D6D5-904B-81E7-5C17BD574614}"/>
-    <hyperlink ref="C20" r:id="rId17" xr:uid="{2924B1AE-6C7A-AF49-8876-BA5D606E8B92}"/>
-    <hyperlink ref="C22" r:id="rId18" xr:uid="{6A018B38-6AC6-7541-A415-8E16D447DB38}"/>
-    <hyperlink ref="C12" r:id="rId19" xr:uid="{18EE8016-E6DE-D648-ACA7-63DD117F2DA2}"/>
-    <hyperlink ref="C5" r:id="rId20" xr:uid="{56994366-5984-1C40-BBD4-436A7D3ECDA2}"/>
-    <hyperlink ref="C4" r:id="rId21" location="anchor" xr:uid="{71838580-F419-0849-815A-7C00172C9307}"/>
-    <hyperlink ref="C3" r:id="rId22" xr:uid="{A5501423-474A-654A-8AB7-E3C85724D7CD}"/>
-    <hyperlink ref="C2" r:id="rId23" xr:uid="{2B3EFA27-27D0-354C-84F7-8E92F116C152}"/>
+    <hyperlink ref="C19" r:id="rId1" xr:uid="{CFDB1A8B-BF62-D246-9D7A-DB8C40CEF4B0}"/>
+    <hyperlink ref="C20" r:id="rId2" xr:uid="{B927918F-7565-E542-B802-C6455BEC1726}"/>
+    <hyperlink ref="C24" r:id="rId3" location="anchor" xr:uid="{C4BED215-1CC6-5946-90A3-16810EF37D52}"/>
+    <hyperlink ref="C25" r:id="rId4" xr:uid="{2392AA86-0182-A541-A1BE-117DBA331788}"/>
+    <hyperlink ref="C12" r:id="rId5" xr:uid="{D0F7BA5B-9F0E-C041-A414-C338681AC4D9}"/>
+    <hyperlink ref="C16" r:id="rId6" xr:uid="{5D6B074E-AF30-E249-83E0-5E3312A3270E}"/>
+    <hyperlink ref="C11" r:id="rId7" xr:uid="{C8363C0D-FEB4-FC4C-85EC-82E5E8CF621A}"/>
+    <hyperlink ref="C17" r:id="rId8" display="https://sei.capes.gov.br/sei/controlador_externo.php?acao=documento_conferir&amp;codigo_verificador=1122002&amp;codigo_crc=289939CB&amp;hash_download=449b3b0fc962c24d73fdabf1d13929e9016def4302529547c91b7327cb18bab31821b9633c211abb41d021eafd5081cf129ba2af16cb5d49fbade44f102740d4&amp;visualizacao=1&amp;id_orgao_acesso_externo=0" xr:uid="{93A5AC1D-1ECD-D542-B23E-B63CEFC59AA1}"/>
+    <hyperlink ref="C22" r:id="rId9" display="https://sei.capes.gov.br/sei/controlador_externo.php?acao=documento_conferir&amp;codigo_verificador=0339325&amp;codigo_crc=499CC556&amp;hash_download=877c0950a7536647184dd1e3a1c9414d0995405e078be7824fe7258b89e6db6fe8b07ef4f2ec02b91da337bd1d653374c718f6617aa4414ac6548e63aeee0c66&amp;visualizacao=1&amp;id_orgao_acesso_externo=0" xr:uid="{6FC038AD-2D31-FD43-AB00-749DDE76B733}"/>
+    <hyperlink ref="C15" r:id="rId10" display="https://sei.capes.gov.br/sei/controlador_externo.php?acao=documento_conferir&amp;codigo_verificador=1604656&amp;codigo_crc=3876C0B0&amp;hash_download=17f26cc19c93d5cc93be2d0f7491d9c7523c30e3d7bae0d0961cbb5add014aa3d640ee0f2797947fe37116df2d11ed1264bade2249d647e09080fae8594b7e97&amp;visualizacao=1&amp;id_orgao_acesso_externo=0" xr:uid="{BE20119B-2DC3-604F-858B-F8B3B465C6A5}"/>
+    <hyperlink ref="C9" r:id="rId11" xr:uid="{8A1ADAC6-9AA9-F74E-81A5-558BD0B6AE8E}"/>
+    <hyperlink ref="C7" r:id="rId12" xr:uid="{7DEE1662-6085-6048-A1C7-DF7B04B5FADD}"/>
+    <hyperlink ref="C8" r:id="rId13" xr:uid="{7F5C11A0-076A-634E-8B00-FC1902655798}"/>
+    <hyperlink ref="C10" r:id="rId14" xr:uid="{6944FE21-1C9C-B94D-81F5-1BE2E1F176FE}"/>
+    <hyperlink ref="C18" r:id="rId15" xr:uid="{D55FC383-6BB1-2A40-A0A7-C3C5ABD4E3D4}"/>
+    <hyperlink ref="C14" r:id="rId16" xr:uid="{EDE1F38C-D6D5-904B-81E7-5C17BD574614}"/>
+    <hyperlink ref="C21" r:id="rId17" xr:uid="{2924B1AE-6C7A-AF49-8876-BA5D606E8B92}"/>
+    <hyperlink ref="C23" r:id="rId18" xr:uid="{6A018B38-6AC6-7541-A415-8E16D447DB38}"/>
+    <hyperlink ref="C13" r:id="rId19" xr:uid="{18EE8016-E6DE-D648-ACA7-63DD117F2DA2}"/>
+    <hyperlink ref="C6" r:id="rId20" xr:uid="{56994366-5984-1C40-BBD4-436A7D3ECDA2}"/>
+    <hyperlink ref="C5" r:id="rId21" location="anchor" xr:uid="{71838580-F419-0849-815A-7C00172C9307}"/>
+    <hyperlink ref="C4" r:id="rId22" xr:uid="{A5501423-474A-654A-8AB7-E3C85724D7CD}"/>
+    <hyperlink ref="C3" r:id="rId23" xr:uid="{2B3EFA27-27D0-354C-84F7-8E92F116C152}"/>
+    <hyperlink ref="C2" r:id="rId24" xr:uid="{6E38D56E-44BC-1E42-99C9-C3B7C935130F}"/>
   </hyperlinks>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>
